--- a/output/observations-summary.xlsx
+++ b/output/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="177">
   <si>
     <t>Profile</t>
   </si>
@@ -161,13 +161,7 @@
     <t>CDE Current Age Calculated</t>
   </si>
   <si>
-    <t>LOINC#29553-5</t>
-  </si>
-  <si>
-    <t>dateTimeĵ, Periodĵ, Timingĵ, instantĵ</t>
-  </si>
-  <si>
-    <t>Quantityĵ, CodeableConceptĵ, stringĵ, booleanĵ, integerĵ, Rangeĵ, Ratioĵ, SampledDataĵ, timeĵ, dateTimeĵ, Periodĵ</t>
+    <t>null#29553-5</t>
   </si>
   <si>
     <t>cde-current-age-reported</t>
@@ -176,7 +170,7 @@
     <t>CDE Current Age Reported</t>
   </si>
   <si>
-    <t>LOINC#21612-7</t>
+    <t>null#21612-7</t>
   </si>
   <si>
     <t>cde-date-of-birth</t>
@@ -1046,7 +1040,7 @@
         <v>48</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>14</v>
@@ -1055,13 +1049,13 @@
         <v>49</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>19</v>
@@ -1075,28 +1069,28 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="B12" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D12" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E12" t="s" s="2">
-        <v>54</v>
-      </c>
       <c r="F12" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>19</v>
@@ -1110,28 +1104,28 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="B13" t="s" s="2">
+      <c r="D13" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s" s="2">
         <v>56</v>
-      </c>
-      <c r="C13" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="D13" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E13" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="F13" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="G13" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>58</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>19</v>
@@ -1145,19 +1139,19 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="C14" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="B14" t="s" s="2">
+      <c r="D14" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s" s="2">
         <v>60</v>
-      </c>
-      <c r="C14" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="D14" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E14" t="s" s="2">
-        <v>62</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>16</v>
@@ -1180,19 +1174,19 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="C15" t="s" s="2">
         <v>63</v>
       </c>
-      <c r="B15" t="s" s="2">
+      <c r="D15" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s" s="2">
         <v>64</v>
-      </c>
-      <c r="C15" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="D15" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E15" t="s" s="2">
-        <v>66</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>16</v>
@@ -1215,19 +1209,19 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="C16" t="s" s="2">
         <v>67</v>
       </c>
-      <c r="B16" t="s" s="2">
+      <c r="D16" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s" s="2">
         <v>68</v>
-      </c>
-      <c r="C16" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D16" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E16" t="s" s="2">
-        <v>70</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>16</v>
@@ -1250,19 +1244,19 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D17" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E17" t="s" s="2">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>16</v>
@@ -1285,19 +1279,19 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="C18" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="B18" t="s" s="2">
+      <c r="D18" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s" s="2">
         <v>74</v>
-      </c>
-      <c r="C18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D18" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E18" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>16</v>
@@ -1320,19 +1314,19 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="C19" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="B19" t="s" s="2">
+      <c r="D19" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s" s="2">
         <v>78</v>
-      </c>
-      <c r="C19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D19" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E19" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>16</v>
@@ -1355,19 +1349,19 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="C20" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="B20" t="s" s="2">
+      <c r="D20" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="D20" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E20" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>16</v>
@@ -1390,13 +1384,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="C21" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>14</v>
@@ -1425,19 +1419,19 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="C22" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="B22" t="s" s="2">
+      <c r="D22" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E22" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="C22" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="D22" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E22" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>16</v>
@@ -1460,13 +1454,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="C23" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="C23" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>14</v>
@@ -1495,19 +1489,19 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="C24" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="B24" t="s" s="2">
+      <c r="D24" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E24" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="C24" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="D24" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E24" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>16</v>
@@ -1530,13 +1524,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="C25" t="s" s="2">
         <v>99</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>14</v>
@@ -1565,13 +1559,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="C26" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="C26" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="D26" t="s" s="2">
         <v>14</v>
@@ -1600,13 +1594,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="C27" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="C27" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>14</v>
@@ -1635,13 +1629,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="C28" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="C28" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>14</v>
@@ -1670,13 +1664,13 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="C29" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="C29" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="D29" t="s" s="2">
         <v>14</v>
@@ -1705,13 +1699,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>14</v>
@@ -1740,13 +1734,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="C31" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="D31" t="s" s="2">
         <v>14</v>
@@ -1775,13 +1769,13 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="C32" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="C32" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="D32" t="s" s="2">
         <v>14</v>
@@ -1810,13 +1804,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="C33" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="C33" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>14</v>
@@ -1845,13 +1839,13 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D34" t="s" s="2">
         <v>14</v>
@@ -1880,13 +1874,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="C35" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="C35" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>14</v>
@@ -1915,13 +1909,13 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="C36" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="C36" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="D36" t="s" s="2">
         <v>14</v>
@@ -1950,13 +1944,13 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D37" t="s" s="2">
         <v>14</v>
@@ -1985,13 +1979,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>14</v>
@@ -2020,13 +2014,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="C39" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="C39" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="D39" t="s" s="2">
         <v>14</v>
@@ -2055,13 +2049,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="C40" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="C40" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>14</v>
@@ -2090,13 +2084,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="C41" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="C41" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="D41" t="s" s="2">
         <v>14</v>
@@ -2125,13 +2119,13 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="C42" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="C42" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="D42" t="s" s="2">
         <v>14</v>
@@ -2160,13 +2154,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>14</v>
@@ -2195,13 +2189,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="C44" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="C44" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="D44" t="s" s="2">
         <v>14</v>
@@ -2230,13 +2224,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="C45" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C45" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>14</v>
@@ -2265,13 +2259,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="C46" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="B46" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="C46" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>14</v>
@@ -2300,13 +2294,13 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="C47" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="C47" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="D47" t="s" s="2">
         <v>14</v>
@@ -2335,13 +2329,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="C48" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="B48" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="C48" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>14</v>
@@ -2370,13 +2364,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="C49" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="C49" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="D49" t="s" s="2">
         <v>14</v>
@@ -2405,13 +2399,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="C50" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="B50" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="C50" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>14</v>
@@ -2440,28 +2434,28 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="C51" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D51" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E51" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="B51" t="s" s="2">
+      <c r="F51" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H51" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="C51" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D51" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E51" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="F51" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G51" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>19</v>
@@ -2478,7 +2472,7 @@
         <v>14</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C52" t="s" s="2">
         <v>14</v>
@@ -2487,7 +2481,7 @@
         <v>14</v>
       </c>
       <c r="E52" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>14</v>
@@ -2496,7 +2490,7 @@
         <v>14</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>19</v>
@@ -2513,7 +2507,7 @@
         <v>14</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C53" t="s" s="2">
         <v>14</v>
@@ -2522,7 +2516,7 @@
         <v>14</v>
       </c>
       <c r="E53" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>14</v>
@@ -2531,7 +2525,7 @@
         <v>14</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>19</v>

--- a/output/observations-summary.xlsx
+++ b/output/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="181">
   <si>
     <t>Profile</t>
   </si>
@@ -87,6 +87,18 @@
   </si>
   <si>
     <t>CodeableConcept</t>
+  </si>
+  <si>
+    <t>cde-birth-date</t>
+  </si>
+  <si>
+    <t>CDE birth Date</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#social-history, null#NCIT_C20189, null#NCIT_C41009, null#NCIT_C21514, null#NCIT_C25164, null#NCIT_C68615</t>
+  </si>
+  <si>
+    <t>null#21112-8</t>
   </si>
   <si>
     <t>cde-body-height</t>
@@ -676,7 +688,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:K54"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -900,13 +912,13 @@
         <v>34</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>16</v>
@@ -929,19 +941,19 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="F8" t="s" s="2">
         <v>16</v>
@@ -964,19 +976,19 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>16</v>
@@ -1040,13 +1052,13 @@
         <v>48</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>16</v>
@@ -1069,10 +1081,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>13</v>
@@ -1081,7 +1093,7 @@
         <v>14</v>
       </c>
       <c r="E12" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>16</v>
@@ -1104,19 +1116,19 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E13" t="s" s="2">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>16</v>
@@ -1125,7 +1137,7 @@
         <v>17</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>19</v>
@@ -1151,16 +1163,16 @@
         <v>14</v>
       </c>
       <c r="E14" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H14" t="s" s="2">
         <v>60</v>
-      </c>
-      <c r="F14" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="G14" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>18</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>19</v>
@@ -1250,13 +1262,13 @@
         <v>70</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D17" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E17" t="s" s="2">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>16</v>
@@ -1279,19 +1291,19 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="C18" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="B18" t="s" s="2">
+      <c r="D18" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s" s="2">
         <v>72</v>
-      </c>
-      <c r="C18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D18" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E18" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>16</v>
@@ -1396,7 +1408,7 @@
         <v>14</v>
       </c>
       <c r="E21" t="s" s="2">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>16</v>
@@ -1419,19 +1431,19 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D22" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E22" t="s" s="2">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>16</v>
@@ -1466,7 +1478,7 @@
         <v>14</v>
       </c>
       <c r="E23" t="s" s="2">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>16</v>
@@ -1489,19 +1501,19 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D24" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E24" t="s" s="2">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>16</v>
@@ -1536,7 +1548,7 @@
         <v>14</v>
       </c>
       <c r="E25" t="s" s="2">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>16</v>
@@ -1559,13 +1571,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D26" t="s" s="2">
         <v>14</v>
@@ -1594,13 +1606,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>14</v>
@@ -1629,13 +1641,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>14</v>
@@ -1664,13 +1676,13 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D29" t="s" s="2">
         <v>14</v>
@@ -1699,13 +1711,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>14</v>
@@ -1734,13 +1746,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D31" t="s" s="2">
         <v>14</v>
@@ -1769,13 +1781,13 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D32" t="s" s="2">
         <v>14</v>
@@ -1804,13 +1816,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>14</v>
@@ -1839,13 +1851,13 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="D34" t="s" s="2">
         <v>14</v>
@@ -1874,13 +1886,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>14</v>
@@ -1909,13 +1921,13 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D36" t="s" s="2">
         <v>14</v>
@@ -1944,13 +1956,13 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D37" t="s" s="2">
         <v>14</v>
@@ -1979,13 +1991,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B38" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="C38" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="C38" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>14</v>
@@ -2014,13 +2026,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="D39" t="s" s="2">
         <v>14</v>
@@ -2049,13 +2061,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>14</v>
@@ -2084,13 +2096,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D41" t="s" s="2">
         <v>14</v>
@@ -2119,13 +2131,13 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D42" t="s" s="2">
         <v>14</v>
@@ -2154,13 +2166,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>14</v>
@@ -2189,13 +2201,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>151</v>
+        <v>59</v>
       </c>
       <c r="D44" t="s" s="2">
         <v>14</v>
@@ -2224,13 +2236,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>14</v>
@@ -2259,13 +2271,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>14</v>
@@ -2294,13 +2306,13 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D47" t="s" s="2">
         <v>14</v>
@@ -2329,13 +2341,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>14</v>
@@ -2364,13 +2376,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D49" t="s" s="2">
         <v>14</v>
@@ -2399,13 +2411,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>14</v>
@@ -2434,28 +2446,28 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>14</v>
+        <v>173</v>
       </c>
       <c r="D51" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E51" t="s" s="2">
-        <v>172</v>
+        <v>14</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>17</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>173</v>
+        <v>18</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>19</v>
@@ -2469,10 +2481,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>14</v>
+        <v>174</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C52" t="s" s="2">
         <v>14</v>
@@ -2481,16 +2493,16 @@
         <v>14</v>
       </c>
       <c r="E52" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>19</v>
@@ -2507,7 +2519,7 @@
         <v>14</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C53" t="s" s="2">
         <v>14</v>
@@ -2516,7 +2528,7 @@
         <v>14</v>
       </c>
       <c r="E53" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>14</v>
@@ -2525,15 +2537,50 @@
         <v>14</v>
       </c>
       <c r="H53" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B54" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="I53" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K53" t="s" s="2">
+      <c r="C54" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D54" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E54" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>14</v>
       </c>
     </row>

--- a/output/observations-summary.xlsx
+++ b/output/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="182">
   <si>
     <t>Profile</t>
   </si>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t>null#29553-5</t>
+  </si>
+  <si>
+    <t>dateTimeĵ, Periodĵ, Timingĵ, instantĵ</t>
   </si>
   <si>
     <t>cde-current-age-reported</t>
@@ -1099,7 +1102,7 @@
         <v>16</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>18</v>
@@ -1116,10 +1119,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>13</v>
@@ -1128,7 +1131,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>16</v>
@@ -1151,13 +1154,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>14</v>
@@ -1172,7 +1175,7 @@
         <v>17</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>19</v>
@@ -1186,19 +1189,19 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E15" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>16</v>
@@ -1221,19 +1224,19 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E16" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>16</v>
@@ -1256,19 +1259,19 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D17" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E17" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>16</v>
@@ -1291,19 +1294,19 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D18" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s" s="2">
         <v>73</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="C18" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D18" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E18" t="s" s="2">
-        <v>72</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>16</v>
@@ -1326,19 +1329,19 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>16</v>
@@ -1361,19 +1364,19 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E20" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>16</v>
@@ -1396,19 +1399,19 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E21" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>16</v>
@@ -1431,13 +1434,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D22" t="s" s="2">
         <v>14</v>
@@ -1466,19 +1469,19 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E23" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>16</v>
@@ -1501,13 +1504,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D24" t="s" s="2">
         <v>14</v>
@@ -1536,19 +1539,19 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E25" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>16</v>
@@ -1571,13 +1574,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D26" t="s" s="2">
         <v>14</v>
@@ -1606,13 +1609,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>14</v>
@@ -1641,13 +1644,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>14</v>
@@ -1676,13 +1679,13 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D29" t="s" s="2">
         <v>14</v>
@@ -1711,13 +1714,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>14</v>
@@ -1746,13 +1749,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D31" t="s" s="2">
         <v>14</v>
@@ -1781,13 +1784,13 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D32" t="s" s="2">
         <v>14</v>
@@ -1816,13 +1819,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>14</v>
@@ -1851,13 +1854,13 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D34" t="s" s="2">
         <v>14</v>
@@ -1886,13 +1889,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>14</v>
@@ -1921,13 +1924,13 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D36" t="s" s="2">
         <v>14</v>
@@ -1956,13 +1959,13 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D37" t="s" s="2">
         <v>14</v>
@@ -1991,13 +1994,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="C38" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="C38" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>14</v>
@@ -2026,13 +2029,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D39" t="s" s="2">
         <v>14</v>
@@ -2061,13 +2064,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>14</v>
@@ -2096,13 +2099,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D41" t="s" s="2">
         <v>14</v>
@@ -2131,13 +2134,13 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D42" t="s" s="2">
         <v>14</v>
@@ -2166,13 +2169,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>14</v>
@@ -2201,13 +2204,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D44" t="s" s="2">
         <v>14</v>
@@ -2236,13 +2239,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>14</v>
@@ -2271,13 +2274,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>14</v>
@@ -2306,13 +2309,13 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D47" t="s" s="2">
         <v>14</v>
@@ -2341,13 +2344,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>14</v>
@@ -2376,13 +2379,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D49" t="s" s="2">
         <v>14</v>
@@ -2411,13 +2414,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>14</v>
@@ -2446,13 +2449,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D51" t="s" s="2">
         <v>14</v>
@@ -2481,10 +2484,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C52" t="s" s="2">
         <v>14</v>
@@ -2493,7 +2496,7 @@
         <v>14</v>
       </c>
       <c r="E52" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>14</v>
@@ -2502,7 +2505,7 @@
         <v>17</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>19</v>
@@ -2519,7 +2522,7 @@
         <v>14</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C53" t="s" s="2">
         <v>14</v>
@@ -2528,7 +2531,7 @@
         <v>14</v>
       </c>
       <c r="E53" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>14</v>
@@ -2537,7 +2540,7 @@
         <v>14</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>19</v>
@@ -2554,7 +2557,7 @@
         <v>14</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C54" t="s" s="2">
         <v>14</v>
@@ -2563,16 +2566,16 @@
         <v>14</v>
       </c>
       <c r="E54" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H54" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="F54" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>19</v>

--- a/output/observations-summary.xlsx
+++ b/output/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="184">
   <si>
     <t>Profile</t>
   </si>
@@ -77,22 +77,28 @@
     <t>cde-age-at-diagnosis-of-essential-hypertension</t>
   </si>
   <si>
-    <t>CDE age at diagnosis of essential hypertension</t>
+    <t>CDE Age At Diagnosis Of Essential Hypertension</t>
   </si>
   <si>
     <t>Observation Category Codes#social-history, null#NCIT_C20189, null#NCIT_C171087, null#NCIT_C19332, null#NCIT_C25150, null#NCIT_C156420</t>
   </si>
   <si>
+    <t>CodeableConcept</t>
+  </si>
+  <si>
     <t>LOINC#29308-4</t>
   </si>
   <si>
-    <t>CodeableConcept</t>
+    <t>dateTime</t>
+  </si>
+  <si>
+    <t>SNOMED CT#432213005</t>
   </si>
   <si>
     <t>cde-birth-date</t>
   </si>
   <si>
-    <t>CDE birth Date</t>
+    <t>CDE Birth Date</t>
   </si>
   <si>
     <t>Observation Category Codes#social-history, null#NCIT_C20189, null#NCIT_C41009, null#NCIT_C21514, null#NCIT_C25164, null#NCIT_C68615</t>
@@ -691,7 +697,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K54"/>
+  <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -816,77 +822,77 @@
         <v>14</v>
       </c>
       <c r="E4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="F4" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s" s="2">
+      <c r="I4" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>24</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J4" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K4" t="s" s="2">
-        <v>14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="B5" t="s" s="2">
+      <c r="I5" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>26</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="F5" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="I5" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J5" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K5" t="s" s="2">
-        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="B6" t="s" s="2">
+      <c r="D6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s" s="2">
         <v>30</v>
-      </c>
-      <c r="C6" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="D6" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s" s="2">
-        <v>32</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>16</v>
@@ -909,19 +915,19 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s" s="2">
         <v>33</v>
       </c>
-      <c r="B7" t="s" s="2">
+      <c r="D7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s" s="2">
         <v>34</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s" s="2">
-        <v>36</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>16</v>
@@ -944,19 +950,19 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="B8" t="s" s="2">
+      <c r="D8" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s" s="2">
         <v>38</v>
-      </c>
-      <c r="C8" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="D8" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s" s="2">
-        <v>39</v>
       </c>
       <c r="F8" t="s" s="2">
         <v>16</v>
@@ -979,19 +985,19 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="B9" t="s" s="2">
+      <c r="C9" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s" s="2">
         <v>41</v>
-      </c>
-      <c r="C9" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D9" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s" s="2">
-        <v>32</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>16</v>
@@ -1014,19 +1020,19 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="C10" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="C10" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="D10" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>16</v>
@@ -1049,19 +1055,19 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="B11" t="s" s="2">
+      <c r="D11" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s" s="2">
         <v>48</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="D11" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s" s="2">
-        <v>50</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>16</v>
@@ -1084,25 +1090,25 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="B12" t="s" s="2">
+      <c r="D12" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="C12" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D12" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E12" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="F12" t="s" s="2">
         <v>16</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>18</v>
@@ -1119,10 +1125,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>13</v>
@@ -1131,13 +1137,13 @@
         <v>14</v>
       </c>
       <c r="E13" t="s" s="2">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>16</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>18</v>
@@ -1154,20 +1160,20 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B14" t="s" s="2">
         <v>58</v>
       </c>
-      <c r="B14" t="s" s="2">
+      <c r="C14" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="C14" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="D14" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E14" t="s" s="2">
-        <v>14</v>
-      </c>
       <c r="F14" t="s" s="2">
         <v>16</v>
       </c>
@@ -1175,7 +1181,7 @@
         <v>17</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>19</v>
@@ -1189,28 +1195,28 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="C15" t="s" s="2">
         <v>62</v>
       </c>
-      <c r="B15" t="s" s="2">
+      <c r="D15" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H15" t="s" s="2">
         <v>63</v>
-      </c>
-      <c r="C15" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="D15" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E15" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="F15" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="G15" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>18</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>19</v>
@@ -1224,19 +1230,19 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="C16" t="s" s="2">
         <v>66</v>
       </c>
-      <c r="B16" t="s" s="2">
+      <c r="D16" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s" s="2">
         <v>67</v>
-      </c>
-      <c r="C16" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="D16" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E16" t="s" s="2">
-        <v>69</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>16</v>
@@ -1259,19 +1265,19 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="C17" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="B17" t="s" s="2">
+      <c r="D17" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s" s="2">
         <v>71</v>
-      </c>
-      <c r="C17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D17" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E17" t="s" s="2">
-        <v>73</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>16</v>
@@ -1294,19 +1300,19 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="C18" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="B18" t="s" s="2">
+      <c r="D18" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s" s="2">
         <v>75</v>
-      </c>
-      <c r="C18" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="D18" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E18" t="s" s="2">
-        <v>73</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>16</v>
@@ -1335,13 +1341,13 @@
         <v>77</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E19" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>16</v>
@@ -1364,19 +1370,19 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="C20" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="B20" t="s" s="2">
+      <c r="D20" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="D20" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E20" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>16</v>
@@ -1399,19 +1405,19 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="C21" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="B21" t="s" s="2">
+      <c r="D21" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E21" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="D21" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E21" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>16</v>
@@ -1434,19 +1440,19 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="C22" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="B22" t="s" s="2">
+      <c r="D22" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E22" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="C22" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="D22" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E22" t="s" s="2">
-        <v>46</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>16</v>
@@ -1469,19 +1475,19 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="B23" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="B23" t="s" s="2">
+      <c r="C23" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="C23" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="D23" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E23" t="s" s="2">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>16</v>
@@ -1504,19 +1510,19 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="C24" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="B24" t="s" s="2">
+      <c r="D24" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E24" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="C24" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="D24" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E24" t="s" s="2">
-        <v>46</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>16</v>
@@ -1539,19 +1545,19 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="B25" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="B25" t="s" s="2">
+      <c r="C25" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="C25" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="D25" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E25" t="s" s="2">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>16</v>
@@ -1574,19 +1580,19 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="C26" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="B26" t="s" s="2">
+      <c r="D26" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E26" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="C26" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="D26" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E26" t="s" s="2">
-        <v>14</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>16</v>
@@ -1609,13 +1615,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="B27" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="B27" t="s" s="2">
+      <c r="C27" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="C27" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>14</v>
@@ -1644,13 +1650,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="B28" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="B28" t="s" s="2">
+      <c r="C28" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="C28" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>14</v>
@@ -1679,13 +1685,13 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="B29" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="B29" t="s" s="2">
+      <c r="C29" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="C29" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="D29" t="s" s="2">
         <v>14</v>
@@ -1714,13 +1720,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="B30" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="B30" t="s" s="2">
+      <c r="C30" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="C30" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>14</v>
@@ -1749,10 +1755,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="B31" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="C31" t="s" s="2">
         <v>118</v>
@@ -1787,10 +1793,10 @@
         <v>119</v>
       </c>
       <c r="B32" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="C32" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="C32" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="D32" t="s" s="2">
         <v>14</v>
@@ -1819,13 +1825,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="B33" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="B33" t="s" s="2">
+      <c r="C33" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="C33" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>14</v>
@@ -1854,13 +1860,13 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="B34" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="B34" t="s" s="2">
+      <c r="C34" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="C34" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="D34" t="s" s="2">
         <v>14</v>
@@ -1889,13 +1895,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="B35" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="B35" t="s" s="2">
+      <c r="C35" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="C35" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>14</v>
@@ -1930,7 +1936,7 @@
         <v>131</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="D36" t="s" s="2">
         <v>14</v>
@@ -1959,13 +1965,13 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="B37" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="B37" t="s" s="2">
+      <c r="C37" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="C37" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="D37" t="s" s="2">
         <v>14</v>
@@ -1994,13 +2000,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="B38" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="B38" t="s" s="2">
+      <c r="C38" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="C38" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>14</v>
@@ -2035,7 +2041,7 @@
         <v>139</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="D39" t="s" s="2">
         <v>14</v>
@@ -2070,7 +2076,7 @@
         <v>141</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>14</v>
@@ -2099,13 +2105,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="B41" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="B41" t="s" s="2">
+      <c r="C41" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="C41" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="D41" t="s" s="2">
         <v>14</v>
@@ -2134,13 +2140,13 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="B42" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="B42" t="s" s="2">
+      <c r="C42" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="C42" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="D42" t="s" s="2">
         <v>14</v>
@@ -2169,13 +2175,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="B43" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="B43" t="s" s="2">
+      <c r="C43" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="C43" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>14</v>
@@ -2204,13 +2210,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="B44" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="B44" t="s" s="2">
+      <c r="C44" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="C44" t="s" s="2">
-        <v>60</v>
       </c>
       <c r="D44" t="s" s="2">
         <v>14</v>
@@ -2245,7 +2251,7 @@
         <v>155</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>156</v>
+        <v>62</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>14</v>
@@ -2274,13 +2280,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="B46" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="B46" t="s" s="2">
+      <c r="C46" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="C46" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>14</v>
@@ -2309,13 +2315,13 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="B47" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="B47" t="s" s="2">
+      <c r="C47" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="C47" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="D47" t="s" s="2">
         <v>14</v>
@@ -2344,13 +2350,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="B48" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="B48" t="s" s="2">
+      <c r="C48" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="C48" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>14</v>
@@ -2379,13 +2385,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="B49" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="B49" t="s" s="2">
+      <c r="C49" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="C49" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="D49" t="s" s="2">
         <v>14</v>
@@ -2414,13 +2420,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="B50" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="B50" t="s" s="2">
+      <c r="C50" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="C50" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>14</v>
@@ -2449,13 +2455,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="B51" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="B51" t="s" s="2">
+      <c r="C51" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="C51" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="D51" t="s" s="2">
         <v>14</v>
@@ -2484,28 +2490,28 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="B52" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="B52" t="s" s="2">
+      <c r="C52" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="C52" t="s" s="2">
-        <v>14</v>
-      </c>
       <c r="D52" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E52" t="s" s="2">
-        <v>177</v>
+        <v>14</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>17</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>178</v>
+        <v>18</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>19</v>
@@ -2519,10 +2525,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>14</v>
+        <v>177</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C53" t="s" s="2">
         <v>14</v>
@@ -2537,7 +2543,7 @@
         <v>14</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>180</v>
@@ -2557,7 +2563,7 @@
         <v>14</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C54" t="s" s="2">
         <v>14</v>
@@ -2575,7 +2581,7 @@
         <v>14</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>19</v>
@@ -2584,6 +2590,41 @@
         <v>14</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D55" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E55" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>14</v>
       </c>
     </row>

--- a/output/observations-summary.xlsx
+++ b/output/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="203">
   <si>
     <t>Profile</t>
   </si>
@@ -206,6 +206,18 @@
     <t>dateTimeĵ</t>
   </si>
   <si>
+    <t>cde-date-of-diagnosis</t>
+  </si>
+  <si>
+    <t>CDE Date Of Diagnosis</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#social-history, null#NCIT_C20189, null#NCIT_C41009, null#NCIT_C21514, null#NCIT_C25164, null#NCIT_C164339</t>
+  </si>
+  <si>
+    <t>null#432213005</t>
+  </si>
+  <si>
     <t>cde-erythrocytes-in-blood</t>
   </si>
   <si>
@@ -218,6 +230,18 @@
     <t>null#26453-1</t>
   </si>
   <si>
+    <t>cde-ethnicity</t>
+  </si>
+  <si>
+    <t>CDE Ethnicity</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#social-history, SNOMED CT#138875005, SNOMED CT#363787002, SNOMED CT#160476009, SNOMED CT#302147001, SNOMED CT#364699009</t>
+  </si>
+  <si>
+    <t>null#LP72553-8</t>
+  </si>
+  <si>
     <t>cde-glucose-in-serum-or-plasma</t>
   </si>
   <si>
@@ -248,6 +272,18 @@
     <t>CDE Hemoglobin In Blood</t>
   </si>
   <si>
+    <t>cde-hip-circumference</t>
+  </si>
+  <si>
+    <t>CDE Hip Circumference</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000021, null#CMO_0000014</t>
+  </si>
+  <si>
+    <t>null#284472007</t>
+  </si>
+  <si>
     <t>cde-leukocytes-in-blood</t>
   </si>
   <si>
@@ -324,6 +360,27 @@
   </si>
   <si>
     <t>null#26515-7</t>
+  </si>
+  <si>
+    <t>cde-visit-date</t>
+  </si>
+  <si>
+    <t>CDE Visit Date</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#laboratory, null#NCIT_C20189, null#NCIT_C41009, null#NCIT_C21514, null#NCIT_C25164, null#NCIT_C83031</t>
+  </si>
+  <si>
+    <t>cde-waist-circumference</t>
+  </si>
+  <si>
+    <t>CDE Waist Circumference</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000021, null#CMO_0000296, null#CMO_0000014</t>
+  </si>
+  <si>
+    <t>null#276361009</t>
   </si>
   <si>
     <t>cls-l0-activity</t>
@@ -697,7 +754,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:K60"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1321,7 +1378,7 @@
         <v>17</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>19</v>
@@ -1341,13 +1398,13 @@
         <v>77</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E19" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>16</v>
@@ -1370,19 +1427,19 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E20" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>16</v>
@@ -1405,19 +1462,19 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="C21" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="B21" t="s" s="2">
+      <c r="D21" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E21" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="D21" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E21" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>16</v>
@@ -1487,7 +1544,7 @@
         <v>14</v>
       </c>
       <c r="E23" t="s" s="2">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>16</v>
@@ -1510,19 +1567,19 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D24" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E24" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>16</v>
@@ -1545,19 +1602,19 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E25" t="s" s="2">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>16</v>
@@ -1580,19 +1637,19 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D26" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E26" t="s" s="2">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>16</v>
@@ -1615,19 +1672,19 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E27" t="s" s="2">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>16</v>
@@ -1650,19 +1707,19 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E28" t="s" s="2">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>16</v>
@@ -1685,19 +1742,19 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D29" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E29" t="s" s="2">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>16</v>
@@ -1720,19 +1777,19 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E30" t="s" s="2">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>16</v>
@@ -1755,19 +1812,19 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D31" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E31" t="s" s="2">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>16</v>
@@ -1790,13 +1847,13 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D32" t="s" s="2">
         <v>14</v>
@@ -1825,13 +1882,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>14</v>
@@ -1860,13 +1917,13 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D34" t="s" s="2">
         <v>14</v>
@@ -1895,13 +1952,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>14</v>
@@ -1930,13 +1987,13 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="D36" t="s" s="2">
         <v>14</v>
@@ -1965,13 +2022,13 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D37" t="s" s="2">
         <v>14</v>
@@ -2000,13 +2057,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>14</v>
@@ -2035,13 +2092,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="D39" t="s" s="2">
         <v>14</v>
@@ -2070,13 +2127,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>109</v>
+        <v>148</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>14</v>
@@ -2105,13 +2162,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D41" t="s" s="2">
         <v>14</v>
@@ -2140,13 +2197,13 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D42" t="s" s="2">
         <v>14</v>
@@ -2175,13 +2232,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>14</v>
@@ -2210,13 +2267,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D44" t="s" s="2">
         <v>14</v>
@@ -2245,13 +2302,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>62</v>
+        <v>128</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>14</v>
@@ -2280,13 +2337,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>14</v>
@@ -2315,13 +2372,13 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D47" t="s" s="2">
         <v>14</v>
@@ -2350,13 +2407,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>14</v>
@@ -2385,13 +2442,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D49" t="s" s="2">
         <v>14</v>
@@ -2420,13 +2477,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>170</v>
+        <v>62</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>14</v>
@@ -2455,13 +2512,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D51" t="s" s="2">
         <v>14</v>
@@ -2490,13 +2547,13 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D52" t="s" s="2">
         <v>14</v>
@@ -2525,28 +2582,28 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>14</v>
+        <v>183</v>
       </c>
       <c r="D53" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E53" t="s" s="2">
-        <v>179</v>
+        <v>14</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>17</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>180</v>
+        <v>18</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>19</v>
@@ -2560,28 +2617,28 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>14</v>
+        <v>184</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>14</v>
+        <v>186</v>
       </c>
       <c r="D54" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E54" t="s" s="2">
-        <v>181</v>
+        <v>14</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>182</v>
+        <v>18</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>19</v>
@@ -2595,28 +2652,28 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>14</v>
+        <v>187</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>14</v>
+        <v>189</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E55" t="s" s="2">
-        <v>183</v>
+        <v>14</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>182</v>
+        <v>18</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>19</v>
@@ -2625,6 +2682,181 @@
         <v>14</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="D56" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E56" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="C57" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="D57" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E57" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="C58" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D58" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E58" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="C59" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D59" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E59" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="C60" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D60" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E60" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K60" t="s" s="2">
         <v>14</v>
       </c>
     </row>

--- a/output/observations-summary.xlsx
+++ b/output/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="212">
   <si>
     <t>Profile</t>
   </si>
@@ -107,6 +107,30 @@
     <t>null#21112-8</t>
   </si>
   <si>
+    <t>cde-blood-pressure-diastolic</t>
+  </si>
+  <si>
+    <t>CDE Blood Pressure Diastolic</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000001, null#CMO_0000003, null#CMO_0000005</t>
+  </si>
+  <si>
+    <t>null#8462-4</t>
+  </si>
+  <si>
+    <t>cde-blood-pressure-systolic</t>
+  </si>
+  <si>
+    <t>CDE Blood Pressure Systolic</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000001, null#CMO_0000003, null#CMO_0000004</t>
+  </si>
+  <si>
+    <t>null#8480-6</t>
+  </si>
+  <si>
     <t>cde-body-height</t>
   </si>
   <si>
@@ -369,6 +393,9 @@
   </si>
   <si>
     <t>Observation Category Codes#laboratory, null#NCIT_C20189, null#NCIT_C41009, null#NCIT_C21514, null#NCIT_C25164, null#NCIT_C83031</t>
+  </si>
+  <si>
+    <t>null#406543005</t>
   </si>
   <si>
     <t>cde-waist-circumference</t>
@@ -754,7 +781,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K60"/>
+  <dimension ref="A1:K62"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1048,13 +1075,13 @@
         <v>40</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>16</v>
@@ -1077,19 +1104,19 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>16</v>
@@ -1112,19 +1139,19 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>16</v>
@@ -1147,19 +1174,19 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E12" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>16</v>
@@ -1188,19 +1215,19 @@
         <v>54</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E13" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>16</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>18</v>
@@ -1223,13 +1250,13 @@
         <v>58</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E14" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>16</v>
@@ -1252,28 +1279,28 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E15" t="s" s="2">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>16</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>19</v>
@@ -1287,13 +1314,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>14</v>
@@ -1334,16 +1361,16 @@
         <v>14</v>
       </c>
       <c r="E17" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H17" t="s" s="2">
         <v>71</v>
-      </c>
-      <c r="F17" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="G17" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>18</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>19</v>
@@ -1378,7 +1405,7 @@
         <v>17</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>19</v>
@@ -1448,7 +1475,7 @@
         <v>17</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>19</v>
@@ -1468,13 +1495,13 @@
         <v>85</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E21" t="s" s="2">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>16</v>
@@ -1497,19 +1524,19 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D22" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E22" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>16</v>
@@ -1532,19 +1559,19 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="C23" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="B23" t="s" s="2">
+      <c r="D23" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E23" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="C23" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="D23" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E23" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>16</v>
@@ -1649,7 +1676,7 @@
         <v>14</v>
       </c>
       <c r="E26" t="s" s="2">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>16</v>
@@ -1672,19 +1699,19 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E27" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>16</v>
@@ -1707,19 +1734,19 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E28" t="s" s="2">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>16</v>
@@ -1742,19 +1769,19 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D29" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E29" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>16</v>
@@ -1763,7 +1790,7 @@
         <v>17</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>19</v>
@@ -1777,19 +1804,19 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E30" t="s" s="2">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>16</v>
@@ -1812,19 +1839,19 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D31" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E31" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>16</v>
@@ -1847,19 +1874,19 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D32" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E32" t="s" s="2">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>16</v>
@@ -1882,19 +1909,19 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E33" t="s" s="2">
-        <v>14</v>
+        <v>131</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>16</v>
@@ -1917,13 +1944,13 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D34" t="s" s="2">
         <v>14</v>
@@ -1952,13 +1979,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>14</v>
@@ -1987,13 +2014,13 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D36" t="s" s="2">
         <v>14</v>
@@ -2022,13 +2049,13 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D37" t="s" s="2">
         <v>14</v>
@@ -2057,13 +2084,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>14</v>
@@ -2092,13 +2119,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D39" t="s" s="2">
         <v>14</v>
@@ -2127,13 +2154,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>14</v>
@@ -2162,13 +2189,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="D41" t="s" s="2">
         <v>14</v>
@@ -2197,13 +2224,13 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D42" t="s" s="2">
         <v>14</v>
@@ -2232,13 +2259,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>14</v>
@@ -2267,13 +2294,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D44" t="s" s="2">
         <v>14</v>
@@ -2302,13 +2329,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>14</v>
@@ -2337,13 +2364,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>14</v>
@@ -2372,13 +2399,13 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="D47" t="s" s="2">
         <v>14</v>
@@ -2407,13 +2434,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>14</v>
@@ -2442,13 +2469,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D49" t="s" s="2">
         <v>14</v>
@@ -2477,13 +2504,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>62</v>
+        <v>178</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>14</v>
@@ -2512,13 +2539,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D51" t="s" s="2">
         <v>14</v>
@@ -2547,13 +2574,13 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="D52" t="s" s="2">
         <v>14</v>
@@ -2582,13 +2609,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D53" t="s" s="2">
         <v>14</v>
@@ -2617,13 +2644,13 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D54" t="s" s="2">
         <v>14</v>
@@ -2652,13 +2679,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>14</v>
@@ -2687,13 +2714,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D56" t="s" s="2">
         <v>14</v>
@@ -2722,13 +2749,13 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D57" t="s" s="2">
         <v>14</v>
@@ -2757,28 +2784,28 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>14</v>
+        <v>201</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E58" t="s" s="2">
-        <v>198</v>
+        <v>14</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>17</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>199</v>
+        <v>18</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>19</v>
@@ -2792,28 +2819,28 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>14</v>
+        <v>202</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>14</v>
+        <v>204</v>
       </c>
       <c r="D59" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E59" t="s" s="2">
-        <v>200</v>
+        <v>14</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>201</v>
+        <v>18</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>19</v>
@@ -2827,10 +2854,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>14</v>
+        <v>205</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C60" t="s" s="2">
         <v>14</v>
@@ -2839,16 +2866,16 @@
         <v>14</v>
       </c>
       <c r="E60" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="F60" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>19</v>
@@ -2857,6 +2884,76 @@
         <v>14</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="C61" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D61" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E61" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="C62" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D62" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E62" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K62" t="s" s="2">
         <v>14</v>
       </c>
     </row>

--- a/output/observations-summary.xlsx
+++ b/output/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="213">
   <si>
     <t>Profile</t>
   </si>
@@ -140,39 +140,42 @@
     <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000021, null#CMO_0000011, null#CMO_0000106</t>
   </si>
   <si>
+    <t>null#8302-2</t>
+  </si>
+  <si>
+    <t>cde-body-mass-index</t>
+  </si>
+  <si>
+    <t>CDE Body Mass Index</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000021, null#CMO_0000022, null#CMO_0001196, null#CMO_0000105</t>
+  </si>
+  <si>
+    <t>null#39156-5</t>
+  </si>
+  <si>
+    <t>cde-body-weight</t>
+  </si>
+  <si>
+    <t>CDE Body Weight</t>
+  </si>
+  <si>
+    <t>null#29463-7</t>
+  </si>
+  <si>
+    <t>cde-calcium-in-serum-or-plasma</t>
+  </si>
+  <si>
+    <t>CDE Calcium In Serum Or Plasma</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000035, null#CMO_0000023, null#CMO_0000063, null#CMO_0000502</t>
+  </si>
+  <si>
     <t>null#2000-8</t>
   </si>
   <si>
-    <t>cde-body-mass-index</t>
-  </si>
-  <si>
-    <t>CDE Body Mass Index</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000021, null#CMO_0000022, null#CMO_0001196, null#CMO_0000105</t>
-  </si>
-  <si>
-    <t>null#39156-5</t>
-  </si>
-  <si>
-    <t>cde-body-weight</t>
-  </si>
-  <si>
-    <t>CDE Body Weight</t>
-  </si>
-  <si>
-    <t>null#29463-7</t>
-  </si>
-  <si>
-    <t>cde-calcium-in-serum-or-plasma</t>
-  </si>
-  <si>
-    <t>CDE Calcium In Serum Or Plasma</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000035, null#CMO_0000023, null#CMO_0000063, null#CMO_0000502</t>
-  </si>
-  <si>
     <t>cde-chloride-in-serum-or-plasma</t>
   </si>
   <si>
@@ -218,352 +221,352 @@
     <t>null#21612-7</t>
   </si>
   <si>
-    <t>cde-date-of-birth</t>
-  </si>
-  <si>
-    <t>CDE Date Of Birth</t>
+    <t>cde-date-of-diagnosis</t>
+  </si>
+  <si>
+    <t>CDE Date Of Diagnosis</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#social-history, null#NCIT_C20189, null#NCIT_C41009, null#NCIT_C21514, null#NCIT_C25164, null#NCIT_C164339</t>
+  </si>
+  <si>
+    <t>null#432213005</t>
+  </si>
+  <si>
+    <t>cde-erythrocytes-in-blood</t>
+  </si>
+  <si>
+    <t>CDE Erythrocytes In Blood</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000036, null#CMO_0001356</t>
+  </si>
+  <si>
+    <t>null#26453-1</t>
+  </si>
+  <si>
+    <t>cde-ethnicity</t>
+  </si>
+  <si>
+    <t>CDE Ethnicity</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#social-history, SNOMED CT#138875005, SNOMED CT#363787002, SNOMED CT#160476009, SNOMED CT#302147001</t>
+  </si>
+  <si>
+    <t>null#364699009</t>
+  </si>
+  <si>
+    <t>cde-glucose-in-serum-or-plasma</t>
+  </si>
+  <si>
+    <t>CDE Glucose In Serum Or Plasma</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000035, null#CMO_0000023, null#CMO_0000046</t>
+  </si>
+  <si>
+    <t>null#14749-6</t>
+  </si>
+  <si>
+    <t>cde-hematocrit-of-blood</t>
+  </si>
+  <si>
+    <t>CDE Hematocrit Of Blood</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000036, null#CMO_0000508</t>
+  </si>
+  <si>
+    <t>null#20570-8</t>
+  </si>
+  <si>
+    <t>cde-hemoglobin-in-blood</t>
+  </si>
+  <si>
+    <t>CDE Hemoglobin In Blood</t>
+  </si>
+  <si>
+    <t>null#59260-0</t>
+  </si>
+  <si>
+    <t>cde-hip-circumference</t>
+  </si>
+  <si>
+    <t>CDE Hip Circumference</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000021, null#CMO_0000014</t>
+  </si>
+  <si>
+    <t>null#284472007</t>
+  </si>
+  <si>
+    <t>cde-leukocytes-in-blood</t>
+  </si>
+  <si>
+    <t>CDE Leukocytes In Blood</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000036, null#CMO_0002341</t>
+  </si>
+  <si>
+    <t>null#26464-8</t>
+  </si>
+  <si>
+    <t>cde-magnesium-in-serum-or-plasma</t>
+  </si>
+  <si>
+    <t>CDE Magnesium In Serum Or Plasma</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000035, null#CMO_0000023, null#CMO_0000063, null#CMO_0000505</t>
+  </si>
+  <si>
+    <t>null#2601-3</t>
+  </si>
+  <si>
+    <t>cde-phosphate-in-serum-or-plasma</t>
+  </si>
+  <si>
+    <t>CDE Phosphate In Serum Or Plasma</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000035, null#CMO_0000023, null#CMO_0000063, null#CMO_0000504</t>
+  </si>
+  <si>
+    <t>null#14879-1</t>
+  </si>
+  <si>
+    <t>cde-potassium-in-serum-or-plasma</t>
+  </si>
+  <si>
+    <t>CDE Potassium In Serum Or Plasma</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000035, null#CMO_0000023, null#CMO_0000063, null#CMO_0000496</t>
+  </si>
+  <si>
+    <t>null#2823-3</t>
+  </si>
+  <si>
+    <t>cde-sex-assigned-at-birth</t>
+  </si>
+  <si>
+    <t>CDE Sex Assigned At Birth</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#social-history, SNOMED CT#138875005, SNOMED CT#363787002, SNOMED CT#160476009, SNOMED CT#302147001, SNOMED CT#184100006</t>
+  </si>
+  <si>
+    <t>null#76689-9</t>
+  </si>
+  <si>
+    <t>cde-sodium-in-serum-or-plasma</t>
+  </si>
+  <si>
+    <t>CDE Sodium In Serum Or Plasma</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000035, null#CMO_0000023, null#CMO_0000063, null#CMO_0000499</t>
+  </si>
+  <si>
+    <t>null#2951-2</t>
+  </si>
+  <si>
+    <t>cde-thrombocytes-in-blood</t>
+  </si>
+  <si>
+    <t>CDE Thrombocytes In Blood</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000036, null#CMO_0000921</t>
+  </si>
+  <si>
+    <t>null#26515-7</t>
+  </si>
+  <si>
+    <t>cde-visit-date</t>
+  </si>
+  <si>
+    <t>CDE Visit Date</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#laboratory, null#NCIT_C20189, null#NCIT_C41009, null#NCIT_C21514, null#NCIT_C25164, null#NCIT_C83031</t>
+  </si>
+  <si>
+    <t>null#406543005</t>
+  </si>
+  <si>
+    <t>cde-waist-circumference</t>
+  </si>
+  <si>
+    <t>CDE Waist Circumference</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000021, null#CMO_0000296, null#CMO_0000014</t>
+  </si>
+  <si>
+    <t>null#276361009</t>
+  </si>
+  <si>
+    <t>cls-l0-activity</t>
+  </si>
+  <si>
+    <t>CLS L0 Social History</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#activity</t>
+  </si>
+  <si>
+    <t>cls-l0-exam</t>
+  </si>
+  <si>
+    <t>CLS L0 Exam</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#exam</t>
+  </si>
+  <si>
+    <t>cls-l0-imaging</t>
+  </si>
+  <si>
+    <t>CLS L0 Imaging</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#imaging</t>
+  </si>
+  <si>
+    <t>cls-l0-laboratory</t>
+  </si>
+  <si>
+    <t>CLS L0 Laboratory</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#laboratory</t>
+  </si>
+  <si>
+    <t>cls-l0-procedure</t>
+  </si>
+  <si>
+    <t>CLS L0 Procedure</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#procedure</t>
+  </si>
+  <si>
+    <t>cls-l0-social-history</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#social-history</t>
+  </si>
+  <si>
+    <t>cls-l0-survey</t>
+  </si>
+  <si>
+    <t>CLS L0 Survey</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#survey</t>
+  </si>
+  <si>
+    <t>cls-l0-therapy</t>
+  </si>
+  <si>
+    <t>CLS L0 Therapy</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#therapy</t>
+  </si>
+  <si>
+    <t>cls-l0-vital-signs</t>
+  </si>
+  <si>
+    <t>CLS L0 Vital Signs</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#vital-signs</t>
+  </si>
+  <si>
+    <t>cls-l1-administrative-information</t>
+  </si>
+  <si>
+    <t>CLS L1 Administrative Information</t>
+  </si>
+  <si>
+    <t>cls-l1-clinical-chemistry</t>
+  </si>
+  <si>
+    <t>CLS L1 Clincial Chemistry</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#laboratory, null#NCIT_C16417</t>
+  </si>
+  <si>
+    <t>cls-l1-clinical-immunology</t>
+  </si>
+  <si>
+    <t>CLS L1 Clincial Immunology</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#laboratory, null#NCIT_C18701</t>
+  </si>
+  <si>
+    <t>cls-l1-clinical-microbiology</t>
+  </si>
+  <si>
+    <t>CLS L1 Clincial Microbiology</t>
+  </si>
+  <si>
+    <t>cls-l1-diseases-and-related-health-problems</t>
+  </si>
+  <si>
+    <t>CLS L1 Diseases And Related Health Problems</t>
+  </si>
+  <si>
+    <t>cls-l1-health-related-behavior-and-lifestyle</t>
+  </si>
+  <si>
+    <t>CLS L1 Heatlh-related Behavior and Lifesytle</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#social-history, SNOMED CT#228272008, SNOMED CT#134436002</t>
+  </si>
+  <si>
+    <t>cls-l1-physical-measurements-and-assessment</t>
+  </si>
+  <si>
+    <t>CLS L1 Physical Measurements And Assessment</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#exam, SNOMED CT#160476009, SNOMED CT#160476009</t>
+  </si>
+  <si>
+    <t>cls-l1-social-personal-details</t>
+  </si>
+  <si>
+    <t>CLS L1 Social Personal Details</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#social-history, SNOMED CT#160476009</t>
+  </si>
+  <si>
+    <t>cls-l1-substance-level</t>
+  </si>
+  <si>
+    <t>CLS L1 Substance Level</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#laboratory, SNOMED CT#785671009</t>
+  </si>
+  <si>
+    <t>cls-l2-age-and-birth-date</t>
+  </si>
+  <si>
+    <t>CLS L2 Age And Birth Date</t>
   </si>
   <si>
     <t>Observation Category Codes#social-history, SNOMED CT#160476009, SNOMED CT#424144002, SNOMED CT#184099003</t>
-  </si>
-  <si>
-    <t>dateTimeĵ</t>
-  </si>
-  <si>
-    <t>cde-date-of-diagnosis</t>
-  </si>
-  <si>
-    <t>CDE Date Of Diagnosis</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#social-history, null#NCIT_C20189, null#NCIT_C41009, null#NCIT_C21514, null#NCIT_C25164, null#NCIT_C164339</t>
-  </si>
-  <si>
-    <t>null#432213005</t>
-  </si>
-  <si>
-    <t>cde-erythrocytes-in-blood</t>
-  </si>
-  <si>
-    <t>CDE Erythrocytes In Blood</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000036, null#CMO_0001356</t>
-  </si>
-  <si>
-    <t>null#26453-1</t>
-  </si>
-  <si>
-    <t>cde-ethnicity</t>
-  </si>
-  <si>
-    <t>CDE Ethnicity</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#social-history, SNOMED CT#138875005, SNOMED CT#363787002, SNOMED CT#160476009, SNOMED CT#302147001, SNOMED CT#364699009</t>
-  </si>
-  <si>
-    <t>null#LP72553-8</t>
-  </si>
-  <si>
-    <t>cde-glucose-in-serum-or-plasma</t>
-  </si>
-  <si>
-    <t>CDE Glucose In Serum Or Plasma</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000035, null#CMO_0000023, null#CMO_0000046</t>
-  </si>
-  <si>
-    <t>null#14749-6</t>
-  </si>
-  <si>
-    <t>cde-hematocrit-of-blood</t>
-  </si>
-  <si>
-    <t>CDE Hematocrit Of Blood</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000036, null#CMO_0000508</t>
-  </si>
-  <si>
-    <t>null#59260-0</t>
-  </si>
-  <si>
-    <t>cde-hemoglobin-in-blood</t>
-  </si>
-  <si>
-    <t>CDE Hemoglobin In Blood</t>
-  </si>
-  <si>
-    <t>cde-hip-circumference</t>
-  </si>
-  <si>
-    <t>CDE Hip Circumference</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000021, null#CMO_0000014</t>
-  </si>
-  <si>
-    <t>null#284472007</t>
-  </si>
-  <si>
-    <t>cde-leukocytes-in-blood</t>
-  </si>
-  <si>
-    <t>CDE Leukocytes In Blood</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000036, null#CMO_0002341</t>
-  </si>
-  <si>
-    <t>null#26464-8</t>
-  </si>
-  <si>
-    <t>cde-magnesium-in-serum-or-plasma</t>
-  </si>
-  <si>
-    <t>CDE Magnesium In Serum Or Plasma</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000035, null#CMO_0000023, null#CMO_0000063, null#CMO_0000505</t>
-  </si>
-  <si>
-    <t>null#2601-3</t>
-  </si>
-  <si>
-    <t>cde-phosphate-in-serum-or-plasma</t>
-  </si>
-  <si>
-    <t>CDE Phosphate In Serum Or Plasma</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000035, null#CMO_0000023, null#CMO_0000063, null#CMO_0000504</t>
-  </si>
-  <si>
-    <t>null#14879-1</t>
-  </si>
-  <si>
-    <t>cde-potassium-in-serum-or-plasma</t>
-  </si>
-  <si>
-    <t>CDE Potassium In Serum Or Plasma</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000035, null#CMO_0000023, null#CMO_0000063, null#CMO_0000496</t>
-  </si>
-  <si>
-    <t>cde-sex-assigned-at-birth</t>
-  </si>
-  <si>
-    <t>CDE Sex Assigned At Birth</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#social-history, SNOMED CT#138875005, SNOMED CT#363787002, SNOMED CT#160476009, SNOMED CT#302147001, SNOMED CT#184100006</t>
-  </si>
-  <si>
-    <t>null#76689-9</t>
-  </si>
-  <si>
-    <t>cde-sodium-in-serum-or-plasma</t>
-  </si>
-  <si>
-    <t>CDE Sodium In Serum Or Plasma</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000035, null#CMO_0000023, null#CMO_0000063, null#CMO_0000499</t>
-  </si>
-  <si>
-    <t>cde-thrombocytes-in-blood</t>
-  </si>
-  <si>
-    <t>CDE Thrombocytes In Blood</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000036, null#CMO_0000921</t>
-  </si>
-  <si>
-    <t>null#26515-7</t>
-  </si>
-  <si>
-    <t>cde-visit-date</t>
-  </si>
-  <si>
-    <t>CDE Visit Date</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#laboratory, null#NCIT_C20189, null#NCIT_C41009, null#NCIT_C21514, null#NCIT_C25164, null#NCIT_C83031</t>
-  </si>
-  <si>
-    <t>null#406543005</t>
-  </si>
-  <si>
-    <t>cde-waist-circumference</t>
-  </si>
-  <si>
-    <t>CDE Waist Circumference</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000021, null#CMO_0000296, null#CMO_0000014</t>
-  </si>
-  <si>
-    <t>null#276361009</t>
-  </si>
-  <si>
-    <t>cls-l0-activity</t>
-  </si>
-  <si>
-    <t>CLS L0 Social History</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#activity</t>
-  </si>
-  <si>
-    <t>cls-l0-exam</t>
-  </si>
-  <si>
-    <t>CLS L0 Exam</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#exam</t>
-  </si>
-  <si>
-    <t>cls-l0-imaging</t>
-  </si>
-  <si>
-    <t>CLS L0 Imaging</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#imaging</t>
-  </si>
-  <si>
-    <t>cls-l0-laboratory</t>
-  </si>
-  <si>
-    <t>CLS L0 Laboratory</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#laboratory</t>
-  </si>
-  <si>
-    <t>cls-l0-procedure</t>
-  </si>
-  <si>
-    <t>CLS L0 Procedure</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#procedure</t>
-  </si>
-  <si>
-    <t>cls-l0-social-history</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#social-history</t>
-  </si>
-  <si>
-    <t>cls-l0-survey</t>
-  </si>
-  <si>
-    <t>CLS L0 Survey</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#survey</t>
-  </si>
-  <si>
-    <t>cls-l0-therapy</t>
-  </si>
-  <si>
-    <t>CLS L0 Therapy</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#therapy</t>
-  </si>
-  <si>
-    <t>cls-l0-vital-signs</t>
-  </si>
-  <si>
-    <t>CLS L0 Vital Signs</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#vital-signs</t>
-  </si>
-  <si>
-    <t>cls-l1-administrative-information</t>
-  </si>
-  <si>
-    <t>CLS L1 Administrative Information</t>
-  </si>
-  <si>
-    <t>cls-l1-clinical-chemistry</t>
-  </si>
-  <si>
-    <t>CLS L1 Clincial Chemistry</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#laboratory, null#NCIT_C16417</t>
-  </si>
-  <si>
-    <t>cls-l1-clinical-immunology</t>
-  </si>
-  <si>
-    <t>CLS L1 Clincial Immunology</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#laboratory, null#NCIT_C18701</t>
-  </si>
-  <si>
-    <t>cls-l1-clinical-microbiology</t>
-  </si>
-  <si>
-    <t>CLS L1 Clincial Microbiology</t>
-  </si>
-  <si>
-    <t>cls-l1-diseases-and-related-health-problems</t>
-  </si>
-  <si>
-    <t>CLS L1 Diseases And Related Health Problems</t>
-  </si>
-  <si>
-    <t>cls-l1-health-related-behavior-and-lifestyle</t>
-  </si>
-  <si>
-    <t>CLS L1 Heatlh-related Behavior and Lifesytle</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#social-history, SNOMED CT#228272008, SNOMED CT#134436002</t>
-  </si>
-  <si>
-    <t>cls-l1-physical-measurements-and-assessment</t>
-  </si>
-  <si>
-    <t>CLS L1 Physical Measurements And Assessment</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#exam, SNOMED CT#160476009, SNOMED CT#160476009</t>
-  </si>
-  <si>
-    <t>cls-l1-social-personal-details</t>
-  </si>
-  <si>
-    <t>CLS L1 Social Personal Details</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#social-history, SNOMED CT#160476009</t>
-  </si>
-  <si>
-    <t>cls-l1-substance-level</t>
-  </si>
-  <si>
-    <t>CLS L1 Substance Level</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#laboratory, SNOMED CT#785671009</t>
-  </si>
-  <si>
-    <t>cls-l2-age-and-birth-date</t>
-  </si>
-  <si>
-    <t>CLS L2 Age And Birth Date</t>
   </si>
   <si>
     <t>cls-l2-gender</t>
@@ -781,7 +784,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K62"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1186,7 +1189,7 @@
         <v>14</v>
       </c>
       <c r="E12" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>16</v>
@@ -1209,19 +1212,19 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E13" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>16</v>
@@ -1244,19 +1247,19 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E14" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>16</v>
@@ -1279,10 +1282,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>13</v>
@@ -1291,13 +1294,13 @@
         <v>14</v>
       </c>
       <c r="E15" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>16</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>18</v>
@@ -1314,10 +1317,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>13</v>
@@ -1326,7 +1329,7 @@
         <v>14</v>
       </c>
       <c r="E16" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>16</v>
@@ -1349,19 +1352,19 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D17" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E17" t="s" s="2">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>16</v>
@@ -1370,7 +1373,7 @@
         <v>17</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>19</v>
@@ -1384,19 +1387,19 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>16</v>
@@ -1419,19 +1422,19 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>16</v>
@@ -1440,7 +1443,7 @@
         <v>17</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>19</v>
@@ -1454,19 +1457,19 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E20" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>16</v>
@@ -1475,7 +1478,7 @@
         <v>17</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>19</v>
@@ -1489,19 +1492,19 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E21" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>16</v>
@@ -1524,13 +1527,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D22" t="s" s="2">
         <v>14</v>
@@ -1565,13 +1568,13 @@
         <v>93</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E23" t="s" s="2">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>16</v>
@@ -1594,19 +1597,19 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D24" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E24" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>16</v>
@@ -1629,19 +1632,19 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E25" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>16</v>
@@ -1664,19 +1667,19 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D26" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E26" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>16</v>
@@ -1699,19 +1702,19 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E27" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>16</v>
@@ -1734,19 +1737,19 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E28" t="s" s="2">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>16</v>
@@ -1755,7 +1758,7 @@
         <v>17</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>19</v>
@@ -1769,19 +1772,19 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D29" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E29" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>16</v>
@@ -1790,7 +1793,7 @@
         <v>17</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>19</v>
@@ -1804,19 +1807,19 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E30" t="s" s="2">
-        <v>56</v>
+        <v>123</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>16</v>
@@ -1839,19 +1842,19 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D31" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E31" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>16</v>
@@ -1874,19 +1877,19 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D32" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E32" t="s" s="2">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>16</v>
@@ -1909,19 +1912,19 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E33" t="s" s="2">
-        <v>131</v>
+        <v>14</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>16</v>
@@ -1944,13 +1947,13 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D34" t="s" s="2">
         <v>14</v>
@@ -1979,13 +1982,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>14</v>
@@ -2014,13 +2017,13 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D36" t="s" s="2">
         <v>14</v>
@@ -2049,13 +2052,13 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D37" t="s" s="2">
         <v>14</v>
@@ -2084,13 +2087,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>14</v>
@@ -2119,13 +2122,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D39" t="s" s="2">
         <v>14</v>
@@ -2154,13 +2157,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>14</v>
@@ -2189,13 +2192,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D41" t="s" s="2">
         <v>14</v>
@@ -2224,13 +2227,13 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="D42" t="s" s="2">
         <v>14</v>
@@ -2259,13 +2262,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>14</v>
@@ -2294,13 +2297,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D44" t="s" s="2">
         <v>14</v>
@@ -2329,10 +2332,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C45" t="s" s="2">
         <v>165</v>
@@ -2364,13 +2367,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>14</v>
@@ -2399,13 +2402,13 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="D47" t="s" s="2">
         <v>14</v>
@@ -2434,13 +2437,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>14</v>
@@ -2469,13 +2472,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D49" t="s" s="2">
         <v>14</v>
@@ -2504,13 +2507,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>14</v>
@@ -2539,13 +2542,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D51" t="s" s="2">
         <v>14</v>
@@ -2574,13 +2577,13 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>70</v>
+        <v>187</v>
       </c>
       <c r="D52" t="s" s="2">
         <v>14</v>
@@ -2609,13 +2612,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D53" t="s" s="2">
         <v>14</v>
@@ -2644,13 +2647,13 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D54" t="s" s="2">
         <v>14</v>
@@ -2679,13 +2682,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>14</v>
@@ -2714,13 +2717,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D56" t="s" s="2">
         <v>14</v>
@@ -2749,13 +2752,13 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D57" t="s" s="2">
         <v>14</v>
@@ -2784,13 +2787,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>14</v>
@@ -2819,28 +2822,28 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>204</v>
+        <v>14</v>
       </c>
       <c r="D59" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E59" t="s" s="2">
-        <v>14</v>
+        <v>208</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>17</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>18</v>
+        <v>209</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>19</v>
@@ -2854,10 +2857,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>205</v>
+        <v>14</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C60" t="s" s="2">
         <v>14</v>
@@ -2866,16 +2869,16 @@
         <v>14</v>
       </c>
       <c r="E60" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F60" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>19</v>
@@ -2892,7 +2895,7 @@
         <v>14</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C61" t="s" s="2">
         <v>14</v>
@@ -2901,7 +2904,7 @@
         <v>14</v>
       </c>
       <c r="E61" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F61" t="s" s="2">
         <v>14</v>
@@ -2910,7 +2913,7 @@
         <v>14</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>19</v>
@@ -2919,41 +2922,6 @@
         <v>14</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="C62" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D62" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E62" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="F62" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G62" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J62" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K62" t="s" s="2">
         <v>14</v>
       </c>
     </row>

--- a/output/observations-summary.xlsx
+++ b/output/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="214">
   <si>
     <t>Profile</t>
   </si>
@@ -360,6 +360,9 @@
   </si>
   <si>
     <t>null#76689-9</t>
+  </si>
+  <si>
+    <t>CodeableConceptĵ</t>
   </si>
   <si>
     <t>cde-sodium-in-serum-or-plasma</t>
@@ -1758,7 +1761,7 @@
         <v>17</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>19</v>
@@ -1772,19 +1775,19 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D29" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E29" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>16</v>
@@ -1807,19 +1810,19 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E30" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>16</v>
@@ -1842,19 +1845,19 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D31" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E31" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>16</v>
@@ -1877,19 +1880,19 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D32" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E32" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>16</v>
@@ -1912,13 +1915,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>14</v>
@@ -1947,13 +1950,13 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D34" t="s" s="2">
         <v>14</v>
@@ -1982,13 +1985,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>14</v>
@@ -2017,13 +2020,13 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D36" t="s" s="2">
         <v>14</v>
@@ -2052,13 +2055,13 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D37" t="s" s="2">
         <v>14</v>
@@ -2087,13 +2090,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>14</v>
@@ -2122,13 +2125,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D39" t="s" s="2">
         <v>14</v>
@@ -2157,13 +2160,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>14</v>
@@ -2192,13 +2195,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D41" t="s" s="2">
         <v>14</v>
@@ -2227,13 +2230,13 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D42" t="s" s="2">
         <v>14</v>
@@ -2262,13 +2265,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>14</v>
@@ -2297,13 +2300,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D44" t="s" s="2">
         <v>14</v>
@@ -2332,13 +2335,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="C45" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="C45" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>14</v>
@@ -2367,13 +2370,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>14</v>
@@ -2402,13 +2405,13 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D47" t="s" s="2">
         <v>14</v>
@@ -2437,13 +2440,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>14</v>
@@ -2472,13 +2475,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D49" t="s" s="2">
         <v>14</v>
@@ -2507,13 +2510,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>14</v>
@@ -2542,13 +2545,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D51" t="s" s="2">
         <v>14</v>
@@ -2577,13 +2580,13 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D52" t="s" s="2">
         <v>14</v>
@@ -2612,13 +2615,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D53" t="s" s="2">
         <v>14</v>
@@ -2647,13 +2650,13 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D54" t="s" s="2">
         <v>14</v>
@@ -2682,13 +2685,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>14</v>
@@ -2717,13 +2720,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D56" t="s" s="2">
         <v>14</v>
@@ -2752,13 +2755,13 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D57" t="s" s="2">
         <v>14</v>
@@ -2787,13 +2790,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>14</v>
@@ -2822,10 +2825,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C59" t="s" s="2">
         <v>14</v>
@@ -2834,7 +2837,7 @@
         <v>14</v>
       </c>
       <c r="E59" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F59" t="s" s="2">
         <v>14</v>
@@ -2843,7 +2846,7 @@
         <v>17</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>19</v>
@@ -2860,7 +2863,7 @@
         <v>14</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C60" t="s" s="2">
         <v>14</v>
@@ -2869,7 +2872,7 @@
         <v>14</v>
       </c>
       <c r="E60" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F60" t="s" s="2">
         <v>14</v>
@@ -2878,7 +2881,7 @@
         <v>14</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>19</v>
@@ -2895,7 +2898,7 @@
         <v>14</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C61" t="s" s="2">
         <v>14</v>
@@ -2904,16 +2907,16 @@
         <v>14</v>
       </c>
       <c r="E61" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H61" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="F61" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G61" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>19</v>

--- a/output/observations-summary.xlsx
+++ b/output/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="212">
   <si>
     <t>Profile</t>
   </si>
@@ -357,12 +357,6 @@
   </si>
   <si>
     <t>Observation Category Codes#social-history, SNOMED CT#138875005, SNOMED CT#363787002, SNOMED CT#160476009, SNOMED CT#302147001, SNOMED CT#184100006</t>
-  </si>
-  <si>
-    <t>null#76689-9</t>
-  </si>
-  <si>
-    <t>CodeableConceptĵ</t>
   </si>
   <si>
     <t>cde-sodium-in-serum-or-plasma</t>
@@ -1752,7 +1746,7 @@
         <v>14</v>
       </c>
       <c r="E28" t="s" s="2">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>16</v>
@@ -1761,7 +1755,7 @@
         <v>17</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>19</v>
@@ -1775,19 +1769,19 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="C29" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="B29" t="s" s="2">
+      <c r="D29" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E29" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="C29" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="D29" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E29" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>16</v>
@@ -1810,19 +1804,19 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="C30" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="B30" t="s" s="2">
+      <c r="D30" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E30" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="C30" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="D30" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E30" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>16</v>
@@ -1845,19 +1839,19 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="C31" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="B31" t="s" s="2">
+      <c r="D31" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E31" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="D31" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E31" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>16</v>
@@ -1880,19 +1874,19 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="C32" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="B32" t="s" s="2">
+      <c r="D32" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E32" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="C32" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="D32" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E32" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>16</v>
@@ -1915,13 +1909,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="C33" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="C33" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>14</v>
@@ -1950,13 +1944,13 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="C34" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="C34" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="D34" t="s" s="2">
         <v>14</v>
@@ -1985,13 +1979,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="C35" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="C35" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>14</v>
@@ -2020,13 +2014,13 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="C36" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="C36" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="D36" t="s" s="2">
         <v>14</v>
@@ -2055,13 +2049,13 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="C37" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="C37" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="D37" t="s" s="2">
         <v>14</v>
@@ -2090,13 +2084,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>14</v>
@@ -2125,13 +2119,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="C39" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="C39" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="D39" t="s" s="2">
         <v>14</v>
@@ -2160,13 +2154,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="C40" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="C40" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>14</v>
@@ -2195,13 +2189,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="C41" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="C41" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="D41" t="s" s="2">
         <v>14</v>
@@ -2230,13 +2224,13 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D42" t="s" s="2">
         <v>14</v>
@@ -2265,13 +2259,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="C43" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="C43" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>14</v>
@@ -2300,13 +2294,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="C44" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="C44" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="D44" t="s" s="2">
         <v>14</v>
@@ -2335,13 +2329,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>14</v>
@@ -2370,13 +2364,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>14</v>
@@ -2405,13 +2399,13 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="C47" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="C47" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="D47" t="s" s="2">
         <v>14</v>
@@ -2440,13 +2434,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="C48" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="B48" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="C48" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>14</v>
@@ -2475,13 +2469,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="C49" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="C49" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="D49" t="s" s="2">
         <v>14</v>
@@ -2510,13 +2504,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="C50" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="B50" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="C50" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>14</v>
@@ -2545,13 +2539,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="C51" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="C51" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="D51" t="s" s="2">
         <v>14</v>
@@ -2580,13 +2574,13 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="C52" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="C52" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="D52" t="s" s="2">
         <v>14</v>
@@ -2615,13 +2609,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="C53" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="C53" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="D53" t="s" s="2">
         <v>14</v>
@@ -2650,13 +2644,13 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="C54" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="C54" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="D54" t="s" s="2">
         <v>14</v>
@@ -2685,13 +2679,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="C55" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="C55" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>14</v>
@@ -2720,13 +2714,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="C56" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="C56" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="D56" t="s" s="2">
         <v>14</v>
@@ -2755,13 +2749,13 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="C57" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="C57" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="D57" t="s" s="2">
         <v>14</v>
@@ -2790,13 +2784,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="C58" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="C58" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>14</v>
@@ -2825,28 +2819,28 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="C59" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D59" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E59" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="B59" t="s" s="2">
+      <c r="F59" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H59" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="C59" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D59" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E59" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="F59" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G59" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>19</v>
@@ -2863,7 +2857,7 @@
         <v>14</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C60" t="s" s="2">
         <v>14</v>
@@ -2872,7 +2866,7 @@
         <v>14</v>
       </c>
       <c r="E60" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F60" t="s" s="2">
         <v>14</v>
@@ -2881,7 +2875,7 @@
         <v>14</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>19</v>
@@ -2898,7 +2892,7 @@
         <v>14</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C61" t="s" s="2">
         <v>14</v>
@@ -2907,7 +2901,7 @@
         <v>14</v>
       </c>
       <c r="E61" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F61" t="s" s="2">
         <v>14</v>
@@ -2916,7 +2910,7 @@
         <v>14</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>19</v>

--- a/output/observations-summary.xlsx
+++ b/output/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="224">
   <si>
     <t>Profile</t>
   </si>
@@ -47,6 +47,30 @@
     <t>Method</t>
   </si>
   <si>
+    <t>vitalsigns</t>
+  </si>
+  <si>
+    <t>Vital Signs Profile</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#vital-signs</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-vitalsignresult (extensible)</t>
+  </si>
+  <si>
+    <t>dateTimeĵ, Periodĵ</t>
+  </si>
+  <si>
+    <t>Quantityĵ, CodeableConceptĵ, stringĵ, booleanĵ, integerĵ, Rangeĵ, Ratioĵ, SampledDataĵ, timeĵ, dateTimeĵ, Periodĵ</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
     <t>cde-age</t>
   </si>
   <si>
@@ -56,9 +80,6 @@
     <t>Observation Category Codes#social-history, null#NCIT_C20189, null#NCIT_C171087, null#NCIT_C19332, null#NCIT_C25150</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>null#30525-0</t>
   </si>
   <si>
@@ -71,9 +92,6 @@
     <t>Quantity, CodeableConcept, string, boolean, integer, Range, Ratio, SampledData, time, dateTime, Period</t>
   </si>
   <si>
-    <t>optional</t>
-  </si>
-  <si>
     <t>cde-age-at-diagnosis-of-essential-hypertension</t>
   </si>
   <si>
@@ -257,6 +275,15 @@
     <t>null#364699009</t>
   </si>
   <si>
+    <t>SNOMED CT#14045001, Unified Medical Language System#C0043157</t>
+  </si>
+  <si>
+    <t>null#C77811, Unified Medical Language System#C0240321</t>
+  </si>
+  <si>
+    <t>SNOMED CT#18167009, Unified Medical Language System#C0085756</t>
+  </si>
+  <si>
     <t>cde-glucose-in-serum-or-plasma</t>
   </si>
   <si>
@@ -359,6 +386,18 @@
     <t>Observation Category Codes#social-history, SNOMED CT#138875005, SNOMED CT#363787002, SNOMED CT#160476009, SNOMED CT#302147001, SNOMED CT#184100006</t>
   </si>
   <si>
+    <t>null#76689-9</t>
+  </si>
+  <si>
+    <t>SNOMED CT#248153007, Unified Medical Language System#C1706180</t>
+  </si>
+  <si>
+    <t>SNOMED CT#248152002, Unified Medical Language System#C0015780</t>
+  </si>
+  <si>
+    <t>SNOMED CT#32570691000036108, Unified Medical Language System#C1704620</t>
+  </si>
+  <si>
     <t>cde-sodium-in-serum-or-plasma</t>
   </si>
   <si>
@@ -480,9 +519,6 @@
   </si>
   <si>
     <t>CLS L0 Vital Signs</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#vital-signs</t>
   </si>
   <si>
     <t>cls-l1-administrative-information</t>
@@ -781,7 +817,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K61"/>
+  <dimension ref="A1:K71"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -836,19 +872,19 @@
         <v>14</v>
       </c>
       <c r="E2" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="F2" t="s" s="2">
+      <c r="G2" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="G2" t="s" s="2">
+      <c r="H2" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="H2" t="s" s="2">
-        <v>18</v>
-      </c>
       <c r="I2" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s" s="2">
         <v>14</v>
@@ -859,31 +895,31 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="C3" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="D3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="D3" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s" s="2">
-        <v>15</v>
-      </c>
       <c r="F3" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J3" t="s" s="2">
         <v>14</v>
@@ -894,37 +930,37 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J4" t="s" s="2">
         <v>14</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
@@ -932,7 +968,7 @@
         <v>14</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>14</v>
@@ -950,80 +986,80 @@
         <v>14</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J5" t="s" s="2">
         <v>14</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="B6" t="s" s="2">
-        <v>28</v>
-      </c>
       <c r="C6" t="s" s="2">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J6" t="s" s="2">
         <v>14</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J7" t="s" s="2">
         <v>14</v>
@@ -1034,31 +1070,31 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J8" t="s" s="2">
         <v>14</v>
@@ -1069,31 +1105,31 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>14</v>
@@ -1104,31 +1140,31 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>14</v>
@@ -1139,31 +1175,31 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>14</v>
@@ -1174,31 +1210,31 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E12" t="s" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>14</v>
@@ -1209,31 +1245,31 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E13" t="s" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>14</v>
@@ -1244,31 +1280,31 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E14" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>14</v>
@@ -1279,31 +1315,31 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E15" t="s" s="2">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>14</v>
@@ -1314,31 +1350,31 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E16" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>14</v>
@@ -1349,31 +1385,31 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="D17" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E17" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>14</v>
@@ -1384,31 +1420,31 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E18" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>14</v>
@@ -1419,31 +1455,31 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E19" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>14</v>
@@ -1454,31 +1490,31 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E20" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>14</v>
@@ -1489,136 +1525,136 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C21" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E21" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J21" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="D21" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E21" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="F21" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="G21" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J21" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K21" t="s" s="2">
-        <v>14</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="D22" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E22" t="s" s="2">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>14</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>14</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E23" t="s" s="2">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>14</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>14</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E24" t="s" s="2">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>14</v>
@@ -1629,31 +1665,31 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E25" t="s" s="2">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>14</v>
@@ -1664,31 +1700,31 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="D26" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E26" t="s" s="2">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>14</v>
@@ -1699,31 +1735,31 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E27" t="s" s="2">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>14</v>
@@ -1734,31 +1770,31 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E28" t="s" s="2">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>14</v>
@@ -1769,31 +1805,31 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="D29" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E29" t="s" s="2">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>14</v>
@@ -1804,31 +1840,31 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E30" t="s" s="2">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>14</v>
@@ -1839,31 +1875,31 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="D31" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E31" t="s" s="2">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J31" t="s" s="2">
         <v>14</v>
@@ -1874,31 +1910,31 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="D32" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E32" t="s" s="2">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>14</v>
@@ -1909,31 +1945,31 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E33" t="s" s="2">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>14</v>
@@ -1944,31 +1980,31 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="D34" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E34" t="s" s="2">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>14</v>
@@ -1979,31 +2015,31 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E35" t="s" s="2">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J35" t="s" s="2">
         <v>14</v>
@@ -2014,13 +2050,13 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>140</v>
+        <v>14</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>142</v>
+        <v>14</v>
       </c>
       <c r="D36" t="s" s="2">
         <v>14</v>
@@ -2029,33 +2065,33 @@
         <v>14</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J36" t="s" s="2">
         <v>14</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>14</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>143</v>
+        <v>14</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>145</v>
+        <v>14</v>
       </c>
       <c r="D37" t="s" s="2">
         <v>14</v>
@@ -2064,33 +2100,33 @@
         <v>14</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J37" t="s" s="2">
         <v>14</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>14</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>146</v>
+        <v>14</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>147</v>
+        <v>14</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>14</v>
@@ -2099,51 +2135,51 @@
         <v>14</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J38" t="s" s="2">
         <v>14</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>14</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D39" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E39" t="s" s="2">
-        <v>14</v>
+        <v>131</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>14</v>
@@ -2154,31 +2190,31 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E40" t="s" s="2">
-        <v>14</v>
+        <v>135</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J40" t="s" s="2">
         <v>14</v>
@@ -2189,31 +2225,31 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="D41" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E41" t="s" s="2">
-        <v>14</v>
+        <v>139</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J41" t="s" s="2">
         <v>14</v>
@@ -2224,31 +2260,31 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D42" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E42" t="s" s="2">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J42" t="s" s="2">
         <v>14</v>
@@ -2259,13 +2295,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>14</v>
@@ -2274,16 +2310,16 @@
         <v>14</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>14</v>
@@ -2294,13 +2330,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="D44" t="s" s="2">
         <v>14</v>
@@ -2309,16 +2345,16 @@
         <v>14</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J44" t="s" s="2">
         <v>14</v>
@@ -2329,13 +2365,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>14</v>
@@ -2344,16 +2380,16 @@
         <v>14</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J45" t="s" s="2">
         <v>14</v>
@@ -2364,13 +2400,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>14</v>
@@ -2379,16 +2415,16 @@
         <v>14</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>14</v>
@@ -2399,13 +2435,13 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="D47" t="s" s="2">
         <v>14</v>
@@ -2414,16 +2450,16 @@
         <v>14</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J47" t="s" s="2">
         <v>14</v>
@@ -2434,13 +2470,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>14</v>
@@ -2449,16 +2485,16 @@
         <v>14</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J48" t="s" s="2">
         <v>14</v>
@@ -2469,13 +2505,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="D49" t="s" s="2">
         <v>14</v>
@@ -2484,16 +2520,16 @@
         <v>14</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J49" t="s" s="2">
         <v>14</v>
@@ -2504,13 +2540,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>14</v>
@@ -2519,16 +2555,16 @@
         <v>14</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J50" t="s" s="2">
         <v>14</v>
@@ -2539,13 +2575,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>183</v>
+        <v>13</v>
       </c>
       <c r="D51" t="s" s="2">
         <v>14</v>
@@ -2554,16 +2590,16 @@
         <v>14</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J51" t="s" s="2">
         <v>14</v>
@@ -2574,13 +2610,13 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="D52" t="s" s="2">
         <v>14</v>
@@ -2589,16 +2625,16 @@
         <v>14</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J52" t="s" s="2">
         <v>14</v>
@@ -2609,13 +2645,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="D53" t="s" s="2">
         <v>14</v>
@@ -2624,16 +2660,16 @@
         <v>14</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J53" t="s" s="2">
         <v>14</v>
@@ -2644,13 +2680,13 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="D54" t="s" s="2">
         <v>14</v>
@@ -2659,16 +2695,16 @@
         <v>14</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J54" t="s" s="2">
         <v>14</v>
@@ -2679,13 +2715,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>14</v>
@@ -2694,16 +2730,16 @@
         <v>14</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>14</v>
@@ -2714,13 +2750,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>198</v>
+        <v>149</v>
       </c>
       <c r="D56" t="s" s="2">
         <v>14</v>
@@ -2729,16 +2765,16 @@
         <v>14</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J56" t="s" s="2">
         <v>14</v>
@@ -2749,13 +2785,13 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="D57" t="s" s="2">
         <v>14</v>
@@ -2764,16 +2800,16 @@
         <v>14</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J57" t="s" s="2">
         <v>14</v>
@@ -2784,13 +2820,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>14</v>
@@ -2799,16 +2835,16 @@
         <v>14</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J58" t="s" s="2">
         <v>14</v>
@@ -2819,31 +2855,31 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>14</v>
+        <v>189</v>
       </c>
       <c r="D59" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E59" t="s" s="2">
-        <v>207</v>
+        <v>14</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>208</v>
+        <v>25</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J59" t="s" s="2">
         <v>14</v>
@@ -2854,31 +2890,31 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>14</v>
+        <v>190</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>14</v>
+        <v>192</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E60" t="s" s="2">
-        <v>209</v>
+        <v>14</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>210</v>
+        <v>25</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J60" t="s" s="2">
         <v>14</v>
@@ -2889,36 +2925,386 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>14</v>
+        <v>193</v>
       </c>
       <c r="B61" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="C61" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="D61" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E61" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="C62" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="D62" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E62" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="C63" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="D63" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E63" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="C64" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="D64" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E64" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="B65" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="C61" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D61" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E61" t="s" s="2">
+      <c r="C65" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="D65" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E65" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="C66" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="D66" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E66" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="F61" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G61" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J61" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K61" t="s" s="2">
+      <c r="B67" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="C67" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="D67" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E67" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="C68" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="D68" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E68" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="C69" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D69" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E69" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="C70" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D70" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E70" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="C71" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D71" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E71" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K71" t="s" s="2">
         <v>14</v>
       </c>
     </row>

--- a/output/observations-summary.xlsx
+++ b/output/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="221">
   <si>
     <t>Profile</t>
   </si>
@@ -47,478 +47,469 @@
     <t>Method</t>
   </si>
   <si>
-    <t>vitalsigns</t>
-  </si>
-  <si>
-    <t>Vital Signs Profile</t>
+    <t>cde-age</t>
+  </si>
+  <si>
+    <t>CDE Age</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#social-history, null#NCIT_C20189, null#NCIT_C171087, null#NCIT_C19332, null#NCIT_C25150</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>null#30525-0</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes (example)</t>
+  </si>
+  <si>
+    <t>dateTime, Period, Timing, instant</t>
+  </si>
+  <si>
+    <t>Quantity, CodeableConcept, string, boolean, integer, Range, Ratio, SampledData, time, dateTime, Period</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>cde-age-at-diagnosis-of-essential-hypertension</t>
+  </si>
+  <si>
+    <t>CDE Age At Diagnosis Of Essential Hypertension</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#social-history, null#NCIT_C20189, null#NCIT_C171087, null#NCIT_C19332, null#NCIT_C25150, null#NCIT_C156420</t>
+  </si>
+  <si>
+    <t>CodeableConcept</t>
+  </si>
+  <si>
+    <t>LOINC#29308-4</t>
+  </si>
+  <si>
+    <t>dateTime</t>
+  </si>
+  <si>
+    <t>SNOMED CT#432213005</t>
+  </si>
+  <si>
+    <t>cde-birth-date</t>
+  </si>
+  <si>
+    <t>CDE Birth Date</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#social-history, null#NCIT_C20189, null#NCIT_C41009, null#NCIT_C21514, null#NCIT_C25164, null#NCIT_C68615</t>
+  </si>
+  <si>
+    <t>null#21112-8</t>
+  </si>
+  <si>
+    <t>cde-blood-pressure-diastolic</t>
+  </si>
+  <si>
+    <t>CDE Blood Pressure Diastolic</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000001, null#CMO_0000003, null#CMO_0000005</t>
+  </si>
+  <si>
+    <t>null#8462-4</t>
+  </si>
+  <si>
+    <t>cde-blood-pressure-systolic</t>
+  </si>
+  <si>
+    <t>CDE Blood Pressure Systolic</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000001, null#CMO_0000003, null#CMO_0000004</t>
+  </si>
+  <si>
+    <t>null#8480-6</t>
+  </si>
+  <si>
+    <t>cde-body-height</t>
+  </si>
+  <si>
+    <t>CDE Body Height</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000021, null#CMO_0000011, null#CMO_0000106</t>
+  </si>
+  <si>
+    <t>null#8302-2</t>
+  </si>
+  <si>
+    <t>cde-body-mass-index</t>
+  </si>
+  <si>
+    <t>CDE Body Mass Index</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000021, null#CMO_0000022, null#CMO_0001196, null#CMO_0000105</t>
+  </si>
+  <si>
+    <t>null#39156-5</t>
+  </si>
+  <si>
+    <t>cde-body-weight</t>
+  </si>
+  <si>
+    <t>CDE Body Weight</t>
+  </si>
+  <si>
+    <t>null#29463-7</t>
+  </si>
+  <si>
+    <t>cde-calcium-in-serum-or-plasma</t>
+  </si>
+  <si>
+    <t>CDE Calcium In Serum Or Plasma</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000035, null#CMO_0000023, null#CMO_0000063, null#CMO_0000502</t>
+  </si>
+  <si>
+    <t>null#2000-8</t>
+  </si>
+  <si>
+    <t>cde-chloride-in-serum-or-plasma</t>
+  </si>
+  <si>
+    <t>CDE Chloride In Serum Or Plasma</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000035, null#CMO_0000023, null#CMO_0000063, null#CMO_0000497</t>
+  </si>
+  <si>
+    <t>null#2075-0</t>
+  </si>
+  <si>
+    <t>cde-creatinine-in-ser-or-plas</t>
+  </si>
+  <si>
+    <t>CDE Creatinine In Serum Or Plasma</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000035, null#CMO_0000023, null#CMO_0000767, null#CMO_0000538</t>
+  </si>
+  <si>
+    <t>null#14682-9</t>
+  </si>
+  <si>
+    <t>cde-current-age-calculated</t>
+  </si>
+  <si>
+    <t>CDE Current Age Calculated</t>
+  </si>
+  <si>
+    <t>null#29553-5</t>
+  </si>
+  <si>
+    <t>dateTimeĵ, Periodĵ, Timingĵ, instantĵ</t>
+  </si>
+  <si>
+    <t>cde-current-age-reported</t>
+  </si>
+  <si>
+    <t>CDE Current Age Reported</t>
+  </si>
+  <si>
+    <t>null#21612-7</t>
+  </si>
+  <si>
+    <t>cde-date-of-diagnosis</t>
+  </si>
+  <si>
+    <t>CDE Date Of Diagnosis</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#social-history, null#NCIT_C20189, null#NCIT_C41009, null#NCIT_C21514, null#NCIT_C25164, null#NCIT_C164339</t>
+  </si>
+  <si>
+    <t>null#432213005</t>
+  </si>
+  <si>
+    <t>cde-erythrocytes-in-blood</t>
+  </si>
+  <si>
+    <t>CDE Erythrocytes In Blood</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000036, null#CMO_0001356</t>
+  </si>
+  <si>
+    <t>null#26453-1</t>
+  </si>
+  <si>
+    <t>cde-ethnicity</t>
+  </si>
+  <si>
+    <t>CDE Ethnicity</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#social-history, SNOMED CT#138875005, SNOMED CT#363787002, SNOMED CT#160476009, SNOMED CT#302147001</t>
+  </si>
+  <si>
+    <t>null#364699009</t>
+  </si>
+  <si>
+    <t>integerĵ</t>
+  </si>
+  <si>
+    <t>SNOMED CT#14045001, Unified Medical Language System#C0043157</t>
+  </si>
+  <si>
+    <t>null#C77811, Unified Medical Language System#C0240321</t>
+  </si>
+  <si>
+    <t>SNOMED CT#18167009, Unified Medical Language System#C0085756</t>
+  </si>
+  <si>
+    <t>SNOMED CT#315280000, Unified Medical Language System#C0078988</t>
+  </si>
+  <si>
+    <t>cde-glucose-in-serum-or-plasma</t>
+  </si>
+  <si>
+    <t>CDE Glucose In Serum Or Plasma</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000035, null#CMO_0000023, null#CMO_0000046</t>
+  </si>
+  <si>
+    <t>null#14749-6</t>
+  </si>
+  <si>
+    <t>cde-hematocrit-of-blood</t>
+  </si>
+  <si>
+    <t>CDE Hematocrit Of Blood</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000036, null#CMO_0000508</t>
+  </si>
+  <si>
+    <t>null#20570-8</t>
+  </si>
+  <si>
+    <t>cde-hemoglobin-in-blood</t>
+  </si>
+  <si>
+    <t>CDE Hemoglobin In Blood</t>
+  </si>
+  <si>
+    <t>null#59260-0</t>
+  </si>
+  <si>
+    <t>cde-hip-circumference</t>
+  </si>
+  <si>
+    <t>CDE Hip Circumference</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000021, null#CMO_0000014</t>
+  </si>
+  <si>
+    <t>null#284472007</t>
+  </si>
+  <si>
+    <t>cde-leukocytes-in-blood</t>
+  </si>
+  <si>
+    <t>CDE Leukocytes In Blood</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000036, null#CMO_0002341</t>
+  </si>
+  <si>
+    <t>null#26464-8</t>
+  </si>
+  <si>
+    <t>cde-magnesium-in-serum-or-plasma</t>
+  </si>
+  <si>
+    <t>CDE Magnesium In Serum Or Plasma</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000035, null#CMO_0000023, null#CMO_0000063, null#CMO_0000505</t>
+  </si>
+  <si>
+    <t>null#2601-3</t>
+  </si>
+  <si>
+    <t>cde-phosphate-in-serum-or-plasma</t>
+  </si>
+  <si>
+    <t>CDE Phosphate In Serum Or Plasma</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000035, null#CMO_0000023, null#CMO_0000063, null#CMO_0000504</t>
+  </si>
+  <si>
+    <t>null#14879-1</t>
+  </si>
+  <si>
+    <t>cde-potassium-in-serum-or-plasma</t>
+  </si>
+  <si>
+    <t>CDE Potassium In Serum Or Plasma</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000035, null#CMO_0000023, null#CMO_0000063, null#CMO_0000496</t>
+  </si>
+  <si>
+    <t>null#2823-3</t>
+  </si>
+  <si>
+    <t>cde-sex-assigned-at-birth</t>
+  </si>
+  <si>
+    <t>CDE Sex Assigned At Birth</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#social-history, SNOMED CT#138875005, SNOMED CT#363787002, SNOMED CT#160476009, SNOMED CT#302147001, SNOMED CT#184100006</t>
+  </si>
+  <si>
+    <t>null#76689-9</t>
+  </si>
+  <si>
+    <t>SNOMED CT#248153007, Unified Medical Language System#C1706180</t>
+  </si>
+  <si>
+    <t>SNOMED CT#248152002, Unified Medical Language System#C0015780</t>
+  </si>
+  <si>
+    <t>SNOMED CT#32570691000036108, Unified Medical Language System#C1704620</t>
+  </si>
+  <si>
+    <t>cde-sodium-in-serum-or-plasma</t>
+  </si>
+  <si>
+    <t>CDE Sodium In Serum Or Plasma</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000035, null#CMO_0000023, null#CMO_0000063, null#CMO_0000499</t>
+  </si>
+  <si>
+    <t>null#2951-2</t>
+  </si>
+  <si>
+    <t>cde-thrombocytes-in-blood</t>
+  </si>
+  <si>
+    <t>CDE Thrombocytes In Blood</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000036, null#CMO_0000921</t>
+  </si>
+  <si>
+    <t>null#26515-7</t>
+  </si>
+  <si>
+    <t>cde-visit-date</t>
+  </si>
+  <si>
+    <t>CDE Visit Date</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#laboratory, null#NCIT_C20189, null#NCIT_C41009, null#NCIT_C21514, null#NCIT_C25164, null#NCIT_C83031</t>
+  </si>
+  <si>
+    <t>null#406543005</t>
+  </si>
+  <si>
+    <t>cde-waist-circumference</t>
+  </si>
+  <si>
+    <t>CDE Waist Circumference</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000021, null#CMO_0000296, null#CMO_0000014</t>
+  </si>
+  <si>
+    <t>null#276361009</t>
+  </si>
+  <si>
+    <t>cls-l0-activity</t>
+  </si>
+  <si>
+    <t>CLS L0 Social History</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#activity</t>
+  </si>
+  <si>
+    <t>cls-l0-exam</t>
+  </si>
+  <si>
+    <t>CLS L0 Exam</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#exam</t>
+  </si>
+  <si>
+    <t>cls-l0-imaging</t>
+  </si>
+  <si>
+    <t>CLS L0 Imaging</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#imaging</t>
+  </si>
+  <si>
+    <t>cls-l0-laboratory</t>
+  </si>
+  <si>
+    <t>CLS L0 Laboratory</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#laboratory</t>
+  </si>
+  <si>
+    <t>cls-l0-procedure</t>
+  </si>
+  <si>
+    <t>CLS L0 Procedure</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#procedure</t>
+  </si>
+  <si>
+    <t>cls-l0-social-history</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#social-history</t>
+  </si>
+  <si>
+    <t>cls-l0-survey</t>
+  </si>
+  <si>
+    <t>CLS L0 Survey</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#survey</t>
+  </si>
+  <si>
+    <t>cls-l0-therapy</t>
+  </si>
+  <si>
+    <t>CLS L0 Therapy</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#therapy</t>
+  </si>
+  <si>
+    <t>cls-l0-vital-signs</t>
+  </si>
+  <si>
+    <t>CLS L0 Vital Signs</t>
   </si>
   <si>
     <t>Observation Category Codes#vital-signs</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-vitalsignresult (extensible)</t>
-  </si>
-  <si>
-    <t>dateTimeĵ, Periodĵ</t>
-  </si>
-  <si>
-    <t>Quantityĵ, CodeableConceptĵ, stringĵ, booleanĵ, integerĵ, Rangeĵ, Ratioĵ, SampledDataĵ, timeĵ, dateTimeĵ, Periodĵ</t>
-  </si>
-  <si>
-    <t>optional</t>
-  </si>
-  <si>
-    <t>cde-age</t>
-  </si>
-  <si>
-    <t>CDE Age</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#social-history, null#NCIT_C20189, null#NCIT_C171087, null#NCIT_C19332, null#NCIT_C25150</t>
-  </si>
-  <si>
-    <t>null#30525-0</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes (example)</t>
-  </si>
-  <si>
-    <t>dateTime, Period, Timing, instant</t>
-  </si>
-  <si>
-    <t>Quantity, CodeableConcept, string, boolean, integer, Range, Ratio, SampledData, time, dateTime, Period</t>
-  </si>
-  <si>
-    <t>cde-age-at-diagnosis-of-essential-hypertension</t>
-  </si>
-  <si>
-    <t>CDE Age At Diagnosis Of Essential Hypertension</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#social-history, null#NCIT_C20189, null#NCIT_C171087, null#NCIT_C19332, null#NCIT_C25150, null#NCIT_C156420</t>
-  </si>
-  <si>
-    <t>CodeableConcept</t>
-  </si>
-  <si>
-    <t>LOINC#29308-4</t>
-  </si>
-  <si>
-    <t>dateTime</t>
-  </si>
-  <si>
-    <t>SNOMED CT#432213005</t>
-  </si>
-  <si>
-    <t>cde-birth-date</t>
-  </si>
-  <si>
-    <t>CDE Birth Date</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#social-history, null#NCIT_C20189, null#NCIT_C41009, null#NCIT_C21514, null#NCIT_C25164, null#NCIT_C68615</t>
-  </si>
-  <si>
-    <t>null#21112-8</t>
-  </si>
-  <si>
-    <t>cde-blood-pressure-diastolic</t>
-  </si>
-  <si>
-    <t>CDE Blood Pressure Diastolic</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000001, null#CMO_0000003, null#CMO_0000005</t>
-  </si>
-  <si>
-    <t>null#8462-4</t>
-  </si>
-  <si>
-    <t>cde-blood-pressure-systolic</t>
-  </si>
-  <si>
-    <t>CDE Blood Pressure Systolic</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000001, null#CMO_0000003, null#CMO_0000004</t>
-  </si>
-  <si>
-    <t>null#8480-6</t>
-  </si>
-  <si>
-    <t>cde-body-height</t>
-  </si>
-  <si>
-    <t>CDE Body Height</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000021, null#CMO_0000011, null#CMO_0000106</t>
-  </si>
-  <si>
-    <t>null#8302-2</t>
-  </si>
-  <si>
-    <t>cde-body-mass-index</t>
-  </si>
-  <si>
-    <t>CDE Body Mass Index</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000021, null#CMO_0000022, null#CMO_0001196, null#CMO_0000105</t>
-  </si>
-  <si>
-    <t>null#39156-5</t>
-  </si>
-  <si>
-    <t>cde-body-weight</t>
-  </si>
-  <si>
-    <t>CDE Body Weight</t>
-  </si>
-  <si>
-    <t>null#29463-7</t>
-  </si>
-  <si>
-    <t>cde-calcium-in-serum-or-plasma</t>
-  </si>
-  <si>
-    <t>CDE Calcium In Serum Or Plasma</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000035, null#CMO_0000023, null#CMO_0000063, null#CMO_0000502</t>
-  </si>
-  <si>
-    <t>null#2000-8</t>
-  </si>
-  <si>
-    <t>cde-chloride-in-serum-or-plasma</t>
-  </si>
-  <si>
-    <t>CDE Chloride In Serum Or Plasma</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000035, null#CMO_0000023, null#CMO_0000063, null#CMO_0000497</t>
-  </si>
-  <si>
-    <t>null#2075-0</t>
-  </si>
-  <si>
-    <t>cde-creatinine-in-ser-or-plas</t>
-  </si>
-  <si>
-    <t>CDE Creatinine In Serum Or Plasma</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000035, null#CMO_0000023, null#CMO_0000767, null#CMO_0000538</t>
-  </si>
-  <si>
-    <t>null#14682-9</t>
-  </si>
-  <si>
-    <t>cde-current-age-calculated</t>
-  </si>
-  <si>
-    <t>CDE Current Age Calculated</t>
-  </si>
-  <si>
-    <t>null#29553-5</t>
-  </si>
-  <si>
-    <t>dateTimeĵ, Periodĵ, Timingĵ, instantĵ</t>
-  </si>
-  <si>
-    <t>cde-current-age-reported</t>
-  </si>
-  <si>
-    <t>CDE Current Age Reported</t>
-  </si>
-  <si>
-    <t>null#21612-7</t>
-  </si>
-  <si>
-    <t>cde-date-of-diagnosis</t>
-  </si>
-  <si>
-    <t>CDE Date Of Diagnosis</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#social-history, null#NCIT_C20189, null#NCIT_C41009, null#NCIT_C21514, null#NCIT_C25164, null#NCIT_C164339</t>
-  </si>
-  <si>
-    <t>null#432213005</t>
-  </si>
-  <si>
-    <t>cde-erythrocytes-in-blood</t>
-  </si>
-  <si>
-    <t>CDE Erythrocytes In Blood</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000036, null#CMO_0001356</t>
-  </si>
-  <si>
-    <t>null#26453-1</t>
-  </si>
-  <si>
-    <t>cde-ethnicity</t>
-  </si>
-  <si>
-    <t>CDE Ethnicity</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#social-history, SNOMED CT#138875005, SNOMED CT#363787002, SNOMED CT#160476009, SNOMED CT#302147001</t>
-  </si>
-  <si>
-    <t>null#364699009</t>
-  </si>
-  <si>
-    <t>SNOMED CT#14045001, Unified Medical Language System#C0043157</t>
-  </si>
-  <si>
-    <t>null#C77811, Unified Medical Language System#C0240321</t>
-  </si>
-  <si>
-    <t>SNOMED CT#18167009, Unified Medical Language System#C0085756</t>
-  </si>
-  <si>
-    <t>cde-glucose-in-serum-or-plasma</t>
-  </si>
-  <si>
-    <t>CDE Glucose In Serum Or Plasma</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000035, null#CMO_0000023, null#CMO_0000046</t>
-  </si>
-  <si>
-    <t>null#14749-6</t>
-  </si>
-  <si>
-    <t>cde-hematocrit-of-blood</t>
-  </si>
-  <si>
-    <t>CDE Hematocrit Of Blood</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000036, null#CMO_0000508</t>
-  </si>
-  <si>
-    <t>null#20570-8</t>
-  </si>
-  <si>
-    <t>cde-hemoglobin-in-blood</t>
-  </si>
-  <si>
-    <t>CDE Hemoglobin In Blood</t>
-  </si>
-  <si>
-    <t>null#59260-0</t>
-  </si>
-  <si>
-    <t>cde-hip-circumference</t>
-  </si>
-  <si>
-    <t>CDE Hip Circumference</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000021, null#CMO_0000014</t>
-  </si>
-  <si>
-    <t>null#284472007</t>
-  </si>
-  <si>
-    <t>cde-leukocytes-in-blood</t>
-  </si>
-  <si>
-    <t>CDE Leukocytes In Blood</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000036, null#CMO_0002341</t>
-  </si>
-  <si>
-    <t>null#26464-8</t>
-  </si>
-  <si>
-    <t>cde-magnesium-in-serum-or-plasma</t>
-  </si>
-  <si>
-    <t>CDE Magnesium In Serum Or Plasma</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000035, null#CMO_0000023, null#CMO_0000063, null#CMO_0000505</t>
-  </si>
-  <si>
-    <t>null#2601-3</t>
-  </si>
-  <si>
-    <t>cde-phosphate-in-serum-or-plasma</t>
-  </si>
-  <si>
-    <t>CDE Phosphate In Serum Or Plasma</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000035, null#CMO_0000023, null#CMO_0000063, null#CMO_0000504</t>
-  </si>
-  <si>
-    <t>null#14879-1</t>
-  </si>
-  <si>
-    <t>cde-potassium-in-serum-or-plasma</t>
-  </si>
-  <si>
-    <t>CDE Potassium In Serum Or Plasma</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000035, null#CMO_0000023, null#CMO_0000063, null#CMO_0000496</t>
-  </si>
-  <si>
-    <t>null#2823-3</t>
-  </si>
-  <si>
-    <t>cde-sex-assigned-at-birth</t>
-  </si>
-  <si>
-    <t>CDE Sex Assigned At Birth</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#social-history, SNOMED CT#138875005, SNOMED CT#363787002, SNOMED CT#160476009, SNOMED CT#302147001, SNOMED CT#184100006</t>
-  </si>
-  <si>
-    <t>null#76689-9</t>
-  </si>
-  <si>
-    <t>SNOMED CT#248153007, Unified Medical Language System#C1706180</t>
-  </si>
-  <si>
-    <t>SNOMED CT#248152002, Unified Medical Language System#C0015780</t>
-  </si>
-  <si>
-    <t>SNOMED CT#32570691000036108, Unified Medical Language System#C1704620</t>
-  </si>
-  <si>
-    <t>cde-sodium-in-serum-or-plasma</t>
-  </si>
-  <si>
-    <t>CDE Sodium In Serum Or Plasma</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000035, null#CMO_0000023, null#CMO_0000063, null#CMO_0000499</t>
-  </si>
-  <si>
-    <t>null#2951-2</t>
-  </si>
-  <si>
-    <t>cde-thrombocytes-in-blood</t>
-  </si>
-  <si>
-    <t>CDE Thrombocytes In Blood</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000036, null#CMO_0000921</t>
-  </si>
-  <si>
-    <t>null#26515-7</t>
-  </si>
-  <si>
-    <t>cde-visit-date</t>
-  </si>
-  <si>
-    <t>CDE Visit Date</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#laboratory, null#NCIT_C20189, null#NCIT_C41009, null#NCIT_C21514, null#NCIT_C25164, null#NCIT_C83031</t>
-  </si>
-  <si>
-    <t>null#406543005</t>
-  </si>
-  <si>
-    <t>cde-waist-circumference</t>
-  </si>
-  <si>
-    <t>CDE Waist Circumference</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000021, null#CMO_0000296, null#CMO_0000014</t>
-  </si>
-  <si>
-    <t>null#276361009</t>
-  </si>
-  <si>
-    <t>cls-l0-activity</t>
-  </si>
-  <si>
-    <t>CLS L0 Social History</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#activity</t>
-  </si>
-  <si>
-    <t>cls-l0-exam</t>
-  </si>
-  <si>
-    <t>CLS L0 Exam</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#exam</t>
-  </si>
-  <si>
-    <t>cls-l0-imaging</t>
-  </si>
-  <si>
-    <t>CLS L0 Imaging</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#imaging</t>
-  </si>
-  <si>
-    <t>cls-l0-laboratory</t>
-  </si>
-  <si>
-    <t>CLS L0 Laboratory</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#laboratory</t>
-  </si>
-  <si>
-    <t>cls-l0-procedure</t>
-  </si>
-  <si>
-    <t>CLS L0 Procedure</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#procedure</t>
-  </si>
-  <si>
-    <t>cls-l0-social-history</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#social-history</t>
-  </si>
-  <si>
-    <t>cls-l0-survey</t>
-  </si>
-  <si>
-    <t>CLS L0 Survey</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#survey</t>
-  </si>
-  <si>
-    <t>cls-l0-therapy</t>
-  </si>
-  <si>
-    <t>CLS L0 Therapy</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#therapy</t>
-  </si>
-  <si>
-    <t>cls-l0-vital-signs</t>
-  </si>
-  <si>
-    <t>CLS L0 Vital Signs</t>
   </si>
   <si>
     <t>cls-l1-administrative-information</t>
@@ -817,7 +808,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K71"/>
+  <dimension ref="A1:K70"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -872,19 +863,19 @@
         <v>14</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s" s="2">
         <v>14</v>
@@ -895,31 +886,31 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J3" t="s" s="2">
         <v>14</v>
@@ -930,37 +921,37 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="G4" t="s" s="2">
+      <c r="I4" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>24</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J4" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K4" t="s" s="2">
-        <v>14</v>
       </c>
     </row>
     <row r="5">
@@ -968,7 +959,7 @@
         <v>14</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>14</v>
@@ -986,80 +977,80 @@
         <v>14</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J5" t="s" s="2">
         <v>14</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J6" t="s" s="2">
         <v>14</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s" s="2">
         <v>33</v>
       </c>
-      <c r="B7" t="s" s="2">
+      <c r="D7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s" s="2">
         <v>34</v>
       </c>
-      <c r="C7" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s" s="2">
-        <v>36</v>
-      </c>
       <c r="F7" t="s" s="2">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J7" t="s" s="2">
         <v>14</v>
@@ -1070,31 +1061,31 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="B8" t="s" s="2">
+      <c r="D8" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="C8" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D8" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="F8" t="s" s="2">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J8" t="s" s="2">
         <v>14</v>
@@ -1105,31 +1096,31 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="B9" t="s" s="2">
+      <c r="D9" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="C9" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D9" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="F9" t="s" s="2">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>14</v>
@@ -1140,31 +1131,31 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="D10" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="C10" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="D10" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E10" t="s" s="2">
-        <v>48</v>
-      </c>
       <c r="F10" t="s" s="2">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>14</v>
@@ -1175,31 +1166,31 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="B11" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="D11" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="F11" t="s" s="2">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>14</v>
@@ -1210,31 +1201,31 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="D12" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="B12" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="D12" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E12" t="s" s="2">
-        <v>55</v>
-      </c>
       <c r="F12" t="s" s="2">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>14</v>
@@ -1245,31 +1236,31 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="C13" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="B13" t="s" s="2">
+      <c r="D13" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="C13" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="D13" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E13" t="s" s="2">
-        <v>59</v>
-      </c>
       <c r="F13" t="s" s="2">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>14</v>
@@ -1280,31 +1271,31 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="C14" t="s" s="2">
         <v>60</v>
       </c>
-      <c r="B14" t="s" s="2">
+      <c r="D14" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="C14" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="D14" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E14" t="s" s="2">
-        <v>63</v>
-      </c>
       <c r="F14" t="s" s="2">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>14</v>
@@ -1315,31 +1306,31 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="B15" t="s" s="2">
+      <c r="F15" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G15" t="s" s="2">
         <v>65</v>
       </c>
-      <c r="C15" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="D15" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E15" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="F15" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="G15" t="s" s="2">
-        <v>24</v>
-      </c>
       <c r="H15" t="s" s="2">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>14</v>
@@ -1350,31 +1341,31 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s" s="2">
         <v>68</v>
       </c>
-      <c r="B16" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="C16" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="D16" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E16" t="s" s="2">
-        <v>70</v>
-      </c>
       <c r="F16" t="s" s="2">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>14</v>
@@ -1385,31 +1376,31 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D17" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="B17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C17" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="D17" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E17" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="F17" t="s" s="2">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>14</v>
@@ -1420,31 +1411,31 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="C18" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="B18" t="s" s="2">
+      <c r="D18" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="C18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D18" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E18" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="F18" t="s" s="2">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>14</v>
@@ -1455,31 +1446,31 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="C19" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="B19" t="s" s="2">
+      <c r="D19" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="C19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="D19" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E19" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="F19" t="s" s="2">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>14</v>
@@ -1490,37 +1481,37 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E20" t="s" s="2">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>14</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>14</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21">
@@ -1528,7 +1519,7 @@
         <v>14</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>14</v>
@@ -1546,16 +1537,16 @@
         <v>14</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>14</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22">
@@ -1563,34 +1554,34 @@
         <v>14</v>
       </c>
       <c r="B22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E22" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F22" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J22" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="C22" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D22" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E22" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="F22" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J22" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K22" t="s" s="2">
-        <v>88</v>
       </c>
     </row>
     <row r="23">
@@ -1598,7 +1589,7 @@
         <v>14</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>14</v>
@@ -1616,16 +1607,16 @@
         <v>14</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>14</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24">
@@ -1633,7 +1624,7 @@
         <v>14</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>14</v>
@@ -1651,10 +1642,10 @@
         <v>14</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>14</v>
@@ -1668,7 +1659,7 @@
         <v>14</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>14</v>
@@ -1686,10 +1677,10 @@
         <v>14</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>14</v>
@@ -1700,31 +1691,31 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="D26" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E26" t="s" s="2">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>14</v>
@@ -1750,16 +1741,16 @@
         <v>93</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>14</v>
@@ -1776,25 +1767,25 @@
         <v>95</v>
       </c>
       <c r="C28" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="D28" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E28" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="D28" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E28" t="s" s="2">
-        <v>97</v>
-      </c>
       <c r="F28" t="s" s="2">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>14</v>
@@ -1805,13 +1796,13 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="B29" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="B29" t="s" s="2">
+      <c r="C29" t="s" s="2">
         <v>99</v>
-      </c>
-      <c r="C29" t="s" s="2">
-        <v>96</v>
       </c>
       <c r="D29" t="s" s="2">
         <v>14</v>
@@ -1820,16 +1811,16 @@
         <v>100</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>14</v>
@@ -1855,16 +1846,16 @@
         <v>104</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>14</v>
@@ -1890,16 +1881,16 @@
         <v>108</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J31" t="s" s="2">
         <v>14</v>
@@ -1925,16 +1916,16 @@
         <v>112</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>14</v>
@@ -1960,16 +1951,16 @@
         <v>116</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>14</v>
@@ -1995,16 +1986,16 @@
         <v>120</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>14</v>
@@ -2015,37 +2006,37 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="C35" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D35" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E35" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="C35" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="D35" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E35" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="F35" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="G35" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J35" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K35" t="s" s="2">
-        <v>14</v>
       </c>
     </row>
     <row r="36">
@@ -2053,34 +2044,34 @@
         <v>14</v>
       </c>
       <c r="B36" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="C36" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D36" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E36" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="C36" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D36" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E36" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="F36" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G36" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J36" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K36" t="s" s="2">
-        <v>125</v>
       </c>
     </row>
     <row r="37">
@@ -2088,7 +2079,7 @@
         <v>14</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C37" t="s" s="2">
         <v>14</v>
@@ -2106,51 +2097,51 @@
         <v>14</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J37" t="s" s="2">
         <v>14</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E38" t="s" s="2">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J38" t="s" s="2">
         <v>14</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>127</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39">
@@ -2170,16 +2161,16 @@
         <v>131</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>14</v>
@@ -2205,16 +2196,16 @@
         <v>135</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J40" t="s" s="2">
         <v>14</v>
@@ -2240,16 +2231,16 @@
         <v>139</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J41" t="s" s="2">
         <v>14</v>
@@ -2272,19 +2263,19 @@
         <v>14</v>
       </c>
       <c r="E42" t="s" s="2">
-        <v>143</v>
+        <v>14</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J42" t="s" s="2">
         <v>14</v>
@@ -2295,14 +2286,14 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="B43" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="B43" t="s" s="2">
+      <c r="C43" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="C43" t="s" s="2">
-        <v>146</v>
-      </c>
       <c r="D43" t="s" s="2">
         <v>14</v>
       </c>
@@ -2310,16 +2301,16 @@
         <v>14</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>14</v>
@@ -2330,14 +2321,14 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="B44" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="B44" t="s" s="2">
+      <c r="C44" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="C44" t="s" s="2">
-        <v>149</v>
-      </c>
       <c r="D44" t="s" s="2">
         <v>14</v>
       </c>
@@ -2345,16 +2336,16 @@
         <v>14</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J44" t="s" s="2">
         <v>14</v>
@@ -2365,14 +2356,14 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="B45" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="B45" t="s" s="2">
+      <c r="C45" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="C45" t="s" s="2">
-        <v>152</v>
-      </c>
       <c r="D45" t="s" s="2">
         <v>14</v>
       </c>
@@ -2380,16 +2371,16 @@
         <v>14</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J45" t="s" s="2">
         <v>14</v>
@@ -2400,14 +2391,14 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="B46" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="B46" t="s" s="2">
+      <c r="C46" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="C46" t="s" s="2">
-        <v>155</v>
-      </c>
       <c r="D46" t="s" s="2">
         <v>14</v>
       </c>
@@ -2415,16 +2406,16 @@
         <v>14</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>14</v>
@@ -2435,14 +2426,14 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="C47" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="B47" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="C47" t="s" s="2">
-        <v>158</v>
-      </c>
       <c r="D47" t="s" s="2">
         <v>14</v>
       </c>
@@ -2450,16 +2441,16 @@
         <v>14</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J47" t="s" s="2">
         <v>14</v>
@@ -2470,14 +2461,14 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="C48" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="B48" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="C48" t="s" s="2">
-        <v>160</v>
-      </c>
       <c r="D48" t="s" s="2">
         <v>14</v>
       </c>
@@ -2485,16 +2476,16 @@
         <v>14</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J48" t="s" s="2">
         <v>14</v>
@@ -2505,14 +2496,14 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="B49" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="B49" t="s" s="2">
+      <c r="C49" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="C49" t="s" s="2">
-        <v>163</v>
-      </c>
       <c r="D49" t="s" s="2">
         <v>14</v>
       </c>
@@ -2520,16 +2511,16 @@
         <v>14</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J49" t="s" s="2">
         <v>14</v>
@@ -2540,14 +2531,14 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="B50" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="B50" t="s" s="2">
+      <c r="C50" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="C50" t="s" s="2">
-        <v>166</v>
-      </c>
       <c r="D50" t="s" s="2">
         <v>14</v>
       </c>
@@ -2555,16 +2546,16 @@
         <v>14</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J50" t="s" s="2">
         <v>14</v>
@@ -2575,13 +2566,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="B51" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="B51" t="s" s="2">
-        <v>168</v>
-      </c>
       <c r="C51" t="s" s="2">
-        <v>13</v>
+        <v>156</v>
       </c>
       <c r="D51" t="s" s="2">
         <v>14</v>
@@ -2590,16 +2581,16 @@
         <v>14</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J51" t="s" s="2">
         <v>14</v>
@@ -2610,14 +2601,14 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="B52" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="B52" t="s" s="2">
+      <c r="C52" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="C52" t="s" s="2">
-        <v>160</v>
-      </c>
       <c r="D52" t="s" s="2">
         <v>14</v>
       </c>
@@ -2625,16 +2616,16 @@
         <v>14</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J52" t="s" s="2">
         <v>14</v>
@@ -2660,16 +2651,16 @@
         <v>14</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J53" t="s" s="2">
         <v>14</v>
@@ -2686,7 +2677,7 @@
         <v>175</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D54" t="s" s="2">
         <v>14</v>
@@ -2695,16 +2686,16 @@
         <v>14</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J54" t="s" s="2">
         <v>14</v>
@@ -2715,13 +2706,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="B55" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="B55" t="s" s="2">
-        <v>178</v>
-      </c>
       <c r="C55" t="s" s="2">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>14</v>
@@ -2730,16 +2721,16 @@
         <v>14</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>14</v>
@@ -2750,14 +2741,14 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="B56" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="B56" t="s" s="2">
+      <c r="C56" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="C56" t="s" s="2">
-        <v>149</v>
-      </c>
       <c r="D56" t="s" s="2">
         <v>14</v>
       </c>
@@ -2765,16 +2756,16 @@
         <v>14</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J56" t="s" s="2">
         <v>14</v>
@@ -2800,16 +2791,16 @@
         <v>14</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J57" t="s" s="2">
         <v>14</v>
@@ -2835,16 +2826,16 @@
         <v>14</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J58" t="s" s="2">
         <v>14</v>
@@ -2870,16 +2861,16 @@
         <v>14</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J59" t="s" s="2">
         <v>14</v>
@@ -2905,16 +2896,16 @@
         <v>14</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J60" t="s" s="2">
         <v>14</v>
@@ -2940,16 +2931,16 @@
         <v>14</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J61" t="s" s="2">
         <v>14</v>
@@ -2975,16 +2966,16 @@
         <v>14</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J62" t="s" s="2">
         <v>14</v>
@@ -3010,16 +3001,16 @@
         <v>14</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J63" t="s" s="2">
         <v>14</v>
@@ -3045,16 +3036,16 @@
         <v>14</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J64" t="s" s="2">
         <v>14</v>
@@ -3080,16 +3071,16 @@
         <v>14</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J65" t="s" s="2">
         <v>14</v>
@@ -3115,16 +3106,16 @@
         <v>14</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J66" t="s" s="2">
         <v>14</v>
@@ -3150,16 +3141,16 @@
         <v>14</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J67" t="s" s="2">
         <v>14</v>
@@ -3176,25 +3167,25 @@
         <v>215</v>
       </c>
       <c r="C68" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D68" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E68" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="D68" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E68" t="s" s="2">
-        <v>14</v>
-      </c>
       <c r="F68" t="s" s="2">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>25</v>
+        <v>217</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J68" t="s" s="2">
         <v>14</v>
@@ -3205,31 +3196,31 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>217</v>
+        <v>14</v>
       </c>
       <c r="B69" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="C69" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D69" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E69" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="C69" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D69" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E69" t="s" s="2">
+      <c r="F69" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H69" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="F69" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>220</v>
-      </c>
       <c r="I69" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J69" t="s" s="2">
         <v>14</v>
@@ -3243,7 +3234,7 @@
         <v>14</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C70" t="s" s="2">
         <v>14</v>
@@ -3252,7 +3243,7 @@
         <v>14</v>
       </c>
       <c r="E70" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F70" t="s" s="2">
         <v>14</v>
@@ -3261,50 +3252,15 @@
         <v>14</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J70" t="s" s="2">
         <v>14</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="C71" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D71" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E71" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="F71" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K71" t="s" s="2">
         <v>14</v>
       </c>
     </row>

--- a/output/observations-summary.xlsx
+++ b/output/observations-summary.xlsx
@@ -1537,7 +1537,7 @@
         <v>14</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>19</v>
@@ -1572,7 +1572,7 @@
         <v>14</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>19</v>
@@ -1607,7 +1607,7 @@
         <v>14</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>19</v>
@@ -1642,7 +1642,7 @@
         <v>14</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>19</v>
@@ -1651,7 +1651,7 @@
         <v>14</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>14</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25">
@@ -1677,7 +1677,7 @@
         <v>14</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>19</v>
@@ -2027,7 +2027,7 @@
         <v>14</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>19</v>
@@ -2062,7 +2062,7 @@
         <v>14</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>19</v>
@@ -2097,7 +2097,7 @@
         <v>14</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>19</v>

--- a/output/observations-summary.xlsx
+++ b/output/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="233">
   <si>
     <t>Profile</t>
   </si>
@@ -408,6 +408,42 @@
   </si>
   <si>
     <t>null#26515-7</t>
+  </si>
+  <si>
+    <t>cde-tobacco-smoking-cessation-year</t>
+  </si>
+  <si>
+    <t>CDE Tobacco Smoking Cessation Year</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#social-history, null#NCIT_C20189, null#NCIT_C41009, null#NCIT_C21514, null#NCIT_C25164, null#NCIT_C159612</t>
+  </si>
+  <si>
+    <t>null#NCIT_C156425</t>
+  </si>
+  <si>
+    <t>cde-tobacco-smoking-status</t>
+  </si>
+  <si>
+    <t>CDE Smoking Status</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#social-history, SNOMED CT#138875005, SNOMED CT#404684003, SNOMED CT#384821006, SNOMED CT#365949003, SNOMED CT#365980008</t>
+  </si>
+  <si>
+    <t>null#72166-2</t>
+  </si>
+  <si>
+    <t>SNOMED CT#449868002</t>
+  </si>
+  <si>
+    <t>SNOMED CT#428041000124106</t>
+  </si>
+  <si>
+    <t>SNOMED CT#8517006</t>
+  </si>
+  <si>
+    <t>SNOMED CT#8392000</t>
   </si>
   <si>
     <t>cde-visit-date</t>
@@ -808,7 +844,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K70"/>
+  <dimension ref="A1:K76"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2251,48 +2287,48 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="C42" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D42" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E42" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="C42" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="D42" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E42" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="F42" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="G42" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J42" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K42" t="s" s="2">
-        <v>14</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>143</v>
+        <v>14</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>145</v>
+        <v>14</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>14</v>
@@ -2301,10 +2337,10 @@
         <v>14</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>18</v>
@@ -2316,18 +2352,18 @@
         <v>14</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>14</v>
+        <v>141</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>146</v>
+        <v>14</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>148</v>
+        <v>14</v>
       </c>
       <c r="D44" t="s" s="2">
         <v>14</v>
@@ -2336,10 +2372,10 @@
         <v>14</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>18</v>
@@ -2351,18 +2387,18 @@
         <v>14</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>14</v>
+        <v>142</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>149</v>
+        <v>14</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>151</v>
+        <v>14</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>14</v>
@@ -2371,10 +2407,10 @@
         <v>14</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>18</v>
@@ -2386,24 +2422,24 @@
         <v>14</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>14</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E46" t="s" s="2">
-        <v>14</v>
+        <v>147</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>16</v>
@@ -2426,19 +2462,19 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D47" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E47" t="s" s="2">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>16</v>
@@ -2461,13 +2497,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>14</v>
@@ -2496,13 +2532,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D49" t="s" s="2">
         <v>14</v>
@@ -2531,13 +2567,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>14</v>
@@ -2566,13 +2602,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="D51" t="s" s="2">
         <v>14</v>
@@ -2601,13 +2637,13 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D52" t="s" s="2">
         <v>14</v>
@@ -2636,13 +2672,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D53" t="s" s="2">
         <v>14</v>
@@ -2671,13 +2707,13 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D54" t="s" s="2">
         <v>14</v>
@@ -2706,13 +2742,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>14</v>
@@ -2741,13 +2777,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D56" t="s" s="2">
         <v>14</v>
@@ -2776,13 +2812,13 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="D57" t="s" s="2">
         <v>14</v>
@@ -2811,13 +2847,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>14</v>
@@ -2846,13 +2882,13 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D59" t="s" s="2">
         <v>14</v>
@@ -2881,13 +2917,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>14</v>
@@ -2916,13 +2952,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>195</v>
+        <v>157</v>
       </c>
       <c r="D61" t="s" s="2">
         <v>14</v>
@@ -2951,13 +2987,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D62" t="s" s="2">
         <v>14</v>
@@ -2986,13 +3022,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>14</v>
@@ -3021,13 +3057,13 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D64" t="s" s="2">
         <v>14</v>
@@ -3056,13 +3092,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>14</v>
@@ -3091,13 +3127,13 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D66" t="s" s="2">
         <v>14</v>
@@ -3126,13 +3162,13 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D67" t="s" s="2">
         <v>14</v>
@@ -3161,28 +3197,28 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>14</v>
+        <v>210</v>
       </c>
       <c r="D68" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E68" t="s" s="2">
-        <v>216</v>
+        <v>14</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>17</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>217</v>
+        <v>18</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>19</v>
@@ -3196,28 +3232,28 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>14</v>
+        <v>211</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>14</v>
+        <v>213</v>
       </c>
       <c r="D69" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E69" t="s" s="2">
-        <v>218</v>
+        <v>14</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>219</v>
+        <v>18</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>19</v>
@@ -3231,36 +3267,246 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>14</v>
+        <v>214</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>215</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>14</v>
+        <v>216</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E70" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="C71" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="D71" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E71" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="F70" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K70" t="s" s="2">
+      <c r="B72" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="C72" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="D72" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E72" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="C73" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="D73" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E73" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="C74" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D74" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E74" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="C75" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D75" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E75" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="C76" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D76" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E76" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K76" t="s" s="2">
         <v>14</v>
       </c>
     </row>

--- a/output/observations-summary.xlsx
+++ b/output/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="235">
   <si>
     <t>Profile</t>
   </si>
@@ -690,6 +690,12 @@
   </si>
   <si>
     <t>Observation Category Codes#laboratory, SNOMED CT#785671009, SNOMED CT#371439000, SNOMED CT#78014005</t>
+  </si>
+  <si>
+    <t>cls-snomed-finding-of-tobacco-use-and-exposure</t>
+  </si>
+  <si>
+    <t>CLS SNOMED Finding Of Tobacco Use And Exposure</t>
   </si>
   <si>
     <t>myObservation</t>
@@ -844,7 +850,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K76"/>
+  <dimension ref="A1:K77"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3413,22 +3419,22 @@
         <v>227</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>14</v>
+        <v>138</v>
       </c>
       <c r="D74" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E74" t="s" s="2">
-        <v>228</v>
+        <v>14</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>17</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>229</v>
+        <v>18</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>19</v>
@@ -3442,10 +3448,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>14</v>
+        <v>228</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C75" t="s" s="2">
         <v>14</v>
@@ -3460,7 +3466,7 @@
         <v>14</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>231</v>
@@ -3480,7 +3486,7 @@
         <v>14</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C76" t="s" s="2">
         <v>14</v>
@@ -3498,7 +3504,7 @@
         <v>14</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>19</v>
@@ -3507,6 +3513,41 @@
         <v>14</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="C77" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D77" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E77" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K77" t="s" s="2">
         <v>14</v>
       </c>
     </row>

--- a/output/observations-summary.xlsx
+++ b/output/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="246">
   <si>
     <t>Profile</t>
   </si>
@@ -164,15 +164,24 @@
     <t>null#29463-7</t>
   </si>
   <si>
-    <t>cde-calcium-in-serum-or-plasma</t>
-  </si>
-  <si>
-    <t>CDE Calcium In Serum Or Plasma</t>
+    <t>cde-calcium-in-serum-or-plasma-mass-concentration</t>
+  </si>
+  <si>
+    <t>CDE Calcium In Serum Or Plasma Mass Concentration</t>
   </si>
   <si>
     <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000035, null#CMO_0000023, null#CMO_0000063, null#CMO_0000502</t>
   </si>
   <si>
+    <t>null#17861-6</t>
+  </si>
+  <si>
+    <t>cde-calcium-in-serum-or-plasma-mole-concentration</t>
+  </si>
+  <si>
+    <t>CDE Calcium In Serum Or Plasma Mole Concentration</t>
+  </si>
+  <si>
     <t>null#2000-8</t>
   </si>
   <si>
@@ -440,10 +449,10 @@
     <t>SNOMED CT#428041000124106</t>
   </si>
   <si>
-    <t>SNOMED CT#8517006</t>
-  </si>
-  <si>
-    <t>SNOMED CT#8392000</t>
+    <t>SNOMED CT#8517006, LOINC#LA15920-4</t>
+  </si>
+  <si>
+    <t>SNOMED CT#8392000, LOINC#LA18978-9</t>
   </si>
   <si>
     <t>cde-visit-date</t>
@@ -692,10 +701,34 @@
     <t>Observation Category Codes#laboratory, SNOMED CT#785671009, SNOMED CT#371439000, SNOMED CT#78014005</t>
   </si>
   <si>
+    <t>cls-obo-cmo-blood-calcium-level</t>
+  </si>
+  <si>
+    <t>CLS CMO Blood Calcium Level</t>
+  </si>
+  <si>
+    <t>cls-obo-ncit-year-date</t>
+  </si>
+  <si>
+    <t>CLS OBO NCIT Year Date</t>
+  </si>
+  <si>
+    <t>cls-snomed-demographic-history-detail</t>
+  </si>
+  <si>
+    <t>CLS SNOMED Demographic History Detail</t>
+  </si>
+  <si>
     <t>cls-snomed-finding-of-tobacco-use-and-exposure</t>
   </si>
   <si>
     <t>CLS SNOMED Finding Of Tobacco Use And Exposure</t>
+  </si>
+  <si>
+    <t>cls-snomed-patient-sex</t>
+  </si>
+  <si>
+    <t>CLS SNOMED Patient Sex</t>
   </si>
   <si>
     <t>myObservation</t>
@@ -850,7 +883,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K77"/>
+  <dimension ref="A1:K82"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1284,13 +1317,13 @@
         <v>55</v>
       </c>
       <c r="C13" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="D13" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s" s="2">
         <v>56</v>
-      </c>
-      <c r="D13" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E13" t="s" s="2">
-        <v>57</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>16</v>
@@ -1313,19 +1346,19 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B14" t="s" s="2">
         <v>58</v>
       </c>
-      <c r="B14" t="s" s="2">
+      <c r="C14" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="C14" t="s" s="2">
+      <c r="D14" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s" s="2">
         <v>60</v>
-      </c>
-      <c r="D14" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E14" t="s" s="2">
-        <v>61</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>16</v>
@@ -1348,13 +1381,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>62</v>
       </c>
-      <c r="B15" t="s" s="2">
+      <c r="C15" t="s" s="2">
         <v>63</v>
-      </c>
-      <c r="C15" t="s" s="2">
-        <v>13</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>14</v>
@@ -1366,7 +1399,7 @@
         <v>16</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>18</v>
@@ -1383,10 +1416,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>66</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>67</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>13</v>
@@ -1395,13 +1428,13 @@
         <v>14</v>
       </c>
       <c r="E16" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G16" t="s" s="2">
         <v>68</v>
-      </c>
-      <c r="F16" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="G16" t="s" s="2">
-        <v>17</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>18</v>
@@ -1424,13 +1457,13 @@
         <v>70</v>
       </c>
       <c r="C17" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s" s="2">
         <v>71</v>
-      </c>
-      <c r="D17" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E17" t="s" s="2">
-        <v>72</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>16</v>
@@ -1453,19 +1486,19 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="B18" t="s" s="2">
+      <c r="C18" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="C18" t="s" s="2">
+      <c r="D18" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s" s="2">
         <v>75</v>
-      </c>
-      <c r="D18" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E18" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>16</v>
@@ -1488,19 +1521,19 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="B19" t="s" s="2">
+      <c r="C19" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="C19" t="s" s="2">
+      <c r="D19" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s" s="2">
         <v>79</v>
-      </c>
-      <c r="D19" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E19" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>16</v>
@@ -1523,28 +1556,28 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E20" t="s" s="2">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>19</v>
@@ -1553,7 +1586,7 @@
         <v>14</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>82</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21">
@@ -1561,7 +1594,7 @@
         <v>14</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>14</v>
@@ -1579,7 +1612,7 @@
         <v>14</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>19</v>
@@ -1588,7 +1621,7 @@
         <v>14</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22">
@@ -1596,7 +1629,7 @@
         <v>14</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>14</v>
@@ -1614,7 +1647,7 @@
         <v>14</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>19</v>
@@ -1623,7 +1656,7 @@
         <v>14</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23">
@@ -1631,7 +1664,7 @@
         <v>14</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>14</v>
@@ -1649,7 +1682,7 @@
         <v>14</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>19</v>
@@ -1658,7 +1691,7 @@
         <v>14</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24">
@@ -1666,7 +1699,7 @@
         <v>14</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>14</v>
@@ -1684,7 +1717,7 @@
         <v>14</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>19</v>
@@ -1693,7 +1726,7 @@
         <v>14</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25">
@@ -1701,7 +1734,7 @@
         <v>14</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>14</v>
@@ -1719,7 +1752,7 @@
         <v>14</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>19</v>
@@ -1728,33 +1761,33 @@
         <v>14</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>14</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="D26" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E26" t="s" s="2">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>19</v>
@@ -1768,19 +1801,19 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="B27" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="B27" t="s" s="2">
+      <c r="C27" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="C27" t="s" s="2">
+      <c r="D27" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E27" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="D27" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E27" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>16</v>
@@ -1803,13 +1836,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="B28" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="B28" t="s" s="2">
+      <c r="C28" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="C28" t="s" s="2">
-        <v>92</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>14</v>
@@ -1844,13 +1877,13 @@
         <v>98</v>
       </c>
       <c r="C29" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="D29" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E29" t="s" s="2">
         <v>99</v>
-      </c>
-      <c r="D29" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E29" t="s" s="2">
-        <v>100</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>16</v>
@@ -1873,19 +1906,19 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="B30" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="B30" t="s" s="2">
+      <c r="C30" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="C30" t="s" s="2">
+      <c r="D30" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E30" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="D30" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E30" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>16</v>
@@ -1908,19 +1941,19 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="B31" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="B31" t="s" s="2">
+      <c r="C31" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="C31" t="s" s="2">
+      <c r="D31" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E31" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="D31" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E31" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>16</v>
@@ -1943,19 +1976,19 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="B32" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="B32" t="s" s="2">
+      <c r="C32" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="C32" t="s" s="2">
+      <c r="D32" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E32" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="D32" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E32" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>16</v>
@@ -1978,19 +2011,19 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="B33" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="B33" t="s" s="2">
+      <c r="C33" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="C33" t="s" s="2">
+      <c r="D33" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E33" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="D33" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E33" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>16</v>
@@ -2013,19 +2046,19 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="B34" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="B34" t="s" s="2">
+      <c r="C34" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="C34" t="s" s="2">
+      <c r="D34" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E34" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="D34" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E34" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>16</v>
@@ -2048,28 +2081,28 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E35" t="s" s="2">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>19</v>
@@ -2078,7 +2111,7 @@
         <v>14</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>121</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36">
@@ -2086,7 +2119,7 @@
         <v>14</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C36" t="s" s="2">
         <v>14</v>
@@ -2104,7 +2137,7 @@
         <v>14</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>19</v>
@@ -2113,7 +2146,7 @@
         <v>14</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37">
@@ -2121,7 +2154,7 @@
         <v>14</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C37" t="s" s="2">
         <v>14</v>
@@ -2139,7 +2172,7 @@
         <v>14</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>19</v>
@@ -2148,59 +2181,59 @@
         <v>14</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C38" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D38" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E38" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="D38" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E38" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="F38" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="G38" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J38" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K38" t="s" s="2">
-        <v>14</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="B39" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="B39" t="s" s="2">
+      <c r="C39" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="C39" t="s" s="2">
+      <c r="D39" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E39" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="D39" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E39" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>16</v>
@@ -2223,19 +2256,19 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="B40" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="B40" t="s" s="2">
+      <c r="C40" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="C40" t="s" s="2">
+      <c r="D40" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E40" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="D40" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E40" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>16</v>
@@ -2258,19 +2291,19 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="B41" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="B41" t="s" s="2">
+      <c r="C41" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="C41" t="s" s="2">
+      <c r="D41" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E41" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="D41" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E41" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>16</v>
@@ -2293,25 +2326,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>14</v>
+        <v>139</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>14</v>
+        <v>141</v>
       </c>
       <c r="D42" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E42" t="s" s="2">
-        <v>14</v>
+        <v>142</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>18</v>
@@ -2323,7 +2356,7 @@
         <v>14</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>140</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43">
@@ -2331,7 +2364,7 @@
         <v>14</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C43" t="s" s="2">
         <v>14</v>
@@ -2358,7 +2391,7 @@
         <v>14</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="44">
@@ -2366,7 +2399,7 @@
         <v>14</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C44" t="s" s="2">
         <v>14</v>
@@ -2393,7 +2426,7 @@
         <v>14</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="45">
@@ -2401,7 +2434,7 @@
         <v>14</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C45" t="s" s="2">
         <v>14</v>
@@ -2428,59 +2461,59 @@
         <v>14</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>144</v>
+        <v>14</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C46" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D46" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E46" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="D46" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E46" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="F46" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="G46" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J46" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K46" t="s" s="2">
-        <v>14</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="B47" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="B47" t="s" s="2">
+      <c r="C47" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="C47" t="s" s="2">
+      <c r="D47" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E47" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="D47" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E47" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>16</v>
@@ -2503,19 +2536,19 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="B48" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="B48" t="s" s="2">
+      <c r="C48" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="C48" t="s" s="2">
+      <c r="D48" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E48" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="D48" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E48" t="s" s="2">
-        <v>14</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>16</v>
@@ -2681,10 +2714,10 @@
         <v>167</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D53" t="s" s="2">
         <v>14</v>
@@ -2713,10 +2746,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="C54" t="s" s="2">
         <v>171</v>
@@ -2824,7 +2857,7 @@
         <v>179</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="D57" t="s" s="2">
         <v>14</v>
@@ -2853,13 +2886,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>14</v>
@@ -2929,7 +2962,7 @@
         <v>187</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>14</v>
@@ -2958,13 +2991,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="C61" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="C61" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="D61" t="s" s="2">
         <v>14</v>
@@ -2993,13 +3026,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="D62" t="s" s="2">
         <v>14</v>
@@ -3419,7 +3452,7 @@
         <v>227</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>138</v>
+        <v>228</v>
       </c>
       <c r="D74" t="s" s="2">
         <v>14</v>
@@ -3448,28 +3481,28 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E75" t="s" s="2">
-        <v>230</v>
+        <v>14</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>17</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>231</v>
+        <v>18</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>19</v>
@@ -3483,28 +3516,28 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>14</v>
+        <v>231</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>14</v>
+        <v>137</v>
       </c>
       <c r="D76" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E76" t="s" s="2">
-        <v>232</v>
+        <v>14</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>233</v>
+        <v>18</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>19</v>
@@ -3518,28 +3551,28 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>14</v>
+        <v>233</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="D77" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E77" t="s" s="2">
-        <v>234</v>
+        <v>14</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>233</v>
+        <v>18</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>19</v>
@@ -3548,6 +3581,181 @@
         <v>14</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="C78" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="D78" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E78" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="C79" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="D79" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E79" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="C80" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D80" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E80" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="C81" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D81" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E81" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="C82" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D82" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E82" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K82" t="s" s="2">
         <v>14</v>
       </c>
     </row>

--- a/output/observations-summary.xlsx
+++ b/output/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="200">
   <si>
     <t>Profile</t>
   </si>
@@ -185,10 +185,10 @@
     <t>null#2000-8</t>
   </si>
   <si>
-    <t>cde-chloride-in-serum-or-plasma</t>
-  </si>
-  <si>
-    <t>CDE Chloride In Serum Or Plasma</t>
+    <t>cde-chloride-in-serum-or-plasma-mole-concentration</t>
+  </si>
+  <si>
+    <t>CDE Chloride In Serum Or Plasma Mole Concentration</t>
   </si>
   <si>
     <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000035, null#CMO_0000023, null#CMO_0000063, null#CMO_0000497</t>
@@ -197,10 +197,10 @@
     <t>null#2075-0</t>
   </si>
   <si>
-    <t>cde-creatinine-in-ser-or-plas</t>
-  </si>
-  <si>
-    <t>CDE Creatinine In Serum Or Plasma</t>
+    <t>cde-creatinine-in-serum-or-plasma-mole-concentration</t>
+  </si>
+  <si>
+    <t>CDE Creatinine In Serum Or Plasma Mole Concentration</t>
   </si>
   <si>
     <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000035, null#CMO_0000023, null#CMO_0000767, null#CMO_0000538</t>
@@ -281,10 +281,10 @@
     <t>SNOMED CT#315280000, Unified Medical Language System#C0078988</t>
   </si>
   <si>
-    <t>cde-glucose-in-serum-or-plasma</t>
-  </si>
-  <si>
-    <t>CDE Glucose In Serum Or Plasma</t>
+    <t>cde-glucose-in-serum-or-plasma-mole-concentration</t>
+  </si>
+  <si>
+    <t>CDE Glucose In Serum Or Plasma Mole Concentration</t>
   </si>
   <si>
     <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000035, null#CMO_0000023, null#CMO_0000046</t>
@@ -305,10 +305,10 @@
     <t>null#20570-8</t>
   </si>
   <si>
-    <t>cde-hemoglobin-in-blood</t>
-  </si>
-  <si>
-    <t>CDE Hemoglobin In Blood</t>
+    <t>cde-hemoglobin-in-blood-mole-concentration</t>
+  </si>
+  <si>
+    <t>CDE Hemoglobin In Blood Mole Concentration</t>
   </si>
   <si>
     <t>null#59260-0</t>
@@ -338,10 +338,10 @@
     <t>null#26464-8</t>
   </si>
   <si>
-    <t>cde-magnesium-in-serum-or-plasma</t>
-  </si>
-  <si>
-    <t>CDE Magnesium In Serum Or Plasma</t>
+    <t>cde-magnesium-in-serum-or-plasma-mole-concentration</t>
+  </si>
+  <si>
+    <t>CDE Magnesium In Serum Or Plasma Mole Concentration</t>
   </si>
   <si>
     <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000035, null#CMO_0000023, null#CMO_0000063, null#CMO_0000505</t>
@@ -350,10 +350,10 @@
     <t>null#2601-3</t>
   </si>
   <si>
-    <t>cde-phosphate-in-serum-or-plasma</t>
-  </si>
-  <si>
-    <t>CDE Phosphate In Serum Or Plasma</t>
+    <t>cde-phosphate-in-serum-or-plasma-mole-concentration</t>
+  </si>
+  <si>
+    <t>CDE Phosphate In Serum Or Plasma Mole Concentration</t>
   </si>
   <si>
     <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000035, null#CMO_0000023, null#CMO_0000063, null#CMO_0000504</t>
@@ -362,10 +362,10 @@
     <t>null#14879-1</t>
   </si>
   <si>
-    <t>cde-potassium-in-serum-or-plasma</t>
-  </si>
-  <si>
-    <t>CDE Potassium In Serum Or Plasma</t>
+    <t>cde-potassium-in-serum-or-plasma-mole-concentration</t>
+  </si>
+  <si>
+    <t>CDE Potassium In Serum Or Plasma Mole Concentration</t>
   </si>
   <si>
     <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000035, null#CMO_0000023, null#CMO_0000063, null#CMO_0000496</t>
@@ -395,10 +395,10 @@
     <t>SNOMED CT#32570691000036108, Unified Medical Language System#C1704620</t>
   </si>
   <si>
-    <t>cde-sodium-in-serum-or-plasma</t>
-  </si>
-  <si>
-    <t>CDE Sodium In Serum Or Plasma</t>
+    <t>cde-sodium-in-serum-or-plasma-mole-concentration</t>
+  </si>
+  <si>
+    <t>CDE Sodium In Serum Or Plasma Mole Concentration</t>
   </si>
   <si>
     <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000035, null#CMO_0000023, null#CMO_0000063, null#CMO_0000499</t>
@@ -479,238 +479,100 @@
     <t>null#276361009</t>
   </si>
   <si>
-    <t>cls-l0-activity</t>
-  </si>
-  <si>
-    <t>CLS L0 Social History</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#activity</t>
-  </si>
-  <si>
-    <t>cls-l0-exam</t>
-  </si>
-  <si>
-    <t>CLS L0 Exam</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#exam</t>
-  </si>
-  <si>
-    <t>cls-l0-imaging</t>
-  </si>
-  <si>
-    <t>CLS L0 Imaging</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#imaging</t>
-  </si>
-  <si>
-    <t>cls-l0-laboratory</t>
-  </si>
-  <si>
-    <t>CLS L0 Laboratory</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#laboratory</t>
-  </si>
-  <si>
-    <t>cls-l0-procedure</t>
-  </si>
-  <si>
-    <t>CLS L0 Procedure</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#procedure</t>
-  </si>
-  <si>
-    <t>cls-l0-social-history</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#social-history</t>
-  </si>
-  <si>
-    <t>cls-l0-survey</t>
-  </si>
-  <si>
-    <t>CLS L0 Survey</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#survey</t>
-  </si>
-  <si>
-    <t>cls-l0-therapy</t>
-  </si>
-  <si>
-    <t>CLS L0 Therapy</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#therapy</t>
-  </si>
-  <si>
-    <t>cls-l0-vital-signs</t>
-  </si>
-  <si>
-    <t>CLS L0 Vital Signs</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#vital-signs</t>
-  </si>
-  <si>
-    <t>cls-l1-administrative-information</t>
-  </si>
-  <si>
-    <t>CLS L1 Administrative Information</t>
-  </si>
-  <si>
-    <t>cls-l1-clinical-chemistry</t>
-  </si>
-  <si>
-    <t>CLS L1 Clincial Chemistry</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#laboratory, null#NCIT_C16417</t>
-  </si>
-  <si>
-    <t>cls-l1-clinical-immunology</t>
-  </si>
-  <si>
-    <t>CLS L1 Clincial Immunology</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#laboratory, null#NCIT_C18701</t>
-  </si>
-  <si>
-    <t>cls-l1-clinical-microbiology</t>
-  </si>
-  <si>
-    <t>CLS L1 Clincial Microbiology</t>
-  </si>
-  <si>
-    <t>cls-l1-diseases-and-related-health-problems</t>
-  </si>
-  <si>
-    <t>CLS L1 Diseases And Related Health Problems</t>
-  </si>
-  <si>
-    <t>cls-l1-health-related-behavior-and-lifestyle</t>
-  </si>
-  <si>
-    <t>CLS L1 Heatlh-related Behavior and Lifesytle</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#social-history, SNOMED CT#228272008, SNOMED CT#134436002</t>
-  </si>
-  <si>
-    <t>cls-l1-physical-measurements-and-assessment</t>
-  </si>
-  <si>
-    <t>CLS L1 Physical Measurements And Assessment</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#exam, SNOMED CT#160476009, SNOMED CT#160476009</t>
-  </si>
-  <si>
-    <t>cls-l1-social-personal-details</t>
-  </si>
-  <si>
-    <t>CLS L1 Social Personal Details</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#social-history, SNOMED CT#160476009</t>
-  </si>
-  <si>
-    <t>cls-l1-substance-level</t>
-  </si>
-  <si>
-    <t>CLS L1 Substance Level</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#laboratory, SNOMED CT#785671009</t>
-  </si>
-  <si>
-    <t>cls-l2-age-and-birth-date</t>
-  </si>
-  <si>
-    <t>CLS L2 Age And Birth Date</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#social-history, SNOMED CT#160476009, SNOMED CT#424144002, SNOMED CT#184099003</t>
-  </si>
-  <si>
-    <t>cls-l2-gender</t>
-  </si>
-  <si>
-    <t>CLS L2 Gender</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#social-history, SNOMED CT#160476009, SNOMED CT#263495000</t>
-  </si>
-  <si>
-    <t>cls-l2-specimen-type</t>
-  </si>
-  <si>
-    <t>CLS L2 Specimen</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#laboratory, SNOMED CT#785671009, SNOMED CT#371439000</t>
-  </si>
-  <si>
-    <t>cls-l3-age-at-diagnosis</t>
-  </si>
-  <si>
-    <t>CLS L3 Age At Diagnosis</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#social-history, SNOMED CT#160476009, SNOMED CT#424144002, SNOMED CT#184099003, SNOMED CT#424144002</t>
-  </si>
-  <si>
-    <t>cls-l3-blood</t>
-  </si>
-  <si>
-    <t>CLS L3 Blood</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#laboratory, SNOMED CT#785671009, SNOMED CT#371439000, SNOMED CT#87612001</t>
-  </si>
-  <si>
-    <t>cls-l3-cerebrospinal-fluid</t>
-  </si>
-  <si>
-    <t>CLS L3 Cerebrospinal Fluid</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#laboratory, SNOMED CT#785671009, SNOMED CT#371439000, SNOMED CT#65216001</t>
-  </si>
-  <si>
-    <t>cls-l3-serum-or-plasma</t>
-  </si>
-  <si>
-    <t>CLS L3 Serum Or Plasma</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#laboratory, SNOMED CT#785671009, SNOMED CT#371439000, SNOMED CT#67922002, SNOMED CT#50863008</t>
-  </si>
-  <si>
-    <t>cls-l3-urine</t>
-  </si>
-  <si>
-    <t>CLS L3 Urine</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#laboratory, SNOMED CT#785671009, SNOMED CT#371439000, SNOMED CT#78014005</t>
-  </si>
-  <si>
     <t>cls-obo-cmo-blood-calcium-level</t>
   </si>
   <si>
     <t>CLS CMO Blood Calcium Level</t>
   </si>
   <si>
+    <t>cls-obo-cmo-blood-chloride-level</t>
+  </si>
+  <si>
+    <t>CLS OBO CMO Blood Chloride Level</t>
+  </si>
+  <si>
+    <t>cls-obo-cmo-blood-glucose-level</t>
+  </si>
+  <si>
+    <t>CLS OBO CMO Blood Glucose Level</t>
+  </si>
+  <si>
+    <t>cls-obo-cmo-blood-magnesium-level</t>
+  </si>
+  <si>
+    <t>CLS OBO CMO Blood Magnesium Level</t>
+  </si>
+  <si>
+    <t>cls-obo-cmo-blood-phosphate-level</t>
+  </si>
+  <si>
+    <t>CLS OBO CMO Blood Phosphate Level</t>
+  </si>
+  <si>
+    <t>cls-obo-cmo-blood-potassium-level</t>
+  </si>
+  <si>
+    <t>CLS OBO CMO Blood Potassium Level</t>
+  </si>
+  <si>
+    <t>cls-obo-cmo-blood-sodium-level</t>
+  </si>
+  <si>
+    <t>CLS OBO CMO Blood Sodium Level</t>
+  </si>
+  <si>
+    <t>cls-obo-cmo-hematocrit-measurement</t>
+  </si>
+  <si>
+    <t>CLS OBO CMO Hematocrit Measurement</t>
+  </si>
+  <si>
+    <t>cls-obo-cmo-hemoglobin-measurement</t>
+  </si>
+  <si>
+    <t>CLS OBO CMO Hemoglobin Measurement</t>
+  </si>
+  <si>
+    <t>cls-obo-cmo-platelet-measurement</t>
+  </si>
+  <si>
+    <t>CLS OBO CMO Platelet Measurement</t>
+  </si>
+  <si>
+    <t>cls-obo-cmo-red-blood-cell-measurement</t>
+  </si>
+  <si>
+    <t>CLS OBO CMO Red Blood Cell Measurement</t>
+  </si>
+  <si>
+    <t>cls-obo-cmo-white-blood-cell-measurement</t>
+  </si>
+  <si>
+    <t>CLS OBO CMO White Blood Cell Measurement</t>
+  </si>
+  <si>
+    <t>cls-obo-ncit-date-of-diagnosis</t>
+  </si>
+  <si>
+    <t>CLS OBO NCIT Date Of Diagnosis</t>
+  </si>
+  <si>
+    <t>cls-obo-ncit-visit-date</t>
+  </si>
+  <si>
+    <t>CLS OBO NCIT Visit Date</t>
+  </si>
+  <si>
     <t>cls-obo-ncit-year-date</t>
   </si>
   <si>
     <t>CLS OBO NCIT Year Date</t>
+  </si>
+  <si>
+    <t>cls-obo-snomed-blood-creatinine-level</t>
+  </si>
+  <si>
+    <t>CLS OBO SNOMED Blood Creatinine Level</t>
   </si>
   <si>
     <t>cls-snomed-demographic-history-detail</t>
@@ -883,7 +745,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K82"/>
+  <dimension ref="A1:K70"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2577,7 +2439,7 @@
         <v>156</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>157</v>
+        <v>52</v>
       </c>
       <c r="D49" t="s" s="2">
         <v>14</v>
@@ -2606,13 +2468,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="B50" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="B50" t="s" s="2">
-        <v>159</v>
-      </c>
       <c r="C50" t="s" s="2">
-        <v>160</v>
+        <v>59</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>14</v>
@@ -2641,13 +2503,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>163</v>
+        <v>91</v>
       </c>
       <c r="D51" t="s" s="2">
         <v>14</v>
@@ -2676,13 +2538,13 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>166</v>
+        <v>110</v>
       </c>
       <c r="D52" t="s" s="2">
         <v>14</v>
@@ -2711,13 +2573,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>169</v>
+        <v>114</v>
       </c>
       <c r="D53" t="s" s="2">
         <v>14</v>
@@ -2746,13 +2608,13 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>171</v>
+        <v>118</v>
       </c>
       <c r="D54" t="s" s="2">
         <v>14</v>
@@ -2781,13 +2643,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>174</v>
+        <v>129</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>14</v>
@@ -2816,13 +2678,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>177</v>
+        <v>95</v>
       </c>
       <c r="D56" t="s" s="2">
         <v>14</v>
@@ -2851,13 +2713,13 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>180</v>
+        <v>95</v>
       </c>
       <c r="D57" t="s" s="2">
         <v>14</v>
@@ -2886,13 +2748,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>171</v>
+        <v>133</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>14</v>
@@ -2921,13 +2783,13 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>185</v>
+        <v>78</v>
       </c>
       <c r="D59" t="s" s="2">
         <v>14</v>
@@ -2956,13 +2818,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>188</v>
+        <v>106</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>14</v>
@@ -2991,13 +2853,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>188</v>
+        <v>74</v>
       </c>
       <c r="D61" t="s" s="2">
         <v>14</v>
@@ -3026,13 +2888,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="D62" t="s" s="2">
         <v>14</v>
@@ -3061,13 +2923,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>14</v>
@@ -3096,13 +2958,13 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>198</v>
+        <v>63</v>
       </c>
       <c r="D64" t="s" s="2">
         <v>14</v>
@@ -3131,13 +2993,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>201</v>
+        <v>82</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>14</v>
@@ -3166,13 +3028,13 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>204</v>
+        <v>141</v>
       </c>
       <c r="D66" t="s" s="2">
         <v>14</v>
@@ -3201,13 +3063,13 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>207</v>
+        <v>122</v>
       </c>
       <c r="D67" t="s" s="2">
         <v>14</v>
@@ -3236,28 +3098,28 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>210</v>
+        <v>14</v>
       </c>
       <c r="D68" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E68" t="s" s="2">
-        <v>14</v>
+        <v>195</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>17</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>18</v>
+        <v>196</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>19</v>
@@ -3271,28 +3133,28 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>211</v>
+        <v>14</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>213</v>
+        <v>14</v>
       </c>
       <c r="D69" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E69" t="s" s="2">
-        <v>14</v>
+        <v>197</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>18</v>
+        <v>198</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>19</v>
@@ -3306,28 +3168,28 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>214</v>
+        <v>14</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>216</v>
+        <v>14</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E70" t="s" s="2">
-        <v>14</v>
+        <v>199</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>18</v>
+        <v>198</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>19</v>
@@ -3336,426 +3198,6 @@
         <v>14</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="C71" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="D71" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E71" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="F71" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="B72" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="C72" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="D72" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E72" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="F72" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="C73" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="D73" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E73" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="F73" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="C74" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="D74" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E74" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="F74" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="B75" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="C75" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="D75" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E75" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="F75" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="C76" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="D76" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E76" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="F76" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="C77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="D77" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E77" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="F77" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="B78" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="C78" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="D78" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E78" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="F78" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="B79" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="C79" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="D79" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E79" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="F79" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="B80" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="C80" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D80" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E80" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="F80" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="B81" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="C81" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D81" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E81" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="F81" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="B82" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="C82" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D82" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E82" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="F82" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K82" t="s" s="2">
         <v>14</v>
       </c>
     </row>

--- a/output/observations-summary.xlsx
+++ b/output/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="218">
   <si>
     <t>Profile</t>
   </si>
@@ -80,9 +80,6 @@
     <t>CDE Age At Diagnosis Of Essential Hypertension</t>
   </si>
   <si>
-    <t>Observation Category Codes#social-history, null#NCIT_C20189, null#NCIT_C171087, null#NCIT_C19332, null#NCIT_C25150, null#NCIT_C156420</t>
-  </si>
-  <si>
     <t>CodeableConcept</t>
   </si>
   <si>
@@ -95,6 +92,12 @@
     <t>SNOMED CT#432213005</t>
   </si>
   <si>
+    <t>cde-age-at-stopped-smoking</t>
+  </si>
+  <si>
+    <t>CDE Age At Stopped Smoking</t>
+  </si>
+  <si>
     <t>cde-birth-date</t>
   </si>
   <si>
@@ -461,7 +464,7 @@
     <t>CDE Visit Date</t>
   </si>
   <si>
-    <t>Observation Category Codes#laboratory, null#NCIT_C20189, null#NCIT_C41009, null#NCIT_C21514, null#NCIT_C25164, null#NCIT_C83031</t>
+    <t>Observation Category Codes#social-history, null#NCIT_C20189, null#NCIT_C41009, null#NCIT_C21514, null#NCIT_C25164, null#NCIT_C83031</t>
   </si>
   <si>
     <t>null#406543005</t>
@@ -521,6 +524,18 @@
     <t>CLS OBO CMO Blood Sodium Level</t>
   </si>
   <si>
+    <t>cls-obo-cmo-body-height</t>
+  </si>
+  <si>
+    <t>CLS OBO CMO Body Height</t>
+  </si>
+  <si>
+    <t>cls-obo-cmo-body-weight</t>
+  </si>
+  <si>
+    <t>CLS OBO CMO Body Weight</t>
+  </si>
+  <si>
     <t>cls-obo-cmo-hematocrit-measurement</t>
   </si>
   <si>
@@ -533,6 +548,12 @@
     <t>CLS OBO CMO Hemoglobin Measurement</t>
   </si>
   <si>
+    <t>cls-obo-cmo-hip-circumference</t>
+  </si>
+  <si>
+    <t>CLS OBO CMO Hip Circumference</t>
+  </si>
+  <si>
     <t>cls-obo-cmo-platelet-measurement</t>
   </si>
   <si>
@@ -545,10 +566,43 @@
     <t>CLS OBO CMO Red Blood Cell Measurement</t>
   </si>
   <si>
+    <t>cls-obo-cmo-waist-circumference</t>
+  </si>
+  <si>
+    <t>CLS OBO CMO Waist Circumference</t>
+  </si>
+  <si>
     <t>cls-obo-cmo-white-blood-cell-measurement</t>
   </si>
   <si>
     <t>CLS OBO CMO White Blood Cell Measurement</t>
+  </si>
+  <si>
+    <t>cls-obo-cmobody-mass-index</t>
+  </si>
+  <si>
+    <t>CLS OBO CMO Body Mass Index</t>
+  </si>
+  <si>
+    <t>cls-obo-ncit-age</t>
+  </si>
+  <si>
+    <t>CLS OBO NCIT Age</t>
+  </si>
+  <si>
+    <t>cls-obo-ncit-birth-date</t>
+  </si>
+  <si>
+    <t>CLS OBO NCIT Birth Date</t>
+  </si>
+  <si>
+    <t>cls-obo-ncit-date</t>
+  </si>
+  <si>
+    <t>CLS OBO NCIT Date</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#social-history, null#NCIT_C20189, null#NCIT_C41009, null#NCIT_C21514, null#NCIT_C25164</t>
   </si>
   <si>
     <t>cls-obo-ncit-date-of-diagnosis</t>
@@ -745,7 +799,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K70"/>
+  <dimension ref="A1:K79"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -829,7 +883,7 @@
         <v>21</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s" s="2">
         <v>14</v>
@@ -879,16 +933,16 @@
         <v>14</v>
       </c>
       <c r="H4" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>23</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J4" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K4" t="s" s="2">
-        <v>24</v>
       </c>
     </row>
     <row r="5">
@@ -914,33 +968,33 @@
         <v>14</v>
       </c>
       <c r="H5" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="I5" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>25</v>
-      </c>
-      <c r="I5" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J5" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K5" t="s" s="2">
-        <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="B6" t="s" s="2">
-        <v>28</v>
-      </c>
       <c r="C6" t="s" s="2">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>16</v>
@@ -963,19 +1017,19 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s" s="2">
         <v>31</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s" s="2">
-        <v>34</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>16</v>
@@ -998,19 +1052,19 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s" s="2">
         <v>35</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="C8" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D8" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s" s="2">
-        <v>38</v>
       </c>
       <c r="F8" t="s" s="2">
         <v>16</v>
@@ -1033,19 +1087,19 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s" s="2">
         <v>39</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="C9" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D9" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s" s="2">
-        <v>42</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>16</v>
@@ -1068,19 +1122,19 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s" s="2">
         <v>43</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D10" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E10" t="s" s="2">
-        <v>46</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>16</v>
@@ -1103,19 +1157,19 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s" s="2">
         <v>47</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D11" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s" s="2">
-        <v>49</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>16</v>
@@ -1138,19 +1192,19 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s" s="2">
         <v>50</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="D12" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E12" t="s" s="2">
-        <v>53</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>16</v>
@@ -1173,19 +1227,19 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="D13" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s" s="2">
         <v>54</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="C13" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="D13" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E13" t="s" s="2">
-        <v>56</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>16</v>
@@ -1208,19 +1262,19 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="D14" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s" s="2">
         <v>57</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="C14" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="D14" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E14" t="s" s="2">
-        <v>60</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>16</v>
@@ -1243,19 +1297,19 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="D15" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s" s="2">
         <v>61</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="C15" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="D15" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E15" t="s" s="2">
-        <v>64</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>16</v>
@@ -1278,25 +1332,25 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="D16" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s" s="2">
         <v>65</v>
       </c>
-      <c r="B16" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="C16" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D16" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E16" t="s" s="2">
-        <v>67</v>
-      </c>
       <c r="F16" t="s" s="2">
         <v>16</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>18</v>
@@ -1313,10 +1367,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>13</v>
@@ -1325,13 +1379,13 @@
         <v>14</v>
       </c>
       <c r="E17" t="s" s="2">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>16</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>18</v>
@@ -1348,19 +1402,19 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s" s="2">
         <v>72</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D18" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E18" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>16</v>
@@ -1383,19 +1437,19 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D19" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s" s="2">
         <v>76</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="C19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D19" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E19" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>16</v>
@@ -1418,19 +1472,19 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D20" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s" s="2">
         <v>80</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="D20" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E20" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>16</v>
@@ -1453,28 +1507,28 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E21" t="s" s="2">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>19</v>
@@ -1483,7 +1537,7 @@
         <v>14</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>85</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22">
@@ -1491,7 +1545,7 @@
         <v>14</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>14</v>
@@ -1509,7 +1563,7 @@
         <v>14</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>19</v>
@@ -1526,7 +1580,7 @@
         <v>14</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>14</v>
@@ -1544,7 +1598,7 @@
         <v>14</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>19</v>
@@ -1561,7 +1615,7 @@
         <v>14</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>14</v>
@@ -1579,7 +1633,7 @@
         <v>14</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>19</v>
@@ -1596,7 +1650,7 @@
         <v>14</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>14</v>
@@ -1614,7 +1668,7 @@
         <v>14</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>19</v>
@@ -1623,7 +1677,7 @@
         <v>14</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26">
@@ -1631,7 +1685,7 @@
         <v>14</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>14</v>
@@ -1649,7 +1703,7 @@
         <v>14</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>19</v>
@@ -1658,33 +1712,33 @@
         <v>14</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>14</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E27" t="s" s="2">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>19</v>
@@ -1698,19 +1752,19 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="D28" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E28" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="C28" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="D28" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E28" t="s" s="2">
-        <v>96</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>16</v>
@@ -1733,19 +1787,19 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="C29" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="D29" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E29" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="C29" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="D29" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E29" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>16</v>
@@ -1768,19 +1822,19 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="C30" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="D30" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E30" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="C30" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="D30" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E30" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>16</v>
@@ -1803,19 +1857,19 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="D31" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E31" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="D31" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E31" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>16</v>
@@ -1838,19 +1892,19 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="D32" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E32" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="C32" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="D32" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E32" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>16</v>
@@ -1873,19 +1927,19 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="C33" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="D33" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E33" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="C33" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="D33" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E33" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>16</v>
@@ -1908,19 +1962,19 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="C34" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="D34" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E34" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="C34" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="D34" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E34" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>16</v>
@@ -1943,19 +1997,19 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="C35" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="D35" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E35" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="C35" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="D35" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E35" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>16</v>
@@ -1978,28 +2032,28 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="D36" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E36" t="s" s="2">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>19</v>
@@ -2008,7 +2062,7 @@
         <v>14</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>124</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37">
@@ -2016,7 +2070,7 @@
         <v>14</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C37" t="s" s="2">
         <v>14</v>
@@ -2034,7 +2088,7 @@
         <v>14</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>19</v>
@@ -2051,7 +2105,7 @@
         <v>14</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C38" t="s" s="2">
         <v>14</v>
@@ -2069,7 +2123,7 @@
         <v>14</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>19</v>
@@ -2083,54 +2137,54 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="C39" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D39" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E39" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="C39" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="D39" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E39" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="F39" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="G39" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J39" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K39" t="s" s="2">
-        <v>14</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="C40" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="D40" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E40" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="C40" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="D40" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E40" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>16</v>
@@ -2153,19 +2207,19 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="C41" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="D41" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E41" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="C41" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="D41" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E41" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>16</v>
@@ -2188,19 +2242,19 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="C42" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="D42" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E42" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="C42" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="D42" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E42" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>16</v>
@@ -2223,25 +2277,25 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>14</v>
+        <v>140</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>14</v>
+        <v>142</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E43" t="s" s="2">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>18</v>
@@ -2253,7 +2307,7 @@
         <v>14</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>143</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44">
@@ -2261,7 +2315,7 @@
         <v>14</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C44" t="s" s="2">
         <v>14</v>
@@ -2296,7 +2350,7 @@
         <v>14</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C45" t="s" s="2">
         <v>14</v>
@@ -2331,7 +2385,7 @@
         <v>14</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C46" t="s" s="2">
         <v>14</v>
@@ -2363,54 +2417,54 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="C47" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D47" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E47" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F47" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="C47" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="D47" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E47" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="F47" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="G47" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J47" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K47" t="s" s="2">
-        <v>14</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="D48" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E48" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="B48" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="C48" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="D48" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E48" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>16</v>
@@ -2433,19 +2487,19 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="C49" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="D49" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E49" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="C49" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="D49" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E49" t="s" s="2">
-        <v>14</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>16</v>
@@ -2468,13 +2522,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="B50" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="B50" t="s" s="2">
-        <v>158</v>
-      </c>
       <c r="C50" t="s" s="2">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>14</v>
@@ -2503,13 +2557,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="B51" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="B51" t="s" s="2">
-        <v>160</v>
-      </c>
       <c r="C51" t="s" s="2">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="D51" t="s" s="2">
         <v>14</v>
@@ -2538,13 +2592,13 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="B52" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="B52" t="s" s="2">
-        <v>162</v>
-      </c>
       <c r="C52" t="s" s="2">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="D52" t="s" s="2">
         <v>14</v>
@@ -2573,13 +2627,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="B53" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="B53" t="s" s="2">
-        <v>164</v>
-      </c>
       <c r="C53" t="s" s="2">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D53" t="s" s="2">
         <v>14</v>
@@ -2608,13 +2662,13 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="B54" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="B54" t="s" s="2">
-        <v>166</v>
-      </c>
       <c r="C54" t="s" s="2">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D54" t="s" s="2">
         <v>14</v>
@@ -2643,13 +2697,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="B55" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="B55" t="s" s="2">
-        <v>168</v>
-      </c>
       <c r="C55" t="s" s="2">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>14</v>
@@ -2678,13 +2732,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="B56" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="B56" t="s" s="2">
-        <v>170</v>
-      </c>
       <c r="C56" t="s" s="2">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="D56" t="s" s="2">
         <v>14</v>
@@ -2713,13 +2767,13 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="B57" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="B57" t="s" s="2">
-        <v>172</v>
-      </c>
       <c r="C57" t="s" s="2">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="D57" t="s" s="2">
         <v>14</v>
@@ -2748,13 +2802,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="B58" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="B58" t="s" s="2">
-        <v>174</v>
-      </c>
       <c r="C58" t="s" s="2">
-        <v>133</v>
+        <v>42</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>14</v>
@@ -2783,13 +2837,13 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="B59" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="B59" t="s" s="2">
-        <v>176</v>
-      </c>
       <c r="C59" t="s" s="2">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="D59" t="s" s="2">
         <v>14</v>
@@ -2818,13 +2872,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="B60" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="B60" t="s" s="2">
-        <v>178</v>
-      </c>
       <c r="C60" t="s" s="2">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>14</v>
@@ -2853,13 +2907,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="B61" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="B61" t="s" s="2">
-        <v>180</v>
-      </c>
       <c r="C61" t="s" s="2">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="D61" t="s" s="2">
         <v>14</v>
@@ -2888,13 +2942,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="B62" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="B62" t="s" s="2">
-        <v>182</v>
-      </c>
       <c r="C62" t="s" s="2">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="D62" t="s" s="2">
         <v>14</v>
@@ -2923,13 +2977,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="B63" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="B63" t="s" s="2">
-        <v>184</v>
-      </c>
       <c r="C63" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>14</v>
@@ -2958,13 +3012,13 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="B64" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="B64" t="s" s="2">
-        <v>186</v>
-      </c>
       <c r="C64" t="s" s="2">
-        <v>63</v>
+        <v>154</v>
       </c>
       <c r="D64" t="s" s="2">
         <v>14</v>
@@ -2993,13 +3047,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="B65" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="B65" t="s" s="2">
-        <v>188</v>
-      </c>
       <c r="C65" t="s" s="2">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>14</v>
@@ -3028,13 +3082,13 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="B66" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="B66" t="s" s="2">
-        <v>190</v>
-      </c>
       <c r="C66" t="s" s="2">
-        <v>141</v>
+        <v>46</v>
       </c>
       <c r="D66" t="s" s="2">
         <v>14</v>
@@ -3063,13 +3117,13 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="B67" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="B67" t="s" s="2">
-        <v>192</v>
-      </c>
       <c r="C67" t="s" s="2">
-        <v>122</v>
+        <v>13</v>
       </c>
       <c r="D67" t="s" s="2">
         <v>14</v>
@@ -3098,28 +3152,28 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="B68" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="B68" t="s" s="2">
-        <v>194</v>
-      </c>
       <c r="C68" t="s" s="2">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D68" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E68" t="s" s="2">
-        <v>195</v>
+        <v>14</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>17</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>196</v>
+        <v>18</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>19</v>
@@ -3133,28 +3187,28 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>14</v>
+        <v>194</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>14</v>
+        <v>196</v>
       </c>
       <c r="D69" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E69" t="s" s="2">
-        <v>197</v>
+        <v>14</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>198</v>
+        <v>18</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>19</v>
@@ -3168,36 +3222,351 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>14</v>
+        <v>197</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E70" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="F70" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K70" t="s" s="2">
+      <c r="B71" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="C71" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="D71" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E71" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="C72" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="D72" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E72" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="C73" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="D73" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E73" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="C74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="D74" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E74" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="C75" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="D75" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E75" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="C76" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="D76" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E76" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="C77" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D77" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E77" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="C78" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D78" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E78" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="C79" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D79" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E79" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K79" t="s" s="2">
         <v>14</v>
       </c>
     </row>

--- a/output/observations-summary.xlsx
+++ b/output/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="228">
   <si>
     <t>Profile</t>
   </si>
@@ -494,6 +494,15 @@
     <t>CLS OBO CMO Blood Chloride Level</t>
   </si>
   <si>
+    <t>cls-obo-cmo-blood-electrolyte-measurement</t>
+  </si>
+  <si>
+    <t>CLS OBO CMO Blood Electrolyte Measurement</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000035, null#CMO_0000023, null#CMO_0000063</t>
+  </si>
+  <si>
     <t>cls-obo-cmo-blood-glucose-level</t>
   </si>
   <si>
@@ -518,6 +527,15 @@
     <t>CLS OBO CMO Blood Potassium Level</t>
   </si>
   <si>
+    <t>cls-obo-cmo-blood-pressure-measurement</t>
+  </si>
+  <si>
+    <t>CLS OBO CMO Blood Pressure Measurement</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000001, null#CMO_0000003</t>
+  </si>
+  <si>
     <t>cls-obo-cmo-blood-sodium-level</t>
   </si>
   <si>
@@ -536,6 +554,12 @@
     <t>CLS OBO CMO Body Weight</t>
   </si>
   <si>
+    <t>cls-obo-cmo-diastolic-blood-pressure</t>
+  </si>
+  <si>
+    <t>CLS OBO CMO Diastolic Blood Pressure</t>
+  </si>
+  <si>
     <t>cls-obo-cmo-hematocrit-measurement</t>
   </si>
   <si>
@@ -564,6 +588,12 @@
   </si>
   <si>
     <t>CLS OBO CMO Red Blood Cell Measurement</t>
+  </si>
+  <si>
+    <t>cls-obo-cmo-systolic-blood-pressure</t>
+  </si>
+  <si>
+    <t>CLS OBO CMO Systolic Blood Pressure</t>
   </si>
   <si>
     <t>cls-obo-cmo-waist-circumference</t>
@@ -799,7 +829,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K79"/>
+  <dimension ref="A1:K83"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2598,7 +2628,7 @@
         <v>161</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>92</v>
+        <v>162</v>
       </c>
       <c r="D52" t="s" s="2">
         <v>14</v>
@@ -2627,13 +2657,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D53" t="s" s="2">
         <v>14</v>
@@ -2662,13 +2692,13 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D54" t="s" s="2">
         <v>14</v>
@@ -2697,13 +2727,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>14</v>
@@ -2732,13 +2762,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="D56" t="s" s="2">
         <v>14</v>
@@ -2767,13 +2797,13 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>42</v>
+        <v>173</v>
       </c>
       <c r="D57" t="s" s="2">
         <v>14</v>
@@ -2802,13 +2832,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>14</v>
@@ -2837,13 +2867,13 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="D59" t="s" s="2">
         <v>14</v>
@@ -2872,13 +2902,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>14</v>
@@ -2907,13 +2937,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>103</v>
+        <v>34</v>
       </c>
       <c r="D61" t="s" s="2">
         <v>14</v>
@@ -2942,13 +2972,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="D62" t="s" s="2">
         <v>14</v>
@@ -2977,13 +3007,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>14</v>
@@ -3012,13 +3042,13 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>154</v>
+        <v>103</v>
       </c>
       <c r="D64" t="s" s="2">
         <v>14</v>
@@ -3047,13 +3077,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>14</v>
@@ -3082,13 +3112,13 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="D66" t="s" s="2">
         <v>14</v>
@@ -3117,13 +3147,13 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="D67" t="s" s="2">
         <v>14</v>
@@ -3152,13 +3182,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="D68" t="s" s="2">
         <v>14</v>
@@ -3187,13 +3217,13 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>196</v>
+        <v>107</v>
       </c>
       <c r="D69" t="s" s="2">
         <v>14</v>
@@ -3222,13 +3252,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>14</v>
@@ -3257,13 +3287,13 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>150</v>
+        <v>13</v>
       </c>
       <c r="D71" t="s" s="2">
         <v>14</v>
@@ -3292,13 +3322,13 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>138</v>
+        <v>30</v>
       </c>
       <c r="D72" t="s" s="2">
         <v>14</v>
@@ -3327,13 +3357,13 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>64</v>
+        <v>206</v>
       </c>
       <c r="D73" t="s" s="2">
         <v>14</v>
@@ -3362,13 +3392,13 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D74" t="s" s="2">
         <v>14</v>
@@ -3397,13 +3427,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>14</v>
@@ -3432,13 +3462,13 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="D76" t="s" s="2">
         <v>14</v>
@@ -3467,28 +3497,28 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="D77" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E77" t="s" s="2">
-        <v>213</v>
+        <v>14</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>17</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>214</v>
+        <v>18</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>19</v>
@@ -3502,28 +3532,28 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>14</v>
+        <v>215</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="D78" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E78" t="s" s="2">
-        <v>215</v>
+        <v>14</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>216</v>
+        <v>18</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>19</v>
@@ -3537,28 +3567,28 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>14</v>
+        <v>217</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>14</v>
+        <v>142</v>
       </c>
       <c r="D79" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E79" t="s" s="2">
-        <v>217</v>
+        <v>14</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>216</v>
+        <v>18</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>19</v>
@@ -3567,6 +3597,146 @@
         <v>14</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="C80" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="D80" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E80" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="C81" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D81" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E81" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="C82" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D82" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E82" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="C83" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D83" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E83" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K83" t="s" s="2">
         <v>14</v>
       </c>
     </row>

--- a/output/observations-summary.xlsx
+++ b/output/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="234">
   <si>
     <t>Profile</t>
   </si>
@@ -434,6 +434,18 @@
     <t>null#NCIT_C156425</t>
   </si>
   <si>
+    <t>cde-tobacco-smoking-pack-year</t>
+  </si>
+  <si>
+    <t>CDE Tobacco Smoking Pack Year</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#social-history, SNOMED CT#138875005, SNOMED CT#254291000, SNOMED CT#273249006, SNOMED CT#315609007</t>
+  </si>
+  <si>
+    <t>null#401201003</t>
+  </si>
+  <si>
     <t>cde-tobacco-smoking-status</t>
   </si>
   <si>
@@ -669,6 +681,12 @@
   </si>
   <si>
     <t>CLS SNOMED Finding Of Tobacco Use And Exposure</t>
+  </si>
+  <si>
+    <t>cls-snomed-pack-years</t>
+  </si>
+  <si>
+    <t>CLS SNOMED Pack Years</t>
   </si>
   <si>
     <t>cls-snomed-patient-sex</t>
@@ -829,7 +847,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K83"/>
+  <dimension ref="A1:K85"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2342,25 +2360,25 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>14</v>
+        <v>144</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>14</v>
+        <v>146</v>
       </c>
       <c r="D44" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E44" t="s" s="2">
-        <v>14</v>
+        <v>147</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>18</v>
@@ -2372,7 +2390,7 @@
         <v>14</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>144</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45">
@@ -2380,7 +2398,7 @@
         <v>14</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C45" t="s" s="2">
         <v>14</v>
@@ -2407,7 +2425,7 @@
         <v>14</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46">
@@ -2415,7 +2433,7 @@
         <v>14</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C46" t="s" s="2">
         <v>14</v>
@@ -2442,7 +2460,7 @@
         <v>14</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="47">
@@ -2450,7 +2468,7 @@
         <v>14</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C47" t="s" s="2">
         <v>14</v>
@@ -2477,42 +2495,42 @@
         <v>14</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>148</v>
+        <v>14</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E48" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="F48" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="G48" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J48" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K48" t="s" s="2">
-        <v>14</v>
       </c>
     </row>
     <row r="49">
@@ -2558,13 +2576,13 @@
         <v>157</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>53</v>
+        <v>158</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E50" t="s" s="2">
-        <v>14</v>
+        <v>159</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>16</v>
@@ -2587,13 +2605,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D51" t="s" s="2">
         <v>14</v>
@@ -2622,13 +2640,13 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>162</v>
+        <v>60</v>
       </c>
       <c r="D52" t="s" s="2">
         <v>14</v>
@@ -2657,13 +2675,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>92</v>
+        <v>166</v>
       </c>
       <c r="D53" t="s" s="2">
         <v>14</v>
@@ -2692,13 +2710,13 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D54" t="s" s="2">
         <v>14</v>
@@ -2727,13 +2745,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>14</v>
@@ -2762,13 +2780,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D56" t="s" s="2">
         <v>14</v>
@@ -2797,13 +2815,13 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>173</v>
+        <v>119</v>
       </c>
       <c r="D57" t="s" s="2">
         <v>14</v>
@@ -2832,13 +2850,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>130</v>
+        <v>177</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>14</v>
@@ -2867,13 +2885,13 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="D59" t="s" s="2">
         <v>14</v>
@@ -2902,10 +2920,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C60" t="s" s="2">
         <v>42</v>
@@ -2937,13 +2955,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D61" t="s" s="2">
         <v>14</v>
@@ -2972,13 +2990,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="D62" t="s" s="2">
         <v>14</v>
@@ -3007,10 +3025,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C63" t="s" s="2">
         <v>96</v>
@@ -3042,13 +3060,13 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D64" t="s" s="2">
         <v>14</v>
@@ -3077,13 +3095,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>14</v>
@@ -3112,13 +3130,13 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="D66" t="s" s="2">
         <v>14</v>
@@ -3147,13 +3165,13 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="D67" t="s" s="2">
         <v>14</v>
@@ -3182,13 +3200,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>154</v>
+        <v>38</v>
       </c>
       <c r="D68" t="s" s="2">
         <v>14</v>
@@ -3217,13 +3235,13 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>107</v>
+        <v>158</v>
       </c>
       <c r="D69" t="s" s="2">
         <v>14</v>
@@ -3252,13 +3270,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>14</v>
@@ -3287,13 +3305,13 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="D71" t="s" s="2">
         <v>14</v>
@@ -3322,13 +3340,13 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D72" t="s" s="2">
         <v>14</v>
@@ -3357,13 +3375,13 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>206</v>
+        <v>30</v>
       </c>
       <c r="D73" t="s" s="2">
         <v>14</v>
@@ -3392,13 +3410,13 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>75</v>
+        <v>210</v>
       </c>
       <c r="D74" t="s" s="2">
         <v>14</v>
@@ -3427,13 +3445,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>14</v>
@@ -3462,13 +3480,13 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="D76" t="s" s="2">
         <v>14</v>
@@ -3497,13 +3515,13 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>64</v>
+        <v>138</v>
       </c>
       <c r="D77" t="s" s="2">
         <v>14</v>
@@ -3532,13 +3550,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="D78" t="s" s="2">
         <v>14</v>
@@ -3567,13 +3585,13 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>142</v>
+        <v>83</v>
       </c>
       <c r="D79" t="s" s="2">
         <v>14</v>
@@ -3602,13 +3620,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>14</v>
@@ -3637,28 +3655,28 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>14</v>
+        <v>142</v>
       </c>
       <c r="D81" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E81" t="s" s="2">
-        <v>223</v>
+        <v>14</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>17</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>224</v>
+        <v>18</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>19</v>
@@ -3672,28 +3690,28 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>14</v>
+        <v>225</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="D82" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E82" t="s" s="2">
-        <v>225</v>
+        <v>14</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>226</v>
+        <v>18</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>19</v>
@@ -3707,10 +3725,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>14</v>
+        <v>227</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C83" t="s" s="2">
         <v>14</v>
@@ -3719,16 +3737,16 @@
         <v>14</v>
       </c>
       <c r="E83" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F83" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="I83" t="s" s="2">
         <v>19</v>
@@ -3737,6 +3755,76 @@
         <v>14</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="C84" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D84" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E84" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="C85" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D85" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E85" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="F85" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K85" t="s" s="2">
         <v>14</v>
       </c>
     </row>

--- a/output/observations-summary.xlsx
+++ b/output/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="230">
   <si>
     <t>Profile</t>
   </si>
@@ -74,24 +74,6 @@
     <t>optional</t>
   </si>
   <si>
-    <t>cde-age-at-diagnosis-of-essential-hypertension</t>
-  </si>
-  <si>
-    <t>CDE Age At Diagnosis Of Essential Hypertension</t>
-  </si>
-  <si>
-    <t>CodeableConcept</t>
-  </si>
-  <si>
-    <t>LOINC#29308-4</t>
-  </si>
-  <si>
-    <t>dateTime</t>
-  </si>
-  <si>
-    <t>SNOMED CT#432213005</t>
-  </si>
-  <si>
     <t>cde-age-at-stopped-smoking</t>
   </si>
   <si>
@@ -468,6 +450,12 @@
   </si>
   <si>
     <t>SNOMED CT#8392000, LOINC#LA18978-9</t>
+  </si>
+  <si>
+    <t>cde-tobacco-smoking-status-yes-or-no</t>
+  </si>
+  <si>
+    <t>CDE tobacco Smoking Status Yes Or No</t>
   </si>
   <si>
     <t>cde-visit-date</t>
@@ -847,7 +835,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K85"/>
+  <dimension ref="A1:K83"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -937,7 +925,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>16</v>
@@ -960,28 +948,28 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I4" t="s" s="2">
         <v>19</v>
@@ -990,33 +978,33 @@
         <v>14</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I5" t="s" s="2">
         <v>19</v>
@@ -1025,24 +1013,24 @@
         <v>14</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>16</v>
@@ -1065,19 +1053,19 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>16</v>
@@ -1100,19 +1088,19 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s" s="2">
         <v>16</v>
@@ -1135,19 +1123,19 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="B9" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="C9" t="s" s="2">
-        <v>38</v>
-      </c>
       <c r="D9" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>16</v>
@@ -1170,19 +1158,19 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>16</v>
@@ -1205,19 +1193,19 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>16</v>
@@ -1240,19 +1228,19 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E12" t="s" s="2">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>16</v>
@@ -1275,19 +1263,19 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E13" t="s" s="2">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>16</v>
@@ -1310,25 +1298,25 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E14" t="s" s="2">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>16</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>18</v>
@@ -1345,19 +1333,19 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E15" t="s" s="2">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>16</v>
@@ -1380,19 +1368,19 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E16" t="s" s="2">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>16</v>
@@ -1415,25 +1403,25 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="D17" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E17" t="s" s="2">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>16</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>18</v>
@@ -1450,19 +1438,19 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E18" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>16</v>
@@ -1485,28 +1473,28 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E19" t="s" s="2">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>19</v>
@@ -1515,34 +1503,34 @@
         <v>14</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>14</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C20" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H20" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="D20" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="F20" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="G20" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>18</v>
-      </c>
       <c r="I20" t="s" s="2">
         <v>19</v>
       </c>
@@ -1550,42 +1538,42 @@
         <v>14</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>14</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E21" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J21" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="D21" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E21" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="F21" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="G21" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J21" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K21" t="s" s="2">
-        <v>14</v>
       </c>
     </row>
     <row r="22">
@@ -1593,7 +1581,7 @@
         <v>14</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>14</v>
@@ -1611,7 +1599,7 @@
         <v>14</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>19</v>
@@ -1620,7 +1608,7 @@
         <v>14</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23">
@@ -1628,7 +1616,7 @@
         <v>14</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>14</v>
@@ -1646,7 +1634,7 @@
         <v>14</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>19</v>
@@ -1655,7 +1643,7 @@
         <v>14</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24">
@@ -1663,7 +1651,7 @@
         <v>14</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>14</v>
@@ -1681,7 +1669,7 @@
         <v>14</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>19</v>
@@ -1690,33 +1678,33 @@
         <v>14</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>88</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E25" t="s" s="2">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>19</v>
@@ -1725,33 +1713,33 @@
         <v>14</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>89</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="D26" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E26" t="s" s="2">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>19</v>
@@ -1760,33 +1748,33 @@
         <v>14</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>89</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E27" t="s" s="2">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>19</v>
@@ -1800,19 +1788,19 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E28" t="s" s="2">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>16</v>
@@ -1835,19 +1823,19 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D29" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E29" t="s" s="2">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>16</v>
@@ -1870,19 +1858,19 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E30" t="s" s="2">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>16</v>
@@ -1905,19 +1893,19 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D31" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E31" t="s" s="2">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>16</v>
@@ -1940,19 +1928,19 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D32" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E32" t="s" s="2">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>16</v>
@@ -1975,19 +1963,19 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E33" t="s" s="2">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>16</v>
@@ -2010,28 +1998,28 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="D34" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E34" t="s" s="2">
-        <v>116</v>
+        <v>14</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>19</v>
@@ -2040,103 +2028,103 @@
         <v>14</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>14</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E35" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="F35" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="G35" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J35" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K35" t="s" s="2">
-        <v>14</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="C36" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D36" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E36" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="C36" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="D36" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E36" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="F36" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="G36" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J36" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K36" t="s" s="2">
-        <v>14</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="D37" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E37" t="s" s="2">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>19</v>
@@ -2145,33 +2133,33 @@
         <v>14</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>125</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E38" t="s" s="2">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>19</v>
@@ -2180,33 +2168,33 @@
         <v>14</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>126</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>14</v>
+        <v>132</v>
       </c>
       <c r="D39" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E39" t="s" s="2">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>19</v>
@@ -2215,24 +2203,24 @@
         <v>14</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>127</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E40" t="s" s="2">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>16</v>
@@ -2255,19 +2243,19 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="D41" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E41" t="s" s="2">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>16</v>
@@ -2290,25 +2278,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>136</v>
+        <v>14</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>138</v>
+        <v>14</v>
       </c>
       <c r="D42" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E42" t="s" s="2">
-        <v>139</v>
+        <v>14</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>18</v>
@@ -2320,77 +2308,77 @@
         <v>14</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>14</v>
+        <v>142</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>140</v>
+        <v>14</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>142</v>
+        <v>14</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E43" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="F43" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="G43" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J43" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K43" t="s" s="2">
-        <v>14</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="C44" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D44" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E44" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="C44" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="D44" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E44" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="F44" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="G44" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J44" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K44" t="s" s="2">
-        <v>14</v>
       </c>
     </row>
     <row r="45">
@@ -2398,45 +2386,45 @@
         <v>14</v>
       </c>
       <c r="B45" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="C45" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D45" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E45" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="C45" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D45" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E45" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="F45" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G45" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J45" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K45" t="s" s="2">
-        <v>148</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>14</v>
+        <v>146</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>14</v>
+        <v>140</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>14</v>
@@ -2445,10 +2433,10 @@
         <v>14</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>18</v>
@@ -2460,30 +2448,30 @@
         <v>14</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>149</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="D47" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E47" t="s" s="2">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>18</v>
@@ -2495,30 +2483,30 @@
         <v>14</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>150</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>14</v>
+        <v>152</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E48" t="s" s="2">
-        <v>14</v>
+        <v>155</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>18</v>
@@ -2530,24 +2518,24 @@
         <v>14</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>151</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>154</v>
+        <v>47</v>
       </c>
       <c r="D49" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E49" t="s" s="2">
-        <v>155</v>
+        <v>14</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>16</v>
@@ -2570,19 +2558,19 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>158</v>
+        <v>54</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E50" t="s" s="2">
-        <v>159</v>
+        <v>14</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>16</v>
@@ -2611,7 +2599,7 @@
         <v>161</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>53</v>
+        <v>162</v>
       </c>
       <c r="D51" t="s" s="2">
         <v>14</v>
@@ -2640,13 +2628,13 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="D52" t="s" s="2">
         <v>14</v>
@@ -2675,13 +2663,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>166</v>
+        <v>105</v>
       </c>
       <c r="D53" t="s" s="2">
         <v>14</v>
@@ -2716,7 +2704,7 @@
         <v>168</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="D54" t="s" s="2">
         <v>14</v>
@@ -2751,7 +2739,7 @@
         <v>170</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>14</v>
@@ -2786,7 +2774,7 @@
         <v>172</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>115</v>
+        <v>173</v>
       </c>
       <c r="D56" t="s" s="2">
         <v>14</v>
@@ -2815,13 +2803,13 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D57" t="s" s="2">
         <v>14</v>
@@ -2850,13 +2838,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>177</v>
+        <v>36</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>14</v>
@@ -2891,7 +2879,7 @@
         <v>179</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>130</v>
+        <v>36</v>
       </c>
       <c r="D59" t="s" s="2">
         <v>14</v>
@@ -2926,7 +2914,7 @@
         <v>181</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>14</v>
@@ -2961,7 +2949,7 @@
         <v>183</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D61" t="s" s="2">
         <v>14</v>
@@ -2996,7 +2984,7 @@
         <v>185</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="D62" t="s" s="2">
         <v>14</v>
@@ -3031,7 +3019,7 @@
         <v>187</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>14</v>
@@ -3066,7 +3054,7 @@
         <v>189</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="D64" t="s" s="2">
         <v>14</v>
@@ -3101,7 +3089,7 @@
         <v>191</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>14</v>
@@ -3136,7 +3124,7 @@
         <v>193</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>134</v>
+        <v>32</v>
       </c>
       <c r="D66" t="s" s="2">
         <v>14</v>
@@ -3171,7 +3159,7 @@
         <v>195</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="D67" t="s" s="2">
         <v>14</v>
@@ -3206,7 +3194,7 @@
         <v>197</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="D68" t="s" s="2">
         <v>14</v>
@@ -3241,7 +3229,7 @@
         <v>199</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>158</v>
+        <v>40</v>
       </c>
       <c r="D69" t="s" s="2">
         <v>14</v>
@@ -3276,7 +3264,7 @@
         <v>201</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>14</v>
@@ -3311,7 +3299,7 @@
         <v>203</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D71" t="s" s="2">
         <v>14</v>
@@ -3346,7 +3334,7 @@
         <v>205</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>13</v>
+        <v>206</v>
       </c>
       <c r="D72" t="s" s="2">
         <v>14</v>
@@ -3375,13 +3363,13 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="D73" t="s" s="2">
         <v>14</v>
@@ -3410,13 +3398,13 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="D74" t="s" s="2">
         <v>14</v>
@@ -3451,7 +3439,7 @@
         <v>212</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>14</v>
@@ -3486,7 +3474,7 @@
         <v>214</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>154</v>
+        <v>58</v>
       </c>
       <c r="D76" t="s" s="2">
         <v>14</v>
@@ -3521,7 +3509,7 @@
         <v>216</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="D77" t="s" s="2">
         <v>14</v>
@@ -3556,7 +3544,7 @@
         <v>218</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="D78" t="s" s="2">
         <v>14</v>
@@ -3591,7 +3579,7 @@
         <v>220</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>83</v>
+        <v>136</v>
       </c>
       <c r="D79" t="s" s="2">
         <v>14</v>
@@ -3626,7 +3614,7 @@
         <v>222</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>14</v>
@@ -3661,22 +3649,22 @@
         <v>224</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>142</v>
+        <v>14</v>
       </c>
       <c r="D81" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E81" t="s" s="2">
-        <v>14</v>
+        <v>225</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>17</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>18</v>
+        <v>226</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>19</v>
@@ -3690,28 +3678,28 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>225</v>
+        <v>14</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="D82" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E82" t="s" s="2">
-        <v>14</v>
+        <v>227</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>18</v>
+        <v>228</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>19</v>
@@ -3725,10 +3713,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>227</v>
+        <v>14</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C83" t="s" s="2">
         <v>14</v>
@@ -3743,10 +3731,10 @@
         <v>14</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I83" t="s" s="2">
         <v>19</v>
@@ -3755,76 +3743,6 @@
         <v>14</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="B84" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="C84" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D84" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E84" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="F84" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="B85" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="C85" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D85" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E85" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="F85" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K85" t="s" s="2">
         <v>14</v>
       </c>
     </row>

--- a/output/observations-summary.xlsx
+++ b/output/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="262">
   <si>
     <t>Profile</t>
   </si>
@@ -182,6 +182,18 @@
     <t>null#2075-0</t>
   </si>
   <si>
+    <t>cde-cholesterol-inserum-or-plasma-mole-conentration</t>
+  </si>
+  <si>
+    <t>CDE cholesterol Inserum Or Plasma Mole Conentration</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000035, null#CMO_0000023, null#CMO_0000050, null#CMO_0002048, null#CMO_0002280</t>
+  </si>
+  <si>
+    <t>null#14927-8</t>
+  </si>
+  <si>
     <t>cde-creatinine-in-serum-or-plasma-mole-concentration</t>
   </si>
   <si>
@@ -227,13 +239,13 @@
     <t>null#432213005</t>
   </si>
   <si>
-    <t>cde-erythrocytes-in-blood</t>
-  </si>
-  <si>
-    <t>CDE Erythrocytes In Blood</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000036, null#CMO_0001356</t>
+    <t>cde-erythrocytes-in-blood-count-per-volume</t>
+  </si>
+  <si>
+    <t>CDE Erythrocytes In Blood Count Per Volume</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000035, null#CMO_0000036, null#CMO_0001356</t>
   </si>
   <si>
     <t>null#26453-1</t>
@@ -278,13 +290,25 @@
     <t>null#14749-6</t>
   </si>
   <si>
+    <t>cde-heart-rate-beats-per-minute</t>
+  </si>
+  <si>
+    <t>CDE heart Rate Beats Per Minute</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000001, null#CMO_0000670, null#CMO_0000002</t>
+  </si>
+  <si>
+    <t>null#8867-4</t>
+  </si>
+  <si>
     <t>cde-hematocrit-of-blood</t>
   </si>
   <si>
     <t>CDE Hematocrit Of Blood</t>
   </si>
   <si>
-    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000036, null#CMO_0000508</t>
+    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000035, null#CMO_0000036, null#CMO_0000508</t>
   </si>
   <si>
     <t>null#20570-8</t>
@@ -311,13 +335,13 @@
     <t>null#284472007</t>
   </si>
   <si>
-    <t>cde-leukocytes-in-blood</t>
-  </si>
-  <si>
-    <t>CDE Leukocytes In Blood</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000036, null#CMO_0002341</t>
+    <t>cde-leukocytes-in-blood-count-per-volume</t>
+  </si>
+  <si>
+    <t>CDE Leukocytes In Blood Count Per Volume</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000035, null#CMO_0000036, null#CMO_0002341</t>
   </si>
   <si>
     <t>null#26464-8</t>
@@ -335,6 +359,30 @@
     <t>null#2601-3</t>
   </si>
   <si>
+    <t>cde-mean-corpuscular-hemoglobin-level-entitic-mass</t>
+  </si>
+  <si>
+    <t>CDE Mean Corpuscular Hemoglobin Level Entitic Mass</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#laboratory, null#CMO_0000035, null#CMO_0000036, null#CMO_0000036, null#CMO_0001356, null#CMO_0000290</t>
+  </si>
+  <si>
+    <t>null#28539-5</t>
+  </si>
+  <si>
+    <t>cde-mean-corpuscular-volume-entitic-volume</t>
+  </si>
+  <si>
+    <t>CDE Mean Corpuscular Volume Entitic Volume</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#laboratory, null#CMO_0000035, null#CMO_0000036, null#CMO_0000036, null#CMO_0001356, null#CMO_0000038</t>
+  </si>
+  <si>
+    <t>null#30428-7</t>
+  </si>
+  <si>
     <t>cde-phosphate-in-serum-or-plasma-mole-concentration</t>
   </si>
   <si>
@@ -392,13 +440,13 @@
     <t>null#2951-2</t>
   </si>
   <si>
-    <t>cde-thrombocytes-in-blood</t>
-  </si>
-  <si>
-    <t>CDE Thrombocytes In Blood</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000036, null#CMO_0000921</t>
+    <t>cde-thrombocytes-in-blood-count-per-volume</t>
+  </si>
+  <si>
+    <t>CDE Thrombocytes In Blood Count Per Volume</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000035, null#CMO_0000036, null#CMO_0000921</t>
   </si>
   <si>
     <t>null#26515-7</t>
@@ -458,6 +506,15 @@
     <t>CDE tobacco Smoking Status Yes Or No</t>
   </si>
   <si>
+    <t>cde-triglyceride-in-serum-or-plasma-mole-concentration</t>
+  </si>
+  <si>
+    <t>CDE Triglyceride In Serum Or Plasma Mole Concentration</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000035, null#CMO_0000023, null#CMO_0000050, null#CMO_0000118</t>
+  </si>
+  <si>
     <t>cde-visit-date</t>
   </si>
   <si>
@@ -494,6 +551,12 @@
     <t>CLS OBO CMO Blood Chloride Level</t>
   </si>
   <si>
+    <t>cls-obo-cmo-blood-cholesterol-level</t>
+  </si>
+  <si>
+    <t>CLS OBO CMO Blood Cholesterol Level</t>
+  </si>
+  <si>
     <t>cls-obo-cmo-blood-electrolyte-measurement</t>
   </si>
   <si>
@@ -542,6 +605,12 @@
     <t>CLS OBO CMO Blood Sodium Level</t>
   </si>
   <si>
+    <t>cls-obo-cmo-blood-triglyceride-level</t>
+  </si>
+  <si>
+    <t>CLS OBO CMO Blood Triglyceride Level</t>
+  </si>
+  <si>
     <t>cls-obo-cmo-body-height</t>
   </si>
   <si>
@@ -560,6 +629,12 @@
     <t>CLS OBO CMO Diastolic Blood Pressure</t>
   </si>
   <si>
+    <t>cls-obo-cmo-heart-rate</t>
+  </si>
+  <si>
+    <t>CLS OBO CMO Heart Rate</t>
+  </si>
+  <si>
     <t>cls-obo-cmo-hematocrit-measurement</t>
   </si>
   <si>
@@ -576,6 +651,27 @@
   </si>
   <si>
     <t>CLS OBO CMO Hip Circumference</t>
+  </si>
+  <si>
+    <t>cls-obo-cmo-mean-corpuscular-hemoglobin-concentration</t>
+  </si>
+  <si>
+    <t>CLS OBO CMO Mean Corpuscular Hemoglobin Concentration</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000035, null#CMO_0000036, null#CMO_0001356, null#CMO_0000291</t>
+  </si>
+  <si>
+    <t>cls-obo-cmo-mean-corpuscular-hemoglobin-level</t>
+  </si>
+  <si>
+    <t>CLS OBO CMO Mean Corpuscular Hemoglobin Level</t>
+  </si>
+  <si>
+    <t>cls-obo-cmo-mean-corpuscular-volume</t>
+  </si>
+  <si>
+    <t>CLS OBO CMO Mean Corpuscular Volume</t>
   </si>
   <si>
     <t>cls-obo-cmo-platelet-measurement</t>
@@ -835,7 +931,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K83"/>
+  <dimension ref="A1:K94"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1304,19 +1400,19 @@
         <v>61</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E14" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>16</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>18</v>
@@ -1351,7 +1447,7 @@
         <v>16</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>18</v>
@@ -1368,13 +1464,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>14</v>
@@ -1473,28 +1569,28 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E19" t="s" s="2">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>19</v>
@@ -1503,7 +1599,7 @@
         <v>14</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>80</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20">
@@ -1511,7 +1607,7 @@
         <v>14</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>14</v>
@@ -1529,7 +1625,7 @@
         <v>14</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>19</v>
@@ -1538,7 +1634,7 @@
         <v>14</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21">
@@ -1546,7 +1642,7 @@
         <v>14</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>14</v>
@@ -1564,7 +1660,7 @@
         <v>14</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>19</v>
@@ -1573,7 +1669,7 @@
         <v>14</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22">
@@ -1581,7 +1677,7 @@
         <v>14</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>14</v>
@@ -1599,7 +1695,7 @@
         <v>14</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>19</v>
@@ -1608,7 +1704,7 @@
         <v>14</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23">
@@ -1616,7 +1712,7 @@
         <v>14</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>14</v>
@@ -1634,7 +1730,7 @@
         <v>14</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>19</v>
@@ -1643,7 +1739,7 @@
         <v>14</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24">
@@ -1651,7 +1747,7 @@
         <v>14</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>14</v>
@@ -1669,7 +1765,7 @@
         <v>14</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>19</v>
@@ -1678,33 +1774,33 @@
         <v>14</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>14</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E25" t="s" s="2">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>19</v>
@@ -1759,13 +1855,13 @@
         <v>93</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E27" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>16</v>
@@ -1788,19 +1884,19 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E28" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>16</v>
@@ -1823,13 +1919,13 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D29" t="s" s="2">
         <v>14</v>
@@ -1998,28 +2094,28 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="D34" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E34" t="s" s="2">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>19</v>
@@ -2028,33 +2124,33 @@
         <v>14</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>119</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E35" t="s" s="2">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>19</v>
@@ -2063,33 +2159,33 @@
         <v>14</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>120</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="D36" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E36" t="s" s="2">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>19</v>
@@ -2098,24 +2194,24 @@
         <v>14</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>121</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="D37" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E37" t="s" s="2">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>16</v>
@@ -2138,28 +2234,28 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E38" t="s" s="2">
-        <v>129</v>
+        <v>14</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>19</v>
@@ -2168,33 +2264,33 @@
         <v>14</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>14</v>
+        <v>135</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>130</v>
+        <v>14</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>132</v>
+        <v>14</v>
       </c>
       <c r="D39" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E39" t="s" s="2">
-        <v>133</v>
+        <v>14</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>19</v>
@@ -2203,42 +2299,42 @@
         <v>14</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>14</v>
+        <v>136</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>136</v>
+        <v>14</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E40" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="F40" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="G40" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J40" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K40" t="s" s="2">
-        <v>14</v>
       </c>
     </row>
     <row r="41">
@@ -2278,25 +2374,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>14</v>
+        <v>142</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>14</v>
+        <v>144</v>
       </c>
       <c r="D42" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E42" t="s" s="2">
-        <v>14</v>
+        <v>145</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>18</v>
@@ -2308,30 +2404,30 @@
         <v>14</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>142</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>14</v>
+        <v>146</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E43" t="s" s="2">
-        <v>14</v>
+        <v>149</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>18</v>
@@ -2343,30 +2439,30 @@
         <v>14</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>143</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>14</v>
+        <v>152</v>
       </c>
       <c r="D44" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E44" t="s" s="2">
-        <v>14</v>
+        <v>153</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>18</v>
@@ -2378,30 +2474,30 @@
         <v>14</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>144</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>14</v>
+        <v>156</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E45" t="s" s="2">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>18</v>
@@ -2413,18 +2509,18 @@
         <v>14</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>145</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>146</v>
+        <v>14</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>140</v>
+        <v>14</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>14</v>
@@ -2433,10 +2529,10 @@
         <v>14</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>18</v>
@@ -2448,30 +2544,30 @@
         <v>14</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>14</v>
+        <v>158</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>148</v>
+        <v>14</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="D47" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E47" t="s" s="2">
-        <v>151</v>
+        <v>14</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>18</v>
@@ -2483,30 +2579,30 @@
         <v>14</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>14</v>
+        <v>159</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>152</v>
+        <v>14</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>154</v>
+        <v>14</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E48" t="s" s="2">
-        <v>155</v>
+        <v>14</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>18</v>
@@ -2518,18 +2614,18 @@
         <v>14</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>14</v>
+        <v>160</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>156</v>
+        <v>14</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="D49" t="s" s="2">
         <v>14</v>
@@ -2538,10 +2634,10 @@
         <v>14</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>18</v>
@@ -2553,18 +2649,18 @@
         <v>14</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>14</v>
+        <v>161</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>54</v>
+        <v>156</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>14</v>
@@ -2593,19 +2689,19 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D51" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E51" t="s" s="2">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>16</v>
@@ -2628,19 +2724,19 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>86</v>
+        <v>169</v>
       </c>
       <c r="D52" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E52" t="s" s="2">
-        <v>14</v>
+        <v>170</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>16</v>
@@ -2663,19 +2759,19 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>105</v>
+        <v>173</v>
       </c>
       <c r="D53" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E53" t="s" s="2">
-        <v>14</v>
+        <v>174</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>16</v>
@@ -2698,13 +2794,13 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="D54" t="s" s="2">
         <v>14</v>
@@ -2733,13 +2829,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>14</v>
@@ -2768,13 +2864,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>173</v>
+        <v>58</v>
       </c>
       <c r="D56" t="s" s="2">
         <v>14</v>
@@ -2803,13 +2899,13 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>124</v>
+        <v>183</v>
       </c>
       <c r="D57" t="s" s="2">
         <v>14</v>
@@ -2838,13 +2934,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>14</v>
@@ -2873,13 +2969,13 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>36</v>
+        <v>113</v>
       </c>
       <c r="D59" t="s" s="2">
         <v>14</v>
@@ -2908,13 +3004,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>28</v>
+        <v>125</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>14</v>
@@ -2943,13 +3039,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="D61" t="s" s="2">
         <v>14</v>
@@ -2978,13 +3074,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>90</v>
+        <v>194</v>
       </c>
       <c r="D62" t="s" s="2">
         <v>14</v>
@@ -3013,13 +3109,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>14</v>
@@ -3048,13 +3144,13 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="D64" t="s" s="2">
         <v>14</v>
@@ -3083,13 +3179,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>14</v>
@@ -3118,13 +3214,13 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D66" t="s" s="2">
         <v>14</v>
@@ -3153,13 +3249,13 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>154</v>
+        <v>28</v>
       </c>
       <c r="D67" t="s" s="2">
         <v>14</v>
@@ -3188,13 +3284,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D68" t="s" s="2">
         <v>14</v>
@@ -3223,13 +3319,13 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="D69" t="s" s="2">
         <v>14</v>
@@ -3258,13 +3354,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>14</v>
@@ -3293,13 +3389,13 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="D71" t="s" s="2">
         <v>14</v>
@@ -3328,13 +3424,13 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="D72" t="s" s="2">
         <v>14</v>
@@ -3363,13 +3459,13 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="D73" t="s" s="2">
         <v>14</v>
@@ -3398,13 +3494,13 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="D74" t="s" s="2">
         <v>14</v>
@@ -3433,13 +3529,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>14</v>
@@ -3468,13 +3564,13 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="D76" t="s" s="2">
         <v>14</v>
@@ -3503,13 +3599,13 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="D77" t="s" s="2">
         <v>14</v>
@@ -3538,13 +3634,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>140</v>
+        <v>173</v>
       </c>
       <c r="D78" t="s" s="2">
         <v>14</v>
@@ -3573,13 +3669,13 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="D79" t="s" s="2">
         <v>14</v>
@@ -3608,13 +3704,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>14</v>
@@ -3643,28 +3739,28 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D81" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E81" t="s" s="2">
-        <v>225</v>
+        <v>14</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>17</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>226</v>
+        <v>18</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>19</v>
@@ -3678,28 +3774,28 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>14</v>
+        <v>234</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D82" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E82" t="s" s="2">
-        <v>227</v>
+        <v>14</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>228</v>
+        <v>18</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>19</v>
@@ -3713,28 +3809,28 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>14</v>
+        <v>236</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>14</v>
+        <v>238</v>
       </c>
       <c r="D83" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E83" t="s" s="2">
-        <v>229</v>
+        <v>14</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>228</v>
+        <v>18</v>
       </c>
       <c r="I83" t="s" s="2">
         <v>19</v>
@@ -3743,6 +3839,391 @@
         <v>14</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="C84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D84" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E84" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="C85" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="D85" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E85" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F85" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="C86" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="D86" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E86" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="C87" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="D87" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E87" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="C88" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D88" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E88" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="C89" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="D89" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E89" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="C90" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="D90" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E90" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="C91" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="D91" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E91" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F91" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="C92" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D92" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E92" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="F92" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="C93" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D93" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E93" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="F93" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="C94" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D94" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E94" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="F94" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K94" t="s" s="2">
         <v>14</v>
       </c>
     </row>

--- a/output/observations-summary.xlsx
+++ b/output/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="275">
   <si>
     <t>Profile</t>
   </si>
@@ -74,12 +74,6 @@
     <t>optional</t>
   </si>
   <si>
-    <t>cde-age-at-stopped-smoking</t>
-  </si>
-  <si>
-    <t>CDE Age At Stopped Smoking</t>
-  </si>
-  <si>
     <t>cde-birth-date</t>
   </si>
   <si>
@@ -239,6 +233,9 @@
     <t>null#432213005</t>
   </si>
   <si>
+    <t>dateTime</t>
+  </si>
+  <si>
     <t>cde-erythrocytes-in-blood-count-per-volume</t>
   </si>
   <si>
@@ -263,9 +260,6 @@
     <t>null#364699009</t>
   </si>
   <si>
-    <t>integerĵ</t>
-  </si>
-  <si>
     <t>SNOMED CT#14045001, Unified Medical Language System#C0043157</t>
   </si>
   <si>
@@ -335,6 +329,30 @@
     <t>null#284472007</t>
   </si>
   <si>
+    <t>cde-leucocyctes-in-urine-dipstick-test</t>
+  </si>
+  <si>
+    <t>CDE Leucocyctes In Urine Dipstick Test</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000080, null#CMO_0000256</t>
+  </si>
+  <si>
+    <t>null#275741008</t>
+  </si>
+  <si>
+    <t>SNOMED CT#260385009</t>
+  </si>
+  <si>
+    <t>SNOMED CT#441614007</t>
+  </si>
+  <si>
+    <t>SNOMED CT#441517005</t>
+  </si>
+  <si>
+    <t>SNOMED CT#441521003</t>
+  </si>
+  <si>
     <t>cde-leukocytes-in-blood-count-per-volume</t>
   </si>
   <si>
@@ -413,7 +431,7 @@
     <t>CDE Sex Assigned At Birth</t>
   </si>
   <si>
-    <t>Observation Category Codes#social-history, SNOMED CT#138875005, SNOMED CT#363787002, SNOMED CT#160476009, SNOMED CT#302147001, SNOMED CT#184100006</t>
+    <t>Observation Category Codes#exam, SNOMED CT#138875005, SNOMED CT#363787002, SNOMED CT#160476009, SNOMED CT#302147001, SNOMED CT#184100006</t>
   </si>
   <si>
     <t>null#76689-9</t>
@@ -452,6 +470,15 @@
     <t>null#26515-7</t>
   </si>
   <si>
+    <t>cde-tobacco-smoking-cessation-age</t>
+  </si>
+  <si>
+    <t>CDE tobacco Smoking Cessation Age</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#social-history, SNOMED CT#138875005, SNOMED CT#404684003, SNOMED CT#384821006, SNOMED CT#365949003, SNOMED CT#365980008, SNOMED CT#1221000175102</t>
+  </si>
+  <si>
     <t>cde-tobacco-smoking-cessation-year</t>
   </si>
   <si>
@@ -494,10 +521,10 @@
     <t>SNOMED CT#428041000124106</t>
   </si>
   <si>
-    <t>SNOMED CT#8517006, LOINC#LA15920-4</t>
-  </si>
-  <si>
-    <t>SNOMED CT#8392000, LOINC#LA18978-9</t>
+    <t>SNOMED CT#8517006, null#LA15920-4</t>
+  </si>
+  <si>
+    <t>SNOMED CT#8392000, null#LA18978-9</t>
   </si>
   <si>
     <t>cde-tobacco-smoking-status-yes-or-no</t>
@@ -692,6 +719,12 @@
     <t>CLS OBO CMO Systolic Blood Pressure</t>
   </si>
   <si>
+    <t>cls-obo-cmo-urine-measurement</t>
+  </si>
+  <si>
+    <t>CLS OBO CMO Urine Measurement</t>
+  </si>
+  <si>
     <t>cls-obo-cmo-waist-circumference</t>
   </si>
   <si>
@@ -753,6 +786,12 @@
   </si>
   <si>
     <t>CLS OBO SNOMED Blood Creatinine Level</t>
+  </si>
+  <si>
+    <t>cls-snomed-age-at-smoking-cessation</t>
+  </si>
+  <si>
+    <t>CLS SNOMED Age At Smoking Cessation</t>
   </si>
   <si>
     <t>cls-snomed-demographic-history-detail</t>
@@ -931,7 +970,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K94"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1015,13 +1054,13 @@
         <v>21</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>16</v>
@@ -1044,19 +1083,19 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>16</v>
@@ -1079,19 +1118,19 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>16</v>
@@ -1114,19 +1153,19 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>16</v>
@@ -1149,19 +1188,19 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>16</v>
@@ -1184,19 +1223,19 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s" s="2">
         <v>16</v>
@@ -1219,19 +1258,19 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>16</v>
@@ -1254,19 +1293,19 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="B10" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>47</v>
-      </c>
       <c r="D10" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>16</v>
@@ -1289,19 +1328,19 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>16</v>
@@ -1324,19 +1363,19 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E12" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>16</v>
@@ -1359,19 +1398,19 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E13" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>16</v>
@@ -1394,25 +1433,25 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E14" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>16</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>18</v>
@@ -1429,10 +1468,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>13</v>
@@ -1441,13 +1480,13 @@
         <v>14</v>
       </c>
       <c r="E15" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>16</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>18</v>
@@ -1464,19 +1503,19 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E16" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>16</v>
@@ -1485,7 +1524,7 @@
         <v>17</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>19</v>
@@ -1499,19 +1538,19 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D17" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E17" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>16</v>
@@ -1534,19 +1573,19 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E18" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>16</v>
@@ -1569,37 +1608,37 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="B19" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="C19" t="s" s="2">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E19" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F19" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J19" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="F19" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="G19" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J19" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K19" t="s" s="2">
-        <v>14</v>
       </c>
     </row>
     <row r="20">
@@ -1607,7 +1646,7 @@
         <v>14</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>14</v>
@@ -1625,16 +1664,16 @@
         <v>14</v>
       </c>
       <c r="H20" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J20" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J20" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K20" t="s" s="2">
-        <v>84</v>
       </c>
     </row>
     <row r="21">
@@ -1642,7 +1681,7 @@
         <v>14</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>14</v>
@@ -1660,7 +1699,7 @@
         <v>14</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>19</v>
@@ -1669,7 +1708,7 @@
         <v>14</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22">
@@ -1677,7 +1716,7 @@
         <v>14</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>14</v>
@@ -1695,7 +1734,7 @@
         <v>14</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>19</v>
@@ -1704,7 +1743,7 @@
         <v>14</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23">
@@ -1712,7 +1751,7 @@
         <v>14</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>14</v>
@@ -1730,7 +1769,7 @@
         <v>14</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>19</v>
@@ -1739,7 +1778,7 @@
         <v>14</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24">
@@ -1747,7 +1786,7 @@
         <v>14</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>14</v>
@@ -1765,7 +1804,7 @@
         <v>14</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>19</v>
@@ -1774,33 +1813,33 @@
         <v>14</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>87</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E25" t="s" s="2">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>19</v>
@@ -1814,19 +1853,19 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D26" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E26" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>16</v>
@@ -1849,19 +1888,19 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E27" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>16</v>
@@ -1884,19 +1923,19 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="C28" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="B28" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="C28" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="D28" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E28" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>16</v>
@@ -1919,19 +1958,19 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D29" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E29" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>16</v>
@@ -1954,19 +1993,19 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E30" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>16</v>
@@ -1989,60 +2028,60 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C31" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D31" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E31" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J31" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="D31" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E31" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="F31" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="G31" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J31" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K31" t="s" s="2">
-        <v>14</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="D32" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E32" t="s" s="2">
-        <v>114</v>
+        <v>14</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>18</v>
@@ -2054,30 +2093,30 @@
         <v>14</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>14</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E33" t="s" s="2">
-        <v>118</v>
+        <v>14</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>18</v>
@@ -2089,30 +2128,30 @@
         <v>14</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>14</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>121</v>
+        <v>14</v>
       </c>
       <c r="D34" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E34" t="s" s="2">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>18</v>
@@ -2124,24 +2163,24 @@
         <v>14</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>14</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E35" t="s" s="2">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>16</v>
@@ -2164,19 +2203,19 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="D36" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E36" t="s" s="2">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>16</v>
@@ -2199,19 +2238,19 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="D37" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E37" t="s" s="2">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>16</v>
@@ -2234,28 +2273,28 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E38" t="s" s="2">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>19</v>
@@ -2264,33 +2303,33 @@
         <v>14</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>135</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="B39" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="C39" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="D39" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E39" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="C39" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D39" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E39" t="s" s="2">
-        <v>14</v>
-      </c>
       <c r="F39" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>19</v>
@@ -2299,33 +2338,33 @@
         <v>14</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>136</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>14</v>
+        <v>135</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E40" t="s" s="2">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>19</v>
@@ -2334,24 +2373,24 @@
         <v>14</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>137</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="B41" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="B41" t="s" s="2">
+      <c r="C41" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="C41" t="s" s="2">
+      <c r="D41" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E41" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="D41" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E41" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>16</v>
@@ -2374,25 +2413,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>142</v>
+        <v>14</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>144</v>
+        <v>14</v>
       </c>
       <c r="D42" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E42" t="s" s="2">
-        <v>145</v>
+        <v>14</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>18</v>
@@ -2404,30 +2443,30 @@
         <v>14</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>14</v>
+        <v>141</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>146</v>
+        <v>14</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>148</v>
+        <v>14</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E43" t="s" s="2">
-        <v>149</v>
+        <v>14</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>18</v>
@@ -2439,30 +2478,30 @@
         <v>14</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>14</v>
+        <v>142</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>152</v>
+        <v>14</v>
       </c>
       <c r="D44" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E44" t="s" s="2">
-        <v>153</v>
+        <v>14</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>18</v>
@@ -2474,24 +2513,24 @@
         <v>14</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>14</v>
+        <v>143</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E45" t="s" s="2">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>16</v>
@@ -2514,25 +2553,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E46" t="s" s="2">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>18</v>
@@ -2544,30 +2583,30 @@
         <v>14</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>158</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>14</v>
+        <v>152</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="D47" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E47" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>18</v>
@@ -2579,30 +2618,30 @@
         <v>14</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>159</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>14</v>
+        <v>155</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E48" t="s" s="2">
-        <v>14</v>
+        <v>158</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>18</v>
@@ -2614,30 +2653,30 @@
         <v>14</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>160</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>14</v>
+        <v>159</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="D49" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E49" t="s" s="2">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>18</v>
@@ -2649,24 +2688,24 @@
         <v>14</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>161</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E50" t="s" s="2">
-        <v>14</v>
+        <v>166</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>16</v>
@@ -2689,25 +2728,25 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B51" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="B51" t="s" s="2">
-        <v>165</v>
-      </c>
       <c r="C51" t="s" s="2">
-        <v>166</v>
+        <v>14</v>
       </c>
       <c r="D51" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E51" t="s" s="2">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>18</v>
@@ -2719,65 +2758,65 @@
         <v>14</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>14</v>
+        <v>167</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>167</v>
+        <v>14</v>
       </c>
       <c r="B52" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="C52" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D52" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E52" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K52" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="C52" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="D52" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E52" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="F52" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="G52" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J52" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K52" t="s" s="2">
-        <v>14</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>171</v>
+        <v>14</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>173</v>
+        <v>14</v>
       </c>
       <c r="D53" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E53" t="s" s="2">
-        <v>174</v>
+        <v>14</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>18</v>
@@ -2789,18 +2828,18 @@
         <v>14</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>14</v>
+        <v>169</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>175</v>
+        <v>14</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="D54" t="s" s="2">
         <v>14</v>
@@ -2809,10 +2848,10 @@
         <v>14</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>18</v>
@@ -2824,18 +2863,18 @@
         <v>14</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>14</v>
+        <v>170</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>54</v>
+        <v>165</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>14</v>
@@ -2864,19 +2903,19 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>58</v>
+        <v>175</v>
       </c>
       <c r="D56" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E56" t="s" s="2">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>16</v>
@@ -2899,19 +2938,19 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D57" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E57" t="s" s="2">
-        <v>14</v>
+        <v>179</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>16</v>
@@ -2934,19 +2973,19 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>90</v>
+        <v>182</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E58" t="s" s="2">
-        <v>14</v>
+        <v>183</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>16</v>
@@ -2969,13 +3008,13 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="D59" t="s" s="2">
         <v>14</v>
@@ -3004,13 +3043,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>14</v>
@@ -3039,13 +3078,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>129</v>
+        <v>56</v>
       </c>
       <c r="D61" t="s" s="2">
         <v>14</v>
@@ -3074,13 +3113,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="C62" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="C62" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="D62" t="s" s="2">
         <v>14</v>
@@ -3109,13 +3148,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>140</v>
+        <v>88</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>14</v>
@@ -3144,13 +3183,13 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>166</v>
+        <v>119</v>
       </c>
       <c r="D64" t="s" s="2">
         <v>14</v>
@@ -3179,13 +3218,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>36</v>
+        <v>131</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>14</v>
@@ -3214,13 +3253,13 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>36</v>
+        <v>135</v>
       </c>
       <c r="D66" t="s" s="2">
         <v>14</v>
@@ -3249,13 +3288,13 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="C67" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="C67" t="s" s="2">
-        <v>28</v>
       </c>
       <c r="D67" t="s" s="2">
         <v>14</v>
@@ -3284,13 +3323,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="B68" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="B68" t="s" s="2">
-        <v>206</v>
-      </c>
       <c r="C68" t="s" s="2">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="D68" t="s" s="2">
         <v>14</v>
@@ -3319,13 +3358,13 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="B69" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="B69" t="s" s="2">
-        <v>208</v>
-      </c>
       <c r="C69" t="s" s="2">
-        <v>98</v>
+        <v>175</v>
       </c>
       <c r="D69" t="s" s="2">
         <v>14</v>
@@ -3354,13 +3393,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="B70" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="B70" t="s" s="2">
-        <v>210</v>
-      </c>
       <c r="C70" t="s" s="2">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>14</v>
@@ -3389,13 +3428,13 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="B71" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="B71" t="s" s="2">
-        <v>212</v>
-      </c>
       <c r="C71" t="s" s="2">
-        <v>105</v>
+        <v>34</v>
       </c>
       <c r="D71" t="s" s="2">
         <v>14</v>
@@ -3424,13 +3463,13 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="B72" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="B72" t="s" s="2">
-        <v>214</v>
-      </c>
       <c r="C72" t="s" s="2">
-        <v>215</v>
+        <v>26</v>
       </c>
       <c r="D72" t="s" s="2">
         <v>14</v>
@@ -3459,13 +3498,13 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="D73" t="s" s="2">
         <v>14</v>
@@ -3494,13 +3533,13 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="D74" t="s" s="2">
         <v>14</v>
@@ -3529,13 +3568,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>144</v>
+        <v>96</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>14</v>
@@ -3564,13 +3603,13 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="D76" t="s" s="2">
         <v>14</v>
@@ -3599,13 +3638,13 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="C77" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="C77" t="s" s="2">
-        <v>32</v>
       </c>
       <c r="D77" t="s" s="2">
         <v>14</v>
@@ -3634,13 +3673,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="B78" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="B78" t="s" s="2">
-        <v>227</v>
-      </c>
       <c r="C78" t="s" s="2">
-        <v>173</v>
+        <v>123</v>
       </c>
       <c r="D78" t="s" s="2">
         <v>14</v>
@@ -3669,13 +3708,13 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="B79" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="B79" t="s" s="2">
-        <v>229</v>
-      </c>
       <c r="C79" t="s" s="2">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="D79" t="s" s="2">
         <v>14</v>
@@ -3704,13 +3743,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="B80" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="B80" t="s" s="2">
-        <v>231</v>
-      </c>
       <c r="C80" t="s" s="2">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>14</v>
@@ -3739,13 +3778,13 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="B81" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="B81" t="s" s="2">
-        <v>233</v>
-      </c>
       <c r="C81" t="s" s="2">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="D81" t="s" s="2">
         <v>14</v>
@@ -3774,13 +3813,13 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="B82" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="B82" t="s" s="2">
-        <v>235</v>
-      </c>
       <c r="C82" t="s" s="2">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D82" t="s" s="2">
         <v>14</v>
@@ -3809,13 +3848,13 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="B83" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="B83" t="s" s="2">
-        <v>237</v>
-      </c>
       <c r="C83" t="s" s="2">
-        <v>238</v>
+        <v>107</v>
       </c>
       <c r="D83" t="s" s="2">
         <v>14</v>
@@ -3844,13 +3883,13 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>73</v>
+        <v>182</v>
       </c>
       <c r="D84" t="s" s="2">
         <v>14</v>
@@ -3879,13 +3918,13 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>169</v>
+        <v>115</v>
       </c>
       <c r="D85" t="s" s="2">
         <v>14</v>
@@ -3914,13 +3953,13 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>148</v>
+        <v>38</v>
       </c>
       <c r="D86" t="s" s="2">
         <v>14</v>
@@ -3949,13 +3988,13 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="D87" t="s" s="2">
         <v>14</v>
@@ -3984,13 +4023,13 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="D88" t="s" s="2">
         <v>14</v>
@@ -4019,13 +4058,13 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="C89" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="B89" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="C89" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="D89" t="s" s="2">
         <v>14</v>
@@ -4054,13 +4093,13 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="B90" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="B90" t="s" s="2">
-        <v>252</v>
-      </c>
       <c r="C90" t="s" s="2">
-        <v>152</v>
+        <v>71</v>
       </c>
       <c r="D90" t="s" s="2">
         <v>14</v>
@@ -4089,13 +4128,13 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="B91" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="B91" t="s" s="2">
-        <v>254</v>
-      </c>
       <c r="C91" t="s" s="2">
-        <v>133</v>
+        <v>178</v>
       </c>
       <c r="D91" t="s" s="2">
         <v>14</v>
@@ -4124,28 +4163,28 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="B92" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="B92" t="s" s="2">
-        <v>256</v>
-      </c>
       <c r="C92" t="s" s="2">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="D92" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E92" t="s" s="2">
-        <v>257</v>
+        <v>14</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>17</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>258</v>
+        <v>18</v>
       </c>
       <c r="I92" t="s" s="2">
         <v>19</v>
@@ -4159,28 +4198,28 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>14</v>
+        <v>256</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="D93" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E93" t="s" s="2">
-        <v>259</v>
+        <v>14</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H93" t="s" s="2">
-        <v>260</v>
+        <v>18</v>
       </c>
       <c r="I93" t="s" s="2">
         <v>19</v>
@@ -4194,36 +4233,281 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>14</v>
+        <v>258</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="D94" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E94" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F94" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="B95" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="F94" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G94" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="H94" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="I94" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J94" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K94" t="s" s="2">
+      <c r="C95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D95" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E95" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F95" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="C96" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="D96" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E96" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F96" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="C97" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="D97" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E97" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F97" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="C98" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="D98" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E98" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F98" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="C99" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D99" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E99" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="F99" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="C100" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D100" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E100" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="F100" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="C101" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D101" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E101" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="F101" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K101" t="s" s="2">
         <v>14</v>
       </c>
     </row>

--- a/output/observations-summary.xlsx
+++ b/output/observations-summary.xlsx
@@ -644,6 +644,12 @@
     <t>CLS OBO CMO Body Height</t>
   </si>
   <si>
+    <t>cls-obo-cmo-body-mass-index</t>
+  </si>
+  <si>
+    <t>CLS OBO CMO Body Mass Index</t>
+  </si>
+  <si>
     <t>cls-obo-cmo-body-weight</t>
   </si>
   <si>
@@ -735,12 +741,6 @@
   </si>
   <si>
     <t>CLS OBO CMO White Blood Cell Measurement</t>
-  </si>
-  <si>
-    <t>cls-obo-cmobody-mass-index</t>
-  </si>
-  <si>
-    <t>CLS OBO CMO Body Mass Index</t>
   </si>
   <si>
     <t>cls-obo-ncit-age</t>
@@ -3434,7 +3434,7 @@
         <v>211</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D71" t="s" s="2">
         <v>14</v>
@@ -3469,7 +3469,7 @@
         <v>213</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D72" t="s" s="2">
         <v>14</v>
@@ -3504,7 +3504,7 @@
         <v>215</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="D73" t="s" s="2">
         <v>14</v>
@@ -3539,7 +3539,7 @@
         <v>217</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D74" t="s" s="2">
         <v>14</v>
@@ -3609,7 +3609,7 @@
         <v>221</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D76" t="s" s="2">
         <v>14</v>
@@ -3644,7 +3644,7 @@
         <v>223</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>224</v>
+        <v>103</v>
       </c>
       <c r="D77" t="s" s="2">
         <v>14</v>
@@ -3673,13 +3673,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="B78" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="B78" t="s" s="2">
+      <c r="C78" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="C78" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="D78" t="s" s="2">
         <v>14</v>
@@ -3714,7 +3714,7 @@
         <v>228</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D79" t="s" s="2">
         <v>14</v>
@@ -3749,7 +3749,7 @@
         <v>230</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>14</v>
@@ -3784,7 +3784,7 @@
         <v>232</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>76</v>
+        <v>150</v>
       </c>
       <c r="D81" t="s" s="2">
         <v>14</v>
@@ -3819,7 +3819,7 @@
         <v>234</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="D82" t="s" s="2">
         <v>14</v>
@@ -3854,7 +3854,7 @@
         <v>236</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="D83" t="s" s="2">
         <v>14</v>
@@ -3889,7 +3889,7 @@
         <v>238</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>182</v>
+        <v>107</v>
       </c>
       <c r="D84" t="s" s="2">
         <v>14</v>
@@ -3924,7 +3924,7 @@
         <v>240</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>115</v>
+        <v>182</v>
       </c>
       <c r="D85" t="s" s="2">
         <v>14</v>
@@ -3959,7 +3959,7 @@
         <v>242</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="D86" t="s" s="2">
         <v>14</v>

--- a/output/observations-summary.xlsx
+++ b/output/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="273">
   <si>
     <t>Profile</t>
   </si>
@@ -74,6 +74,15 @@
     <t>optional</t>
   </si>
   <si>
+    <t>cde-age-at-diagnosis-of-essential-hypertension</t>
+  </si>
+  <si>
+    <t>CDE Age At Diagnosis Of Essential Hypertension</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#social-history, null#NCIT_C20189, null#NCIT_C171087, null#NCIT_C19332, null#NCIT_C25150, null#NCIT_C156420</t>
+  </si>
+  <si>
     <t>cde-birth-date</t>
   </si>
   <si>
@@ -749,6 +758,12 @@
     <t>CLS OBO NCIT Age</t>
   </si>
   <si>
+    <t>cls-obo-ncit-age-at-diagnosis</t>
+  </si>
+  <si>
+    <t>CLS OBO CMO Age At Diagnosis</t>
+  </si>
+  <si>
     <t>cls-obo-ncit-birth-date</t>
   </si>
   <si>
@@ -816,27 +831,6 @@
   </si>
   <si>
     <t>CLS SNOMED Patient Sex</t>
-  </si>
-  <si>
-    <t>myObservation</t>
-  </si>
-  <si>
-    <t>My Observation Profile</t>
-  </si>
-  <si>
-    <t>LOINC#85354-9</t>
-  </si>
-  <si>
-    <t>Quantityĵ, CodeableConceptĵ</t>
-  </si>
-  <si>
-    <t>LOINC#8480-6</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>LOINC#8462-4</t>
   </si>
 </sst>
 </file>
@@ -970,7 +964,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K101"/>
+  <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1060,7 +1054,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>16</v>
@@ -1083,19 +1077,19 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="C4" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="C4" t="s" s="2">
+      <c r="D4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s" s="2">
         <v>26</v>
-      </c>
-      <c r="D4" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s" s="2">
-        <v>27</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>16</v>
@@ -1118,19 +1112,19 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="B5" t="s" s="2">
+      <c r="C5" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="D5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s" s="2">
         <v>30</v>
-      </c>
-      <c r="D5" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s" s="2">
-        <v>31</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>16</v>
@@ -1153,19 +1147,19 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="B6" t="s" s="2">
+      <c r="C6" t="s" s="2">
         <v>33</v>
       </c>
-      <c r="C6" t="s" s="2">
+      <c r="D6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s" s="2">
         <v>34</v>
-      </c>
-      <c r="D6" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s" s="2">
-        <v>35</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>16</v>
@@ -1188,19 +1182,19 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="B7" t="s" s="2">
+      <c r="C7" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="C7" t="s" s="2">
+      <c r="D7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s" s="2">
         <v>38</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s" s="2">
-        <v>39</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>16</v>
@@ -1223,13 +1217,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="B8" t="s" s="2">
+      <c r="C8" t="s" s="2">
         <v>41</v>
-      </c>
-      <c r="C8" t="s" s="2">
-        <v>34</v>
       </c>
       <c r="D8" t="s" s="2">
         <v>14</v>
@@ -1264,13 +1258,13 @@
         <v>44</v>
       </c>
       <c r="C9" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s" s="2">
         <v>45</v>
-      </c>
-      <c r="D9" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s" s="2">
-        <v>46</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>16</v>
@@ -1293,13 +1287,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="C10" t="s" s="2">
         <v>48</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>45</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>14</v>
@@ -1334,13 +1328,13 @@
         <v>51</v>
       </c>
       <c r="C11" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s" s="2">
         <v>52</v>
-      </c>
-      <c r="D11" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s" s="2">
-        <v>53</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>16</v>
@@ -1363,19 +1357,19 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="B12" t="s" s="2">
+      <c r="C12" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="C12" t="s" s="2">
+      <c r="D12" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s" s="2">
         <v>56</v>
-      </c>
-      <c r="D12" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E12" t="s" s="2">
-        <v>57</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>16</v>
@@ -1398,19 +1392,19 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s" s="2">
         <v>58</v>
       </c>
-      <c r="B13" t="s" s="2">
+      <c r="C13" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="C13" t="s" s="2">
+      <c r="D13" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s" s="2">
         <v>60</v>
-      </c>
-      <c r="D13" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E13" t="s" s="2">
-        <v>61</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>16</v>
@@ -1433,13 +1427,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B14" t="s" s="2">
         <v>62</v>
       </c>
-      <c r="B14" t="s" s="2">
+      <c r="C14" t="s" s="2">
         <v>63</v>
-      </c>
-      <c r="C14" t="s" s="2">
-        <v>13</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>14</v>
@@ -1451,7 +1445,7 @@
         <v>16</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>18</v>
@@ -1468,10 +1462,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>66</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>67</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>13</v>
@@ -1480,13 +1474,13 @@
         <v>14</v>
       </c>
       <c r="E15" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G15" t="s" s="2">
         <v>68</v>
-      </c>
-      <c r="F15" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="G15" t="s" s="2">
-        <v>17</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>18</v>
@@ -1509,14 +1503,14 @@
         <v>70</v>
       </c>
       <c r="C16" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="D16" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E16" t="s" s="2">
-        <v>72</v>
-      </c>
       <c r="F16" t="s" s="2">
         <v>16</v>
       </c>
@@ -1524,7 +1518,7 @@
         <v>17</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>19</v>
@@ -1538,28 +1532,28 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="C17" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="B17" t="s" s="2">
+      <c r="D17" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="C17" t="s" s="2">
+      <c r="F17" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H17" t="s" s="2">
         <v>76</v>
-      </c>
-      <c r="D17" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F17" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="G17" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>18</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>19</v>
@@ -1573,19 +1567,19 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="B18" t="s" s="2">
+      <c r="C18" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="C18" t="s" s="2">
+      <c r="D18" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s" s="2">
         <v>80</v>
-      </c>
-      <c r="D18" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E18" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>16</v>
@@ -1608,25 +1602,25 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E19" t="s" s="2">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>18</v>
@@ -1638,7 +1632,7 @@
         <v>14</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>82</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20">
@@ -1646,7 +1640,7 @@
         <v>14</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>14</v>
@@ -1673,7 +1667,7 @@
         <v>14</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21">
@@ -1681,7 +1675,7 @@
         <v>14</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>14</v>
@@ -1708,7 +1702,7 @@
         <v>14</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22">
@@ -1716,7 +1710,7 @@
         <v>14</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>14</v>
@@ -1743,7 +1737,7 @@
         <v>14</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23">
@@ -1751,7 +1745,7 @@
         <v>14</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>14</v>
@@ -1778,7 +1772,7 @@
         <v>14</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24">
@@ -1786,7 +1780,7 @@
         <v>14</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>14</v>
@@ -1813,30 +1807,30 @@
         <v>14</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>14</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E25" t="s" s="2">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>18</v>
@@ -1853,19 +1847,19 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="B26" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="B26" t="s" s="2">
+      <c r="C26" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="C26" t="s" s="2">
+      <c r="D26" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E26" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="D26" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E26" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>16</v>
@@ -1888,19 +1882,19 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="B27" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="B27" t="s" s="2">
+      <c r="C27" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="C27" t="s" s="2">
+      <c r="D27" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E27" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="D27" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E27" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>16</v>
@@ -1923,13 +1917,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="B28" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="B28" t="s" s="2">
+      <c r="C28" t="s" s="2">
         <v>99</v>
-      </c>
-      <c r="C28" t="s" s="2">
-        <v>96</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>14</v>
@@ -1964,13 +1958,13 @@
         <v>102</v>
       </c>
       <c r="C29" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="D29" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E29" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="D29" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E29" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>16</v>
@@ -1993,19 +1987,19 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="B30" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="B30" t="s" s="2">
+      <c r="C30" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="C30" t="s" s="2">
+      <c r="D30" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E30" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="D30" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E30" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>16</v>
@@ -2028,25 +2022,25 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="D31" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E31" t="s" s="2">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>18</v>
@@ -2058,7 +2052,7 @@
         <v>14</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>109</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32">
@@ -2066,7 +2060,7 @@
         <v>14</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C32" t="s" s="2">
         <v>14</v>
@@ -2093,7 +2087,7 @@
         <v>14</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33">
@@ -2101,7 +2095,7 @@
         <v>14</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C33" t="s" s="2">
         <v>14</v>
@@ -2128,7 +2122,7 @@
         <v>14</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34">
@@ -2136,7 +2130,7 @@
         <v>14</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C34" t="s" s="2">
         <v>14</v>
@@ -2163,59 +2157,59 @@
         <v>14</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C35" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D35" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E35" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="D35" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E35" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="F35" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="G35" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J35" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K35" t="s" s="2">
-        <v>14</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="B36" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="B36" t="s" s="2">
+      <c r="C36" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="C36" t="s" s="2">
+      <c r="D36" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E36" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="D36" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E36" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>16</v>
@@ -2238,19 +2232,19 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="B37" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="B37" t="s" s="2">
+      <c r="C37" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="C37" t="s" s="2">
+      <c r="D37" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E37" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="D37" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E37" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>16</v>
@@ -2273,19 +2267,19 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="B38" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="B38" t="s" s="2">
+      <c r="C38" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="C38" t="s" s="2">
+      <c r="D38" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E38" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="D38" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E38" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>16</v>
@@ -2308,19 +2302,19 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="B39" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="B39" t="s" s="2">
+      <c r="C39" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="C39" t="s" s="2">
+      <c r="D39" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E39" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="D39" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E39" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>16</v>
@@ -2343,19 +2337,19 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="B40" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="B40" t="s" s="2">
+      <c r="C40" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="C40" t="s" s="2">
+      <c r="D40" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E40" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="D40" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E40" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>16</v>
@@ -2378,19 +2372,19 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="B41" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="B41" t="s" s="2">
+      <c r="C41" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="C41" t="s" s="2">
+      <c r="D41" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E41" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="D41" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E41" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>16</v>
@@ -2413,25 +2407,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>14</v>
+        <v>140</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>14</v>
+        <v>142</v>
       </c>
       <c r="D42" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E42" t="s" s="2">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>18</v>
@@ -2443,7 +2437,7 @@
         <v>14</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>141</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43">
@@ -2451,7 +2445,7 @@
         <v>14</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C43" t="s" s="2">
         <v>14</v>
@@ -2478,7 +2472,7 @@
         <v>14</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="44">
@@ -2486,7 +2480,7 @@
         <v>14</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C44" t="s" s="2">
         <v>14</v>
@@ -2513,59 +2507,59 @@
         <v>14</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>144</v>
+        <v>14</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C45" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D45" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E45" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="D45" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E45" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="F45" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="G45" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J45" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K45" t="s" s="2">
-        <v>14</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="B46" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="B46" t="s" s="2">
+      <c r="C46" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="C46" t="s" s="2">
+      <c r="D46" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E46" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="D46" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E46" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>16</v>
@@ -2588,19 +2582,19 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="B47" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="B47" t="s" s="2">
+      <c r="C47" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="C47" t="s" s="2">
+      <c r="D47" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E47" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="D47" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E47" t="s" s="2">
-        <v>15</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>16</v>
@@ -2635,7 +2629,7 @@
         <v>14</v>
       </c>
       <c r="E48" t="s" s="2">
-        <v>158</v>
+        <v>15</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>16</v>
@@ -2658,19 +2652,19 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="B49" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="B49" t="s" s="2">
+      <c r="C49" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="C49" t="s" s="2">
+      <c r="D49" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E49" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="D49" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E49" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>16</v>
@@ -2693,19 +2687,19 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="B50" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="B50" t="s" s="2">
+      <c r="C50" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="C50" t="s" s="2">
+      <c r="D50" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E50" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="D50" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E50" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>16</v>
@@ -2728,25 +2722,25 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>14</v>
+        <v>166</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>14</v>
+        <v>168</v>
       </c>
       <c r="D51" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E51" t="s" s="2">
-        <v>14</v>
+        <v>169</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>18</v>
@@ -2758,7 +2752,7 @@
         <v>14</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>167</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52">
@@ -2766,7 +2760,7 @@
         <v>14</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C52" t="s" s="2">
         <v>14</v>
@@ -2793,7 +2787,7 @@
         <v>14</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="53">
@@ -2801,7 +2795,7 @@
         <v>14</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C53" t="s" s="2">
         <v>14</v>
@@ -2828,7 +2822,7 @@
         <v>14</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="54">
@@ -2836,7 +2830,7 @@
         <v>14</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C54" t="s" s="2">
         <v>14</v>
@@ -2863,18 +2857,18 @@
         <v>14</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>171</v>
+        <v>14</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>165</v>
+        <v>14</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>14</v>
@@ -2883,10 +2877,10 @@
         <v>14</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>18</v>
@@ -2898,24 +2892,24 @@
         <v>14</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>14</v>
+        <v>173</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D56" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E56" t="s" s="2">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>16</v>
@@ -2950,7 +2944,7 @@
         <v>14</v>
       </c>
       <c r="E57" t="s" s="2">
-        <v>179</v>
+        <v>60</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>16</v>
@@ -2973,19 +2967,19 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="B58" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="B58" t="s" s="2">
+      <c r="C58" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="C58" t="s" s="2">
+      <c r="D58" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E58" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="D58" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E58" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>16</v>
@@ -3008,19 +3002,19 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="B59" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="B59" t="s" s="2">
+      <c r="C59" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="C59" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="D59" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E59" t="s" s="2">
-        <v>14</v>
+        <v>186</v>
       </c>
       <c r="F59" t="s" s="2">
         <v>16</v>
@@ -3043,13 +3037,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>14</v>
@@ -3078,13 +3072,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D61" t="s" s="2">
         <v>14</v>
@@ -3113,13 +3107,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>192</v>
+        <v>59</v>
       </c>
       <c r="D62" t="s" s="2">
         <v>14</v>
@@ -3154,7 +3148,7 @@
         <v>194</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>88</v>
+        <v>195</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>14</v>
@@ -3183,13 +3177,13 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="D64" t="s" s="2">
         <v>14</v>
@@ -3218,13 +3212,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>14</v>
@@ -3253,13 +3247,13 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D66" t="s" s="2">
         <v>14</v>
@@ -3288,13 +3282,13 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>203</v>
+        <v>138</v>
       </c>
       <c r="D67" t="s" s="2">
         <v>14</v>
@@ -3329,7 +3323,7 @@
         <v>205</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>146</v>
+        <v>206</v>
       </c>
       <c r="D68" t="s" s="2">
         <v>14</v>
@@ -3358,13 +3352,13 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="D69" t="s" s="2">
         <v>14</v>
@@ -3393,13 +3387,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>34</v>
+        <v>178</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>14</v>
@@ -3428,13 +3422,13 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D71" t="s" s="2">
         <v>14</v>
@@ -3463,13 +3457,13 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D72" t="s" s="2">
         <v>14</v>
@@ -3498,13 +3492,13 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D73" t="s" s="2">
         <v>14</v>
@@ -3533,13 +3527,13 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="D74" t="s" s="2">
         <v>14</v>
@@ -3568,13 +3562,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>14</v>
@@ -3603,13 +3597,13 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D76" t="s" s="2">
         <v>14</v>
@@ -3638,13 +3632,13 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D77" t="s" s="2">
         <v>14</v>
@@ -3673,13 +3667,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>226</v>
+        <v>106</v>
       </c>
       <c r="D78" t="s" s="2">
         <v>14</v>
@@ -3714,7 +3708,7 @@
         <v>228</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>123</v>
+        <v>229</v>
       </c>
       <c r="D79" t="s" s="2">
         <v>14</v>
@@ -3743,13 +3737,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>14</v>
@@ -3778,13 +3772,13 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D81" t="s" s="2">
         <v>14</v>
@@ -3813,13 +3807,13 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>76</v>
+        <v>153</v>
       </c>
       <c r="D82" t="s" s="2">
         <v>14</v>
@@ -3848,13 +3842,13 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="D83" t="s" s="2">
         <v>14</v>
@@ -3883,13 +3877,13 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>107</v>
+        <v>33</v>
       </c>
       <c r="D84" t="s" s="2">
         <v>14</v>
@@ -3918,13 +3912,13 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>182</v>
+        <v>110</v>
       </c>
       <c r="D85" t="s" s="2">
         <v>14</v>
@@ -3953,13 +3947,13 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>115</v>
+        <v>185</v>
       </c>
       <c r="D86" t="s" s="2">
         <v>14</v>
@@ -3988,13 +3982,13 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="D87" t="s" s="2">
         <v>14</v>
@@ -4023,13 +4017,13 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D88" t="s" s="2">
         <v>14</v>
@@ -4058,13 +4052,13 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>249</v>
+        <v>22</v>
       </c>
       <c r="D89" t="s" s="2">
         <v>14</v>
@@ -4099,7 +4093,7 @@
         <v>251</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="D90" t="s" s="2">
         <v>14</v>
@@ -4134,7 +4128,7 @@
         <v>253</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>178</v>
+        <v>254</v>
       </c>
       <c r="D91" t="s" s="2">
         <v>14</v>
@@ -4163,13 +4157,13 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>157</v>
+        <v>74</v>
       </c>
       <c r="D92" t="s" s="2">
         <v>14</v>
@@ -4198,13 +4192,13 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>60</v>
+        <v>181</v>
       </c>
       <c r="D93" t="s" s="2">
         <v>14</v>
@@ -4233,13 +4227,13 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="D94" t="s" s="2">
         <v>14</v>
@@ -4268,13 +4262,13 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="D95" t="s" s="2">
         <v>14</v>
@@ -4303,13 +4297,13 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D96" t="s" s="2">
         <v>14</v>
@@ -4338,13 +4332,13 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>161</v>
+        <v>83</v>
       </c>
       <c r="D97" t="s" s="2">
         <v>14</v>
@@ -4373,13 +4367,13 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>139</v>
+        <v>168</v>
       </c>
       <c r="D98" t="s" s="2">
         <v>14</v>
@@ -4408,28 +4402,28 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="D99" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E99" t="s" s="2">
-        <v>270</v>
+        <v>14</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>17</v>
       </c>
       <c r="H99" t="s" s="2">
-        <v>271</v>
+        <v>18</v>
       </c>
       <c r="I99" t="s" s="2">
         <v>19</v>
@@ -4443,28 +4437,28 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>14</v>
+        <v>271</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>14</v>
+        <v>142</v>
       </c>
       <c r="D100" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E100" t="s" s="2">
-        <v>272</v>
+        <v>14</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H100" t="s" s="2">
-        <v>273</v>
+        <v>18</v>
       </c>
       <c r="I100" t="s" s="2">
         <v>19</v>
@@ -4473,41 +4467,6 @@
         <v>14</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="B101" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="C101" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D101" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E101" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="F101" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G101" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="H101" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="I101" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J101" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K101" t="s" s="2">
         <v>14</v>
       </c>
     </row>

--- a/output/observations-summary.xlsx
+++ b/output/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="287">
   <si>
     <t>Profile</t>
   </si>
@@ -47,6 +47,42 @@
     <t>Method</t>
   </si>
   <si>
+    <t>c-chronological-age</t>
+  </si>
+  <si>
+    <t>C Chronological Age</t>
+  </si>
+  <si>
+    <t>SNOMED CT#138875005, SNOMED CT#363787002, SNOMED CT#105727008, SNOMED CT#424144002</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes (example)</t>
+  </si>
+  <si>
+    <t>dateTime, Period, Timing, instant</t>
+  </si>
+  <si>
+    <t>Quantity, CodeableConcept, string, boolean, integer, Range, Ratio, SampledData, time, dateTime, Period</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>cd-age-of-person</t>
+  </si>
+  <si>
+    <t>CD Age Of Person</t>
+  </si>
+  <si>
+    <t>null#30525-0</t>
+  </si>
+  <si>
+    <t>Quantityĵ</t>
+  </si>
+  <si>
     <t>cde-age</t>
   </si>
   <si>
@@ -56,24 +92,6 @@
     <t>Observation Category Codes#social-history, null#NCIT_C20189, null#NCIT_C171087, null#NCIT_C19332, null#NCIT_C25150</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>null#30525-0</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes (example)</t>
-  </si>
-  <si>
-    <t>dateTime, Period, Timing, instant</t>
-  </si>
-  <si>
-    <t>Quantity, CodeableConcept, string, boolean, integer, Range, Ratio, SampledData, time, dateTime, Period</t>
-  </si>
-  <si>
-    <t>optional</t>
-  </si>
-  <si>
     <t>cde-age-at-diagnosis-of-essential-hypertension</t>
   </si>
   <si>
@@ -245,6 +263,18 @@
     <t>dateTime</t>
   </si>
   <si>
+    <t>cde-diagnosis</t>
+  </si>
+  <si>
+    <t>CDE Diagnosis</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#exam, SNOMED CT#138875005, SNOMED CT#363787002, SNOMED CT#243814003, SNOMED CT#439401001</t>
+  </si>
+  <si>
+    <t>null#LP72437-4</t>
+  </si>
+  <si>
     <t>cde-erythrocytes-in-blood-count-per-volume</t>
   </si>
   <si>
@@ -815,6 +845,12 @@
     <t>CLS SNOMED Demographic History Detail</t>
   </si>
   <si>
+    <t>cls-snomed-diagnosis</t>
+  </si>
+  <si>
+    <t>CLS SNOMED Diagnosis</t>
+  </si>
+  <si>
     <t>cls-snomed-finding-of-tobacco-use-and-exposure</t>
   </si>
   <si>
@@ -831,6 +867,12 @@
   </si>
   <si>
     <t>CLS SNOMED Patient Sex</t>
+  </si>
+  <si>
+    <t>rv-age</t>
+  </si>
+  <si>
+    <t>RV Age</t>
   </si>
 </sst>
 </file>
@@ -964,7 +1006,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K100"/>
+  <dimension ref="A1:K105"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1019,19 +1061,19 @@
         <v>14</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s" s="2">
         <v>14</v>
@@ -1042,31 +1084,31 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="C3" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="F3" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="D3" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>18</v>
-      </c>
       <c r="I3" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J3" t="s" s="2">
         <v>14</v>
@@ -1089,19 +1131,19 @@
         <v>14</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J4" t="s" s="2">
         <v>14</v>
@@ -1112,31 +1154,31 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="B5" t="s" s="2">
+      <c r="C5" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="C5" t="s" s="2">
-        <v>29</v>
-      </c>
       <c r="D5" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J5" t="s" s="2">
         <v>14</v>
@@ -1147,31 +1189,31 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="B6" t="s" s="2">
+      <c r="D6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="C6" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="D6" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s" s="2">
-        <v>34</v>
-      </c>
       <c r="F6" t="s" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J6" t="s" s="2">
         <v>14</v>
@@ -1182,31 +1224,31 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="B7" t="s" s="2">
+      <c r="D7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="C7" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s" s="2">
-        <v>38</v>
-      </c>
       <c r="F7" t="s" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J7" t="s" s="2">
         <v>14</v>
@@ -1217,31 +1259,31 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="B8" t="s" s="2">
+      <c r="D8" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="C8" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D8" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="F8" t="s" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J8" t="s" s="2">
         <v>14</v>
@@ -1252,31 +1294,31 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="B9" t="s" s="2">
+      <c r="D9" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="C9" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D9" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="F9" t="s" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>14</v>
@@ -1287,31 +1329,31 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="C10" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="C10" t="s" s="2">
+      <c r="D10" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="D10" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E10" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="F10" t="s" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>14</v>
@@ -1322,31 +1364,31 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="B11" t="s" s="2">
+      <c r="C11" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="C11" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="D11" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="F11" t="s" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>14</v>
@@ -1357,31 +1399,31 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="B12" t="s" s="2">
+      <c r="C12" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="C12" t="s" s="2">
+      <c r="D12" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="D12" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E12" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="F12" t="s" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>14</v>
@@ -1392,31 +1434,31 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="B13" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="B13" t="s" s="2">
+      <c r="C13" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="D13" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s" s="2">
         <v>58</v>
       </c>
-      <c r="C13" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="D13" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E13" t="s" s="2">
-        <v>60</v>
-      </c>
       <c r="F13" t="s" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>14</v>
@@ -1427,31 +1469,31 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="C14" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="B14" t="s" s="2">
+      <c r="D14" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s" s="2">
         <v>62</v>
       </c>
-      <c r="C14" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="D14" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E14" t="s" s="2">
-        <v>64</v>
-      </c>
       <c r="F14" t="s" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>14</v>
@@ -1462,31 +1504,31 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="C15" t="s" s="2">
         <v>65</v>
       </c>
-      <c r="B15" t="s" s="2">
+      <c r="D15" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s" s="2">
         <v>66</v>
       </c>
-      <c r="C15" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D15" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E15" t="s" s="2">
-        <v>67</v>
-      </c>
       <c r="F15" t="s" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>14</v>
@@ -1497,31 +1539,31 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="C16" t="s" s="2">
         <v>69</v>
       </c>
-      <c r="B16" t="s" s="2">
+      <c r="D16" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="C16" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D16" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E16" t="s" s="2">
-        <v>71</v>
-      </c>
       <c r="F16" t="s" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>14</v>
@@ -1532,31 +1574,31 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="B17" t="s" s="2">
+      <c r="C17" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="C17" t="s" s="2">
+      <c r="F17" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G17" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="D17" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F17" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="G17" t="s" s="2">
-        <v>17</v>
-      </c>
       <c r="H17" t="s" s="2">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>14</v>
@@ -1567,31 +1609,31 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="B18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="C18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D18" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E18" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="F18" t="s" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>14</v>
@@ -1602,31 +1644,31 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D19" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="B19" t="s" s="2">
+      <c r="F19" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H19" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="C19" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="D19" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E19" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="F19" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="G19" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>18</v>
-      </c>
       <c r="I19" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>14</v>
@@ -1637,107 +1679,107 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E20" t="s" s="2">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>14</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>85</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E21" t="s" s="2">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>14</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>86</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="D22" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E22" t="s" s="2">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>14</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>87</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23">
@@ -1745,7 +1787,7 @@
         <v>14</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>14</v>
@@ -1763,16 +1805,16 @@
         <v>14</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>14</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24">
@@ -1780,7 +1822,7 @@
         <v>14</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>14</v>
@@ -1798,16 +1840,16 @@
         <v>14</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>14</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25">
@@ -1815,7 +1857,7 @@
         <v>14</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>14</v>
@@ -1833,115 +1875,115 @@
         <v>14</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>14</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>14</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="D26" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E26" t="s" s="2">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>14</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>14</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E27" t="s" s="2">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>14</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>14</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E28" t="s" s="2">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>14</v>
@@ -1952,31 +1994,31 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="C29" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="B29" t="s" s="2">
+      <c r="D29" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E29" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="C29" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="D29" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E29" t="s" s="2">
-        <v>103</v>
-      </c>
       <c r="F29" t="s" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>14</v>
@@ -1987,31 +2029,31 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="B30" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="B30" t="s" s="2">
+      <c r="C30" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="C30" t="s" s="2">
+      <c r="D30" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E30" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="D30" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E30" t="s" s="2">
-        <v>107</v>
-      </c>
       <c r="F30" t="s" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>14</v>
@@ -2022,31 +2064,31 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="B31" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="B31" t="s" s="2">
+      <c r="C31" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="C31" t="s" s="2">
+      <c r="D31" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E31" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="D31" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E31" t="s" s="2">
-        <v>111</v>
-      </c>
       <c r="F31" t="s" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J31" t="s" s="2">
         <v>14</v>
@@ -2057,107 +2099,107 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="B32" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="C32" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="C32" t="s" s="2">
-        <v>14</v>
-      </c>
       <c r="D32" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E32" t="s" s="2">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>14</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>112</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E33" t="s" s="2">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>14</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>113</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="D34" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E34" t="s" s="2">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>14</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>114</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35">
@@ -2165,7 +2207,7 @@
         <v>14</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="C35" t="s" s="2">
         <v>14</v>
@@ -2183,150 +2225,150 @@
         <v>14</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J35" t="s" s="2">
         <v>14</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>116</v>
+        <v>14</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>118</v>
+        <v>14</v>
       </c>
       <c r="D36" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E36" t="s" s="2">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J36" t="s" s="2">
         <v>14</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>14</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D37" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E37" t="s" s="2">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J37" t="s" s="2">
         <v>14</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>14</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="B38" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="C38" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D38" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E38" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="C38" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="D38" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E38" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="F38" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="G38" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J38" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K38" t="s" s="2">
-        <v>14</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="C39" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="B39" t="s" s="2">
+      <c r="D39" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E39" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="C39" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="D39" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E39" t="s" s="2">
-        <v>131</v>
-      </c>
       <c r="F39" t="s" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>14</v>
@@ -2337,31 +2379,31 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="C40" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="B40" t="s" s="2">
+      <c r="D40" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E40" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="C40" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="D40" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E40" t="s" s="2">
-        <v>135</v>
-      </c>
       <c r="F40" t="s" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J40" t="s" s="2">
         <v>14</v>
@@ -2372,31 +2414,31 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="C41" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="B41" t="s" s="2">
+      <c r="D41" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E41" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="C41" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="D41" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E41" t="s" s="2">
-        <v>139</v>
-      </c>
       <c r="F41" t="s" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J41" t="s" s="2">
         <v>14</v>
@@ -2407,31 +2449,31 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="C42" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="B42" t="s" s="2">
+      <c r="D42" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E42" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="C42" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="D42" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E42" t="s" s="2">
-        <v>143</v>
-      </c>
       <c r="F42" t="s" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J42" t="s" s="2">
         <v>14</v>
@@ -2442,241 +2484,241 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>14</v>
+        <v>142</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>14</v>
+        <v>144</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E43" t="s" s="2">
-        <v>14</v>
+        <v>145</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>14</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>144</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>14</v>
+        <v>146</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="D44" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E44" t="s" s="2">
-        <v>14</v>
+        <v>149</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J44" t="s" s="2">
         <v>14</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>145</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>14</v>
+        <v>152</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E45" t="s" s="2">
-        <v>14</v>
+        <v>153</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J45" t="s" s="2">
         <v>14</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>146</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>147</v>
+        <v>14</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>149</v>
+        <v>14</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E46" t="s" s="2">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>14</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B47" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="B47" t="s" s="2">
-        <v>152</v>
-      </c>
       <c r="C47" t="s" s="2">
-        <v>153</v>
+        <v>14</v>
       </c>
       <c r="D47" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E47" t="s" s="2">
-        <v>154</v>
+        <v>14</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J47" t="s" s="2">
         <v>14</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>14</v>
+        <v>155</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>155</v>
+        <v>14</v>
       </c>
       <c r="B48" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D48" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E48" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="C48" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="D48" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E48" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="F48" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="G48" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J48" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K48" t="s" s="2">
-        <v>14</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="B49" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="B49" t="s" s="2">
+      <c r="C49" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="C49" t="s" s="2">
+      <c r="D49" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E49" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="D49" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E49" t="s" s="2">
-        <v>161</v>
-      </c>
       <c r="F49" t="s" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J49" t="s" s="2">
         <v>14</v>
@@ -2687,31 +2729,31 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="B50" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="B50" t="s" s="2">
+      <c r="C50" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="C50" t="s" s="2">
+      <c r="D50" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E50" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="D50" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E50" t="s" s="2">
-        <v>165</v>
-      </c>
       <c r="F50" t="s" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J50" t="s" s="2">
         <v>14</v>
@@ -2722,31 +2764,31 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="B51" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="B51" t="s" s="2">
+      <c r="C51" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="C51" t="s" s="2">
-        <v>168</v>
-      </c>
       <c r="D51" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E51" t="s" s="2">
-        <v>169</v>
+        <v>21</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J51" t="s" s="2">
         <v>14</v>
@@ -2757,107 +2799,107 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>14</v>
+        <v>168</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>14</v>
+        <v>170</v>
       </c>
       <c r="D52" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E52" t="s" s="2">
-        <v>14</v>
+        <v>171</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J52" t="s" s="2">
         <v>14</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>170</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>14</v>
+        <v>172</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>14</v>
+        <v>174</v>
       </c>
       <c r="D53" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E53" t="s" s="2">
-        <v>14</v>
+        <v>175</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J53" t="s" s="2">
         <v>14</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>171</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>14</v>
+        <v>176</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>14</v>
+        <v>178</v>
       </c>
       <c r="D54" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E54" t="s" s="2">
-        <v>14</v>
+        <v>179</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J54" t="s" s="2">
         <v>14</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>172</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55">
@@ -2865,7 +2907,7 @@
         <v>14</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="C55" t="s" s="2">
         <v>14</v>
@@ -2883,27 +2925,27 @@
         <v>14</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>14</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>174</v>
+        <v>14</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>168</v>
+        <v>14</v>
       </c>
       <c r="D56" t="s" s="2">
         <v>14</v>
@@ -2912,121 +2954,121 @@
         <v>14</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J56" t="s" s="2">
         <v>14</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>14</v>
+        <v>181</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>176</v>
+        <v>14</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>177</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>178</v>
+        <v>14</v>
       </c>
       <c r="D57" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E57" t="s" s="2">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J57" t="s" s="2">
         <v>14</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>14</v>
+        <v>182</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>179</v>
+        <v>14</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>181</v>
+        <v>14</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E58" t="s" s="2">
-        <v>182</v>
+        <v>14</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J58" t="s" s="2">
         <v>14</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>14</v>
+        <v>183</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D59" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E59" t="s" s="2">
-        <v>186</v>
+        <v>14</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J59" t="s" s="2">
         <v>14</v>
@@ -3037,31 +3079,31 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="B60" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="B60" t="s" s="2">
+      <c r="C60" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="C60" t="s" s="2">
-        <v>48</v>
-      </c>
       <c r="D60" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E60" t="s" s="2">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J60" t="s" s="2">
         <v>14</v>
@@ -3078,25 +3120,25 @@
         <v>190</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>55</v>
+        <v>191</v>
       </c>
       <c r="D61" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E61" t="s" s="2">
-        <v>14</v>
+        <v>192</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J61" t="s" s="2">
         <v>14</v>
@@ -3107,31 +3149,31 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>59</v>
+        <v>195</v>
       </c>
       <c r="D62" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E62" t="s" s="2">
-        <v>14</v>
+        <v>196</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J62" t="s" s="2">
         <v>14</v>
@@ -3142,13 +3184,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>195</v>
+        <v>54</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>14</v>
@@ -3157,16 +3199,16 @@
         <v>14</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J63" t="s" s="2">
         <v>14</v>
@@ -3177,13 +3219,13 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="D64" t="s" s="2">
         <v>14</v>
@@ -3192,16 +3234,16 @@
         <v>14</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J64" t="s" s="2">
         <v>14</v>
@@ -3212,13 +3254,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>14</v>
@@ -3227,16 +3269,16 @@
         <v>14</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J65" t="s" s="2">
         <v>14</v>
@@ -3247,13 +3289,13 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>134</v>
+        <v>205</v>
       </c>
       <c r="D66" t="s" s="2">
         <v>14</v>
@@ -3262,16 +3304,16 @@
         <v>14</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J66" t="s" s="2">
         <v>14</v>
@@ -3282,13 +3324,13 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="D67" t="s" s="2">
         <v>14</v>
@@ -3297,16 +3339,16 @@
         <v>14</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J67" t="s" s="2">
         <v>14</v>
@@ -3317,13 +3359,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>206</v>
+        <v>132</v>
       </c>
       <c r="D68" t="s" s="2">
         <v>14</v>
@@ -3332,16 +3374,16 @@
         <v>14</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J68" t="s" s="2">
         <v>14</v>
@@ -3352,13 +3394,13 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D69" t="s" s="2">
         <v>14</v>
@@ -3367,16 +3409,16 @@
         <v>14</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J69" t="s" s="2">
         <v>14</v>
@@ -3387,13 +3429,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>14</v>
@@ -3402,16 +3444,16 @@
         <v>14</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J70" t="s" s="2">
         <v>14</v>
@@ -3422,13 +3464,13 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>37</v>
+        <v>216</v>
       </c>
       <c r="D71" t="s" s="2">
         <v>14</v>
@@ -3437,16 +3479,16 @@
         <v>14</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J71" t="s" s="2">
         <v>14</v>
@@ -3457,13 +3499,13 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>41</v>
+        <v>159</v>
       </c>
       <c r="D72" t="s" s="2">
         <v>14</v>
@@ -3472,16 +3514,16 @@
         <v>14</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J72" t="s" s="2">
         <v>14</v>
@@ -3492,13 +3534,13 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>37</v>
+        <v>188</v>
       </c>
       <c r="D73" t="s" s="2">
         <v>14</v>
@@ -3507,16 +3549,16 @@
         <v>14</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J73" t="s" s="2">
         <v>14</v>
@@ -3527,13 +3569,13 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D74" t="s" s="2">
         <v>14</v>
@@ -3542,16 +3584,16 @@
         <v>14</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J74" t="s" s="2">
         <v>14</v>
@@ -3562,13 +3604,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>14</v>
@@ -3577,16 +3619,16 @@
         <v>14</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J75" t="s" s="2">
         <v>14</v>
@@ -3597,13 +3639,13 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="D76" t="s" s="2">
         <v>14</v>
@@ -3612,16 +3654,16 @@
         <v>14</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J76" t="s" s="2">
         <v>14</v>
@@ -3632,13 +3674,13 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>99</v>
+        <v>35</v>
       </c>
       <c r="D77" t="s" s="2">
         <v>14</v>
@@ -3647,16 +3689,16 @@
         <v>14</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J77" t="s" s="2">
         <v>14</v>
@@ -3667,13 +3709,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D78" t="s" s="2">
         <v>14</v>
@@ -3682,16 +3724,16 @@
         <v>14</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J78" t="s" s="2">
         <v>14</v>
@@ -3702,13 +3744,13 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>229</v>
+        <v>109</v>
       </c>
       <c r="D79" t="s" s="2">
         <v>14</v>
@@ -3717,16 +3759,16 @@
         <v>14</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J79" t="s" s="2">
         <v>14</v>
@@ -3737,13 +3779,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>14</v>
@@ -3752,16 +3794,16 @@
         <v>14</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J80" t="s" s="2">
         <v>14</v>
@@ -3772,13 +3814,13 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="D81" t="s" s="2">
         <v>14</v>
@@ -3787,16 +3829,16 @@
         <v>14</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J81" t="s" s="2">
         <v>14</v>
@@ -3807,13 +3849,13 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>153</v>
+        <v>239</v>
       </c>
       <c r="D82" t="s" s="2">
         <v>14</v>
@@ -3822,16 +3864,16 @@
         <v>14</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J82" t="s" s="2">
         <v>14</v>
@@ -3842,13 +3884,13 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="D83" t="s" s="2">
         <v>14</v>
@@ -3857,16 +3899,16 @@
         <v>14</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J83" t="s" s="2">
         <v>14</v>
@@ -3877,13 +3919,13 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>33</v>
+        <v>140</v>
       </c>
       <c r="D84" t="s" s="2">
         <v>14</v>
@@ -3892,16 +3934,16 @@
         <v>14</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J84" t="s" s="2">
         <v>14</v>
@@ -3912,13 +3954,13 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>110</v>
+        <v>163</v>
       </c>
       <c r="D85" t="s" s="2">
         <v>14</v>
@@ -3927,16 +3969,16 @@
         <v>14</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H85" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J85" t="s" s="2">
         <v>14</v>
@@ -3947,13 +3989,13 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>185</v>
+        <v>89</v>
       </c>
       <c r="D86" t="s" s="2">
         <v>14</v>
@@ -3962,16 +4004,16 @@
         <v>14</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J86" t="s" s="2">
         <v>14</v>
@@ -3982,13 +4024,13 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>118</v>
+        <v>39</v>
       </c>
       <c r="D87" t="s" s="2">
         <v>14</v>
@@ -3997,16 +4039,16 @@
         <v>14</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J87" t="s" s="2">
         <v>14</v>
@@ -4017,13 +4059,13 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="D88" t="s" s="2">
         <v>14</v>
@@ -4032,16 +4074,16 @@
         <v>14</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H88" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J88" t="s" s="2">
         <v>14</v>
@@ -4052,13 +4094,13 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>22</v>
+        <v>195</v>
       </c>
       <c r="D89" t="s" s="2">
         <v>14</v>
@@ -4067,16 +4109,16 @@
         <v>14</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J89" t="s" s="2">
         <v>14</v>
@@ -4087,13 +4129,13 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>25</v>
+        <v>128</v>
       </c>
       <c r="D90" t="s" s="2">
         <v>14</v>
@@ -4102,16 +4144,16 @@
         <v>14</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J90" t="s" s="2">
         <v>14</v>
@@ -4122,13 +4164,13 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>254</v>
+        <v>25</v>
       </c>
       <c r="D91" t="s" s="2">
         <v>14</v>
@@ -4137,16 +4179,16 @@
         <v>14</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J91" t="s" s="2">
         <v>14</v>
@@ -4157,13 +4199,13 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="D92" t="s" s="2">
         <v>14</v>
@@ -4172,16 +4214,16 @@
         <v>14</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J92" t="s" s="2">
         <v>14</v>
@@ -4192,13 +4234,13 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>181</v>
+        <v>31</v>
       </c>
       <c r="D93" t="s" s="2">
         <v>14</v>
@@ -4207,16 +4249,16 @@
         <v>14</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H93" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J93" t="s" s="2">
         <v>14</v>
@@ -4227,13 +4269,13 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>160</v>
+        <v>264</v>
       </c>
       <c r="D94" t="s" s="2">
         <v>14</v>
@@ -4242,16 +4284,16 @@
         <v>14</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J94" t="s" s="2">
         <v>14</v>
@@ -4262,13 +4304,13 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="D95" t="s" s="2">
         <v>14</v>
@@ -4277,16 +4319,16 @@
         <v>14</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H95" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J95" t="s" s="2">
         <v>14</v>
@@ -4297,13 +4339,13 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c r="D96" t="s" s="2">
         <v>14</v>
@@ -4312,16 +4354,16 @@
         <v>14</v>
       </c>
       <c r="F96" t="s" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H96" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J96" t="s" s="2">
         <v>14</v>
@@ -4332,13 +4374,13 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>83</v>
+        <v>170</v>
       </c>
       <c r="D97" t="s" s="2">
         <v>14</v>
@@ -4347,16 +4389,16 @@
         <v>14</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H97" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J97" t="s" s="2">
         <v>14</v>
@@ -4367,13 +4409,13 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>168</v>
+        <v>69</v>
       </c>
       <c r="D98" t="s" s="2">
         <v>14</v>
@@ -4382,16 +4424,16 @@
         <v>14</v>
       </c>
       <c r="F98" t="s" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H98" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J98" t="s" s="2">
         <v>14</v>
@@ -4402,13 +4444,13 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D99" t="s" s="2">
         <v>14</v>
@@ -4417,16 +4459,16 @@
         <v>14</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H99" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J99" t="s" s="2">
         <v>14</v>
@@ -4437,13 +4479,13 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>142</v>
+        <v>93</v>
       </c>
       <c r="D100" t="s" s="2">
         <v>14</v>
@@ -4452,21 +4494,196 @@
         <v>14</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H100" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J100" t="s" s="2">
         <v>14</v>
       </c>
       <c r="K100" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="C101" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="D101" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E101" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F101" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="C102" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="D102" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E102" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F102" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="C103" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="D103" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E103" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F103" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="C104" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="D104" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E104" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F104" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="C105" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D105" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E105" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="F105" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K105" t="s" s="2">
         <v>14</v>
       </c>
     </row>

--- a/output/observations-summary.xlsx
+++ b/output/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="351">
   <si>
     <t>Profile</t>
   </si>
@@ -47,40 +47,187 @@
     <t>Method</t>
   </si>
   <si>
-    <t>c-chronological-age</t>
-  </si>
-  <si>
-    <t>C Chronological Age</t>
+    <t>c-age</t>
+  </si>
+  <si>
+    <t>C Age</t>
+  </si>
+  <si>
+    <t>Unified Medical Language System#C0001779</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes (example)</t>
+  </si>
+  <si>
+    <t>dateTime, Period, Timing, instant</t>
+  </si>
+  <si>
+    <t>Quantity, CodeableConcept, string, boolean, integer, Range, Ratio, SampledData, time, dateTime, Period</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>c-creatinine</t>
+  </si>
+  <si>
+    <t>C Creatinine</t>
+  </si>
+  <si>
+    <t>SNOMED CT#15373003</t>
+  </si>
+  <si>
+    <t>c-current-chronological-age</t>
+  </si>
+  <si>
+    <t>C Current Chronological Age</t>
+  </si>
+  <si>
+    <t>Unified Medical Language System#C0001779, SNOMED CT#424144002</t>
+  </si>
+  <si>
+    <t>c-date-of-birth</t>
+  </si>
+  <si>
+    <t>C Date Of Birth</t>
+  </si>
+  <si>
+    <t>Unified Medical Language System#C0001779, SNOMED CT#184099003</t>
+  </si>
+  <si>
+    <t>c-diagnosis</t>
+  </si>
+  <si>
+    <t>C Diagnosis</t>
+  </si>
+  <si>
+    <t>Unified Medical Language System#C0011900</t>
+  </si>
+  <si>
+    <t>c-ethnicity</t>
+  </si>
+  <si>
+    <t>C Ehnicity</t>
+  </si>
+  <si>
+    <t>Unified Medical Language System#C0015031</t>
+  </si>
+  <si>
+    <t>c-finding-of-substance-level</t>
+  </si>
+  <si>
+    <t>C Finding Of Substance Level</t>
+  </si>
+  <si>
+    <t>SNOMED CT#785671009</t>
+  </si>
+  <si>
+    <t>c-height</t>
+  </si>
+  <si>
+    <t>C Height</t>
+  </si>
+  <si>
+    <t>Unified Medical Language System#C0489786</t>
+  </si>
+  <si>
+    <t>c-number</t>
+  </si>
+  <si>
+    <t>C Number</t>
+  </si>
+  <si>
+    <t>SNOMED CT#246205007</t>
+  </si>
+  <si>
+    <t>c-person</t>
+  </si>
+  <si>
+    <t>C Person</t>
+  </si>
+  <si>
+    <t>SNOMED CT#125676002</t>
+  </si>
+  <si>
+    <t>c-quantity</t>
+  </si>
+  <si>
+    <t>C Quantity</t>
+  </si>
+  <si>
+    <t>c-sex</t>
+  </si>
+  <si>
+    <t>C Sex</t>
   </si>
   <si>
     <t>SNOMED CT#138875005, SNOMED CT#363787002, SNOMED CT#105727008, SNOMED CT#424144002</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes (example)</t>
-  </si>
-  <si>
-    <t>dateTime, Period, Timing, instant</t>
-  </si>
-  <si>
-    <t>Quantity, CodeableConcept, string, boolean, integer, Range, Ratio, SampledData, time, dateTime, Period</t>
-  </si>
-  <si>
-    <t>optional</t>
-  </si>
-  <si>
-    <t>cd-age-of-person</t>
-  </si>
-  <si>
-    <t>CD Age Of Person</t>
+    <t>c-specimen</t>
+  </si>
+  <si>
+    <t>C Specimen</t>
+  </si>
+  <si>
+    <t>SNOMED CT#123038009</t>
+  </si>
+  <si>
+    <t>c-weight</t>
+  </si>
+  <si>
+    <t>C Weight</t>
+  </si>
+  <si>
+    <t>Unified Medical Language System#C0043100</t>
+  </si>
+  <si>
+    <t>cd-age</t>
+  </si>
+  <si>
+    <t>CD Age</t>
+  </si>
+  <si>
+    <t>Unified Medical Language System#C0001779, SNOMED CT#424144002, SNOMED CT#125676002, SNOMED CT#246205007</t>
   </si>
   <si>
     <t>null#30525-0</t>
   </si>
   <si>
-    <t>Quantityĵ</t>
+    <t>cd-body-weight</t>
+  </si>
+  <si>
+    <t>CD Body Weight</t>
+  </si>
+  <si>
+    <t>Unified Medical Language System#C0043100, SNOMED CT#125676002, SNOMED CT#246205007</t>
+  </si>
+  <si>
+    <t>null#29463-7</t>
+  </si>
+  <si>
+    <t>cd-creatinine-mole-concentration</t>
+  </si>
+  <si>
+    <t>CD Creatinine Mole Concentration</t>
+  </si>
+  <si>
+    <t>SNOMED CT#15373003, SNOMED CT#125676002, SNOMED CT#123038009, SNOMED CT#246205007</t>
+  </si>
+  <si>
+    <t>cd-date-of-birth</t>
+  </si>
+  <si>
+    <t>CD Date Of Birth</t>
+  </si>
+  <si>
+    <t>Unified Medical Language System#C0001779, SNOMED CT#184099003, SNOMED CT#125676002, SNOMED CT#410671006</t>
+  </si>
+  <si>
+    <t>null#21112-8</t>
   </si>
   <si>
     <t>cde-age</t>
@@ -110,16 +257,13 @@
     <t>Observation Category Codes#social-history, null#NCIT_C20189, null#NCIT_C41009, null#NCIT_C21514, null#NCIT_C25164, null#NCIT_C68615</t>
   </si>
   <si>
-    <t>null#21112-8</t>
-  </si>
-  <si>
     <t>cde-blood-pressure-diastolic</t>
   </si>
   <si>
     <t>CDE Blood Pressure Diastolic</t>
   </si>
   <si>
-    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000001, null#CMO_0000003, null#CMO_0000005</t>
+    <t>Unified Medical Language System#C0005823, Unified Medical Language System#C0871470</t>
   </si>
   <si>
     <t>null#8462-4</t>
@@ -131,9 +275,6 @@
     <t>CDE Blood Pressure Systolic</t>
   </si>
   <si>
-    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000001, null#CMO_0000003, null#CMO_0000004</t>
-  </si>
-  <si>
     <t>null#8480-6</t>
   </si>
   <si>
@@ -143,7 +284,7 @@
     <t>CDE Body Height</t>
   </si>
   <si>
-    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000021, null#CMO_0000011, null#CMO_0000106</t>
+    <t>Unified Medical Language System#C0003188, Unified Medical Language System#C0005890</t>
   </si>
   <si>
     <t>null#8302-2</t>
@@ -155,7 +296,7 @@
     <t>CDE Body Mass Index</t>
   </si>
   <si>
-    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000021, null#CMO_0000022, null#CMO_0001196, null#CMO_0000105</t>
+    <t>Unified Medical Language System#C0003188, Unified Medical Language System#C1305855</t>
   </si>
   <si>
     <t>null#39156-5</t>
@@ -167,7 +308,7 @@
     <t>CDE Body Weight</t>
   </si>
   <si>
-    <t>null#29463-7</t>
+    <t>Unified Medical Language System#C0003188, Unified Medical Language System#C0005910</t>
   </si>
   <si>
     <t>cde-calcium-in-serum-or-plasma-mass-concentration</t>
@@ -176,7 +317,7 @@
     <t>CDE Calcium In Serum Or Plasma Mass Concentration</t>
   </si>
   <si>
-    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000035, null#CMO_0000023, null#CMO_0000063, null#CMO_0000502</t>
+    <t>Unified Medical Language System#C0201992, Unified Medical Language System#C0364129, Unified Medical Language System#C0364127</t>
   </si>
   <si>
     <t>null#17861-6</t>
@@ -197,7 +338,7 @@
     <t>CDE Chloride In Serum Or Plasma Mole Concentration</t>
   </si>
   <si>
-    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000035, null#CMO_0000023, null#CMO_0000063, null#CMO_0000497</t>
+    <t>Unified Medical Language System#C0201992, Unified Medical Language System#C0364201</t>
   </si>
   <si>
     <t>null#2075-0</t>
@@ -209,7 +350,7 @@
     <t>CDE cholesterol Inserum Or Plasma Mole Conentration</t>
   </si>
   <si>
-    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000035, null#CMO_0000023, null#CMO_0000050, null#CMO_0002048, null#CMO_0002280</t>
+    <t>Unified Medical Language System#C0797822</t>
   </si>
   <si>
     <t>null#14927-8</t>
@@ -221,7 +362,7 @@
     <t>CDE Creatinine In Serum Or Plasma Mole Concentration</t>
   </si>
   <si>
-    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000035, null#CMO_0000023, null#CMO_0000767, null#CMO_0000538</t>
+    <t>Unified Medical Language System#C2924074, Unified Medical Language System#C0797857</t>
   </si>
   <si>
     <t>null#14682-9</t>
@@ -254,7 +395,7 @@
     <t>CDE Date Of Diagnosis</t>
   </si>
   <si>
-    <t>Observation Category Codes#social-history, null#NCIT_C20189, null#NCIT_C41009, null#NCIT_C21514, null#NCIT_C25164, null#NCIT_C164339</t>
+    <t>Unified Medical Language System#C2585732, Unified Medical Language System#C2316983</t>
   </si>
   <si>
     <t>null#432213005</t>
@@ -281,7 +422,7 @@
     <t>CDE Erythrocytes In Blood Count Per Volume</t>
   </si>
   <si>
-    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000035, null#CMO_0000036, null#CMO_0001356</t>
+    <t>Unified Medical Language System#C0942422, Unified Medical Language System#C1114250</t>
   </si>
   <si>
     <t>null#26453-1</t>
@@ -317,7 +458,7 @@
     <t>CDE Glucose In Serum Or Plasma Mole Concentration</t>
   </si>
   <si>
-    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000035, null#CMO_0000023, null#CMO_0000046</t>
+    <t>Unified Medical Language System#C0798246</t>
   </si>
   <si>
     <t>null#14749-6</t>
@@ -329,7 +470,7 @@
     <t>CDE heart Rate Beats Per Minute</t>
   </si>
   <si>
-    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000001, null#CMO_0000670, null#CMO_0000002</t>
+    <t>Unified Medical Language System#C0018810</t>
   </si>
   <si>
     <t>null#8867-4</t>
@@ -341,7 +482,7 @@
     <t>CDE Hematocrit Of Blood</t>
   </si>
   <si>
-    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000035, null#CMO_0000036, null#CMO_0000508</t>
+    <t>Unified Medical Language System#C0803379</t>
   </si>
   <si>
     <t>null#20570-8</t>
@@ -353,6 +494,9 @@
     <t>CDE Hemoglobin In Blood Mole Concentration</t>
   </si>
   <si>
+    <t>Unified Medical Language System#C2923664, Unified Medical Language System#C0362930</t>
+  </si>
+  <si>
     <t>null#59260-0</t>
   </si>
   <si>
@@ -362,7 +506,7 @@
     <t>CDE Hip Circumference</t>
   </si>
   <si>
-    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000021, null#CMO_0000014</t>
+    <t>Unified Medical Language System#C0003188, Unified Medical Language System#C0562350</t>
   </si>
   <si>
     <t>null#284472007</t>
@@ -398,7 +542,7 @@
     <t>CDE Leukocytes In Blood Count Per Volume</t>
   </si>
   <si>
-    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000035, null#CMO_0000036, null#CMO_0002341</t>
+    <t>Unified Medical Language System#C0945357, Unified Medical Language System#C1315523</t>
   </si>
   <si>
     <t>null#26464-8</t>
@@ -410,7 +554,7 @@
     <t>CDE Magnesium In Serum Or Plasma Mole Concentration</t>
   </si>
   <si>
-    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000035, null#CMO_0000023, null#CMO_0000063, null#CMO_0000505</t>
+    <t>Unified Medical Language System#C0201992, Unified Medical Language System#C0364737</t>
   </si>
   <si>
     <t>null#2601-3</t>
@@ -422,7 +566,7 @@
     <t>CDE Mean Corpuscular Hemoglobin Level Entitic Mass</t>
   </si>
   <si>
-    <t>Observation Category Codes#laboratory, null#CMO_0000035, null#CMO_0000036, null#CMO_0000036, null#CMO_0001356, null#CMO_0000290</t>
+    <t>Unified Medical Language System#C0945625</t>
   </si>
   <si>
     <t>null#28539-5</t>
@@ -434,7 +578,7 @@
     <t>CDE Mean Corpuscular Volume Entitic Volume</t>
   </si>
   <si>
-    <t>Observation Category Codes#laboratory, null#CMO_0000035, null#CMO_0000036, null#CMO_0000036, null#CMO_0001356, null#CMO_0000038</t>
+    <t>Unified Medical Language System#C1114281</t>
   </si>
   <si>
     <t>null#30428-7</t>
@@ -446,7 +590,7 @@
     <t>CDE Phosphate In Serum Or Plasma Mole Concentration</t>
   </si>
   <si>
-    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000035, null#CMO_0000023, null#CMO_0000063, null#CMO_0000504</t>
+    <t>Unified Medical Language System#C0201992, Unified Medical Language System#C0881764, Unified Medical Language System#C0796732</t>
   </si>
   <si>
     <t>null#14879-1</t>
@@ -458,7 +602,7 @@
     <t>CDE Potassium In Serum Or Plasma Mole Concentration</t>
   </si>
   <si>
-    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000035, null#CMO_0000023, null#CMO_0000063, null#CMO_0000496</t>
+    <t>Unified Medical Language System#C0201992, Unified Medical Language System#C0364961</t>
   </si>
   <si>
     <t>null#2823-3</t>
@@ -491,7 +635,7 @@
     <t>CDE Sodium In Serum Or Plasma Mole Concentration</t>
   </si>
   <si>
-    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000035, null#CMO_0000023, null#CMO_0000063, null#CMO_0000499</t>
+    <t>Unified Medical Language System#C0201992, Unified Medical Language System#C0365091</t>
   </si>
   <si>
     <t>null#2951-2</t>
@@ -503,7 +647,7 @@
     <t>CDE Thrombocytes In Blood Count Per Volume</t>
   </si>
   <si>
-    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000035, null#CMO_0000036, null#CMO_0000921</t>
+    <t>Unified Medical Language System#C0942474, Unified Medical Language System#C0944136, Unified Medical Language System#C1147891, Unified Medical Language System#C2359896, Unified Medical Language System#C1953883</t>
   </si>
   <si>
     <t>null#26515-7</t>
@@ -578,7 +722,7 @@
     <t>CDE Triglyceride In Serum Or Plasma Mole Concentration</t>
   </si>
   <si>
-    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000035, null#CMO_0000023, null#CMO_0000050, null#CMO_0000118</t>
+    <t>Unified Medical Language System#C3482280, Unified Medical Language System#C1114250</t>
   </si>
   <si>
     <t>cde-visit-date</t>
@@ -587,7 +731,7 @@
     <t>CDE Visit Date</t>
   </si>
   <si>
-    <t>Observation Category Codes#social-history, null#NCIT_C20189, null#NCIT_C41009, null#NCIT_C21514, null#NCIT_C25164, null#NCIT_C83031</t>
+    <t>Unified Medical Language System#C2585732, Unified Medical Language System#C1320303</t>
   </si>
   <si>
     <t>null#406543005</t>
@@ -599,189 +743,12 @@
     <t>CDE Waist Circumference</t>
   </si>
   <si>
-    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000021, null#CMO_0000296, null#CMO_0000014</t>
+    <t>Unified Medical Language System#C0003188, Unified Medical Language System#C0455829</t>
   </si>
   <si>
     <t>null#276361009</t>
   </si>
   <si>
-    <t>cls-obo-cmo-blood-calcium-level</t>
-  </si>
-  <si>
-    <t>CLS CMO Blood Calcium Level</t>
-  </si>
-  <si>
-    <t>cls-obo-cmo-blood-chloride-level</t>
-  </si>
-  <si>
-    <t>CLS OBO CMO Blood Chloride Level</t>
-  </si>
-  <si>
-    <t>cls-obo-cmo-blood-cholesterol-level</t>
-  </si>
-  <si>
-    <t>CLS OBO CMO Blood Cholesterol Level</t>
-  </si>
-  <si>
-    <t>cls-obo-cmo-blood-electrolyte-measurement</t>
-  </si>
-  <si>
-    <t>CLS OBO CMO Blood Electrolyte Measurement</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000035, null#CMO_0000023, null#CMO_0000063</t>
-  </si>
-  <si>
-    <t>cls-obo-cmo-blood-glucose-level</t>
-  </si>
-  <si>
-    <t>CLS OBO CMO Blood Glucose Level</t>
-  </si>
-  <si>
-    <t>cls-obo-cmo-blood-magnesium-level</t>
-  </si>
-  <si>
-    <t>CLS OBO CMO Blood Magnesium Level</t>
-  </si>
-  <si>
-    <t>cls-obo-cmo-blood-phosphate-level</t>
-  </si>
-  <si>
-    <t>CLS OBO CMO Blood Phosphate Level</t>
-  </si>
-  <si>
-    <t>cls-obo-cmo-blood-potassium-level</t>
-  </si>
-  <si>
-    <t>CLS OBO CMO Blood Potassium Level</t>
-  </si>
-  <si>
-    <t>cls-obo-cmo-blood-pressure-measurement</t>
-  </si>
-  <si>
-    <t>CLS OBO CMO Blood Pressure Measurement</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000001, null#CMO_0000003</t>
-  </si>
-  <si>
-    <t>cls-obo-cmo-blood-sodium-level</t>
-  </si>
-  <si>
-    <t>CLS OBO CMO Blood Sodium Level</t>
-  </si>
-  <si>
-    <t>cls-obo-cmo-blood-triglyceride-level</t>
-  </si>
-  <si>
-    <t>CLS OBO CMO Blood Triglyceride Level</t>
-  </si>
-  <si>
-    <t>cls-obo-cmo-body-height</t>
-  </si>
-  <si>
-    <t>CLS OBO CMO Body Height</t>
-  </si>
-  <si>
-    <t>cls-obo-cmo-body-mass-index</t>
-  </si>
-  <si>
-    <t>CLS OBO CMO Body Mass Index</t>
-  </si>
-  <si>
-    <t>cls-obo-cmo-body-weight</t>
-  </si>
-  <si>
-    <t>CLS OBO CMO Body Weight</t>
-  </si>
-  <si>
-    <t>cls-obo-cmo-diastolic-blood-pressure</t>
-  </si>
-  <si>
-    <t>CLS OBO CMO Diastolic Blood Pressure</t>
-  </si>
-  <si>
-    <t>cls-obo-cmo-heart-rate</t>
-  </si>
-  <si>
-    <t>CLS OBO CMO Heart Rate</t>
-  </si>
-  <si>
-    <t>cls-obo-cmo-hematocrit-measurement</t>
-  </si>
-  <si>
-    <t>CLS OBO CMO Hematocrit Measurement</t>
-  </si>
-  <si>
-    <t>cls-obo-cmo-hemoglobin-measurement</t>
-  </si>
-  <si>
-    <t>CLS OBO CMO Hemoglobin Measurement</t>
-  </si>
-  <si>
-    <t>cls-obo-cmo-hip-circumference</t>
-  </si>
-  <si>
-    <t>CLS OBO CMO Hip Circumference</t>
-  </si>
-  <si>
-    <t>cls-obo-cmo-mean-corpuscular-hemoglobin-concentration</t>
-  </si>
-  <si>
-    <t>CLS OBO CMO Mean Corpuscular Hemoglobin Concentration</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#laboratory, null#CMO_0000000, null#CMO_0000035, null#CMO_0000036, null#CMO_0001356, null#CMO_0000291</t>
-  </si>
-  <si>
-    <t>cls-obo-cmo-mean-corpuscular-hemoglobin-level</t>
-  </si>
-  <si>
-    <t>CLS OBO CMO Mean Corpuscular Hemoglobin Level</t>
-  </si>
-  <si>
-    <t>cls-obo-cmo-mean-corpuscular-volume</t>
-  </si>
-  <si>
-    <t>CLS OBO CMO Mean Corpuscular Volume</t>
-  </si>
-  <si>
-    <t>cls-obo-cmo-platelet-measurement</t>
-  </si>
-  <si>
-    <t>CLS OBO CMO Platelet Measurement</t>
-  </si>
-  <si>
-    <t>cls-obo-cmo-red-blood-cell-measurement</t>
-  </si>
-  <si>
-    <t>CLS OBO CMO Red Blood Cell Measurement</t>
-  </si>
-  <si>
-    <t>cls-obo-cmo-systolic-blood-pressure</t>
-  </si>
-  <si>
-    <t>CLS OBO CMO Systolic Blood Pressure</t>
-  </si>
-  <si>
-    <t>cls-obo-cmo-urine-measurement</t>
-  </si>
-  <si>
-    <t>CLS OBO CMO Urine Measurement</t>
-  </si>
-  <si>
-    <t>cls-obo-cmo-waist-circumference</t>
-  </si>
-  <si>
-    <t>CLS OBO CMO Waist Circumference</t>
-  </si>
-  <si>
-    <t>cls-obo-cmo-white-blood-cell-measurement</t>
-  </si>
-  <si>
-    <t>CLS OBO CMO White Blood Cell Measurement</t>
-  </si>
-  <si>
     <t>cls-obo-ncit-age</t>
   </si>
   <si>
@@ -791,7 +758,7 @@
     <t>cls-obo-ncit-age-at-diagnosis</t>
   </si>
   <si>
-    <t>CLS OBO CMO Age At Diagnosis</t>
+    <t>CLS UMLS Age At Diagnosis</t>
   </si>
   <si>
     <t>cls-obo-ncit-birth-date</t>
@@ -800,27 +767,6 @@
     <t>CLS OBO NCIT Birth Date</t>
   </si>
   <si>
-    <t>cls-obo-ncit-date</t>
-  </si>
-  <si>
-    <t>CLS OBO NCIT Date</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#social-history, null#NCIT_C20189, null#NCIT_C41009, null#NCIT_C21514, null#NCIT_C25164</t>
-  </si>
-  <si>
-    <t>cls-obo-ncit-date-of-diagnosis</t>
-  </si>
-  <si>
-    <t>CLS OBO NCIT Date Of Diagnosis</t>
-  </si>
-  <si>
-    <t>cls-obo-ncit-visit-date</t>
-  </si>
-  <si>
-    <t>CLS OBO NCIT Visit Date</t>
-  </si>
-  <si>
     <t>cls-obo-ncit-year-date</t>
   </si>
   <si>
@@ -830,7 +776,7 @@
     <t>cls-obo-snomed-blood-creatinine-level</t>
   </si>
   <si>
-    <t>CLS OBO SNOMED Blood Creatinine Level</t>
+    <t>CLS OBO SNOMED Creatinine Level</t>
   </si>
   <si>
     <t>cls-snomed-age-at-smoking-cessation</t>
@@ -869,10 +815,256 @@
     <t>CLS SNOMED Patient Sex</t>
   </si>
   <si>
-    <t>rv-age</t>
-  </si>
-  <si>
-    <t>RV Age</t>
+    <t>cls-umls-anthropoemetry</t>
+  </si>
+  <si>
+    <t>CLS UMLS Anthropoemetry</t>
+  </si>
+  <si>
+    <t>Unified Medical Language System#C0003188</t>
+  </si>
+  <si>
+    <t>cls-umls-blood-pressure-measurement</t>
+  </si>
+  <si>
+    <t>CLS UMLS Pressure Measurement</t>
+  </si>
+  <si>
+    <t>Unified Medical Language System#C0005823</t>
+  </si>
+  <si>
+    <t>cls-umls-body-height</t>
+  </si>
+  <si>
+    <t>CLS UMLS Body Height</t>
+  </si>
+  <si>
+    <t>cls-umls-body-mass-index</t>
+  </si>
+  <si>
+    <t>CLS UMLS Body Mass Index</t>
+  </si>
+  <si>
+    <t>cls-umls-body-weight</t>
+  </si>
+  <si>
+    <t>CLS UMLS Body Weight</t>
+  </si>
+  <si>
+    <t>cls-umls-calcium-level</t>
+  </si>
+  <si>
+    <t>CLS UMLS Calcium Level</t>
+  </si>
+  <si>
+    <t>cls-umls-chloride-level</t>
+  </si>
+  <si>
+    <t>CLS UMLS Chloride Level</t>
+  </si>
+  <si>
+    <t>cls-umls-cholesterol-level</t>
+  </si>
+  <si>
+    <t>CLS UMLS Cholesterol Level</t>
+  </si>
+  <si>
+    <t>cls-umls-date-of-diagnosis</t>
+  </si>
+  <si>
+    <t>CLS UMLS Date Of Diagnosis</t>
+  </si>
+  <si>
+    <t>cls-umls-dateof-event</t>
+  </si>
+  <si>
+    <t>CLS UMLS Date Of Event</t>
+  </si>
+  <si>
+    <t>Unified Medical Language System#C2585732</t>
+  </si>
+  <si>
+    <t>cls-umls-diastolic-blood-pressure</t>
+  </si>
+  <si>
+    <t>CLS UMLS Diastolic Blood Pressure</t>
+  </si>
+  <si>
+    <t>cls-umls-electrolyte-measurement</t>
+  </si>
+  <si>
+    <t>CLS UMLS Electrolyte Measurement</t>
+  </si>
+  <si>
+    <t>Unified Medical Language System#C0201992</t>
+  </si>
+  <si>
+    <t>cls-umls-glucose-level</t>
+  </si>
+  <si>
+    <t>CLS UMLS Glucose Level</t>
+  </si>
+  <si>
+    <t>cls-umls-heart-rate</t>
+  </si>
+  <si>
+    <t>CLS UMLS Heart Rate</t>
+  </si>
+  <si>
+    <t>cls-umls-hematocrit-measurement</t>
+  </si>
+  <si>
+    <t>CLS UMLS Hematocrit Measurement</t>
+  </si>
+  <si>
+    <t>cls-umls-hemoglobin-measurement</t>
+  </si>
+  <si>
+    <t>CLS UMLS Hemoglobin Measurement</t>
+  </si>
+  <si>
+    <t>cls-umls-hip-circumference</t>
+  </si>
+  <si>
+    <t>CLS UMLS Hip Circumference</t>
+  </si>
+  <si>
+    <t>cls-umls-laboratory</t>
+  </si>
+  <si>
+    <t>CLS UMLS Laboratory</t>
+  </si>
+  <si>
+    <t>Unified Medical Language System#C0022885</t>
+  </si>
+  <si>
+    <t>cls-umls-magnesium-level</t>
+  </si>
+  <si>
+    <t>CLS UMLS Magnesium Level</t>
+  </si>
+  <si>
+    <t>cls-umls-mean-corpuscular-hemoglobin-concentration</t>
+  </si>
+  <si>
+    <t>CLS UMLS Mean Corpuscular Hemoglobin Concentration</t>
+  </si>
+  <si>
+    <t>Unified Medical Language System#C2923848</t>
+  </si>
+  <si>
+    <t>cls-umls-mean-corpuscular-hemoglobin-level</t>
+  </si>
+  <si>
+    <t>CLS UMLS Mean Corpuscular Hemoglobin Level</t>
+  </si>
+  <si>
+    <t>cls-umls-mean-corpuscular-volume</t>
+  </si>
+  <si>
+    <t>CLS UMLS Mean Corpuscular Volume</t>
+  </si>
+  <si>
+    <t>cls-umls-phosphate-level</t>
+  </si>
+  <si>
+    <t>CLS UMLS Phosphate Level</t>
+  </si>
+  <si>
+    <t>cls-umls-platelet-measurement</t>
+  </si>
+  <si>
+    <t>CLS UMLS Platelet Measurement</t>
+  </si>
+  <si>
+    <t>cls-umls-potassium-level</t>
+  </si>
+  <si>
+    <t>CLS UMLS Potassium Level</t>
+  </si>
+  <si>
+    <t>cls-umls-red-blood-cell-measurement</t>
+  </si>
+  <si>
+    <t>CLS UMLS Red Blood Cell Measurement</t>
+  </si>
+  <si>
+    <t>cls-umls-sodium-level</t>
+  </si>
+  <si>
+    <t>CLS UMLS Sodium Level</t>
+  </si>
+  <si>
+    <t>cls-umls-systolic-blood-pressure</t>
+  </si>
+  <si>
+    <t>CLS UMLS Systolic Blood Pressure</t>
+  </si>
+  <si>
+    <t>cls-umls-triglyceride-level</t>
+  </si>
+  <si>
+    <t>CLS UMLS Triglyceride Level</t>
+  </si>
+  <si>
+    <t>cls-umls-urine-measurement</t>
+  </si>
+  <si>
+    <t>CLS UMLS Urine Measurement</t>
+  </si>
+  <si>
+    <t>cls-umls-visit-date</t>
+  </si>
+  <si>
+    <t>CLS UMLS Visit Date</t>
+  </si>
+  <si>
+    <t>cls-umls-waist-circumference</t>
+  </si>
+  <si>
+    <t>CLS UMLS Waist Circumference</t>
+  </si>
+  <si>
+    <t>cls-umls-white-blood-cell-measurement</t>
+  </si>
+  <si>
+    <t>CLS UMLS White Blood Cell Measurement</t>
+  </si>
+  <si>
+    <t>rv-age-in-years</t>
+  </si>
+  <si>
+    <t>RV Age In Years</t>
+  </si>
+  <si>
+    <t>rv-body-weight</t>
+  </si>
+  <si>
+    <t>RV Body Weight</t>
+  </si>
+  <si>
+    <t>rv-creatinine</t>
+  </si>
+  <si>
+    <t>RV Creatinine</t>
+  </si>
+  <si>
+    <t>rv-date-of-birth</t>
+  </si>
+  <si>
+    <t>RV Date Of Birth</t>
+  </si>
+  <si>
+    <t>rv-month-of-birth</t>
+  </si>
+  <si>
+    <t>RV Month Of Birth</t>
+  </si>
+  <si>
+    <t>rv-year-of-birth</t>
+  </si>
+  <si>
+    <t>RV Year Of Birth</t>
   </si>
 </sst>
 </file>
@@ -1006,7 +1198,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K105"/>
+  <dimension ref="A1:K128"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1090,13 +1282,13 @@
         <v>20</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>15</v>
@@ -1105,7 +1297,7 @@
         <v>16</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>18</v>
@@ -1119,19 +1311,19 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="C4" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="C4" t="s" s="2">
-        <v>25</v>
-      </c>
       <c r="D4" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>15</v>
@@ -1154,19 +1346,19 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="B5" t="s" s="2">
+      <c r="C5" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="C5" t="s" s="2">
-        <v>28</v>
-      </c>
       <c r="D5" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>15</v>
@@ -1189,19 +1381,19 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="B6" t="s" s="2">
+      <c r="C6" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="C6" t="s" s="2">
-        <v>31</v>
-      </c>
       <c r="D6" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>15</v>
@@ -1224,19 +1416,19 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s" s="2">
         <v>33</v>
       </c>
-      <c r="B7" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>35</v>
-      </c>
       <c r="D7" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>15</v>
@@ -1259,19 +1451,19 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s" s="2">
         <v>15</v>
@@ -1294,19 +1486,19 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>15</v>
@@ -1329,19 +1521,19 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>15</v>
@@ -1364,19 +1556,19 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>15</v>
@@ -1399,19 +1591,19 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E12" t="s" s="2">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>15</v>
@@ -1434,19 +1626,19 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E13" t="s" s="2">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>15</v>
@@ -1469,19 +1661,19 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E14" t="s" s="2">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>15</v>
@@ -1504,19 +1696,19 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E15" t="s" s="2">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>15</v>
@@ -1539,19 +1731,19 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E16" t="s" s="2">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>15</v>
@@ -1574,25 +1766,25 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="D17" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E17" t="s" s="2">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>15</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>17</v>
@@ -1609,19 +1801,19 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E18" t="s" s="2">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>15</v>
@@ -1644,19 +1836,19 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E19" t="s" s="2">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>15</v>
@@ -1665,7 +1857,7 @@
         <v>16</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>18</v>
@@ -1679,19 +1871,19 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E20" t="s" s="2">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>15</v>
@@ -1714,19 +1906,19 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E21" t="s" s="2">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>15</v>
@@ -1749,19 +1941,19 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="D22" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E22" t="s" s="2">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>15</v>
@@ -1784,25 +1976,25 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E23" t="s" s="2">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>17</v>
@@ -1814,30 +2006,30 @@
         <v>14</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>95</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="D24" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E24" t="s" s="2">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>17</v>
@@ -1849,30 +2041,30 @@
         <v>14</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>96</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E25" t="s" s="2">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>17</v>
@@ -1884,30 +2076,30 @@
         <v>14</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>97</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="D26" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E26" t="s" s="2">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>17</v>
@@ -1919,30 +2111,30 @@
         <v>14</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>98</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E27" t="s" s="2">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>17</v>
@@ -1954,30 +2146,30 @@
         <v>14</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>98</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E28" t="s" s="2">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>17</v>
@@ -1994,10 +2186,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C29" t="s" s="2">
         <v>101</v>
@@ -2006,7 +2198,7 @@
         <v>14</v>
       </c>
       <c r="E29" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>15</v>
@@ -2029,19 +2221,19 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E30" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>15</v>
@@ -2064,19 +2256,19 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D31" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E31" t="s" s="2">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>15</v>
@@ -2099,19 +2291,19 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="D32" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E32" t="s" s="2">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>15</v>
@@ -2134,25 +2326,25 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E33" t="s" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>15</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>17</v>
@@ -2169,19 +2361,19 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="D34" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E34" t="s" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>15</v>
@@ -2204,28 +2396,28 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E35" t="s" s="2">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>17</v>
+        <v>129</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>18</v>
@@ -2234,30 +2426,30 @@
         <v>14</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>122</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>14</v>
+        <v>132</v>
       </c>
       <c r="D36" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E36" t="s" s="2">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>17</v>
@@ -2269,30 +2461,30 @@
         <v>14</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>123</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>14</v>
+        <v>134</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="D37" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E37" t="s" s="2">
-        <v>14</v>
+        <v>137</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>17</v>
@@ -2304,30 +2496,30 @@
         <v>14</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>124</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>14</v>
+        <v>138</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>14</v>
+        <v>140</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E38" t="s" s="2">
-        <v>14</v>
+        <v>141</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>17</v>
@@ -2339,30 +2531,30 @@
         <v>14</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>125</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="D39" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E39" t="s" s="2">
-        <v>129</v>
+        <v>14</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>17</v>
@@ -2374,30 +2566,30 @@
         <v>14</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>14</v>
+        <v>142</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>130</v>
+        <v>14</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>132</v>
+        <v>14</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E40" t="s" s="2">
-        <v>133</v>
+        <v>14</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>17</v>
@@ -2409,30 +2601,30 @@
         <v>14</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>14</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>136</v>
+        <v>14</v>
       </c>
       <c r="D41" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E41" t="s" s="2">
-        <v>137</v>
+        <v>14</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>17</v>
@@ -2444,30 +2636,30 @@
         <v>14</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>14</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>138</v>
+        <v>14</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>139</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>140</v>
+        <v>14</v>
       </c>
       <c r="D42" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E42" t="s" s="2">
-        <v>141</v>
+        <v>14</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>17</v>
@@ -2479,65 +2671,65 @@
         <v>14</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>14</v>
+        <v>145</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>142</v>
+        <v>14</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>144</v>
+        <v>14</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E43" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="F43" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="G43" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J43" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K43" t="s" s="2">
-        <v>14</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>146</v>
+        <v>14</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>148</v>
+        <v>14</v>
       </c>
       <c r="D44" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E44" t="s" s="2">
-        <v>149</v>
+        <v>14</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>17</v>
@@ -2554,19 +2746,19 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E45" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>15</v>
@@ -2589,25 +2781,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>151</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>14</v>
+        <v>152</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E46" t="s" s="2">
-        <v>14</v>
+        <v>153</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>17</v>
@@ -2619,30 +2811,30 @@
         <v>14</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>14</v>
+        <v>156</v>
       </c>
       <c r="D47" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E47" t="s" s="2">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>17</v>
@@ -2654,30 +2846,30 @@
         <v>14</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>155</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>14</v>
+        <v>158</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>14</v>
+        <v>160</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E48" t="s" s="2">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>17</v>
@@ -2689,24 +2881,24 @@
         <v>14</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>156</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D49" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E49" t="s" s="2">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>15</v>
@@ -2729,19 +2921,19 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E50" t="s" s="2">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>15</v>
@@ -2764,25 +2956,25 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>165</v>
+        <v>14</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>167</v>
+        <v>14</v>
       </c>
       <c r="D51" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E51" t="s" s="2">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>17</v>
@@ -2794,100 +2986,100 @@
         <v>14</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>14</v>
+        <v>170</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>168</v>
+        <v>14</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>170</v>
+        <v>14</v>
       </c>
       <c r="D52" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E52" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K52" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="F52" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="G52" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J52" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K52" t="s" s="2">
-        <v>14</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="C53" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D53" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E53" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K53" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="C53" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="D53" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E53" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="F53" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="G53" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>14</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>176</v>
+        <v>14</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>178</v>
+        <v>14</v>
       </c>
       <c r="D54" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E54" t="s" s="2">
-        <v>179</v>
+        <v>14</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>17</v>
@@ -2899,30 +3091,30 @@
         <v>14</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>14</v>
+        <v>173</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>14</v>
+        <v>174</v>
       </c>
       <c r="B55" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="D55" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E55" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="C55" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D55" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E55" t="s" s="2">
-        <v>14</v>
-      </c>
       <c r="F55" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>17</v>
@@ -2934,30 +3126,30 @@
         <v>14</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>180</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>14</v>
+        <v>178</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>14</v>
+        <v>180</v>
       </c>
       <c r="D56" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E56" t="s" s="2">
-        <v>14</v>
+        <v>181</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>17</v>
@@ -2969,30 +3161,30 @@
         <v>14</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>181</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>14</v>
+        <v>182</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>14</v>
+        <v>184</v>
       </c>
       <c r="D57" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E57" t="s" s="2">
-        <v>14</v>
+        <v>185</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>17</v>
@@ -3004,30 +3196,30 @@
         <v>14</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>182</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>14</v>
+        <v>186</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E58" t="s" s="2">
-        <v>14</v>
+        <v>189</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>17</v>
@@ -3039,24 +3231,24 @@
         <v>14</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>183</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="D59" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E59" t="s" s="2">
-        <v>14</v>
+        <v>193</v>
       </c>
       <c r="F59" t="s" s="2">
         <v>15</v>
@@ -3079,19 +3271,19 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E60" t="s" s="2">
-        <v>66</v>
+        <v>197</v>
       </c>
       <c r="F60" t="s" s="2">
         <v>15</v>
@@ -3114,19 +3306,19 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="D61" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E61" t="s" s="2">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="F61" t="s" s="2">
         <v>15</v>
@@ -3149,25 +3341,25 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>193</v>
+        <v>14</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>195</v>
+        <v>14</v>
       </c>
       <c r="D62" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E62" t="s" s="2">
-        <v>196</v>
+        <v>14</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>17</v>
@@ -3179,18 +3371,18 @@
         <v>14</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>14</v>
+        <v>202</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>197</v>
+        <v>14</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>14</v>
@@ -3199,10 +3391,10 @@
         <v>14</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>17</v>
@@ -3214,18 +3406,18 @@
         <v>14</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>14</v>
+        <v>203</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B64" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="B64" t="s" s="2">
-        <v>200</v>
-      </c>
       <c r="C64" t="s" s="2">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="D64" t="s" s="2">
         <v>14</v>
@@ -3234,10 +3426,10 @@
         <v>14</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>17</v>
@@ -3249,24 +3441,24 @@
         <v>14</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>14</v>
+        <v>204</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>65</v>
+        <v>207</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E65" t="s" s="2">
-        <v>14</v>
+        <v>208</v>
       </c>
       <c r="F65" t="s" s="2">
         <v>15</v>
@@ -3289,19 +3481,19 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D66" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E66" t="s" s="2">
-        <v>14</v>
+        <v>212</v>
       </c>
       <c r="F66" t="s" s="2">
         <v>15</v>
@@ -3324,19 +3516,19 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>101</v>
+        <v>215</v>
       </c>
       <c r="D67" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E67" t="s" s="2">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="F67" t="s" s="2">
         <v>15</v>
@@ -3359,19 +3551,19 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>132</v>
+        <v>218</v>
       </c>
       <c r="D68" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E68" t="s" s="2">
-        <v>14</v>
+        <v>219</v>
       </c>
       <c r="F68" t="s" s="2">
         <v>15</v>
@@ -3394,19 +3586,19 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>144</v>
+        <v>222</v>
       </c>
       <c r="D69" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E69" t="s" s="2">
-        <v>14</v>
+        <v>223</v>
       </c>
       <c r="F69" t="s" s="2">
         <v>15</v>
@@ -3429,19 +3621,19 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>148</v>
+        <v>226</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E70" t="s" s="2">
-        <v>14</v>
+        <v>227</v>
       </c>
       <c r="F70" t="s" s="2">
         <v>15</v>
@@ -3464,13 +3656,13 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>214</v>
+        <v>14</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>216</v>
+        <v>14</v>
       </c>
       <c r="D71" t="s" s="2">
         <v>14</v>
@@ -3479,10 +3671,10 @@
         <v>14</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>17</v>
@@ -3494,18 +3686,18 @@
         <v>14</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>14</v>
+        <v>228</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>217</v>
+        <v>14</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>159</v>
+        <v>14</v>
       </c>
       <c r="D72" t="s" s="2">
         <v>14</v>
@@ -3514,10 +3706,10 @@
         <v>14</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>17</v>
@@ -3529,18 +3721,18 @@
         <v>14</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>14</v>
+        <v>229</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>219</v>
+        <v>14</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>188</v>
+        <v>14</v>
       </c>
       <c r="D73" t="s" s="2">
         <v>14</v>
@@ -3549,10 +3741,10 @@
         <v>14</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>17</v>
@@ -3564,18 +3756,18 @@
         <v>14</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>14</v>
+        <v>230</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>221</v>
+        <v>14</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D74" t="s" s="2">
         <v>14</v>
@@ -3584,10 +3776,10 @@
         <v>14</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>17</v>
@@ -3599,18 +3791,18 @@
         <v>14</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>14</v>
+        <v>231</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>47</v>
+        <v>226</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>14</v>
@@ -3639,19 +3831,19 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>43</v>
+        <v>236</v>
       </c>
       <c r="D76" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E76" t="s" s="2">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="F76" t="s" s="2">
         <v>15</v>
@@ -3674,19 +3866,19 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>35</v>
+        <v>239</v>
       </c>
       <c r="D77" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E77" t="s" s="2">
-        <v>14</v>
+        <v>240</v>
       </c>
       <c r="F77" t="s" s="2">
         <v>15</v>
@@ -3709,19 +3901,19 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>105</v>
+        <v>243</v>
       </c>
       <c r="D78" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E78" t="s" s="2">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="F78" t="s" s="2">
         <v>15</v>
@@ -3744,13 +3936,13 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="D79" t="s" s="2">
         <v>14</v>
@@ -3779,13 +3971,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>14</v>
@@ -3814,13 +4006,13 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="D81" t="s" s="2">
         <v>14</v>
@@ -3849,13 +4041,13 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="D82" t="s" s="2">
         <v>14</v>
@@ -3884,13 +4076,13 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="D83" t="s" s="2">
         <v>14</v>
@@ -3919,13 +4111,13 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="D84" t="s" s="2">
         <v>14</v>
@@ -3954,13 +4146,13 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="D85" t="s" s="2">
         <v>14</v>
@@ -3989,13 +4181,13 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="D86" t="s" s="2">
         <v>14</v>
@@ -4024,13 +4216,13 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>39</v>
+        <v>226</v>
       </c>
       <c r="D87" t="s" s="2">
         <v>14</v>
@@ -4059,13 +4251,13 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>120</v>
+        <v>222</v>
       </c>
       <c r="D88" t="s" s="2">
         <v>14</v>
@@ -4094,13 +4286,13 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D89" t="s" s="2">
         <v>14</v>
@@ -4129,13 +4321,13 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>128</v>
+        <v>269</v>
       </c>
       <c r="D90" t="s" s="2">
         <v>14</v>
@@ -4164,13 +4356,13 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>25</v>
+        <v>272</v>
       </c>
       <c r="D91" t="s" s="2">
         <v>14</v>
@@ -4199,13 +4391,13 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="D92" t="s" s="2">
         <v>14</v>
@@ -4234,13 +4426,13 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="D93" t="s" s="2">
         <v>14</v>
@@ -4269,13 +4461,13 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>264</v>
+        <v>98</v>
       </c>
       <c r="D94" t="s" s="2">
         <v>14</v>
@@ -4304,13 +4496,13 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="D95" t="s" s="2">
         <v>14</v>
@@ -4339,13 +4531,13 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>191</v>
+        <v>108</v>
       </c>
       <c r="D96" t="s" s="2">
         <v>14</v>
@@ -4374,13 +4566,13 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>170</v>
+        <v>112</v>
       </c>
       <c r="D97" t="s" s="2">
         <v>14</v>
@@ -4409,13 +4601,13 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>69</v>
+        <v>127</v>
       </c>
       <c r="D98" t="s" s="2">
         <v>14</v>
@@ -4444,13 +4636,13 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>167</v>
+        <v>289</v>
       </c>
       <c r="D99" t="s" s="2">
         <v>14</v>
@@ -4479,13 +4671,13 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D100" t="s" s="2">
         <v>14</v>
@@ -4514,13 +4706,13 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>85</v>
+        <v>294</v>
       </c>
       <c r="D101" t="s" s="2">
         <v>14</v>
@@ -4549,13 +4741,13 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="C102" t="s" s="2">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="D102" t="s" s="2">
         <v>14</v>
@@ -4584,13 +4776,13 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="D103" t="s" s="2">
         <v>14</v>
@@ -4619,13 +4811,13 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="C104" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D104" t="s" s="2">
         <v>14</v>
@@ -4654,19 +4846,19 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>13</v>
+        <v>160</v>
       </c>
       <c r="D105" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E105" t="s" s="2">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F105" t="s" s="2">
         <v>15</v>
@@ -4675,7 +4867,7 @@
         <v>16</v>
       </c>
       <c r="H105" t="s" s="2">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I105" t="s" s="2">
         <v>18</v>
@@ -4684,6 +4876,811 @@
         <v>14</v>
       </c>
       <c r="K105" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="C106" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="D106" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E106" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F106" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="C107" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="D107" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E107" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F107" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="B108" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="C108" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="D108" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E108" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F108" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G108" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="B109" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="C109" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="D109" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E109" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F109" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G109" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I109" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J109" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K109" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="B110" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="C110" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="D110" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E110" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F110" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G110" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I110" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J110" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K110" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="B111" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="C111" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="D111" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E111" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F111" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G111" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I111" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J111" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K111" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="B112" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="C112" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="D112" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E112" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F112" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G112" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H112" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I112" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J112" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K112" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="B113" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="C113" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="D113" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E113" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F113" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G113" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H113" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I113" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J113" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K113" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="B114" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="C114" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="D114" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E114" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F114" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G114" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H114" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I114" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J114" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K114" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="B115" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="C115" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="D115" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E115" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F115" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G115" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H115" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I115" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J115" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K115" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="B116" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="C116" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="D116" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E116" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F116" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G116" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H116" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I116" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J116" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K116" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="B117" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C117" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="D117" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E117" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F117" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G117" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H117" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I117" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J117" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K117" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="B118" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="C118" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="D118" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E118" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F118" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G118" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H118" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I118" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J118" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K118" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="B119" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="C119" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="D119" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E119" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F119" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G119" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H119" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I119" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J119" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K119" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="B120" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="C120" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="D120" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E120" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F120" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G120" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H120" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I120" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J120" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K120" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="B121" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="C121" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="D121" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E121" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F121" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G121" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H121" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I121" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J121" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K121" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="B122" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="C122" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="D122" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E122" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F122" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G122" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H122" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I122" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J122" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K122" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="B123" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="C123" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="D123" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E123" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="F123" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G123" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H123" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I123" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J123" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K123" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="B124" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="C124" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="D124" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E124" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="F124" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G124" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H124" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I124" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J124" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K124" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="B125" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="C125" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="D125" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E125" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F125" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G125" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H125" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I125" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J125" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K125" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="B126" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="C126" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D126" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E126" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F126" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G126" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H126" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I126" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J126" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K126" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="B127" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="C127" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D127" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E127" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F127" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G127" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H127" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I127" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J127" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K127" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="B128" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="C128" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D128" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E128" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F128" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G128" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H128" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I128" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J128" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K128" t="s" s="2">
         <v>14</v>
       </c>
     </row>

--- a/output/observations-summary.xlsx
+++ b/output/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1771" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1925" uniqueCount="453">
   <si>
     <t>Profile</t>
   </si>
@@ -86,7 +86,7 @@
     <t>C Biological Sex</t>
   </si>
   <si>
-    <t>SNOMED CT#263495000, SNOMED CT#734000001</t>
+    <t>Unified Medical Language System#C0079399, SNOMED CT#263495000, Unified Medical Language System#C1522384, SNOMED CT#734000001</t>
   </si>
   <si>
     <t>c-blood</t>
@@ -185,7 +185,7 @@
     <t>C Female</t>
   </si>
   <si>
-    <t>SNOMED CT#263495000, SNOMED CT#734000001, SNOMED CT#248152002</t>
+    <t>Unified Medical Language System#C0079399, SNOMED CT#263495000, Unified Medical Language System#C1522384, SNOMED CT#734000001, SNOMED CT#248152002</t>
   </si>
   <si>
     <t>c-finding-of-creatinine-level</t>
@@ -212,7 +212,7 @@
     <t>C Gender</t>
   </si>
   <si>
-    <t>SNOMED CT#263495000</t>
+    <t>Unified Medical Language System#C0079399, SNOMED CT#263495000</t>
   </si>
   <si>
     <t>c-glucose</t>
@@ -248,7 +248,7 @@
     <t>C Intersex</t>
   </si>
   <si>
-    <t>SNOMED CT#263495000, SNOMED CT#734000001, SNOMED CT#32570691000036108</t>
+    <t>Unified Medical Language System#C0079399, SNOMED CT#263495000, Unified Medical Language System#C1522384, SNOMED CT#734000001, SNOMED CT#32570691000036108</t>
   </si>
   <si>
     <t>c-interval-scale</t>
@@ -266,7 +266,7 @@
     <t>C Male</t>
   </si>
   <si>
-    <t>SNOMED CT#263495000, SNOMED CT#734000001, SNOMED CT#248153007</t>
+    <t>Unified Medical Language System#C0079399, SNOMED CT#263495000, Unified Medical Language System#C1522384, SNOMED CT#734000001, SNOMED CT#248153007</t>
   </si>
   <si>
     <t>c-nominal-scale</t>
@@ -1181,7 +1181,7 @@
     <t>CV Biological Sex</t>
   </si>
   <si>
-    <t>SNOMED CT#263495000, SNOMED CT#734000001, SNOMED CT#125676002, Unified Medical Language System#C1711339</t>
+    <t>Unified Medical Language System#C0079399, SNOMED CT#263495000, Unified Medical Language System#C1522384, SNOMED CT#734000001, SNOMED CT#125676002, Unified Medical Language System#C1711339</t>
   </si>
   <si>
     <t>cv-body-height</t>
@@ -1235,7 +1235,7 @@
     <t>CV Gender</t>
   </si>
   <si>
-    <t>SNOMED CT#263495000, SNOMED CT#125676002, Unified Medical Language System#C1711339</t>
+    <t>Unified Medical Language System#C0079399, SNOMED CT#263495000, SNOMED CT#125676002, Unified Medical Language System#C1711339</t>
   </si>
   <si>
     <t>cv-glucose-concentration-in-blood</t>
@@ -1262,7 +1262,22 @@
     <t>RV Administrative Gender</t>
   </si>
   <si>
-    <t>SNOMED CT#263495000, SNOMED CT#125676002, Unified Medical Language System#C1711339, Unified Medical Language System#C1550327</t>
+    <t>Unified Medical Language System#C0079399, SNOMED CT#263495000, SNOMED CT#125676002, Unified Medical Language System#C1711339, Unified Medical Language System#C1550327</t>
+  </si>
+  <si>
+    <t>null#C1550327</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>SNOMED CT#248153007, Unified Medical Language System#C0086582</t>
+  </si>
+  <si>
+    <t>SNOMED CT#248152002, Unified Medical Language System#C0086287</t>
+  </si>
+  <si>
+    <t>SNOMED CT#32570691000036108, Unified Medical Language System#C1704620, SNOMED CT#74964007</t>
   </si>
   <si>
     <t>rv-age-in-age-Classes</t>
@@ -1271,7 +1286,7 @@
     <t>RV Age In Age Classes</t>
   </si>
   <si>
-    <t>SNOMED CT#397669002, Unified Medical Language System#C1709336</t>
+    <t>SNOMED CT#397669002, SNOMED CT#424144002, SNOMED CT#125676002, SNOMED CT#246205007, Unified Medical Language System#C1709336</t>
   </si>
   <si>
     <t>rv-age-in-years</t>
@@ -1292,15 +1307,6 @@
     <t>null#734000001</t>
   </si>
   <si>
-    <t>integer</t>
-  </si>
-  <si>
-    <t>SNOMED CT#248153007, Unified Medical Language System#C0086582</t>
-  </si>
-  <si>
-    <t>SNOMED CT#248152002, Unified Medical Language System#C0086287</t>
-  </si>
-  <si>
     <t>rv-body-height</t>
   </si>
   <si>
@@ -1350,6 +1356,12 @@
   </si>
   <si>
     <t>SNOMED CT#785671009, SNOMED CT#125676002, null#LP7057-5, SNOMED CT#67079006, null#LP7479-1, null#LP7567-3, SNOMED CT#246205007</t>
+  </si>
+  <si>
+    <t>rv-sex-assigned-at-birth</t>
+  </si>
+  <si>
+    <t>RV Sex Assigned At Birth</t>
   </si>
   <si>
     <t>rv-year-of-birth</t>
@@ -1492,7 +1504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K161"/>
+  <dimension ref="A1:K175"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -6657,7 +6669,7 @@
         <v>14</v>
       </c>
       <c r="E148" t="s" s="2">
-        <v>14</v>
+        <v>417</v>
       </c>
       <c r="F148" t="s" s="2">
         <v>15</v>
@@ -6680,98 +6692,98 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>417</v>
+        <v>14</v>
       </c>
       <c r="B149" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="C149" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D149" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E149" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F149" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G149" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H149" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="C149" t="s" s="2">
+      <c r="I149" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J149" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K149" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="D149" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E149" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="F149" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="G149" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H149" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="I149" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J149" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K149" t="s" s="2">
-        <v>14</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B150" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="C150" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D150" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E150" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F150" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G150" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H150" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="I150" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J150" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K150" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="B150" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="C150" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="D150" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E150" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="F150" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="G150" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H150" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="I150" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J150" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K150" t="s" s="2">
-        <v>14</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>423</v>
+        <v>14</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="C151" t="s" s="2">
-        <v>407</v>
+        <v>14</v>
       </c>
       <c r="D151" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E151" t="s" s="2">
-        <v>425</v>
+        <v>14</v>
       </c>
       <c r="F151" t="s" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G151" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H151" t="s" s="2">
-        <v>17</v>
+        <v>418</v>
       </c>
       <c r="I151" t="s" s="2">
         <v>18</v>
@@ -6780,33 +6792,33 @@
         <v>14</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>14</v>
+        <v>421</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>14</v>
+        <v>422</v>
       </c>
       <c r="B152" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="C152" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="C152" t="s" s="2">
-        <v>14</v>
-      </c>
       <c r="D152" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E152" t="s" s="2">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="F152" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G152" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H152" t="s" s="2">
-        <v>426</v>
+        <v>17</v>
       </c>
       <c r="I152" t="s" s="2">
         <v>18</v>
@@ -6815,7 +6827,7 @@
         <v>14</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>427</v>
+        <v>14</v>
       </c>
     </row>
     <row r="153">
@@ -6823,7 +6835,7 @@
         <v>14</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C153" t="s" s="2">
         <v>14</v>
@@ -6841,7 +6853,7 @@
         <v>14</v>
       </c>
       <c r="H153" t="s" s="2">
-        <v>426</v>
+        <v>17</v>
       </c>
       <c r="I153" t="s" s="2">
         <v>18</v>
@@ -6850,7 +6862,7 @@
         <v>14</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>428</v>
+        <v>14</v>
       </c>
     </row>
     <row r="154">
@@ -6858,7 +6870,7 @@
         <v>14</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C154" t="s" s="2">
         <v>14</v>
@@ -6876,7 +6888,7 @@
         <v>14</v>
       </c>
       <c r="H154" t="s" s="2">
-        <v>426</v>
+        <v>17</v>
       </c>
       <c r="I154" t="s" s="2">
         <v>18</v>
@@ -6885,30 +6897,30 @@
         <v>14</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>250</v>
+        <v>14</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>429</v>
+        <v>14</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="C155" t="s" s="2">
-        <v>431</v>
+        <v>14</v>
       </c>
       <c r="D155" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E155" t="s" s="2">
-        <v>136</v>
+        <v>14</v>
       </c>
       <c r="F155" t="s" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G155" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H155" t="s" s="2">
         <v>17</v>
@@ -6925,25 +6937,25 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>432</v>
+        <v>14</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="C156" t="s" s="2">
-        <v>434</v>
+        <v>14</v>
       </c>
       <c r="D156" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E156" t="s" s="2">
-        <v>144</v>
+        <v>14</v>
       </c>
       <c r="F156" t="s" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G156" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H156" t="s" s="2">
         <v>17</v>
@@ -6960,25 +6972,25 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>435</v>
+        <v>14</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="C157" t="s" s="2">
-        <v>437</v>
+        <v>14</v>
       </c>
       <c r="D157" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E157" t="s" s="2">
-        <v>438</v>
+        <v>14</v>
       </c>
       <c r="F157" t="s" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G157" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H157" t="s" s="2">
         <v>17</v>
@@ -6995,25 +7007,25 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>439</v>
+        <v>14</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="C158" t="s" s="2">
-        <v>437</v>
+        <v>14</v>
       </c>
       <c r="D158" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E158" t="s" s="2">
-        <v>163</v>
+        <v>14</v>
       </c>
       <c r="F158" t="s" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G158" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H158" t="s" s="2">
         <v>17</v>
@@ -7030,25 +7042,25 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>441</v>
+        <v>14</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>442</v>
+        <v>423</v>
       </c>
       <c r="C159" t="s" s="2">
-        <v>404</v>
+        <v>14</v>
       </c>
       <c r="D159" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E159" t="s" s="2">
-        <v>125</v>
+        <v>14</v>
       </c>
       <c r="F159" t="s" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G159" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H159" t="s" s="2">
         <v>17</v>
@@ -7065,25 +7077,25 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>443</v>
+        <v>14</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>444</v>
+        <v>423</v>
       </c>
       <c r="C160" t="s" s="2">
-        <v>445</v>
+        <v>14</v>
       </c>
       <c r="D160" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E160" t="s" s="2">
-        <v>195</v>
+        <v>14</v>
       </c>
       <c r="F160" t="s" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G160" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H160" t="s" s="2">
         <v>17</v>
@@ -7100,36 +7112,526 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="B161" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="C161" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="D161" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E161" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="F161" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G161" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H161" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I161" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J161" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K161" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="B162" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="C162" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="D162" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E162" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="F162" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G162" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H162" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I162" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J162" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K162" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B163" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="C163" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D163" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E163" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F163" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G163" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H163" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="I163" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J163" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K163" t="s" s="2">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B164" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="C164" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D164" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E164" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F164" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G164" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H164" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="I164" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J164" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K164" t="s" s="2">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="B165" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="C165" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="D165" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E165" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="F165" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G165" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H165" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I165" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J165" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K165" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="B166" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="C166" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="D166" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E166" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="F166" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G166" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H166" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I166" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J166" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K166" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="B167" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="C167" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="D167" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E167" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="F167" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G167" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H167" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I167" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J167" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K167" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="B168" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="C168" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="D168" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E168" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="F168" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G168" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H168" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I168" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J168" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K168" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="B169" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="C169" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="D169" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E169" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="F169" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G169" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H169" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I169" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J169" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K169" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="B170" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="B161" t="s" s="2">
+      <c r="C170" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="C161" t="s" s="2">
+      <c r="D170" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E170" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="F170" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G170" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H170" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I170" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J170" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K170" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="B171" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="C171" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="D171" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E171" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="F171" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G171" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H171" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I171" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J171" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K171" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B172" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="C172" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D172" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E172" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F172" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G172" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H172" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="I172" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J172" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K172" t="s" s="2">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B173" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="C173" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D173" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E173" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F173" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G173" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H173" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="I173" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J173" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K173" t="s" s="2">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B174" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="C174" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D174" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E174" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F174" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G174" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H174" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="I174" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J174" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K174" t="s" s="2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="B175" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="C175" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="D161" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E161" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="F161" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="G161" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H161" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="I161" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J161" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K161" t="s" s="2">
+      <c r="D175" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E175" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="F175" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G175" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H175" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I175" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J175" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K175" t="s" s="2">
         <v>14</v>
       </c>
     </row>

--- a/output/observations-summary.xlsx
+++ b/output/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1925" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1936" uniqueCount="462">
   <si>
     <t>Profile</t>
   </si>
@@ -1286,7 +1286,34 @@
     <t>RV Age In Age Classes</t>
   </si>
   <si>
-    <t>SNOMED CT#397669002, SNOMED CT#424144002, SNOMED CT#125676002, SNOMED CT#246205007, Unified Medical Language System#C1709336</t>
+    <t>SNOMED CT#397669002, SNOMED CT#424144002, SNOMED CT#125676002, Unified Medical Language System#C1709336</t>
+  </si>
+  <si>
+    <t>Unified Medical Language System#C0021289</t>
+  </si>
+  <si>
+    <t>Unified Medical Language System#C0021270</t>
+  </si>
+  <si>
+    <t>Unified Medical Language System#C0008100</t>
+  </si>
+  <si>
+    <t>Unified Medical Language System#C0008059</t>
+  </si>
+  <si>
+    <t>Unified Medical Language System#C0205653</t>
+  </si>
+  <si>
+    <t>Unified Medical Language System#C0001675</t>
+  </si>
+  <si>
+    <t>Unified Medical Language System#C0205847</t>
+  </si>
+  <si>
+    <t>Unified Medical Language System#C0001792</t>
+  </si>
+  <si>
+    <t>Unified Medical Language System#C0001795</t>
   </si>
   <si>
     <t>rv-age-in-years</t>
@@ -1504,7 +1531,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K175"/>
+  <dimension ref="A1:K176"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -6862,7 +6889,7 @@
         <v>14</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>14</v>
+        <v>425</v>
       </c>
     </row>
     <row r="154">
@@ -6897,7 +6924,7 @@
         <v>14</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>14</v>
+        <v>426</v>
       </c>
     </row>
     <row r="155">
@@ -6932,7 +6959,7 @@
         <v>14</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>14</v>
+        <v>427</v>
       </c>
     </row>
     <row r="156">
@@ -6967,7 +6994,7 @@
         <v>14</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>14</v>
+        <v>428</v>
       </c>
     </row>
     <row r="157">
@@ -7002,7 +7029,7 @@
         <v>14</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>14</v>
+        <v>429</v>
       </c>
     </row>
     <row r="158">
@@ -7037,7 +7064,7 @@
         <v>14</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>14</v>
+        <v>430</v>
       </c>
     </row>
     <row r="159">
@@ -7072,7 +7099,7 @@
         <v>14</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>14</v>
+        <v>431</v>
       </c>
     </row>
     <row r="160">
@@ -7107,30 +7134,30 @@
         <v>14</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>14</v>
+        <v>432</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>425</v>
+        <v>14</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>427</v>
+        <v>14</v>
       </c>
       <c r="D161" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E161" t="s" s="2">
-        <v>118</v>
+        <v>14</v>
       </c>
       <c r="F161" t="s" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G161" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H161" t="s" s="2">
         <v>17</v>
@@ -7142,24 +7169,24 @@
         <v>14</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>14</v>
+        <v>433</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="C162" t="s" s="2">
-        <v>407</v>
+        <v>436</v>
       </c>
       <c r="D162" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E162" t="s" s="2">
-        <v>430</v>
+        <v>118</v>
       </c>
       <c r="F162" t="s" s="2">
         <v>15</v>
@@ -7182,28 +7209,28 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>14</v>
+        <v>437</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="C163" t="s" s="2">
-        <v>14</v>
+        <v>407</v>
       </c>
       <c r="D163" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E163" t="s" s="2">
-        <v>14</v>
+        <v>439</v>
       </c>
       <c r="F163" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G163" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H163" t="s" s="2">
-        <v>418</v>
+        <v>17</v>
       </c>
       <c r="I163" t="s" s="2">
         <v>18</v>
@@ -7212,7 +7239,7 @@
         <v>14</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>419</v>
+        <v>14</v>
       </c>
     </row>
     <row r="164">
@@ -7220,7 +7247,7 @@
         <v>14</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="C164" t="s" s="2">
         <v>14</v>
@@ -7247,33 +7274,33 @@
         <v>14</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>431</v>
+        <v>14</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="C165" t="s" s="2">
-        <v>433</v>
+        <v>14</v>
       </c>
       <c r="D165" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E165" t="s" s="2">
-        <v>136</v>
+        <v>14</v>
       </c>
       <c r="F165" t="s" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G165" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H165" t="s" s="2">
-        <v>17</v>
+        <v>418</v>
       </c>
       <c r="I165" t="s" s="2">
         <v>18</v>
@@ -7282,24 +7309,24 @@
         <v>14</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>14</v>
+        <v>420</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="C166" t="s" s="2">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="D166" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E166" t="s" s="2">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="F166" t="s" s="2">
         <v>15</v>
@@ -7322,19 +7349,19 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="C167" t="s" s="2">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="D167" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E167" t="s" s="2">
-        <v>440</v>
+        <v>144</v>
       </c>
       <c r="F167" t="s" s="2">
         <v>15</v>
@@ -7357,19 +7384,19 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="C168" t="s" s="2">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="D168" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E168" t="s" s="2">
-        <v>163</v>
+        <v>449</v>
       </c>
       <c r="F168" t="s" s="2">
         <v>15</v>
@@ -7392,19 +7419,19 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="C169" t="s" s="2">
-        <v>404</v>
+        <v>448</v>
       </c>
       <c r="D169" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E169" t="s" s="2">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="F169" t="s" s="2">
         <v>15</v>
@@ -7427,19 +7454,19 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="C170" t="s" s="2">
-        <v>447</v>
+        <v>404</v>
       </c>
       <c r="D170" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E170" t="s" s="2">
-        <v>195</v>
+        <v>125</v>
       </c>
       <c r="F170" t="s" s="2">
         <v>15</v>
@@ -7462,19 +7489,19 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="C171" t="s" s="2">
-        <v>407</v>
+        <v>456</v>
       </c>
       <c r="D171" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E171" t="s" s="2">
-        <v>247</v>
+        <v>195</v>
       </c>
       <c r="F171" t="s" s="2">
         <v>15</v>
@@ -7497,28 +7524,28 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>14</v>
+        <v>457</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="C172" t="s" s="2">
-        <v>14</v>
+        <v>407</v>
       </c>
       <c r="D172" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E172" t="s" s="2">
-        <v>14</v>
+        <v>247</v>
       </c>
       <c r="F172" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G172" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H172" t="s" s="2">
-        <v>418</v>
+        <v>17</v>
       </c>
       <c r="I172" t="s" s="2">
         <v>18</v>
@@ -7527,7 +7554,7 @@
         <v>14</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>419</v>
+        <v>14</v>
       </c>
     </row>
     <row r="173">
@@ -7535,7 +7562,7 @@
         <v>14</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="C173" t="s" s="2">
         <v>14</v>
@@ -7562,7 +7589,7 @@
         <v>14</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="174">
@@ -7570,7 +7597,7 @@
         <v>14</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="C174" t="s" s="2">
         <v>14</v>
@@ -7597,41 +7624,76 @@
         <v>14</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>250</v>
+        <v>420</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>450</v>
+        <v>14</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="C175" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D175" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E175" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F175" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G175" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H175" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="I175" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J175" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K175" t="s" s="2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="B176" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="C176" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="D175" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E175" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="F175" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="G175" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H175" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="I175" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J175" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K175" t="s" s="2">
+      <c r="D176" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E176" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="F176" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G176" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H176" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I176" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J176" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K176" t="s" s="2">
         <v>14</v>
       </c>
     </row>

--- a/output/observations-summary.xlsx
+++ b/output/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1936" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1958" uniqueCount="469">
   <si>
     <t>Profile</t>
   </si>
@@ -1172,7 +1172,7 @@
     <t>CV Age Counted</t>
   </si>
   <si>
-    <t>SNOMED CT#397669002, SNOMED CT#424144002, SNOMED CT#125676002</t>
+    <t>SNOMED CT#397669002, SNOMED CT#424144002, SNOMED CT#125676002, Unified Medical Language System#C0750480</t>
   </si>
   <si>
     <t>cv-biological-sex</t>
@@ -1217,157 +1217,178 @@
     <t>CV Creatinine Concentration In Urine</t>
   </si>
   <si>
+    <t>SNOMED CT#365756002, SNOMED CT#125676002, null#LP7681-2</t>
+  </si>
+  <si>
+    <t>cv-date-of-birth</t>
+  </si>
+  <si>
+    <t>CV Date Of Birth</t>
+  </si>
+  <si>
+    <t>SNOMED CT#426763005, SNOMED CT#125676002, SNOMED CT#184099003</t>
+  </si>
+  <si>
+    <t>cv-gender</t>
+  </si>
+  <si>
+    <t>CV Gender</t>
+  </si>
+  <si>
+    <t>Unified Medical Language System#C0079399, SNOMED CT#263495000, SNOMED CT#125676002, Unified Medical Language System#C1711339</t>
+  </si>
+  <si>
+    <t>cv-glucose-concentration-in-blood</t>
+  </si>
+  <si>
+    <t>CV Glucose Concentration In Blood</t>
+  </si>
+  <si>
+    <t>SNOMED CT#785671009, SNOMED CT#125676002, null#LP7057-5, SNOMED CT#67079006</t>
+  </si>
+  <si>
+    <t>cv-glucose-concentration-in-urine</t>
+  </si>
+  <si>
+    <t>CV Glucose Concentration In Urine</t>
+  </si>
+  <si>
+    <t>SNOMED CT#785671009, SNOMED CT#125676002, null#LP7681-2, SNOMED CT#246205007, SNOMED CT#67079006</t>
+  </si>
+  <si>
+    <t>rv-administrative-gender</t>
+  </si>
+  <si>
+    <t>RV Administrative Gender</t>
+  </si>
+  <si>
+    <t>Unified Medical Language System#C0079399, SNOMED CT#263495000, SNOMED CT#125676002, Unified Medical Language System#C1711339, Unified Medical Language System#C1550327</t>
+  </si>
+  <si>
+    <t>null#C1550327</t>
+  </si>
+  <si>
+    <t>SNOMED CT#248153007, Unified Medical Language System#C0086582</t>
+  </si>
+  <si>
+    <t>SNOMED CT#248152002, Unified Medical Language System#C0086287</t>
+  </si>
+  <si>
+    <t>SNOMED CT#32570691000036108, Unified Medical Language System#C1704620, SNOMED CT#74964007</t>
+  </si>
+  <si>
+    <t>rv-age-in-age-Classes</t>
+  </si>
+  <si>
+    <t>RV Age In Age Classes</t>
+  </si>
+  <si>
+    <t>SNOMED CT#397669002, SNOMED CT#424144002, SNOMED CT#125676002, Unified Medical Language System#C0750480, Unified Medical Language System#C1709336</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>Unified Medical Language System#C0021289</t>
+  </si>
+  <si>
+    <t>Unified Medical Language System#C0021270</t>
+  </si>
+  <si>
+    <t>Unified Medical Language System#C0008100</t>
+  </si>
+  <si>
+    <t>Unified Medical Language System#C0008059</t>
+  </si>
+  <si>
+    <t>Unified Medical Language System#C0205653</t>
+  </si>
+  <si>
+    <t>Unified Medical Language System#C0001675</t>
+  </si>
+  <si>
+    <t>Unified Medical Language System#C0205847</t>
+  </si>
+  <si>
+    <t>Unified Medical Language System#C0001792</t>
+  </si>
+  <si>
+    <t>Unified Medical Language System#C0001795</t>
+  </si>
+  <si>
+    <t>rv-age-in-years</t>
+  </si>
+  <si>
+    <t>RV Age In Years</t>
+  </si>
+  <si>
+    <t>SNOMED CT#397669002, SNOMED CT#424144002, SNOMED CT#125676002, Unified Medical Language System#C0750480, SNOMED CT#246205007</t>
+  </si>
+  <si>
+    <t>rv-biological-sex</t>
+  </si>
+  <si>
+    <t>RV Biological Sex</t>
+  </si>
+  <si>
+    <t>null#734000001</t>
+  </si>
+  <si>
+    <t>rv-body-height</t>
+  </si>
+  <si>
+    <t>RV Body Height</t>
+  </si>
+  <si>
+    <t>Unified Medical Language System#C0003188, SNOMED CT#1153637007, SNOMED CT#125676002, SNOMED CT#246205007</t>
+  </si>
+  <si>
+    <t>rv-body-weight</t>
+  </si>
+  <si>
+    <t>RV Body Weight</t>
+  </si>
+  <si>
+    <t>Unified Medical Language System#C0003188, SNOMED CT#27113001, SNOMED CT#125676002, SNOMED CT#246205007</t>
+  </si>
+  <si>
+    <t>rv-creatinine-mass-concentration-in-serum-or-plasma</t>
+  </si>
+  <si>
+    <t>RV Creatinine Mass Concentration In Serum Or Plasma</t>
+  </si>
+  <si>
+    <t>SNOMED CT#365756002, SNOMED CT#125676002, null#LP7057-5, null#LP7479-1, null#LP7567-3, SNOMED CT#246205007</t>
+  </si>
+  <si>
+    <t>null#2160-0</t>
+  </si>
+  <si>
+    <t>rv-creatinine-mass-concentration-in-urine</t>
+  </si>
+  <si>
+    <t>RV Creatinine Mass Concentration In Urine</t>
+  </si>
+  <si>
     <t>SNOMED CT#365756002, SNOMED CT#125676002, null#LP7681-2, SNOMED CT#246205007</t>
   </si>
   <si>
-    <t>cv-date-of-birth</t>
-  </si>
-  <si>
-    <t>CV Date Of Birth</t>
-  </si>
-  <si>
-    <t>SNOMED CT#426763005, SNOMED CT#125676002, SNOMED CT#184099003</t>
-  </si>
-  <si>
-    <t>cv-gender</t>
-  </si>
-  <si>
-    <t>CV Gender</t>
-  </si>
-  <si>
-    <t>Unified Medical Language System#C0079399, SNOMED CT#263495000, SNOMED CT#125676002, Unified Medical Language System#C1711339</t>
-  </si>
-  <si>
-    <t>cv-glucose-concentration-in-blood</t>
-  </si>
-  <si>
-    <t>CV Glucose Concentration In Blood</t>
-  </si>
-  <si>
-    <t>SNOMED CT#785671009, SNOMED CT#125676002, null#LP7057-5, SNOMED CT#67079006</t>
-  </si>
-  <si>
-    <t>cv-glucose-concentration-in-urine</t>
-  </si>
-  <si>
-    <t>CV Glucose Concentration In Urine</t>
-  </si>
-  <si>
-    <t>SNOMED CT#785671009, SNOMED CT#125676002, null#LP7681-2, SNOMED CT#246205007, SNOMED CT#67079006</t>
-  </si>
-  <si>
-    <t>rv-administrative-gender</t>
-  </si>
-  <si>
-    <t>RV Administrative Gender</t>
-  </si>
-  <si>
-    <t>Unified Medical Language System#C0079399, SNOMED CT#263495000, SNOMED CT#125676002, Unified Medical Language System#C1711339, Unified Medical Language System#C1550327</t>
-  </si>
-  <si>
-    <t>null#C1550327</t>
-  </si>
-  <si>
-    <t>integer</t>
-  </si>
-  <si>
-    <t>SNOMED CT#248153007, Unified Medical Language System#C0086582</t>
-  </si>
-  <si>
-    <t>SNOMED CT#248152002, Unified Medical Language System#C0086287</t>
-  </si>
-  <si>
-    <t>SNOMED CT#32570691000036108, Unified Medical Language System#C1704620, SNOMED CT#74964007</t>
-  </si>
-  <si>
-    <t>rv-age-in-age-Classes</t>
-  </si>
-  <si>
-    <t>RV Age In Age Classes</t>
-  </si>
-  <si>
-    <t>SNOMED CT#397669002, SNOMED CT#424144002, SNOMED CT#125676002, Unified Medical Language System#C1709336</t>
-  </si>
-  <si>
-    <t>Unified Medical Language System#C0021289</t>
-  </si>
-  <si>
-    <t>Unified Medical Language System#C0021270</t>
-  </si>
-  <si>
-    <t>Unified Medical Language System#C0008100</t>
-  </si>
-  <si>
-    <t>Unified Medical Language System#C0008059</t>
-  </si>
-  <si>
-    <t>Unified Medical Language System#C0205653</t>
-  </si>
-  <si>
-    <t>Unified Medical Language System#C0001675</t>
-  </si>
-  <si>
-    <t>Unified Medical Language System#C0205847</t>
-  </si>
-  <si>
-    <t>Unified Medical Language System#C0001792</t>
-  </si>
-  <si>
-    <t>Unified Medical Language System#C0001795</t>
-  </si>
-  <si>
-    <t>rv-age-in-years</t>
-  </si>
-  <si>
-    <t>RV Age In Years</t>
-  </si>
-  <si>
-    <t>SNOMED CT#397669002, SNOMED CT#424144002, SNOMED CT#125676002, SNOMED CT#246205007</t>
-  </si>
-  <si>
-    <t>rv-biological-sex</t>
-  </si>
-  <si>
-    <t>RV Biological Sex</t>
-  </si>
-  <si>
-    <t>null#734000001</t>
-  </si>
-  <si>
-    <t>rv-body-height</t>
-  </si>
-  <si>
-    <t>RV Body Height</t>
-  </si>
-  <si>
-    <t>Unified Medical Language System#C0003188, SNOMED CT#1153637007, SNOMED CT#125676002, SNOMED CT#246205007</t>
-  </si>
-  <si>
-    <t>rv-body-weight</t>
-  </si>
-  <si>
-    <t>RV Body Weight</t>
-  </si>
-  <si>
-    <t>Unified Medical Language System#C0003188, SNOMED CT#27113001, SNOMED CT#125676002, SNOMED CT#246205007</t>
-  </si>
-  <si>
-    <t>rv-creatinine-mass-concentration</t>
-  </si>
-  <si>
-    <t>RV Creatinine Mass Concentration</t>
-  </si>
-  <si>
-    <t>SNOMED CT#365756002, SNOMED CT#125676002, null#LP7057-5, null#LP7479-1, null#LP7567-3, SNOMED CT#246205007</t>
-  </si>
-  <si>
-    <t>null#2160-0</t>
-  </si>
-  <si>
-    <t>rv-creatinine-mole-concentration</t>
-  </si>
-  <si>
-    <t>RV Creatinine Mole Concentration</t>
+    <t>null#2161-8</t>
+  </si>
+  <si>
+    <t>rv-creatinine-mole-concentration-in-serum-or-plasma</t>
+  </si>
+  <si>
+    <t>RV Creatinine Mole Concentration In Serum Or Plasma</t>
+  </si>
+  <si>
+    <t>rv-creatinine-mole-concentration-in-urine</t>
+  </si>
+  <si>
+    <t>RV Creatinine Mole Concentration In Urine</t>
+  </si>
+  <si>
+    <t>null#14683-7</t>
   </si>
   <si>
     <t>rv-date-of-birth</t>
@@ -1531,7 +1552,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K176"/>
+  <dimension ref="A1:K178"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -6565,7 +6586,7 @@
         <v>16</v>
       </c>
       <c r="H144" t="s" s="2">
-        <v>17</v>
+        <v>175</v>
       </c>
       <c r="I144" t="s" s="2">
         <v>18</v>
@@ -6740,16 +6761,16 @@
         <v>14</v>
       </c>
       <c r="H149" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I149" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J149" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K149" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="I149" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J149" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K149" t="s" s="2">
-        <v>419</v>
       </c>
     </row>
     <row r="150">
@@ -6775,7 +6796,7 @@
         <v>14</v>
       </c>
       <c r="H150" t="s" s="2">
-        <v>418</v>
+        <v>17</v>
       </c>
       <c r="I150" t="s" s="2">
         <v>18</v>
@@ -6784,7 +6805,7 @@
         <v>14</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="151">
@@ -6810,7 +6831,7 @@
         <v>14</v>
       </c>
       <c r="H151" t="s" s="2">
-        <v>418</v>
+        <v>17</v>
       </c>
       <c r="I151" t="s" s="2">
         <v>18</v>
@@ -6819,18 +6840,18 @@
         <v>14</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="B152" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="B152" t="s" s="2">
+      <c r="C152" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="C152" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="D152" t="s" s="2">
         <v>14</v>
@@ -6862,7 +6883,7 @@
         <v>14</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C153" t="s" s="2">
         <v>14</v>
@@ -6880,7 +6901,7 @@
         <v>14</v>
       </c>
       <c r="H153" t="s" s="2">
-        <v>17</v>
+        <v>424</v>
       </c>
       <c r="I153" t="s" s="2">
         <v>18</v>
@@ -6897,7 +6918,7 @@
         <v>14</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C154" t="s" s="2">
         <v>14</v>
@@ -6932,7 +6953,7 @@
         <v>14</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C155" t="s" s="2">
         <v>14</v>
@@ -6967,7 +6988,7 @@
         <v>14</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C156" t="s" s="2">
         <v>14</v>
@@ -7002,7 +7023,7 @@
         <v>14</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C157" t="s" s="2">
         <v>14</v>
@@ -7037,7 +7058,7 @@
         <v>14</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C158" t="s" s="2">
         <v>14</v>
@@ -7072,7 +7093,7 @@
         <v>14</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C159" t="s" s="2">
         <v>14</v>
@@ -7107,7 +7128,7 @@
         <v>14</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C160" t="s" s="2">
         <v>14</v>
@@ -7142,7 +7163,7 @@
         <v>14</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C161" t="s" s="2">
         <v>14</v>
@@ -7265,16 +7286,16 @@
         <v>14</v>
       </c>
       <c r="H164" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I164" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J164" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K164" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="I164" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J164" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K164" t="s" s="2">
-        <v>419</v>
       </c>
     </row>
     <row r="165">
@@ -7300,7 +7321,7 @@
         <v>14</v>
       </c>
       <c r="H165" t="s" s="2">
-        <v>418</v>
+        <v>17</v>
       </c>
       <c r="I165" t="s" s="2">
         <v>18</v>
@@ -7309,7 +7330,7 @@
         <v>14</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="166">
@@ -7425,13 +7446,13 @@
         <v>451</v>
       </c>
       <c r="C169" t="s" s="2">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="D169" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E169" t="s" s="2">
-        <v>163</v>
+        <v>453</v>
       </c>
       <c r="F169" t="s" s="2">
         <v>15</v>
@@ -7454,19 +7475,19 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C170" t="s" s="2">
-        <v>404</v>
+        <v>448</v>
       </c>
       <c r="D170" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E170" t="s" s="2">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="F170" t="s" s="2">
         <v>15</v>
@@ -7489,19 +7510,19 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C171" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D171" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E171" t="s" s="2">
-        <v>195</v>
+        <v>458</v>
       </c>
       <c r="F171" t="s" s="2">
         <v>15</v>
@@ -7524,19 +7545,19 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C172" t="s" s="2">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D172" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E172" t="s" s="2">
-        <v>247</v>
+        <v>125</v>
       </c>
       <c r="F172" t="s" s="2">
         <v>15</v>
@@ -7545,7 +7566,7 @@
         <v>16</v>
       </c>
       <c r="H172" t="s" s="2">
-        <v>17</v>
+        <v>175</v>
       </c>
       <c r="I172" t="s" s="2">
         <v>18</v>
@@ -7559,28 +7580,28 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>14</v>
+        <v>461</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="C173" t="s" s="2">
-        <v>14</v>
+        <v>463</v>
       </c>
       <c r="D173" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E173" t="s" s="2">
-        <v>14</v>
+        <v>195</v>
       </c>
       <c r="F173" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G173" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H173" t="s" s="2">
-        <v>418</v>
+        <v>17</v>
       </c>
       <c r="I173" t="s" s="2">
         <v>18</v>
@@ -7589,33 +7610,33 @@
         <v>14</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>419</v>
+        <v>14</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>14</v>
+        <v>464</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="C174" t="s" s="2">
-        <v>14</v>
+        <v>407</v>
       </c>
       <c r="D174" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E174" t="s" s="2">
-        <v>14</v>
+        <v>247</v>
       </c>
       <c r="F174" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G174" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H174" t="s" s="2">
-        <v>418</v>
+        <v>17</v>
       </c>
       <c r="I174" t="s" s="2">
         <v>18</v>
@@ -7624,7 +7645,7 @@
         <v>14</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>420</v>
+        <v>14</v>
       </c>
     </row>
     <row r="175">
@@ -7632,7 +7653,7 @@
         <v>14</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="C175" t="s" s="2">
         <v>14</v>
@@ -7650,50 +7671,120 @@
         <v>14</v>
       </c>
       <c r="H175" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I175" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J175" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K175" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="I175" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J175" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K175" t="s" s="2">
-        <v>250</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>459</v>
+        <v>14</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="C176" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D176" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E176" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F176" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G176" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H176" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I176" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J176" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K176" t="s" s="2">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B177" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="C177" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D177" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E177" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F177" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G177" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H177" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I177" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J177" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K177" t="s" s="2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="B178" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="C178" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="D176" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E176" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="F176" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="G176" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H176" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="I176" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J176" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K176" t="s" s="2">
+      <c r="D178" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E178" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="F178" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G178" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H178" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="I178" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J178" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K178" t="s" s="2">
         <v>14</v>
       </c>
     </row>

--- a/output/observations-summary.xlsx
+++ b/output/observations-summary.xlsx
@@ -53,7 +53,7 @@
     <t>C Age</t>
   </si>
   <si>
-    <t>SNOMED CT#397669002</t>
+    <t>Unified Medical Language System#C0001779, SNOMED CT#397669002</t>
   </si>
   <si>
     <t/>
@@ -95,7 +95,7 @@
     <t>C Blood</t>
   </si>
   <si>
-    <t>SNOMED CT#371439000, null#LP7057-5</t>
+    <t>SNOMED CT#371439000, LOINC#LP7057-5</t>
   </si>
   <si>
     <t>c-body-height</t>
@@ -149,7 +149,7 @@
     <t>C Current Chronological Age</t>
   </si>
   <si>
-    <t>SNOMED CT#397669002, SNOMED CT#424144002</t>
+    <t>Unified Medical Language System#C0001779, SNOMED CT#397669002, Unified Medical Language System#C2598519, SNOMED CT#424144002</t>
   </si>
   <si>
     <t>c-date-of-birth</t>
@@ -329,7 +329,7 @@
     <t>C Serum Or Plasma</t>
   </si>
   <si>
-    <t>SNOMED CT#371439000, null#LP7567-3, null#LP7479-1</t>
+    <t>SNOMED CT#371439000, LOINC#LP7567-3, LOINC#LP7479-1</t>
   </si>
   <si>
     <t>c-specimen-type</t>
@@ -356,7 +356,7 @@
     <t>C Urine</t>
   </si>
   <si>
-    <t>SNOMED CT#371439000, null#LP7681-2</t>
+    <t>SNOMED CT#371439000, LOINC#LP7681-2</t>
   </si>
   <si>
     <t>cde-age</t>
@@ -842,10 +842,10 @@
     <t>SNOMED CT#428041000124106</t>
   </si>
   <si>
-    <t>SNOMED CT#8517006, null#LA15920-4</t>
-  </si>
-  <si>
-    <t>SNOMED CT#8392000, null#LA18978-9</t>
+    <t>SNOMED CT#8517006, LOINC#LA15920-4</t>
+  </si>
+  <si>
+    <t>SNOMED CT#8392000, LOINC#LA18978-9</t>
   </si>
   <si>
     <t>cde-tobacco-smoking-status-yes-or-no</t>
@@ -1172,7 +1172,7 @@
     <t>CV Age Counted</t>
   </si>
   <si>
-    <t>SNOMED CT#397669002, SNOMED CT#424144002, SNOMED CT#125676002, Unified Medical Language System#C0750480</t>
+    <t>Unified Medical Language System#C0001779, SNOMED CT#397669002, Unified Medical Language System#C2598519, SNOMED CT#424144002, SNOMED CT#125676002, Unified Medical Language System#C0750480</t>
   </si>
   <si>
     <t>cv-biological-sex</t>
@@ -1208,7 +1208,7 @@
     <t>CV Creatinine Concentration In Blood</t>
   </si>
   <si>
-    <t>SNOMED CT#365756002, SNOMED CT#125676002, null#LP7057-5</t>
+    <t>SNOMED CT#365756002, SNOMED CT#125676002, LOINC#LP7057-5</t>
   </si>
   <si>
     <t>cv-creatinine-concentration-in-urine</t>
@@ -1217,7 +1217,7 @@
     <t>CV Creatinine Concentration In Urine</t>
   </si>
   <si>
-    <t>SNOMED CT#365756002, SNOMED CT#125676002, null#LP7681-2</t>
+    <t>SNOMED CT#365756002, SNOMED CT#125676002, LOINC#LP7681-2</t>
   </si>
   <si>
     <t>cv-date-of-birth</t>
@@ -1244,7 +1244,7 @@
     <t>CV Glucose Concentration In Blood</t>
   </si>
   <si>
-    <t>SNOMED CT#785671009, SNOMED CT#125676002, null#LP7057-5, SNOMED CT#67079006</t>
+    <t>SNOMED CT#785671009, SNOMED CT#125676002, LOINC#LP7057-5, SNOMED CT#67079006</t>
   </si>
   <si>
     <t>cv-glucose-concentration-in-urine</t>
@@ -1253,7 +1253,7 @@
     <t>CV Glucose Concentration In Urine</t>
   </si>
   <si>
-    <t>SNOMED CT#785671009, SNOMED CT#125676002, null#LP7681-2, SNOMED CT#246205007, SNOMED CT#67079006</t>
+    <t>SNOMED CT#785671009, SNOMED CT#125676002, LOINC#LP7681-2, SNOMED CT#246205007, SNOMED CT#67079006</t>
   </si>
   <si>
     <t>rv-administrative-gender</t>
@@ -1283,7 +1283,7 @@
     <t>RV Age In Age Classes</t>
   </si>
   <si>
-    <t>SNOMED CT#397669002, SNOMED CT#424144002, SNOMED CT#125676002, Unified Medical Language System#C0750480, Unified Medical Language System#C1709336</t>
+    <t>Unified Medical Language System#C0001779, SNOMED CT#397669002, Unified Medical Language System#C2598519, SNOMED CT#424144002, SNOMED CT#125676002, Unified Medical Language System#C0750480, Unified Medical Language System#C1709336</t>
   </si>
   <si>
     <t>integer</t>
@@ -1322,7 +1322,7 @@
     <t>RV Age In Years</t>
   </si>
   <si>
-    <t>SNOMED CT#397669002, SNOMED CT#424144002, SNOMED CT#125676002, Unified Medical Language System#C0750480, SNOMED CT#246205007</t>
+    <t>Unified Medical Language System#C0001779, SNOMED CT#397669002, Unified Medical Language System#C2598519, SNOMED CT#424144002, SNOMED CT#125676002, Unified Medical Language System#C0750480, SNOMED CT#246205007</t>
   </si>
   <si>
     <t>rv-biological-sex</t>
@@ -1358,7 +1358,7 @@
     <t>RV Creatinine Mass Concentration In Serum Or Plasma</t>
   </si>
   <si>
-    <t>SNOMED CT#365756002, SNOMED CT#125676002, null#LP7057-5, null#LP7479-1, null#LP7567-3, SNOMED CT#246205007</t>
+    <t>SNOMED CT#365756002, SNOMED CT#125676002, LOINC#LP7057-5, LOINC#LP7479-1, LOINC#LP7567-3, SNOMED CT#246205007</t>
   </si>
   <si>
     <t>null#2160-0</t>
@@ -1370,7 +1370,7 @@
     <t>RV Creatinine Mass Concentration In Urine</t>
   </si>
   <si>
-    <t>SNOMED CT#365756002, SNOMED CT#125676002, null#LP7681-2, SNOMED CT#246205007</t>
+    <t>SNOMED CT#365756002, SNOMED CT#125676002, LOINC#LP7681-2, SNOMED CT#246205007</t>
   </si>
   <si>
     <t>null#2161-8</t>
@@ -1403,7 +1403,7 @@
     <t>RV Glucose Mole Concentration</t>
   </si>
   <si>
-    <t>SNOMED CT#785671009, SNOMED CT#125676002, null#LP7057-5, SNOMED CT#67079006, null#LP7479-1, null#LP7567-3, SNOMED CT#246205007</t>
+    <t>SNOMED CT#785671009, SNOMED CT#125676002, LOINC#LP7057-5, SNOMED CT#67079006, LOINC#LP7479-1, LOINC#LP7567-3, SNOMED CT#246205007</t>
   </si>
   <si>
     <t>rv-sex-assigned-at-birth</t>

--- a/output/observations-summary.xlsx
+++ b/output/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1958" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1969" uniqueCount="471">
   <si>
     <t>Profile</t>
   </si>
@@ -1316,13 +1316,19 @@
     <t>Unified Medical Language System#C0001795</t>
   </si>
   <si>
+    <t>rv-age-in-months</t>
+  </si>
+  <si>
+    <t>RV Age In Months</t>
+  </si>
+  <si>
+    <t>Unified Medical Language System#C0001779, SNOMED CT#397669002, Unified Medical Language System#C2598519, SNOMED CT#424144002, SNOMED CT#125676002, Unified Medical Language System#C0750480, SNOMED CT#246205007</t>
+  </si>
+  <si>
     <t>rv-age-in-years</t>
   </si>
   <si>
     <t>RV Age In Years</t>
-  </si>
-  <si>
-    <t>Unified Medical Language System#C0001779, SNOMED CT#397669002, Unified Medical Language System#C2598519, SNOMED CT#424144002, SNOMED CT#125676002, Unified Medical Language System#C0750480, SNOMED CT#246205007</t>
   </si>
   <si>
     <t>rv-biological-sex</t>
@@ -1552,7 +1558,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K178"/>
+  <dimension ref="A1:K179"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -7236,13 +7242,13 @@
         <v>438</v>
       </c>
       <c r="C163" t="s" s="2">
-        <v>407</v>
+        <v>436</v>
       </c>
       <c r="D163" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E163" t="s" s="2">
-        <v>439</v>
+        <v>118</v>
       </c>
       <c r="F163" t="s" s="2">
         <v>15</v>
@@ -7265,25 +7271,25 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>14</v>
+        <v>439</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C164" t="s" s="2">
-        <v>14</v>
+        <v>407</v>
       </c>
       <c r="D164" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E164" t="s" s="2">
-        <v>14</v>
+        <v>441</v>
       </c>
       <c r="F164" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G164" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H164" t="s" s="2">
         <v>17</v>
@@ -7295,7 +7301,7 @@
         <v>14</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>418</v>
+        <v>14</v>
       </c>
     </row>
     <row r="165">
@@ -7303,7 +7309,7 @@
         <v>14</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C165" t="s" s="2">
         <v>14</v>
@@ -7330,30 +7336,30 @@
         <v>14</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B166" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="B166" t="s" s="2">
-        <v>441</v>
-      </c>
       <c r="C166" t="s" s="2">
-        <v>442</v>
+        <v>14</v>
       </c>
       <c r="D166" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E166" t="s" s="2">
-        <v>136</v>
+        <v>14</v>
       </c>
       <c r="F166" t="s" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G166" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H166" t="s" s="2">
         <v>17</v>
@@ -7365,24 +7371,24 @@
         <v>14</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>14</v>
+        <v>419</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="B167" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="B167" t="s" s="2">
+      <c r="C167" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="C167" t="s" s="2">
-        <v>445</v>
-      </c>
       <c r="D167" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E167" t="s" s="2">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="F167" t="s" s="2">
         <v>15</v>
@@ -7405,19 +7411,19 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="B168" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="B168" t="s" s="2">
+      <c r="C168" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="C168" t="s" s="2">
-        <v>448</v>
-      </c>
       <c r="D168" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E168" t="s" s="2">
-        <v>449</v>
+        <v>144</v>
       </c>
       <c r="F168" t="s" s="2">
         <v>15</v>
@@ -7440,19 +7446,19 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="B169" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="C169" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="B169" t="s" s="2">
+      <c r="D169" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E169" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="C169" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="D169" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E169" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="F169" t="s" s="2">
         <v>15</v>
@@ -7475,19 +7481,19 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="B170" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="C170" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="B170" t="s" s="2">
+      <c r="D170" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E170" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="C170" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="D170" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E170" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="F170" t="s" s="2">
         <v>15</v>
@@ -7516,13 +7522,13 @@
         <v>457</v>
       </c>
       <c r="C171" t="s" s="2">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D171" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E171" t="s" s="2">
-        <v>458</v>
+        <v>163</v>
       </c>
       <c r="F171" t="s" s="2">
         <v>15</v>
@@ -7545,20 +7551,20 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="B172" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="B172" t="s" s="2">
+      <c r="C172" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="D172" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E172" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="C172" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="D172" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E172" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="F172" t="s" s="2">
         <v>15</v>
       </c>
@@ -7566,7 +7572,7 @@
         <v>16</v>
       </c>
       <c r="H172" t="s" s="2">
-        <v>175</v>
+        <v>17</v>
       </c>
       <c r="I172" t="s" s="2">
         <v>18</v>
@@ -7586,13 +7592,13 @@
         <v>462</v>
       </c>
       <c r="C173" t="s" s="2">
-        <v>463</v>
+        <v>404</v>
       </c>
       <c r="D173" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E173" t="s" s="2">
-        <v>195</v>
+        <v>125</v>
       </c>
       <c r="F173" t="s" s="2">
         <v>15</v>
@@ -7601,7 +7607,7 @@
         <v>16</v>
       </c>
       <c r="H173" t="s" s="2">
-        <v>17</v>
+        <v>175</v>
       </c>
       <c r="I173" t="s" s="2">
         <v>18</v>
@@ -7615,19 +7621,19 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="B174" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="B174" t="s" s="2">
+      <c r="C174" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="C174" t="s" s="2">
-        <v>407</v>
-      </c>
       <c r="D174" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E174" t="s" s="2">
-        <v>247</v>
+        <v>195</v>
       </c>
       <c r="F174" t="s" s="2">
         <v>15</v>
@@ -7650,25 +7656,25 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>14</v>
+        <v>466</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C175" t="s" s="2">
-        <v>14</v>
+        <v>407</v>
       </c>
       <c r="D175" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E175" t="s" s="2">
-        <v>14</v>
+        <v>247</v>
       </c>
       <c r="F175" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G175" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H175" t="s" s="2">
         <v>17</v>
@@ -7680,7 +7686,7 @@
         <v>14</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>418</v>
+        <v>14</v>
       </c>
     </row>
     <row r="176">
@@ -7688,7 +7694,7 @@
         <v>14</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C176" t="s" s="2">
         <v>14</v>
@@ -7715,7 +7721,7 @@
         <v>14</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="177">
@@ -7723,7 +7729,7 @@
         <v>14</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C177" t="s" s="2">
         <v>14</v>
@@ -7750,41 +7756,76 @@
         <v>14</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>250</v>
+        <v>419</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>466</v>
+        <v>14</v>
       </c>
       <c r="B178" t="s" s="2">
         <v>467</v>
       </c>
       <c r="C178" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D178" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E178" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F178" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G178" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H178" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I178" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J178" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K178" t="s" s="2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="B179" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="C179" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="D178" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E178" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="F178" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="G178" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H178" t="s" s="2">
+      <c r="D179" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E179" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="F179" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G179" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H179" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="I178" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J178" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K178" t="s" s="2">
+      <c r="I179" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J179" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K179" t="s" s="2">
         <v>14</v>
       </c>
     </row>

--- a/output/observations-summary.xlsx
+++ b/output/observations-summary.xlsx
@@ -53,7 +53,7 @@
     <t>C Age</t>
   </si>
   <si>
-    <t>Unified Medical Language System#C0001779, SNOMED CT#397669002</t>
+    <t>null#C0001779, SNOMED CT#397669002</t>
   </si>
   <si>
     <t/>
@@ -77,7 +77,7 @@
     <t>C Anthropometry</t>
   </si>
   <si>
-    <t>Unified Medical Language System#C0003188</t>
+    <t>null#C0003188</t>
   </si>
   <si>
     <t>c-biological-sex</t>
@@ -86,7 +86,7 @@
     <t>C Biological Sex</t>
   </si>
   <si>
-    <t>Unified Medical Language System#C0079399, SNOMED CT#263495000, Unified Medical Language System#C1522384, SNOMED CT#734000001</t>
+    <t>null#C0079399, SNOMED CT#263495000, null#C1522384, SNOMED CT#734000001</t>
   </si>
   <si>
     <t>c-blood</t>
@@ -104,7 +104,7 @@
     <t>C Body Height</t>
   </si>
   <si>
-    <t>Unified Medical Language System#C0003188, SNOMED CT#1153637007</t>
+    <t>null#C0003188, SNOMED CT#1153637007</t>
   </si>
   <si>
     <t>c-body-weight</t>
@@ -113,7 +113,7 @@
     <t>C Body Weight</t>
   </si>
   <si>
-    <t>Unified Medical Language System#C0003188, SNOMED CT#27113001</t>
+    <t>null#C0003188, SNOMED CT#27113001</t>
   </si>
   <si>
     <t>c-clinical-diagnosis</t>
@@ -131,7 +131,7 @@
     <t>C Count</t>
   </si>
   <si>
-    <t>Unified Medical Language System#C0457570, Unified Medical Language System#C0750480</t>
+    <t>null#C0457570, null#C0750480</t>
   </si>
   <si>
     <t>c-creatinine</t>
@@ -149,7 +149,7 @@
     <t>C Current Chronological Age</t>
   </si>
   <si>
-    <t>Unified Medical Language System#C0001779, SNOMED CT#397669002, Unified Medical Language System#C2598519, SNOMED CT#424144002</t>
+    <t>null#C0001779, SNOMED CT#397669002, null#C2598519, SNOMED CT#424144002</t>
   </si>
   <si>
     <t>c-date-of-birth</t>
@@ -167,7 +167,7 @@
     <t>C Enumeration</t>
   </si>
   <si>
-    <t>Unified Medical Language System#C1707927</t>
+    <t>null#C1707927</t>
   </si>
   <si>
     <t>c-ethnicity</t>
@@ -185,7 +185,7 @@
     <t>C Female</t>
   </si>
   <si>
-    <t>Unified Medical Language System#C0079399, SNOMED CT#263495000, Unified Medical Language System#C1522384, SNOMED CT#734000001, SNOMED CT#248152002</t>
+    <t>null#C0079399, SNOMED CT#263495000, null#C1522384, SNOMED CT#734000001, SNOMED CT#248152002</t>
   </si>
   <si>
     <t>c-finding-of-creatinine-level</t>
@@ -212,7 +212,7 @@
     <t>C Gender</t>
   </si>
   <si>
-    <t>Unified Medical Language System#C0079399, SNOMED CT#263495000</t>
+    <t>null#C0079399, SNOMED CT#263495000</t>
   </si>
   <si>
     <t>c-glucose</t>
@@ -248,7 +248,7 @@
     <t>C Intersex</t>
   </si>
   <si>
-    <t>Unified Medical Language System#C0079399, SNOMED CT#263495000, Unified Medical Language System#C1522384, SNOMED CT#734000001, SNOMED CT#32570691000036108</t>
+    <t>null#C0079399, SNOMED CT#263495000, null#C1522384, SNOMED CT#734000001, SNOMED CT#32570691000036108</t>
   </si>
   <si>
     <t>c-interval-scale</t>
@@ -257,7 +257,7 @@
     <t>C Interval Scale</t>
   </si>
   <si>
-    <t>Unified Medical Language System#C0457570, Unified Medical Language System#C1708544</t>
+    <t>null#C0457570, null#C1708544</t>
   </si>
   <si>
     <t>c-male</t>
@@ -266,7 +266,7 @@
     <t>C Male</t>
   </si>
   <si>
-    <t>Unified Medical Language System#C0079399, SNOMED CT#263495000, Unified Medical Language System#C1522384, SNOMED CT#734000001, SNOMED CT#248153007</t>
+    <t>null#C0079399, SNOMED CT#263495000, null#C1522384, SNOMED CT#734000001, SNOMED CT#248153007</t>
   </si>
   <si>
     <t>c-nominal-scale</t>
@@ -275,7 +275,7 @@
     <t>C Nominal Scale</t>
   </si>
   <si>
-    <t>Unified Medical Language System#C0457570, Unified Medical Language System#C1711339</t>
+    <t>null#C0457570, null#C1711339</t>
   </si>
   <si>
     <t>c-ordinal-scale</t>
@@ -284,7 +284,7 @@
     <t>C Ordinal Scale</t>
   </si>
   <si>
-    <t>Unified Medical Language System#C0457570, Unified Medical Language System#C1709336</t>
+    <t>null#C0457570, null#C1709336</t>
   </si>
   <si>
     <t>c-persons</t>
@@ -302,7 +302,7 @@
     <t>C Quantity</t>
   </si>
   <si>
-    <t>Unified Medical Language System#C0457570, SNOMED CT#246205007</t>
+    <t>null#C0457570, SNOMED CT#246205007</t>
   </si>
   <si>
     <t>c-ratio-scale</t>
@@ -311,7 +311,7 @@
     <t>C Ratio Scale</t>
   </si>
   <si>
-    <t>Unified Medical Language System#C0457570, Unified Medical Language System#C1709842</t>
+    <t>null#C0457570, null#C1709842</t>
   </si>
   <si>
     <t>c-scale-type</t>
@@ -320,7 +320,7 @@
     <t>C Scale Type</t>
   </si>
   <si>
-    <t>Unified Medical Language System#C0457570</t>
+    <t>null#C0457570</t>
   </si>
   <si>
     <t>c-serum-or-plasma</t>
@@ -398,7 +398,7 @@
     <t>CDE Blood Pressure Diastolic</t>
   </si>
   <si>
-    <t>Unified Medical Language System#C0005823, Unified Medical Language System#C0871470</t>
+    <t>null#C0005823, null#C0871470</t>
   </si>
   <si>
     <t>null#8462-4</t>
@@ -419,7 +419,7 @@
     <t>CDE Body Height</t>
   </si>
   <si>
-    <t>Unified Medical Language System#C0003188, Unified Medical Language System#C0005890</t>
+    <t>null#C0003188, null#C0005890</t>
   </si>
   <si>
     <t>null#8302-2</t>
@@ -431,7 +431,7 @@
     <t>CDE Body Mass Index</t>
   </si>
   <si>
-    <t>Unified Medical Language System#C0003188, Unified Medical Language System#C1305855</t>
+    <t>null#C0003188, null#C1305855</t>
   </si>
   <si>
     <t>null#39156-5</t>
@@ -443,7 +443,7 @@
     <t>CDE Body Weight</t>
   </si>
   <si>
-    <t>Unified Medical Language System#C0003188, Unified Medical Language System#C0005910</t>
+    <t>null#C0003188, null#C0005910</t>
   </si>
   <si>
     <t>null#29463-7</t>
@@ -455,7 +455,7 @@
     <t>CDE Calcium In Serum Or Plasma Mass Concentration</t>
   </si>
   <si>
-    <t>Unified Medical Language System#C0201992, Unified Medical Language System#C0364129, Unified Medical Language System#C0364127</t>
+    <t>null#C0201992, null#C0364129, null#C0364127</t>
   </si>
   <si>
     <t>null#17861-6</t>
@@ -476,7 +476,7 @@
     <t>CDE Chloride In Serum Or Plasma Mole Concentration</t>
   </si>
   <si>
-    <t>Unified Medical Language System#C0201992, Unified Medical Language System#C0364201</t>
+    <t>null#C0201992, null#C0364201</t>
   </si>
   <si>
     <t>null#2075-0</t>
@@ -488,7 +488,7 @@
     <t>CDE cholesterol Inserum Or Plasma Mole Conentration</t>
   </si>
   <si>
-    <t>Unified Medical Language System#C0797822</t>
+    <t>null#C0797822</t>
   </si>
   <si>
     <t>null#14927-8</t>
@@ -500,7 +500,7 @@
     <t>CDE Creatinine In Serum Or Plasma Mole Concentration</t>
   </si>
   <si>
-    <t>Unified Medical Language System#C2924074, Unified Medical Language System#C0797857</t>
+    <t>null#C2924074, null#C0797857</t>
   </si>
   <si>
     <t>null#14682-9</t>
@@ -533,7 +533,7 @@
     <t>CDE Date Of Diagnosis</t>
   </si>
   <si>
-    <t>Unified Medical Language System#C2585732, Unified Medical Language System#C2316983</t>
+    <t>null#C2585732, null#C2316983</t>
   </si>
   <si>
     <t>null#432213005</t>
@@ -560,7 +560,7 @@
     <t>CDE Erythrocytes In Blood Count Per Volume</t>
   </si>
   <si>
-    <t>Unified Medical Language System#C0942422, Unified Medical Language System#C1114250</t>
+    <t>null#C0942422, null#C1114250</t>
   </si>
   <si>
     <t>null#26453-1</t>
@@ -578,16 +578,16 @@
     <t>null#364699009</t>
   </si>
   <si>
-    <t>SNOMED CT#14045001, Unified Medical Language System#C0043157</t>
-  </si>
-  <si>
-    <t>null#C77811, Unified Medical Language System#C0240321</t>
-  </si>
-  <si>
-    <t>SNOMED CT#18167009, Unified Medical Language System#C0085756</t>
-  </si>
-  <si>
-    <t>SNOMED CT#315280000, Unified Medical Language System#C0078988</t>
+    <t>SNOMED CT#14045001, null#C0043157</t>
+  </si>
+  <si>
+    <t>null#C77811, null#C0240321</t>
+  </si>
+  <si>
+    <t>SNOMED CT#18167009, null#C0085756</t>
+  </si>
+  <si>
+    <t>SNOMED CT#315280000, null#C0078988</t>
   </si>
   <si>
     <t>cde-glucose-in-serum-or-plasma-mole-concentration</t>
@@ -596,7 +596,7 @@
     <t>CDE Glucose In Serum Or Plasma Mole Concentration</t>
   </si>
   <si>
-    <t>Unified Medical Language System#C0798246</t>
+    <t>null#C0798246</t>
   </si>
   <si>
     <t>null#14749-6</t>
@@ -608,7 +608,7 @@
     <t>CDE heart Rate Beats Per Minute</t>
   </si>
   <si>
-    <t>Unified Medical Language System#C0018810</t>
+    <t>null#C0018810</t>
   </si>
   <si>
     <t>null#8867-4</t>
@@ -620,7 +620,7 @@
     <t>CDE Hematocrit Of Blood</t>
   </si>
   <si>
-    <t>Unified Medical Language System#C0803379</t>
+    <t>null#C0803379</t>
   </si>
   <si>
     <t>null#20570-8</t>
@@ -632,7 +632,7 @@
     <t>CDE Hemoglobin In Blood Mole Concentration</t>
   </si>
   <si>
-    <t>Unified Medical Language System#C2923664, Unified Medical Language System#C0362930</t>
+    <t>null#C2923664, null#C0362930</t>
   </si>
   <si>
     <t>null#59260-0</t>
@@ -644,7 +644,7 @@
     <t>CDE Hip Circumference</t>
   </si>
   <si>
-    <t>Unified Medical Language System#C0003188, Unified Medical Language System#C0562350</t>
+    <t>null#C0003188, null#C0562350</t>
   </si>
   <si>
     <t>null#284472007</t>
@@ -680,7 +680,7 @@
     <t>CDE Leukocytes In Blood Count Per Volume</t>
   </si>
   <si>
-    <t>Unified Medical Language System#C0945357, Unified Medical Language System#C1315523</t>
+    <t>null#C0945357, null#C1315523</t>
   </si>
   <si>
     <t>null#26464-8</t>
@@ -692,7 +692,7 @@
     <t>CDE Magnesium In Serum Or Plasma Mole Concentration</t>
   </si>
   <si>
-    <t>Unified Medical Language System#C0201992, Unified Medical Language System#C0364737</t>
+    <t>null#C0201992, null#C0364737</t>
   </si>
   <si>
     <t>null#2601-3</t>
@@ -704,7 +704,7 @@
     <t>CDE Mean Corpuscular Hemoglobin Level Entitic Mass</t>
   </si>
   <si>
-    <t>Unified Medical Language System#C0945625</t>
+    <t>null#C0945625</t>
   </si>
   <si>
     <t>null#28539-5</t>
@@ -716,7 +716,7 @@
     <t>CDE Mean Corpuscular Volume Entitic Volume</t>
   </si>
   <si>
-    <t>Unified Medical Language System#C1114281</t>
+    <t>null#C1114281</t>
   </si>
   <si>
     <t>null#30428-7</t>
@@ -728,7 +728,7 @@
     <t>CDE Phosphate In Serum Or Plasma Mole Concentration</t>
   </si>
   <si>
-    <t>Unified Medical Language System#C0201992, Unified Medical Language System#C0881764, Unified Medical Language System#C0796732</t>
+    <t>null#C0201992, null#C0881764, null#C0796732</t>
   </si>
   <si>
     <t>null#14879-1</t>
@@ -740,7 +740,7 @@
     <t>CDE Potassium In Serum Or Plasma Mole Concentration</t>
   </si>
   <si>
-    <t>Unified Medical Language System#C0201992, Unified Medical Language System#C0364961</t>
+    <t>null#C0201992, null#C0364961</t>
   </si>
   <si>
     <t>null#2823-3</t>
@@ -758,13 +758,13 @@
     <t>null#76689-9</t>
   </si>
   <si>
-    <t>SNOMED CT#248153007, Unified Medical Language System#C1706180</t>
-  </si>
-  <si>
-    <t>SNOMED CT#248152002, Unified Medical Language System#C0015780</t>
-  </si>
-  <si>
-    <t>SNOMED CT#32570691000036108, Unified Medical Language System#C1704620</t>
+    <t>SNOMED CT#248153007, null#C1706180</t>
+  </si>
+  <si>
+    <t>SNOMED CT#248152002, null#C0015780</t>
+  </si>
+  <si>
+    <t>SNOMED CT#32570691000036108, null#C1704620</t>
   </si>
   <si>
     <t>cde-sodium-in-serum-or-plasma-mole-concentration</t>
@@ -773,7 +773,7 @@
     <t>CDE Sodium In Serum Or Plasma Mole Concentration</t>
   </si>
   <si>
-    <t>Unified Medical Language System#C0201992, Unified Medical Language System#C0365091</t>
+    <t>null#C0201992, null#C0365091</t>
   </si>
   <si>
     <t>null#2951-2</t>
@@ -785,7 +785,7 @@
     <t>CDE Thrombocytes In Blood Count Per Volume</t>
   </si>
   <si>
-    <t>Unified Medical Language System#C0942474, Unified Medical Language System#C0944136, Unified Medical Language System#C1147891, Unified Medical Language System#C2359896, Unified Medical Language System#C1953883</t>
+    <t>null#C0942474, null#C0944136, null#C1147891, null#C2359896, null#C1953883</t>
   </si>
   <si>
     <t>null#26515-7</t>
@@ -860,7 +860,7 @@
     <t>CDE Triglyceride In Serum Or Plasma Mole Concentration</t>
   </si>
   <si>
-    <t>Unified Medical Language System#C3482280, Unified Medical Language System#C1114250</t>
+    <t>null#C3482280, null#C1114250</t>
   </si>
   <si>
     <t>cde-visit-date</t>
@@ -869,7 +869,7 @@
     <t>CDE Visit Date</t>
   </si>
   <si>
-    <t>Unified Medical Language System#C2585732, Unified Medical Language System#C1320303</t>
+    <t>null#C2585732, null#C1320303</t>
   </si>
   <si>
     <t>null#406543005</t>
@@ -881,7 +881,7 @@
     <t>CDE Waist Circumference</t>
   </si>
   <si>
-    <t>Unified Medical Language System#C0003188, Unified Medical Language System#C0455829</t>
+    <t>null#C0003188, null#C0455829</t>
   </si>
   <si>
     <t>null#276361009</t>
@@ -965,7 +965,7 @@
     <t>CLS UMLS Pressure Measurement</t>
   </si>
   <si>
-    <t>Unified Medical Language System#C0005823</t>
+    <t>null#C0005823</t>
   </si>
   <si>
     <t>cls-umls-body-height</t>
@@ -1016,7 +1016,7 @@
     <t>CLS UMLS Date Of Event</t>
   </si>
   <si>
-    <t>Unified Medical Language System#C2585732</t>
+    <t>null#C2585732</t>
   </si>
   <si>
     <t>cls-umls-diastolic-blood-pressure</t>
@@ -1031,7 +1031,7 @@
     <t>CLS UMLS Electrolyte Measurement</t>
   </si>
   <si>
-    <t>Unified Medical Language System#C0201992</t>
+    <t>null#C0201992</t>
   </si>
   <si>
     <t>cls-umls-glucose-level</t>
@@ -1070,7 +1070,7 @@
     <t>CLS UMLS Laboratory</t>
   </si>
   <si>
-    <t>Unified Medical Language System#C0022885</t>
+    <t>null#C0022885</t>
   </si>
   <si>
     <t>cls-umls-magnesium-level</t>
@@ -1085,7 +1085,7 @@
     <t>CLS UMLS Mean Corpuscular Hemoglobin Concentration</t>
   </si>
   <si>
-    <t>Unified Medical Language System#C2923848</t>
+    <t>null#C2923848</t>
   </si>
   <si>
     <t>cls-umls-mean-corpuscular-hemoglobin-level</t>
@@ -1172,7 +1172,7 @@
     <t>CV Age Counted</t>
   </si>
   <si>
-    <t>Unified Medical Language System#C0001779, SNOMED CT#397669002, Unified Medical Language System#C2598519, SNOMED CT#424144002, SNOMED CT#125676002, Unified Medical Language System#C0750480</t>
+    <t>null#C0001779, SNOMED CT#397669002, null#C2598519, SNOMED CT#424144002, SNOMED CT#125676002, null#C0750480</t>
   </si>
   <si>
     <t>cv-biological-sex</t>
@@ -1181,7 +1181,7 @@
     <t>CV Biological Sex</t>
   </si>
   <si>
-    <t>Unified Medical Language System#C0079399, SNOMED CT#263495000, Unified Medical Language System#C1522384, SNOMED CT#734000001, SNOMED CT#125676002, Unified Medical Language System#C1711339</t>
+    <t>null#C0079399, SNOMED CT#263495000, null#C1522384, SNOMED CT#734000001, SNOMED CT#125676002, null#C1711339</t>
   </si>
   <si>
     <t>cv-body-height</t>
@@ -1190,7 +1190,7 @@
     <t>CV Body Height</t>
   </si>
   <si>
-    <t>Unified Medical Language System#C0003188, SNOMED CT#1153637007, SNOMED CT#125676002</t>
+    <t>null#C0003188, SNOMED CT#1153637007, SNOMED CT#125676002</t>
   </si>
   <si>
     <t>cv-body-weight</t>
@@ -1199,7 +1199,7 @@
     <t>CV Body Weight</t>
   </si>
   <si>
-    <t>Unified Medical Language System#C0003188, SNOMED CT#27113001, SNOMED CT#125676002</t>
+    <t>null#C0003188, SNOMED CT#27113001, SNOMED CT#125676002</t>
   </si>
   <si>
     <t>cv-creatinine-concentration-in-blood</t>
@@ -1235,7 +1235,7 @@
     <t>CV Gender</t>
   </si>
   <si>
-    <t>Unified Medical Language System#C0079399, SNOMED CT#263495000, SNOMED CT#125676002, Unified Medical Language System#C1711339</t>
+    <t>null#C0079399, SNOMED CT#263495000, SNOMED CT#125676002, null#C1711339</t>
   </si>
   <si>
     <t>cv-glucose-concentration-in-blood</t>
@@ -1262,19 +1262,19 @@
     <t>RV Administrative Gender</t>
   </si>
   <si>
-    <t>Unified Medical Language System#C0079399, SNOMED CT#263495000, SNOMED CT#125676002, Unified Medical Language System#C1711339, Unified Medical Language System#C1550327</t>
+    <t>null#C0079399, SNOMED CT#263495000, SNOMED CT#125676002, null#C1711339, null#C1550327</t>
   </si>
   <si>
     <t>null#C1550327</t>
   </si>
   <si>
-    <t>SNOMED CT#248153007, Unified Medical Language System#C0086582</t>
-  </si>
-  <si>
-    <t>SNOMED CT#248152002, Unified Medical Language System#C0086287</t>
-  </si>
-  <si>
-    <t>SNOMED CT#32570691000036108, Unified Medical Language System#C1704620, SNOMED CT#74964007</t>
+    <t>SNOMED CT#248153007, null#C0086582</t>
+  </si>
+  <si>
+    <t>SNOMED CT#248152002, null#C0086287</t>
+  </si>
+  <si>
+    <t>SNOMED CT#32570691000036108, null#C1704620, SNOMED CT#74964007</t>
   </si>
   <si>
     <t>rv-age-in-age-Classes</t>
@@ -1283,37 +1283,37 @@
     <t>RV Age In Age Classes</t>
   </si>
   <si>
-    <t>Unified Medical Language System#C0001779, SNOMED CT#397669002, Unified Medical Language System#C2598519, SNOMED CT#424144002, SNOMED CT#125676002, Unified Medical Language System#C0750480, Unified Medical Language System#C1709336</t>
+    <t>null#C0001779, SNOMED CT#397669002, null#C2598519, SNOMED CT#424144002, SNOMED CT#125676002, null#C0750480, null#C1709336</t>
   </si>
   <si>
     <t>integer</t>
   </si>
   <si>
-    <t>Unified Medical Language System#C0021289</t>
-  </si>
-  <si>
-    <t>Unified Medical Language System#C0021270</t>
-  </si>
-  <si>
-    <t>Unified Medical Language System#C0008100</t>
-  </si>
-  <si>
-    <t>Unified Medical Language System#C0008059</t>
-  </si>
-  <si>
-    <t>Unified Medical Language System#C0205653</t>
-  </si>
-  <si>
-    <t>Unified Medical Language System#C0001675</t>
-  </si>
-  <si>
-    <t>Unified Medical Language System#C0205847</t>
-  </si>
-  <si>
-    <t>Unified Medical Language System#C0001792</t>
-  </si>
-  <si>
-    <t>Unified Medical Language System#C0001795</t>
+    <t>null#C0021289</t>
+  </si>
+  <si>
+    <t>null#C0021270</t>
+  </si>
+  <si>
+    <t>null#C0008100</t>
+  </si>
+  <si>
+    <t>null#C0008059</t>
+  </si>
+  <si>
+    <t>null#C0205653</t>
+  </si>
+  <si>
+    <t>null#C0001675</t>
+  </si>
+  <si>
+    <t>null#C0205847</t>
+  </si>
+  <si>
+    <t>null#C0001792</t>
+  </si>
+  <si>
+    <t>null#C0001795</t>
   </si>
   <si>
     <t>rv-age-in-months</t>
@@ -1322,7 +1322,7 @@
     <t>RV Age In Months</t>
   </si>
   <si>
-    <t>Unified Medical Language System#C0001779, SNOMED CT#397669002, Unified Medical Language System#C2598519, SNOMED CT#424144002, SNOMED CT#125676002, Unified Medical Language System#C0750480, SNOMED CT#246205007</t>
+    <t>null#C0001779, SNOMED CT#397669002, null#C2598519, SNOMED CT#424144002, SNOMED CT#125676002, null#C0750480, SNOMED CT#246205007</t>
   </si>
   <si>
     <t>rv-age-in-years</t>
@@ -1346,7 +1346,7 @@
     <t>RV Body Height</t>
   </si>
   <si>
-    <t>Unified Medical Language System#C0003188, SNOMED CT#1153637007, SNOMED CT#125676002, SNOMED CT#246205007</t>
+    <t>null#C0003188, SNOMED CT#1153637007, SNOMED CT#125676002, SNOMED CT#246205007</t>
   </si>
   <si>
     <t>rv-body-weight</t>
@@ -1355,7 +1355,7 @@
     <t>RV Body Weight</t>
   </si>
   <si>
-    <t>Unified Medical Language System#C0003188, SNOMED CT#27113001, SNOMED CT#125676002, SNOMED CT#246205007</t>
+    <t>null#C0003188, SNOMED CT#27113001, SNOMED CT#125676002, SNOMED CT#246205007</t>
   </si>
   <si>
     <t>rv-creatinine-mass-concentration-in-serum-or-plasma</t>

--- a/output/observations-summary.xlsx
+++ b/output/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1969" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1969" uniqueCount="472">
   <si>
     <t>Profile</t>
   </si>
@@ -1266,6 +1266,9 @@
   </si>
   <si>
     <t>null#C1550327</t>
+  </si>
+  <si>
+    <t>CodeableConcept, integer</t>
   </si>
   <si>
     <t>SNOMED CT#248153007, null#C0086582</t>
@@ -6767,7 +6770,7 @@
         <v>14</v>
       </c>
       <c r="H149" t="s" s="2">
-        <v>17</v>
+        <v>418</v>
       </c>
       <c r="I149" t="s" s="2">
         <v>18</v>
@@ -6776,7 +6779,7 @@
         <v>14</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="150">
@@ -6802,7 +6805,7 @@
         <v>14</v>
       </c>
       <c r="H150" t="s" s="2">
-        <v>17</v>
+        <v>418</v>
       </c>
       <c r="I150" t="s" s="2">
         <v>18</v>
@@ -6811,7 +6814,7 @@
         <v>14</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="151">
@@ -6837,7 +6840,7 @@
         <v>14</v>
       </c>
       <c r="H151" t="s" s="2">
-        <v>17</v>
+        <v>418</v>
       </c>
       <c r="I151" t="s" s="2">
         <v>18</v>
@@ -6846,18 +6849,18 @@
         <v>14</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C152" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D152" t="s" s="2">
         <v>14</v>
@@ -6889,7 +6892,7 @@
         <v>14</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C153" t="s" s="2">
         <v>14</v>
@@ -6907,7 +6910,7 @@
         <v>14</v>
       </c>
       <c r="H153" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="I153" t="s" s="2">
         <v>18</v>
@@ -6916,7 +6919,7 @@
         <v>14</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="154">
@@ -6924,7 +6927,7 @@
         <v>14</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C154" t="s" s="2">
         <v>14</v>
@@ -6951,7 +6954,7 @@
         <v>14</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="155">
@@ -6959,7 +6962,7 @@
         <v>14</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C155" t="s" s="2">
         <v>14</v>
@@ -6986,7 +6989,7 @@
         <v>14</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="156">
@@ -6994,7 +6997,7 @@
         <v>14</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C156" t="s" s="2">
         <v>14</v>
@@ -7021,7 +7024,7 @@
         <v>14</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="157">
@@ -7029,7 +7032,7 @@
         <v>14</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C157" t="s" s="2">
         <v>14</v>
@@ -7056,7 +7059,7 @@
         <v>14</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="158">
@@ -7064,7 +7067,7 @@
         <v>14</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C158" t="s" s="2">
         <v>14</v>
@@ -7091,7 +7094,7 @@
         <v>14</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="159">
@@ -7099,7 +7102,7 @@
         <v>14</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C159" t="s" s="2">
         <v>14</v>
@@ -7126,7 +7129,7 @@
         <v>14</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="160">
@@ -7134,7 +7137,7 @@
         <v>14</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C160" t="s" s="2">
         <v>14</v>
@@ -7161,7 +7164,7 @@
         <v>14</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="161">
@@ -7169,7 +7172,7 @@
         <v>14</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C161" t="s" s="2">
         <v>14</v>
@@ -7196,18 +7199,18 @@
         <v>14</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C162" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D162" t="s" s="2">
         <v>14</v>
@@ -7236,13 +7239,13 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="B163" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="C163" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="B163" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="C163" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="D163" t="s" s="2">
         <v>14</v>
@@ -7271,10 +7274,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C164" t="s" s="2">
         <v>407</v>
@@ -7283,7 +7286,7 @@
         <v>14</v>
       </c>
       <c r="E164" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F164" t="s" s="2">
         <v>15</v>
@@ -7309,7 +7312,7 @@
         <v>14</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C165" t="s" s="2">
         <v>14</v>
@@ -7327,7 +7330,7 @@
         <v>14</v>
       </c>
       <c r="H165" t="s" s="2">
-        <v>17</v>
+        <v>418</v>
       </c>
       <c r="I165" t="s" s="2">
         <v>18</v>
@@ -7336,7 +7339,7 @@
         <v>14</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="166">
@@ -7344,7 +7347,7 @@
         <v>14</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C166" t="s" s="2">
         <v>14</v>
@@ -7362,7 +7365,7 @@
         <v>14</v>
       </c>
       <c r="H166" t="s" s="2">
-        <v>17</v>
+        <v>418</v>
       </c>
       <c r="I166" t="s" s="2">
         <v>18</v>
@@ -7371,18 +7374,18 @@
         <v>14</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C167" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D167" t="s" s="2">
         <v>14</v>
@@ -7411,13 +7414,13 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C168" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D168" t="s" s="2">
         <v>14</v>
@@ -7446,19 +7449,19 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C169" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D169" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E169" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F169" t="s" s="2">
         <v>15</v>
@@ -7481,19 +7484,19 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C170" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D170" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E170" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F170" t="s" s="2">
         <v>15</v>
@@ -7516,13 +7519,13 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C171" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D171" t="s" s="2">
         <v>14</v>
@@ -7551,19 +7554,19 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C172" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D172" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E172" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F172" t="s" s="2">
         <v>15</v>
@@ -7586,10 +7589,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C173" t="s" s="2">
         <v>404</v>
@@ -7621,13 +7624,13 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C174" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D174" t="s" s="2">
         <v>14</v>
@@ -7656,10 +7659,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C175" t="s" s="2">
         <v>407</v>
@@ -7694,7 +7697,7 @@
         <v>14</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C176" t="s" s="2">
         <v>14</v>
@@ -7712,7 +7715,7 @@
         <v>14</v>
       </c>
       <c r="H176" t="s" s="2">
-        <v>17</v>
+        <v>418</v>
       </c>
       <c r="I176" t="s" s="2">
         <v>18</v>
@@ -7721,7 +7724,7 @@
         <v>14</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="177">
@@ -7729,7 +7732,7 @@
         <v>14</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C177" t="s" s="2">
         <v>14</v>
@@ -7747,7 +7750,7 @@
         <v>14</v>
       </c>
       <c r="H177" t="s" s="2">
-        <v>17</v>
+        <v>418</v>
       </c>
       <c r="I177" t="s" s="2">
         <v>18</v>
@@ -7756,7 +7759,7 @@
         <v>14</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="178">
@@ -7764,7 +7767,7 @@
         <v>14</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C178" t="s" s="2">
         <v>14</v>
@@ -7782,7 +7785,7 @@
         <v>14</v>
       </c>
       <c r="H178" t="s" s="2">
-        <v>17</v>
+        <v>418</v>
       </c>
       <c r="I178" t="s" s="2">
         <v>18</v>
@@ -7796,10 +7799,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C179" t="s" s="2">
         <v>404</v>
@@ -7808,7 +7811,7 @@
         <v>14</v>
       </c>
       <c r="E179" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F179" t="s" s="2">
         <v>15</v>

--- a/output/observations-summary.xlsx
+++ b/output/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1969" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1969" uniqueCount="471">
   <si>
     <t>Profile</t>
   </si>
@@ -1266,9 +1266,6 @@
   </si>
   <si>
     <t>null#C1550327</t>
-  </si>
-  <si>
-    <t>CodeableConcept, integer</t>
   </si>
   <si>
     <t>SNOMED CT#248153007, null#C0086582</t>
@@ -6770,16 +6767,16 @@
         <v>14</v>
       </c>
       <c r="H149" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I149" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J149" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K149" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="I149" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J149" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K149" t="s" s="2">
-        <v>419</v>
       </c>
     </row>
     <row r="150">
@@ -6805,7 +6802,7 @@
         <v>14</v>
       </c>
       <c r="H150" t="s" s="2">
-        <v>418</v>
+        <v>17</v>
       </c>
       <c r="I150" t="s" s="2">
         <v>18</v>
@@ -6814,7 +6811,7 @@
         <v>14</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="151">
@@ -6840,7 +6837,7 @@
         <v>14</v>
       </c>
       <c r="H151" t="s" s="2">
-        <v>418</v>
+        <v>17</v>
       </c>
       <c r="I151" t="s" s="2">
         <v>18</v>
@@ -6849,18 +6846,18 @@
         <v>14</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="B152" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="B152" t="s" s="2">
+      <c r="C152" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="C152" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="D152" t="s" s="2">
         <v>14</v>
@@ -6892,7 +6889,7 @@
         <v>14</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C153" t="s" s="2">
         <v>14</v>
@@ -6910,16 +6907,16 @@
         <v>14</v>
       </c>
       <c r="H153" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="I153" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J153" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K153" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="I153" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J153" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K153" t="s" s="2">
-        <v>426</v>
       </c>
     </row>
     <row r="154">
@@ -6927,7 +6924,7 @@
         <v>14</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C154" t="s" s="2">
         <v>14</v>
@@ -6954,7 +6951,7 @@
         <v>14</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="155">
@@ -6962,7 +6959,7 @@
         <v>14</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C155" t="s" s="2">
         <v>14</v>
@@ -6989,7 +6986,7 @@
         <v>14</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="156">
@@ -6997,7 +6994,7 @@
         <v>14</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C156" t="s" s="2">
         <v>14</v>
@@ -7024,7 +7021,7 @@
         <v>14</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="157">
@@ -7032,7 +7029,7 @@
         <v>14</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C157" t="s" s="2">
         <v>14</v>
@@ -7059,7 +7056,7 @@
         <v>14</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="158">
@@ -7067,7 +7064,7 @@
         <v>14</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C158" t="s" s="2">
         <v>14</v>
@@ -7094,7 +7091,7 @@
         <v>14</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="159">
@@ -7102,7 +7099,7 @@
         <v>14</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C159" t="s" s="2">
         <v>14</v>
@@ -7129,7 +7126,7 @@
         <v>14</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="160">
@@ -7137,7 +7134,7 @@
         <v>14</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C160" t="s" s="2">
         <v>14</v>
@@ -7164,7 +7161,7 @@
         <v>14</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="161">
@@ -7172,7 +7169,7 @@
         <v>14</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C161" t="s" s="2">
         <v>14</v>
@@ -7199,18 +7196,18 @@
         <v>14</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="B162" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="B162" t="s" s="2">
+      <c r="C162" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="C162" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="D162" t="s" s="2">
         <v>14</v>
@@ -7239,13 +7236,13 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="B163" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="B163" t="s" s="2">
-        <v>439</v>
-      </c>
       <c r="C163" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D163" t="s" s="2">
         <v>14</v>
@@ -7274,10 +7271,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="B164" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="B164" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="C164" t="s" s="2">
         <v>407</v>
@@ -7286,7 +7283,7 @@
         <v>14</v>
       </c>
       <c r="E164" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F164" t="s" s="2">
         <v>15</v>
@@ -7312,7 +7309,7 @@
         <v>14</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C165" t="s" s="2">
         <v>14</v>
@@ -7330,16 +7327,16 @@
         <v>14</v>
       </c>
       <c r="H165" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I165" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J165" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K165" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="I165" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J165" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K165" t="s" s="2">
-        <v>419</v>
       </c>
     </row>
     <row r="166">
@@ -7347,7 +7344,7 @@
         <v>14</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C166" t="s" s="2">
         <v>14</v>
@@ -7365,7 +7362,7 @@
         <v>14</v>
       </c>
       <c r="H166" t="s" s="2">
-        <v>418</v>
+        <v>17</v>
       </c>
       <c r="I166" t="s" s="2">
         <v>18</v>
@@ -7374,18 +7371,18 @@
         <v>14</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="B167" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="B167" t="s" s="2">
+      <c r="C167" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="C167" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="D167" t="s" s="2">
         <v>14</v>
@@ -7414,13 +7411,13 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="B168" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="B168" t="s" s="2">
+      <c r="C168" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="C168" t="s" s="2">
-        <v>448</v>
       </c>
       <c r="D168" t="s" s="2">
         <v>14</v>
@@ -7449,19 +7446,19 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="B169" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="B169" t="s" s="2">
+      <c r="C169" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="C169" t="s" s="2">
+      <c r="D169" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E169" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="D169" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E169" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="F169" t="s" s="2">
         <v>15</v>
@@ -7484,19 +7481,19 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="B170" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="B170" t="s" s="2">
+      <c r="C170" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="C170" t="s" s="2">
+      <c r="D170" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E170" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="D170" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E170" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="F170" t="s" s="2">
         <v>15</v>
@@ -7519,13 +7516,13 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="B171" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="B171" t="s" s="2">
-        <v>458</v>
-      </c>
       <c r="C171" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D171" t="s" s="2">
         <v>14</v>
@@ -7554,19 +7551,19 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="B172" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="B172" t="s" s="2">
+      <c r="C172" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="D172" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E172" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="C172" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="D172" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E172" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="F172" t="s" s="2">
         <v>15</v>
@@ -7589,10 +7586,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="B173" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="B173" t="s" s="2">
-        <v>463</v>
       </c>
       <c r="C173" t="s" s="2">
         <v>404</v>
@@ -7624,13 +7621,13 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="B174" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="B174" t="s" s="2">
+      <c r="C174" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="C174" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="D174" t="s" s="2">
         <v>14</v>
@@ -7659,10 +7656,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="B175" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="B175" t="s" s="2">
-        <v>468</v>
       </c>
       <c r="C175" t="s" s="2">
         <v>407</v>
@@ -7697,7 +7694,7 @@
         <v>14</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C176" t="s" s="2">
         <v>14</v>
@@ -7715,16 +7712,16 @@
         <v>14</v>
       </c>
       <c r="H176" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I176" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J176" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K176" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="I176" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J176" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K176" t="s" s="2">
-        <v>419</v>
       </c>
     </row>
     <row r="177">
@@ -7732,7 +7729,7 @@
         <v>14</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C177" t="s" s="2">
         <v>14</v>
@@ -7750,7 +7747,7 @@
         <v>14</v>
       </c>
       <c r="H177" t="s" s="2">
-        <v>418</v>
+        <v>17</v>
       </c>
       <c r="I177" t="s" s="2">
         <v>18</v>
@@ -7759,7 +7756,7 @@
         <v>14</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="178">
@@ -7767,7 +7764,7 @@
         <v>14</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C178" t="s" s="2">
         <v>14</v>
@@ -7785,7 +7782,7 @@
         <v>14</v>
       </c>
       <c r="H178" t="s" s="2">
-        <v>418</v>
+        <v>17</v>
       </c>
       <c r="I178" t="s" s="2">
         <v>18</v>
@@ -7799,10 +7796,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="B179" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="B179" t="s" s="2">
-        <v>470</v>
       </c>
       <c r="C179" t="s" s="2">
         <v>404</v>
@@ -7811,7 +7808,7 @@
         <v>14</v>
       </c>
       <c r="E179" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F179" t="s" s="2">
         <v>15</v>

--- a/output/observations-summary.xlsx
+++ b/output/observations-summary.xlsx
@@ -7219,7 +7219,7 @@
         <v>15</v>
       </c>
       <c r="G162" t="s" s="2">
-        <v>16</v>
+        <v>175</v>
       </c>
       <c r="H162" t="s" s="2">
         <v>17</v>
@@ -7254,7 +7254,7 @@
         <v>15</v>
       </c>
       <c r="G163" t="s" s="2">
-        <v>16</v>
+        <v>175</v>
       </c>
       <c r="H163" t="s" s="2">
         <v>17</v>
